--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.367087245694445</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -603,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>158.056338028169</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:54</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:54</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:35:58</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,38 +642,40 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-1.505917449143519</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,33 +683,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:35:58</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:11:58</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:11:58</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:22</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,42 +718,44 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.5267507824768519</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -759,33 +763,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>74.6056338028169</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:22</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:22</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:22</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:59</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -794,17 +798,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -812,26 +816,26 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-5.431934663541667</v>
+        <v>-0.6193075117361111</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>250894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -839,33 +843,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:59</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:51:59</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:51:59</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:50:16</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>44262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -874,44 +878,42 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-4.534908059467592</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251225</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -919,33 +921,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:50:16</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 12:46:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -954,39 +956,37 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-4.545324726134259</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1006,22 +1006,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:16</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:16</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:31</t>
+          <t>2025-05-12 10:39:51</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1057,10 +1057,7 @@
       <c r="R8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="S8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1081,22 +1078,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:31</t>
+          <t>2025-05-12 10:39:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:31</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:31</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:47</t>
+          <t>2025-05-12 12:59:07</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1132,10 +1129,7 @@
       <c r="R9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="S9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1156,22 +1150,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:47</t>
+          <t>2025-05-12 12:59:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:31:47</t>
+          <t>2025-05-12 13:14:07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:31:47</t>
+          <t>2025-05-12 13:14:07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:33</t>
+          <t>2025-05-13 07:45:54</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1207,10 +1201,7 @@
       <c r="R10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="S10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1231,22 +1222,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:33</t>
+          <t>2025-05-13 07:45:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:33</t>
+          <t>2025-05-13 08:04:54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:33</t>
+          <t>2025-05-13 08:04:54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:36</t>
+          <t>2025-05-13 08:18:56</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1282,10 +1273,7 @@
       <c r="R11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,22 +1294,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:36</t>
+          <t>2025-05-13 08:18:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:36</t>
+          <t>2025-05-13 08:33:56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:36</t>
+          <t>2025-05-13 08:33:56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:13</t>
+          <t>2025-05-13 08:44:33</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1357,10 +1345,7 @@
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,22 +1366,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:13</t>
+          <t>2025-05-13 08:44:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:13</t>
+          <t>2025-05-13 08:59:33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:13</t>
+          <t>2025-05-13 08:59:33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-13 11:48:36</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1432,10 +1417,7 @@
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="S13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,22 +1438,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-13 11:48:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:16</t>
+          <t>2025-05-13 12:07:36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:16</t>
+          <t>2025-05-13 12:07:36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-13 13:48:21</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1507,10 +1489,7 @@
       <c r="R14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="S14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,22 +1510,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-13 13:48:21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:00</t>
+          <t>2025-05-13 14:07:21</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:00</t>
+          <t>2025-05-13 14:07:21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:36:58</t>
+          <t>2025-05-14 08:19:18</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1582,10 +1561,7 @@
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="S15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,22 +1582,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:36:58</t>
+          <t>2025-05-14 08:19:18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:51:58</t>
+          <t>2025-05-14 08:34:18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:51:58</t>
+          <t>2025-05-14 08:34:18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:59</t>
+          <t>2025-05-14 09:41:19</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1657,10 +1633,7 @@
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="S16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1681,22 +1654,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:59</t>
+          <t>2025-05-14 09:41:19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-15 07:13:59</t>
+          <t>2025-05-14 09:56:19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-15 07:13:59</t>
+          <t>2025-05-14 09:56:19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-15 11:37:54</t>
+          <t>2025-05-14 14:20:15</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1732,10 +1705,7 @@
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="S17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,7 +2703,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251477</v>
+        <v>245350</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2741,10 +2711,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>434.768115942029</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2753,21 +2723,21 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29999</v>
+        <v>27970</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2776,44 +2746,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>-5.614422302743056</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245350</v>
+        <v>250641</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2821,33 +2783,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>405.3623188405797</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:46</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:46</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:07</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>27970</v>
+        <v>5116</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2856,11 +2818,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2873,22 +2835,19 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>7</v>
+      <c r="S32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>250641</v>
+        <v>251463</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2896,33 +2855,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
-        <v>74.14492753623189</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:07</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 07:20:07</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 07:20:07</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:16</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5116</v>
+        <v>6967</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2935,7 +2894,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2948,22 +2907,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2</v>
+      <c r="S33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251463</v>
+        <v>251462</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2974,30 +2930,30 @@
         <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9710144927536</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:16</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:16</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:16</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 10:50:14</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3010,7 +2966,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3029,16 +2985,13 @@
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251462</v>
+        <v>251562</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3046,33 +2999,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>90.23188405797102</v>
+        <v>118</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 10:50:14</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:14</t>
+          <t>2025-05-13 13:35:42</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:14</t>
+          <t>2025-05-13 13:35:42</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:28</t>
+          <t>2025-05-14 07:33:42</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6226</v>
+        <v>8142</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3098,22 +3051,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251562</v>
+        <v>251251</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3121,33 +3071,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>118</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:28</t>
+          <t>2025-05-14 07:33:42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:28</t>
+          <t>2025-05-14 08:18:42</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:28</t>
+          <t>2025-05-14 08:18:42</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-15 07:18:28</t>
+          <t>2025-05-14 12:08:33</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>8142</v>
+        <v>15860</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3156,11 +3106,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3173,56 +3123,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
+      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251251</v>
+        <v>251651</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>229.8550724637681</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-15 07:18:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-15 08:03:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-15 08:03:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-15 11:53:20</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>15860</v>
+        <v>46830</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3231,14 +3178,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39755</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3248,7 +3198,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3258,12 +3208,12 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251396</v>
+        <v>244204</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3271,33 +3221,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>37.08196721311475</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2262</v>
+        <v>3472</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3310,40 +3260,32 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.390755208333333</v>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>-2.349362477233796</v>
-      </c>
-      <c r="T38" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251651</v>
+        <v>251346</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3351,33 +3293,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
-        <v>767.7049180327868</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:04</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:04</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:47</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>46830</v>
+        <v>3859</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3386,17 +3328,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3406,22 +3345,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>4</v>
+      <c r="S39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>244204</v>
+        <v>251761</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3429,33 +3365,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>56.91803278688525</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:47</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:47</t>
+          <t>2025-05-13 08:04:53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:47</t>
+          <t>2025-05-13 08:04:53</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:42</t>
+          <t>2025-05-13 11:42:34</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3472</v>
+        <v>13279</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3481,22 +3417,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>4</v>
+      <c r="S40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251346</v>
+        <v>251374</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3504,33 +3437,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>63.26229508196721</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:42</t>
+          <t>2025-05-13 11:42:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:42</t>
+          <t>2025-05-13 12:13:34</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:42</t>
+          <t>2025-05-13 12:13:34</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:58</t>
+          <t>2025-05-14 11:41:49</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3859</v>
+        <v>27343</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3539,11 +3472,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3556,22 +3489,19 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2</v>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251761</v>
+        <v>245089</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3579,33 +3509,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>217.6885245901639</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:58</t>
+          <t>2025-05-14 11:41:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:58</t>
+          <t>2025-05-14 12:27:49</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:58</t>
+          <t>2025-05-14 12:27:49</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:39</t>
+          <t>2025-05-20 13:58:43</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>13279</v>
+        <v>122665</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3614,14 +3544,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3631,56 +3561,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2</v>
+      <c r="S42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251374</v>
+        <v>251371</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>448.2459016393443</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:39</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:39</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>27343</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3689,73 +3616,80 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-15.32430555555556</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245089</v>
+        <v>251050</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D44" t="n">
-        <v>2010.901639344262</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-14 14:03:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-14 14:03:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-21 07:34:48</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3764,39 +3698,44 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N44" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251050</v>
+        <v>251054</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3804,29 +3743,29 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3865,10 +3804,10 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.490972222222222</v>
       </c>
       <c r="T45" t="n">
         <v>2</v>
@@ -3876,7 +3815,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251054</v>
+        <v>251081</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3884,33 +3823,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3923,13 +3862,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="n">
-        <v>39747</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3937,18 +3878,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-16.60723787167824</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
@@ -3956,7 +3897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251371</v>
+        <v>251519</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3964,33 +3905,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4003,42 +3944,32 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S47" s="1" t="n">
-        <v>-15.60902777777778</v>
-      </c>
-      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251081</v>
+        <v>251594</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4046,33 +3977,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>42.42253521126761</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:25</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3012</v>
+        <v>6466</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4081,46 +4012,36 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S48" s="1" t="n">
-        <v>-19.38501564945602</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251519</v>
+        <v>251109</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4128,33 +4049,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D49" t="n">
-        <v>185.5633802816901</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:25</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:19:25</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:19:25</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:59</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13175</v>
+        <v>18928</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4163,11 +4084,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4180,22 +4101,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>7</v>
+      <c r="S49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251594</v>
+        <v>251467</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4203,33 +4121,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D50" t="n">
-        <v>91.07042253521126</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:59</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:59</t>
+          <t>2025-05-13 13:12:38</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:59</t>
+          <t>2025-05-13 13:12:38</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:03</t>
+          <t>2025-05-13 14:40:20</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6466</v>
+        <v>6226</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4242,7 +4160,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4255,56 +4173,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4</v>
+      <c r="S50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251109</v>
+        <v>251782</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>266.5915492957747</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:03</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:03</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:38</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>18928</v>
+        <v>12073</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4313,73 +4228,78 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251467</v>
+        <v>251340</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>87.69014084507042</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:38</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:27:38</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:27:38</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:20</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6226</v>
+        <v>32800</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4388,14 +4308,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4405,22 +4325,19 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1</v>
+      <c r="S52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251227</v>
+        <v>243569</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4428,33 +4345,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4467,40 +4384,32 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
       </c>
-      <c r="N53" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.5552734375</v>
-      </c>
-      <c r="S53" s="1" t="n">
-        <v>-2.513194444444444</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251782</v>
+        <v>245623</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4508,33 +4417,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>170.0422535211268</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12073</v>
+        <v>26419</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4543,44 +4452,36 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S54" s="1" t="n">
-        <v>-0.3097515649421296</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251340</v>
+        <v>243335</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4588,33 +4489,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>461.9718309859155</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>32800</v>
+        <v>33004</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4623,14 +4524,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4640,22 +4541,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>4</v>
+      <c r="S55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>243569</v>
+        <v>251750</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4666,30 +4564,30 @@
         <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>36.63380281690141</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-12 08:18:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2601</v>
+        <v>3891</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4705,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4715,22 +4613,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2</v>
+      <c r="S56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>245623</v>
+        <v>251987</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4738,33 +4633,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
-        <v>372.0985915492957</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:18:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:44</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26419</v>
+        <v>210526</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4773,14 +4668,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4790,82 +4685,86 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2</v>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>243335</v>
+        <v>251706</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>464.8450704225352</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>33004</v>
+        <v>3200</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4875,46 +4774,46 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251750</v>
+        <v>251391</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>54.80281690140845</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:35</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:35</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:23</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3891</v>
+        <v>5865</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4923,73 +4822,78 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-1.4095096371875</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251987</v>
+        <v>251456</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
-        <v>2965.154929577465</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:23</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:23</t>
+          <t>2025-05-08 10:34:41</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:23</t>
+          <t>2025-05-08 10:34:41</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-22 10:19:32</t>
+          <t>2025-05-08 13:38:20</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>210526</v>
+        <v>8999</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4998,31 +4902,36 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-2.568296485266204</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-2.568296485266204</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5030,7 +4939,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251391</v>
+        <v>251626</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5038,33 +4947,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>119.6938775510204</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 13:38:20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-08 14:13:20</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-08 14:13:20</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-09 10:28:26</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5865</v>
+        <v>12500</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5077,32 +4986,27 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-1.4095096371875</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5110,7 +5014,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251456</v>
+        <v>251164</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5118,33 +5022,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>183.6530612244898</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-09 10:28:26</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:34:41</t>
+          <t>2025-05-09 11:18:26</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:34:41</t>
+          <t>2025-05-09 11:18:26</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:20</t>
+          <t>2025-05-09 14:42:31</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8999</v>
+        <v>10000</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5157,13 +5061,13 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
       <c r="N62" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5171,26 +5075,26 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-2.568296485266204</v>
+        <v>-2.612868480729166</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-2.568296485266204</v>
+        <v>-2.612868480729166</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251626</v>
+        <v>251373</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5198,33 +5102,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>255.1020408163265</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:20</t>
+          <t>2025-05-09 14:42:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:13:20</t>
+          <t>2025-05-12 07:22:31</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:13:20</t>
+          <t>2025-05-12 07:22:31</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:26</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>12500</v>
+        <v>17094</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5237,7 +5141,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5250,7 +5154,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5260,12 +5164,12 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251164</v>
+        <v>250670</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5273,33 +5177,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>204.0816326530612</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:26</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:18:26</t>
+          <t>2025-05-12 13:53:23</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:18:26</t>
+          <t>2025-05-12 13:53:23</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:31</t>
+          <t>2025-05-12 14:25:17</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>10000</v>
+        <v>1563</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5308,44 +5212,39 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
-      </c>
-      <c r="N64" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-2.612868480729166</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-2.612868480729166</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251373</v>
+        <v>251247</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5353,33 +5252,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D65" t="n">
-        <v>348.8571428571428</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:31</t>
+          <t>2025-05-12 14:25:17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-13 07:12:17</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-13 07:12:17</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-14 08:21:57</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>17094</v>
+        <v>26934</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5388,11 +5287,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5405,7 +5304,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5415,46 +5314,46 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251564</v>
+        <v>251395</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D66" t="n">
-        <v>55.44897959183673</v>
+        <v>35.34375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:23</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:23</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:50</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2717</v>
+        <v>2262</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5467,69 +5366,74 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-0.3321831597222222</v>
       </c>
       <c r="T66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>250670</v>
+        <v>251396</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>31.89795918367347</v>
+        <v>35.34375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:50</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:50</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:50</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:05:44</t>
+          <t>2025-05-07 08:48:41</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1563</v>
+        <v>2262</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5538,73 +5442,78 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-0.3671440972222222</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-0.3671440972222222</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251247</v>
+        <v>251477</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D68" t="n">
-        <v>549.6734693877551</v>
+        <v>468.734375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:05:44</t>
+          <t>2025-05-07 08:48:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:44</t>
+          <t>2025-05-07 09:24:41</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:44</t>
+          <t>2025-05-07 09:24:41</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 10:02:24</t>
+          <t>2025-05-08 09:13:25</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>26934</v>
+        <v>29999</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5613,31 +5522,36 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N68" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-1.384320746527778</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-1.384320746527778</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -5645,7 +5559,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251548</v>
+        <v>251227</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5653,33 +5567,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 09:13:25</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 09:30:25</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 09:30:25</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:54</t>
+          <t>2025-05-08 09:30:25</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5688,17 +5602,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
         <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N69" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5706,26 +5620,26 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.320182291666667</v>
+        <v>-2.396126302083333</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-0.4485460069444445</v>
+        <v>-2.396126302083333</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5733,33 +5647,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:54</t>
+          <t>2025-05-08 09:30:25</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 11:17:54</t>
+          <t>2025-05-08 10:00:25</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 11:17:54</t>
+          <t>2025-05-08 10:00:25</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-07 13:07:22</t>
+          <t>2025-05-08 13:27:19</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5768,14 +5682,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N70" t="n">
         <v>39749</v>
@@ -5790,22 +5704,22 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-0.5467881944444445</v>
+        <v>-1.56064453125</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-0.5467881944444445</v>
+        <v>-1.56064453125</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251395</v>
+        <v>250923</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5816,30 +5730,30 @@
         <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>35.34375</v>
+        <v>109.46875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 13:07:22</t>
+          <t>2025-05-08 13:27:19</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 13:39:22</t>
+          <t>2025-05-08 13:59:19</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 13:39:22</t>
+          <t>2025-05-08 13:59:19</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 14:14:43</t>
+          <t>2025-05-09 07:48:47</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5848,14 +5762,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N71" t="n">
         <v>39749</v>
@@ -5870,22 +5784,22 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.5935546875</v>
+        <v>-2.325553385416667</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-0.5935546875</v>
+        <v>-2.325553385416667</v>
       </c>
       <c r="T71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251546</v>
+        <v>251564</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5893,33 +5807,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
-        <v>101.03125</v>
+        <v>42.453125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:14:43</t>
+          <t>2025-05-09 07:48:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:31:43</t>
+          <t>2025-05-09 08:22:47</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:31:43</t>
+          <t>2025-05-09 08:22:47</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 08:12:45</t>
+          <t>2025-05-09 09:05:15</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6466</v>
+        <v>2717</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5932,7 +5846,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5945,7 +5859,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5955,12 +5869,12 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>245275</v>
+        <v>251546</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5968,33 +5882,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>379.59375</v>
+        <v>101.03125</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:12:45</t>
+          <t>2025-05-09 09:05:15</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:45:45</t>
+          <t>2025-05-09 09:24:15</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:45:45</t>
+          <t>2025-05-09 09:24:15</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 07:05:20</t>
+          <t>2025-05-09 11:05:16</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>24294</v>
+        <v>6466</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6003,11 +5917,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6020,7 +5934,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -6035,7 +5949,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251809</v>
+        <v>245275</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6043,33 +5957,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>135.640625</v>
+        <v>379.59375</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:05:20</t>
+          <t>2025-05-09 11:05:16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:20</t>
+          <t>2025-05-09 11:38:16</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:20</t>
+          <t>2025-05-09 11:38:16</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:59</t>
+          <t>2025-05-12 09:57:52</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>8681</v>
+        <v>24294</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6078,11 +5992,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6095,7 +6009,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -6105,12 +6019,12 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251283</v>
+        <v>251809</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6118,33 +6032,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>11.78125</v>
+        <v>135.640625</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:59</t>
+          <t>2025-05-12 09:57:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:59</t>
+          <t>2025-05-12 10:32:52</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:59</t>
+          <t>2025-05-12 10:32:52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:26:45</t>
+          <t>2025-05-12 12:48:30</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>754</v>
+        <v>8681</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6153,11 +6067,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6170,7 +6084,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -6180,12 +6094,12 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251061</v>
+        <v>251283</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6193,33 +6107,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>374.953125</v>
+        <v>11.78125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:26:45</t>
+          <t>2025-05-12 12:48:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:45</t>
+          <t>2025-05-12 13:07:30</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:45</t>
+          <t>2025-05-12 13:07:30</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:56:43</t>
+          <t>2025-05-12 13:19:17</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>23997</v>
+        <v>754</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6245,7 +6159,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6260,7 +6174,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251252</v>
+        <v>251061</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6271,30 +6185,30 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>235.671875</v>
+        <v>374.953125</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 08:56:43</t>
+          <t>2025-05-12 13:19:17</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:11:43</t>
+          <t>2025-05-12 13:34:17</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:11:43</t>
+          <t>2025-05-12 13:34:17</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:07:23</t>
+          <t>2025-05-13 11:49:15</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>15083</v>
+        <v>23997</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6320,7 +6234,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6335,7 +6249,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>245090</v>
+        <v>251252</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6343,33 +6257,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>8073.71875</v>
+        <v>235.671875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:07:23</t>
+          <t>2025-05-13 11:49:15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:23</t>
+          <t>2025-05-13 12:04:15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:23</t>
+          <t>2025-05-13 12:04:15</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-06-04 12:13:06</t>
+          <t>2025-05-14 07:59:55</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>516718</v>
+        <v>15083</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6378,14 +6292,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6395,7 +6309,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6410,74 +6324,67 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251706</v>
+        <v>245090</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
-        <v>50.79365079365079</v>
+        <v>8073.71875</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 07:59:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 08:31:55</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 08:31:55</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-06 07:05:38</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3200</v>
+        <v>516718</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6487,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6638,10 +6545,7 @@
       <c r="R81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" t="n">
+      <c r="S81" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6713,10 +6617,7 @@
       <c r="R82" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
+      <c r="S82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6788,10 +6689,7 @@
       <c r="R83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T83" t="n">
+      <c r="S83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6863,10 +6761,7 @@
       <c r="R84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
+      <c r="S84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6938,10 +6833,7 @@
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
+      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,10 +6905,7 @@
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
+      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7088,10 +6977,7 @@
       <c r="R87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
+      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>74.6056338028169</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.367087245694445</v>
+        <v>-1.382741347905093</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251547</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>184.9154929577465</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:20:04</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>13129</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -660,56 +660,56 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.505917449143519</v>
+        <v>-1.51394581056713</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:20:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 12:45:04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 12:45:04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 14:18:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,17 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -736,18 +736,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.5267507824768519</v>
+        <v>-0.5963570127546297</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -755,41 +755,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2816901408451</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 14:18:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 14:43:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 14:43:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-09 11:50:57</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8398</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,17 +798,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -816,18 +818,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6193075117361111</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -835,41 +837,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250894</v>
+        <v>251561</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>623.4084507042254</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>44262</v>
+        <v>5435</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -878,17 +880,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -898,56 +897,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
+      <c r="S6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251566</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>158.056338028169</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:16</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>6889</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,14 +956,11 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39755</v>
-      </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
@@ -976,56 +969,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
+      <c r="S7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>235572</v>
+        <v>251846</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>140.2535211267606</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:51</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9958</v>
+        <v>11392</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,11 +1024,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1051,53 +1041,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251475</v>
+        <v>251424</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2676056338028</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:51</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:07</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8681</v>
+        <v>9662</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1123,7 +1113,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1135,41 +1125,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251743</v>
+        <v>244204</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>151.7746478873239</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:07</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:07</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:07</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:54</t>
+          <t>2025-05-12 13:29:49</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>10776</v>
+        <v>3472</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1195,7 +1185,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1207,41 +1197,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244023</v>
+        <v>250819</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>14.04225352112676</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:54</t>
+          <t>2025-05-12 13:29:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:54</t>
+          <t>2025-05-12 13:59:49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:54</t>
+          <t>2025-05-12 13:59:49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:56</t>
+          <t>2025-05-13 08:19:36</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>997</v>
+        <v>8527</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1267,53 +1257,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251245</v>
+        <v>251246</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>10.61971830985915</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:56</t>
+          <t>2025-05-13 08:19:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:56</t>
+          <t>2025-05-13 08:39:36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:56</t>
+          <t>2025-05-13 08:39:36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:33</t>
+          <t>2025-05-13 11:56:21</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>754</v>
+        <v>12002</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1339,7 +1329,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1351,41 +1341,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251246</v>
+        <v>251374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>169.0422535211268</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:33</t>
+          <t>2025-05-13 11:56:21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:33</t>
+          <t>2025-05-13 12:21:21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:33</t>
+          <t>2025-05-13 12:21:21</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:36</t>
+          <t>2025-05-14 11:49:36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12002</v>
+        <v>27343</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1398,7 +1388,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1411,7 +1401,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1423,41 +1413,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251580</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7464788732394</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:36</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:36</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:36</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:21</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7153</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1466,70 +1456,78 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
+      <c r="N14" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="T14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251260</v>
+        <v>251505</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9577464788732</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:21</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:21</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:21</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:18</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>9369</v>
+        <v>14255</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1538,11 +1536,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1555,53 +1553,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251249</v>
+        <v>251397</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D16" t="n">
-        <v>67.01408450704226</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:18</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:18</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:18</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:19</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4758</v>
+        <v>5435</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1610,11 +1608,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1627,53 +1625,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251795</v>
+        <v>244354</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D17" t="n">
-        <v>263.9295774647887</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:19</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:19</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:19</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 14:20:15</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>4310</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1682,11 +1680,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1699,53 +1697,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251561</v>
+        <v>251346</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D18" t="n">
-        <v>89.09836065573771</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 14:13:57</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 14:13:57</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:04:05</t>
+          <t>2025-05-13 07:24:07</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5435</v>
+        <v>3859</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1758,7 +1756,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1771,56 +1769,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>8</v>
+      <c r="S18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251283</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>34.5</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:04:05</t>
+          <t>2025-05-13 07:24:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:24:05</t>
+          <t>2025-05-13 07:58:37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:24:05</t>
+          <t>2025-05-13 07:58:37</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:46</t>
+          <t>2025-05-13 08:12:19</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>754</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1829,78 +1824,70 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4567850637499999</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.4567850637499999</v>
-      </c>
-      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251742</v>
+        <v>251247</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D20" t="n">
-        <v>134.8524590163935</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:46</t>
+          <t>2025-05-13 08:12:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:22:46</t>
+          <t>2025-05-13 08:42:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:22:46</t>
+          <t>2025-05-13 08:42:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:37:37</t>
+          <t>2025-05-14 08:52:32</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8226</v>
+        <v>26934</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1909,74 +1896,66 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.567793715844907</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-1.567793715844907</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251229</v>
+        <v>251795</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D21" t="n">
-        <v>307.1967213114754</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:37:37</t>
+          <t>2025-05-14 08:52:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:07:37</t>
+          <t>2025-05-14 09:23:02</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:07:37</t>
+          <t>2025-05-14 09:23:02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:14:49</t>
+          <t>2025-05-15 07:03:44</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1998,71 +1977,61 @@
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
+      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251259</v>
+        <v>251455</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>81.9672131147541</v>
+        <v>82.765625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:14:49</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:49:49</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:49:49</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5000</v>
+        <v>5297</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2075,69 +2044,74 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="N22" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251464</v>
+        <v>251371</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>117.2622950819672</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:47</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:47</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:54:02</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7153</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2155,64 +2129,71 @@
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-13.37275390625</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-13.37275390625</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251846</v>
+        <v>251477</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>186.7540983606557</v>
+        <v>468.734375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:54:02</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:02</t>
+          <t>2025-05-07 09:28:45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:02</t>
+          <t>2025-05-07 09:28:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:48</t>
+          <t>2025-05-08 09:17:30</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11392</v>
+        <v>29999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2221,73 +2202,78 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-1.387152777777778</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-1.387152777777778</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>244355</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>70.65573770491804</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:48</t>
+          <t>2025-05-08 09:17:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:00:48</t>
+          <t>2025-05-08 09:36:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:00:48</t>
+          <t>2025-05-08 09:36:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:27</t>
+          <t>2025-05-08 11:25:58</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4310</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2296,73 +2282,78 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-1.4763671875</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-1.4763671875</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251424</v>
+        <v>251742</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>158.3934426229508</v>
+        <v>128.53125</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:27</t>
+          <t>2025-05-08 11:25:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:27</t>
+          <t>2025-05-08 11:57:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:27</t>
+          <t>2025-05-08 11:57:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:51</t>
+          <t>2025-05-08 14:06:30</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9662</v>
+        <v>8226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2380,64 +2371,69 @@
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="N26" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-1.587847222222222</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-1.587847222222222</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251566</v>
+        <v>251395</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>112.9344262295082</v>
+        <v>35.34375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:51</t>
+          <t>2025-05-08 14:06:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:51</t>
+          <t>2025-05-08 14:25:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:51</t>
+          <t>2025-05-08 14:25:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:47</t>
+          <t>2025-05-09 07:00:50</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6889</v>
+        <v>2262</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2450,69 +2446,74 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-2.292252604166667</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-2.292252604166667</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251485</v>
+        <v>251396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>78.81967213114754</v>
+        <v>35.34375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:47</t>
+          <t>2025-05-09 07:00:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:47</t>
+          <t>2025-05-09 07:15:50</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:47</t>
+          <t>2025-05-09 07:15:50</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:36</t>
+          <t>2025-05-09 07:51:11</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4808</v>
+        <v>2262</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2525,69 +2526,74 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-2.327213541666667</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-2.327213541666667</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251557</v>
+        <v>251548</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>109.9180327868852</v>
+        <v>206.90625</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:36</t>
+          <t>2025-05-09 07:51:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:36</t>
+          <t>2025-05-09 08:10:11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:36</t>
+          <t>2025-05-09 08:10:11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 14:31:31</t>
+          <t>2025-05-09 11:37:05</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6705</v>
+        <v>13242</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2600,69 +2606,74 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-2.484092881944445</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-2.484092881944445</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251062</v>
+        <v>251564</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>370.8852459016393</v>
+        <v>42.453125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:31:31</t>
+          <t>2025-05-09 11:37:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:31</t>
+          <t>2025-05-09 11:54:05</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:31</t>
+          <t>2025-05-09 11:54:05</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-14 13:22:24</t>
+          <t>2025-05-09 12:36:32</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>22624</v>
+        <v>2717</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2671,11 +2682,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2688,7 +2699,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
@@ -2698,46 +2709,46 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>245350</v>
+        <v>251546</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>405.3623188405797</v>
+        <v>101.03125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 12:36:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 12:55:32</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 12:55:32</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-09 14:36:34</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>27970</v>
+        <v>6466</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2746,11 +2757,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2763,53 +2774,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>250641</v>
+        <v>251519</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>74.14492753623189</v>
+        <v>205.859375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-09 14:36:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-09 14:57:34</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-09 14:57:34</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-12 10:23:26</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5116</v>
+        <v>13175</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2822,7 +2836,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2835,53 +2849,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S32" t="n">
-        <v>2</v>
+      <c r="S32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251463</v>
+        <v>251475</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>100.9710144927536</v>
+        <v>135.640625</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-12 10:23:26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-12 10:42:26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-12 10:42:26</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-12 12:58:04</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6967</v>
+        <v>8681</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2907,53 +2924,56 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S33" t="n">
-        <v>1</v>
+      <c r="S33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251462</v>
+        <v>244355</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>90.23188405797102</v>
+        <v>67.34375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-12 12:58:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-12 13:13:04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-12 13:13:04</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-12 14:20:25</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6226</v>
+        <v>4310</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2966,7 +2986,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2979,53 +2999,56 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S34" t="n">
-        <v>1</v>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251562</v>
+        <v>251485</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>118</v>
+        <v>75.125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-12 14:20:25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:42</t>
+          <t>2025-05-12 14:37:25</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:42</t>
+          <t>2025-05-12 14:37:25</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:42</t>
+          <t>2025-05-13 07:52:32</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8142</v>
+        <v>4808</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3038,7 +3061,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3051,53 +3074,56 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S35" t="n">
-        <v>1</v>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251251</v>
+        <v>251761</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>229.8550724637681</v>
+        <v>207.484375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:42</t>
+          <t>2025-05-13 07:52:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:42</t>
+          <t>2025-05-13 08:09:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:42</t>
+          <t>2025-05-13 08:09:32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-14 12:08:33</t>
+          <t>2025-05-13 11:37:01</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>15860</v>
+        <v>13279</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3106,11 +3132,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3123,53 +3149,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S36" t="n">
-        <v>1</v>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251651</v>
+        <v>251462</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>767.7049180327868</v>
+        <v>97.28125</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 11:37:01</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 11:56:01</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 11:56:01</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 13:33:18</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>46830</v>
+        <v>6226</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3178,17 +3207,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3198,7 +3224,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3208,46 +3234,46 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>244204</v>
+        <v>251557</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>56.91803278688525</v>
+        <v>104.765625</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 13:33:18</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 13:48:18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 13:48:18</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-14 07:33:04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3472</v>
+        <v>6705</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3260,7 +3286,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3273,53 +3299,56 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S38" t="n">
-        <v>4</v>
+      <c r="S38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251346</v>
+        <v>251252</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
-        <v>63.26229508196721</v>
+        <v>235.671875</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-14 07:33:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-14 07:56:04</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-14 07:56:04</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-14 11:51:45</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3859</v>
+        <v>15083</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3328,11 +3357,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3345,53 +3374,56 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S39" t="n">
-        <v>2</v>
+      <c r="S39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251761</v>
+        <v>245089</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
-        <v>217.6885245901639</v>
+        <v>1916.640625</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-14 11:51:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:53</t>
+          <t>2025-05-14 12:25:45</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:53</t>
+          <t>2025-05-14 12:25:45</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:34</t>
+          <t>2025-05-20 12:22:23</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>13279</v>
+        <v>122665</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3400,14 +3432,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3417,53 +3449,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S40" t="n">
-        <v>2</v>
+      <c r="S40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251374</v>
+        <v>251050</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>448.2459016393443</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:34</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:13:34</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:13:34</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>27343</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3472,70 +3507,78 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245089</v>
+        <v>251054</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
-        <v>2010.901639344262</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-14 12:27:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-14 12:27:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-20 13:58:43</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3544,36 +3587,44 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251371</v>
+        <v>251081</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3581,33 +3632,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3616,18 +3667,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3636,26 +3687,26 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>39666</v>
+        <v>39750</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-15.32430555555556</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251050</v>
+        <v>245275</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3663,33 +3714,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 08:34:25</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 08:34:25</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 14:16:35</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>24294</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3698,44 +3749,36 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251054</v>
+        <v>251109</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3743,33 +3786,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 14:16:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 07:01:35</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 07:01:35</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 11:28:10</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18928</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3782,40 +3825,32 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="N45" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S45" s="1" t="n">
-        <v>-1.490972222222222</v>
-      </c>
-      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251081</v>
+        <v>251520</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3823,33 +3858,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D46" t="n">
-        <v>42.42253521126761</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 11:28:10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-13 12:48:10</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-13 12:48:10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-14 08:38:19</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3012</v>
+        <v>16340</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3858,80 +3893,70 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S46" s="1" t="n">
-        <v>-16.60723787167824</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251519</v>
+        <v>251259</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D47" t="n">
-        <v>185.5633802816901</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-08 09:52:02</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>13175</v>
+        <v>5000</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3944,7 +3969,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3957,53 +3982,56 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S47" t="n">
-        <v>7</v>
+      <c r="S47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251594</v>
+        <v>251456</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D48" t="n">
-        <v>91.07042253521126</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-08 09:52:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-08 10:57:02</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-08 10:57:02</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-08 14:00:41</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6466</v>
+        <v>8999</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4016,66 +4044,74 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
+      <c r="N48" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
+        <v>-2.583815192743056</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>-2.583815192743056</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251109</v>
+        <v>251464</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>266.5915492957747</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-08 14:00:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-08 14:40:41</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-08 14:40:41</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-09 09:06:40</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>18928</v>
+        <v>7153</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4084,11 +4120,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4101,53 +4137,56 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S49" t="n">
-        <v>2</v>
+      <c r="S49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251467</v>
+        <v>251626</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>87.69014084507042</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-09 09:06:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:38</t>
+          <t>2025-05-09 09:46:40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:38</t>
+          <t>2025-05-09 09:46:40</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 14:40:20</t>
+          <t>2025-05-09 14:01:46</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6226</v>
+        <v>12500</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4160,7 +4199,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4173,53 +4212,56 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S50" t="n">
-        <v>1</v>
+      <c r="S50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251782</v>
+        <v>251416</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
-        <v>170.0422535211268</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 14:01:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 14:41:46</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 14:41:46</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-12 10:30:47</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>12073</v>
+        <v>11222</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4228,78 +4270,76 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N51" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251340</v>
+        <v>251562</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>461.9718309859155</v>
+        <v>166.1632653061224</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 10:30:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-12 11:05:47</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-12 11:05:47</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 13:51:57</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>32800</v>
+        <v>8142</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4308,14 +4348,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4325,53 +4365,56 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S52" t="n">
-        <v>4</v>
+      <c r="S52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243569</v>
+        <v>251373</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>36.63380281690141</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 13:51:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-12 14:41:57</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-12 14:41:57</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-13 12:30:48</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2601</v>
+        <v>17094</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4380,14 +4423,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4397,53 +4440,56 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S53" t="n">
-        <v>2</v>
+      <c r="S53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>245623</v>
+        <v>251547</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>372.0985915492957</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>26419</v>
+        <v>13129</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4452,70 +4498,78 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N54" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="T54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>243335</v>
+        <v>251225</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>464.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>33004</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4531,63 +4585,71 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" t="n">
+        <v>-0.4645246478819445</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>-0.4645246478819445</v>
+      </c>
+      <c r="T55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251750</v>
+        <v>250759</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>54.80281690140845</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3891</v>
+        <v>8398</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4596,70 +4658,78 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
+        <v>-0.5570813771527778</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>-0.5570813771527778</v>
+      </c>
+      <c r="T56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251987</v>
+        <v>250894</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>2965.154929577465</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>210526</v>
+        <v>44262</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4668,15 +4738,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
         <v>76</v>
       </c>
+      <c r="N57" t="n">
+        <v>39755</v>
+      </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
@@ -4685,86 +4758,82 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S57" t="n">
-        <v>1</v>
+      <c r="S57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251706</v>
+        <v>251466</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
-        <v>50.79365079365079</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:36:36</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:36:36</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 09:55:00</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3200</v>
+        <v>5567</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4774,46 +4843,46 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251391</v>
+        <v>251465</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>119.6938775510204</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 09:55:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-12 10:12:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-12 10:12:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-12 11:39:42</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5865</v>
+        <v>6226</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4826,74 +4895,69 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-1.4095096371875</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251456</v>
+        <v>251594</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>183.6530612244898</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-12 11:39:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:34:41</t>
+          <t>2025-05-12 11:58:42</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:34:41</t>
+          <t>2025-05-12 11:58:42</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:20</t>
+          <t>2025-05-12 13:29:46</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8999</v>
+        <v>6466</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4906,74 +4970,69 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="N60" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-2.568296485266204</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-2.568296485266204</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251626</v>
+        <v>250670</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>255.1020408163265</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:20</t>
+          <t>2025-05-12 13:29:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 14:13:20</t>
+          <t>2025-05-12 13:59:46</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 14:13:20</t>
+          <t>2025-05-12 13:59:46</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:26</t>
+          <t>2025-05-12 14:21:47</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12500</v>
+        <v>1563</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4982,14 +5041,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4999,7 +5058,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -5009,46 +5068,46 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251164</v>
+        <v>251743</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>204.0816326530612</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:26</t>
+          <t>2025-05-12 14:21:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:18:26</t>
+          <t>2025-05-12 14:51:47</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:18:26</t>
+          <t>2025-05-12 14:51:47</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:31</t>
+          <t>2025-05-13 09:23:33</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>10000</v>
+        <v>10776</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5061,32 +5120,27 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-2.612868480729166</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-2.612868480729166</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
         <v>4</v>
@@ -5094,41 +5148,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251373</v>
+        <v>235572</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>348.8571428571428</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:31</t>
+          <t>2025-05-13 09:23:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-13 09:40:33</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-13 09:40:33</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-13 12:00:49</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>17094</v>
+        <v>9958</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5137,7 +5191,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5154,7 +5208,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5169,41 +5223,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>250670</v>
+        <v>251245</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>31.89795918367347</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-13 12:00:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:23</t>
+          <t>2025-05-13 12:17:49</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:23</t>
+          <t>2025-05-13 12:17:49</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:17</t>
+          <t>2025-05-13 12:28:26</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1563</v>
+        <v>754</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5212,14 +5266,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5229,7 +5283,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5239,46 +5293,46 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251247</v>
+        <v>251580</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>549.6734693877551</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:17</t>
+          <t>2025-05-13 12:28:26</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:17</t>
+          <t>2025-05-13 12:47:26</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:17</t>
+          <t>2025-05-13 12:47:26</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 08:21:57</t>
+          <t>2025-05-13 14:28:10</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>26934</v>
+        <v>7153</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5287,11 +5341,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5304,7 +5358,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5319,41 +5373,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251395</v>
+        <v>251062</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>35.34375</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-13 14:28:10</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-13 14:47:10</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-13 14:47:10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-14 12:05:49</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2262</v>
+        <v>22624</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5362,7 +5416,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5371,69 +5425,64 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.3321831597222222</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251396</v>
+        <v>251651</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>35.34375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 08:13:20</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 08:13:20</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-07 08:48:41</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2262</v>
+        <v>46830</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5442,78 +5491,76 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N67" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.3671440972222222</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-0.3671440972222222</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251477</v>
+        <v>251809</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>468.734375</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 08:48:41</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:41</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:41</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-08 09:13:25</t>
+          <t>2025-05-13 07:21:00</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>29999</v>
+        <v>8681</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5522,78 +5569,70 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
-      </c>
-      <c r="N68" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.384320746527778</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>-1.384320746527778</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251227</v>
+        <v>244023</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-08 09:13:25</t>
+          <t>2025-05-13 07:21:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:25</t>
+          <t>2025-05-13 07:50:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:25</t>
+          <t>2025-05-13 07:50:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:25</t>
+          <t>2025-05-13 08:06:21</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5602,78 +5641,70 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
-      </c>
-      <c r="N69" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-2.396126302083333</v>
-      </c>
-      <c r="S69" s="1" t="n">
-        <v>-2.396126302083333</v>
-      </c>
-      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251548</v>
+        <v>251061</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>206.90625</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:25</t>
+          <t>2025-05-13 08:06:21</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-08 10:00:25</t>
+          <t>2025-05-13 08:31:21</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-08 10:00:25</t>
+          <t>2025-05-13 08:31:21</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-08 13:27:19</t>
+          <t>2025-05-14 07:04:45</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13242</v>
+        <v>23997</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5682,78 +5713,70 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.56064453125</v>
-      </c>
-      <c r="S70" s="1" t="n">
-        <v>-1.56064453125</v>
-      </c>
-      <c r="T70" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250923</v>
+        <v>251251</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>109.46875</v>
+        <v>260</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 13:27:19</t>
+          <t>2025-05-14 07:04:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:19</t>
+          <t>2025-05-14 07:29:45</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:19</t>
+          <t>2025-05-14 07:29:45</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 07:48:47</t>
+          <t>2025-05-14 11:49:45</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7006</v>
+        <v>15860</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5762,78 +5785,70 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
-      </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-2.325553385416667</v>
-      </c>
-      <c r="S71" s="1" t="n">
-        <v>-2.325553385416667</v>
-      </c>
-      <c r="T71" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251564</v>
+        <v>245350</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D72" t="n">
-        <v>42.453125</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 07:48:47</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 08:22:47</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 08:22:47</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:15</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2717</v>
+        <v>27970</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5842,11 +5857,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5859,56 +5874,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>8</v>
+      <c r="S72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251546</v>
+        <v>250641</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>101.03125</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:15</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:15</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:15</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:16</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6466</v>
+        <v>5116</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5921,7 +5933,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5934,56 +5946,53 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>7</v>
+      <c r="S73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>245275</v>
+        <v>251463</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>379.59375</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:16</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:16</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 11:38:16</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:52</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>24294</v>
+        <v>6967</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5992,11 +6001,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6009,56 +6018,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>7</v>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251809</v>
+        <v>251467</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>135.640625</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:52</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 10:32:52</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 10:32:52</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 12:48:30</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>8681</v>
+        <v>6226</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6071,7 +6077,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6084,56 +6090,53 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>4</v>
+      <c r="S75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251283</v>
+        <v>251260</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D76" t="n">
-        <v>11.78125</v>
+        <v>135.7826086956522</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 12:48:30</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:07:30</t>
+          <t>2025-05-13 13:55:42</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:07:30</t>
+          <t>2025-05-13 13:55:42</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:19:17</t>
+          <t>2025-05-14 08:11:29</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>754</v>
+        <v>9369</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6142,7 +6145,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6159,56 +6162,53 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
+      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251061</v>
+        <v>251249</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>374.953125</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:19:17</t>
+          <t>2025-05-14 08:11:29</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:17</t>
+          <t>2025-05-14 08:36:29</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:34:17</t>
+          <t>2025-05-14 08:36:29</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:15</t>
+          <t>2025-05-14 09:45:26</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>23997</v>
+        <v>4758</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6234,56 +6234,53 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
+      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251252</v>
+        <v>245090</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
-        <v>235.671875</v>
+        <v>7488.666666666667</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:15</t>
+          <t>2025-05-14 09:45:26</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 12:04:15</t>
+          <t>2025-05-14 10:20:26</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 12:04:15</t>
+          <t>2025-05-14 10:20:26</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:55</t>
+          <t>2025-06-05 07:09:06</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>15083</v>
+        <v>516718</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6292,14 +6289,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6309,82 +6306,86 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
+      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>245090</v>
+        <v>251706</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>8073.71875</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:55</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:55</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:55</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-06-06 07:05:38</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>516718</v>
+        <v>3200</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6394,46 +6395,46 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251284</v>
+        <v>251227</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6442,17 +6443,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N80" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6460,18 +6461,18 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6479,41 +6480,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251505</v>
+        <v>251782</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>259.1818181818182</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>14255</v>
+        <v>12073</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6522,70 +6523,78 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N81" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" t="n">
-        <v>7</v>
+        <v>-0.3097515649421296</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>-0.3097515649421296</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251397</v>
+        <v>251340</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>98.81818181818181</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>5435</v>
+        <v>32800</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6594,14 +6603,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6623,41 +6632,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>244354</v>
+        <v>243569</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>78.36363636363636</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4310</v>
+        <v>2601</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6666,14 +6675,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6683,53 +6692,53 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>250819</v>
+        <v>245623</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34.5</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
-        <v>155.0363636363636</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8527</v>
+        <v>26419</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6738,14 +6747,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6755,7 +6764,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6767,41 +6776,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251466</v>
+        <v>243335</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>101.2181818181818</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5567</v>
+        <v>33004</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6810,14 +6819,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6827,7 +6836,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6839,41 +6848,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251465</v>
+        <v>251750</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>113.2</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>6226</v>
+        <v>3891</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6882,14 +6891,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6899,7 +6908,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6911,41 +6920,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251520</v>
+        <v>251987</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40.5</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>297.0909090909091</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>16340</v>
+        <v>210526</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6954,14 +6963,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -6971,7 +6980,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251391</v>
+        <v>245623</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>96.14754098360656</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-12 13:52:53</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5865</v>
+        <v>26419</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-107.5783917069213</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.382741347905093</v>
+        <v>-107.5783917069213</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>245089</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>163.9344262295082</v>
+        <v>1777.753623188406</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-12 13:52:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-12 14:32:53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-12 14:32:53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:04</t>
+          <t>2025-05-16 12:10:38</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>122665</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,78 +633,73 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.51394581056713</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251416</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>162.6376811594203</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:04</t>
+          <t>2025-05-16 12:10:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:04</t>
+          <t>2025-05-16 12:50:38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:04</t>
+          <t>2025-05-16 12:50:38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:18:45</t>
+          <t>2025-05-19 07:33:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>11222</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -722,74 +712,72 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-6.314774557164352</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.5963570127546297</v>
+        <v>-6.314774557164352</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251987</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>3051.101449275362</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:18:45</t>
+          <t>2025-05-19 07:33:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:45</t>
+          <t>2025-05-19 08:23:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:45</t>
+          <t>2025-05-19 08:23:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:57</t>
+          <t>2025-05-27 11:14:22</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>210526</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,31 +786,24 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -837,41 +818,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251561</v>
+        <v>251557</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>89.09836065573771</v>
+        <v>97.17391304347827</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-27 11:14:22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-27 12:04:22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-27 12:04:22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-27 13:41:33</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5435</v>
+        <v>6705</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -884,7 +865,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -897,53 +878,56 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>8</v>
+        <v>-12.57052133655093</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-12.57052133655093</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251566</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>112.9344262295082</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-27 13:41:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-27 14:26:33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-27 14:26:33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-28 10:58:07</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6889</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -952,70 +936,80 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>8</v>
+        <v>-13.45703502415509</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-13.45703502415509</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251846</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>186.7540983606557</v>
+        <v>144.9275362318841</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-28 10:58:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-28 11:23:07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-28 11:23:07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-28 13:48:03</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11392</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,66 +1022,74 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7</v>
+        <v>-21.57504025765046</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-21.57504025765046</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251424</v>
+        <v>250641</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3934426229508</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-28 13:48:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-28 14:13:03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-28 14:13:03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-29 07:27:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9662</v>
+        <v>5116</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1100,7 +1102,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1117,49 +1119,52 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
+        <v>-31.3105575684375</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-31.3105575684375</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>244204</v>
+        <v>251061</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>56.91803278688525</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-29 07:27:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-29 07:52:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-29 07:52:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:49</t>
+          <t>2025-05-29 13:39:59</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3472</v>
+        <v>23997</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1168,11 +1173,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1185,53 +1190,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
+        <v>-24.56943438003472</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-24.56943438003472</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250819</v>
+        <v>251340</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>139.7868852459016</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:49</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:49</t>
+          <t>2025-05-08 07:15:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:49</t>
+          <t>2025-05-08 07:15:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:36</t>
+          <t>2025-05-08 14:56:58</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8527</v>
+        <v>32800</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1240,14 +1248,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1257,53 +1265,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2</v>
+        <v>-14.43302034428241</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-10.62289710484954</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251246</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>196.7540983606557</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:36</t>
+          <t>2025-05-08 14:56:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:36</t>
+          <t>2025-05-09 07:15:58</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:36</t>
+          <t>2025-05-09 07:15:58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:21</t>
+          <t>2025-05-09 09:14:15</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12002</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1312,70 +1323,78 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
+        <v>-1.384898278564815</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-1.384898278564815</v>
+      </c>
+      <c r="T12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251374</v>
+        <v>251651</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>448.2459016393443</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:21</t>
+          <t>2025-05-09 09:14:15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:21</t>
+          <t>2025-05-09 09:31:15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:21</t>
+          <t>2025-05-09 09:31:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:36</t>
+          <t>2025-05-12 12:30:49</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>27343</v>
+        <v>46830</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1384,14 +1403,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39755</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1401,53 +1423,56 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S13" t="n">
-        <v>1</v>
+      <c r="S13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>251566</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 12:30:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 13:02:49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 13:02:49</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 14:39:51</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>6889</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1456,78 +1481,73 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-5.611013302037037</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-5.611013302037037</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251505</v>
+        <v>251485</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>259.1818181818182</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 14:39:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 14:56:51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 14:56:51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-13 08:04:34</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>14255</v>
+        <v>4808</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1553,53 +1573,56 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>7</v>
+        <v>-20.33651212832176</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-20.33651212832176</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251397</v>
+        <v>251743</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>98.81818181818181</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-13 08:04:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-13 08:21:34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-13 08:21:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-13 10:53:21</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5435</v>
+        <v>10776</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1612,7 +1635,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1625,53 +1648,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244354</v>
+        <v>251397</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>78.36363636363636</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-13 10:53:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-13 11:10:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-13 11:10:21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-13 12:26:54</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4310</v>
+        <v>5435</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1684,7 +1710,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1697,53 +1723,56 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
+        <v>-15.51868153364583</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>-15.51868153364583</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251346</v>
+        <v>251562</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38.5</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>70.16363636363636</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-13 12:26:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-05-13 12:43:54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-05-13 12:43:54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:07</t>
+          <t>2025-05-13 14:38:34</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3859</v>
+        <v>8142</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1756,7 +1785,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1769,53 +1798,56 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S18" t="n">
-        <v>2</v>
+      <c r="S18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251283</v>
+        <v>235572</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>13.70909090909091</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:07</t>
+          <t>2025-05-13 14:38:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:37</t>
+          <t>2025-05-13 14:59:34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:37</t>
+          <t>2025-05-13 14:59:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:19</t>
+          <t>2025-05-14 09:19:49</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>754</v>
+        <v>9958</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1824,11 +1856,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1841,53 +1873,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
+        <v>-555.3887715179977</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-555.3887715179977</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251247</v>
+        <v>251561</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>489.7090909090909</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:19</t>
+          <t>2025-05-14 09:19:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:49</t>
+          <t>2025-05-14 09:34:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:49</t>
+          <t>2025-05-14 09:34:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:32</t>
+          <t>2025-05-14 10:51:22</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>26934</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1896,11 +1931,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1913,53 +1948,56 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
+        <v>-7.452347417835648</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-7.452347417835648</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251795</v>
+        <v>251564</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>340.7090909090909</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:32</t>
+          <t>2025-05-14 10:51:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:02</t>
+          <t>2025-05-14 11:10:22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:02</t>
+          <t>2025-05-14 11:10:22</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-15 07:03:44</t>
+          <t>2025-05-14 11:48:38</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18739</v>
+        <v>2717</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1968,11 +2006,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1985,53 +2023,56 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
+        <v>-7.492116588414351</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-7.492116588414351</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251455</v>
+        <v>251626</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>82.765625</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-14 11:48:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 12:03:38</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 12:03:38</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-14 14:59:42</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5297</v>
+        <v>12500</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2044,32 +2085,27 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-14.6247946009375</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-14.6247946009375</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2077,41 +2113,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251371</v>
+        <v>245350</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-14 14:59:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-15 07:28:42</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-15 07:28:42</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-15 14:02:38</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>27970</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2120,38 +2156,31 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-13.37275390625</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-13.37275390625</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2159,41 +2188,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251477</v>
+        <v>251346</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>468.734375</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-15 14:02:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:28:45</t>
+          <t>2025-05-15 14:21:38</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:28:45</t>
+          <t>2025-05-15 14:21:38</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:30</t>
+          <t>2025-05-16 07:16:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>29999</v>
+        <v>3859</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2202,25 +2231,20 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2228,52 +2252,52 @@
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.387152777777778</v>
+        <v>-18.30277777777778</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.387152777777778</v>
+        <v>-18.30277777777778</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251761</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:30</t>
+          <t>2025-05-16 07:16:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:30</t>
+          <t>2025-05-16 07:39:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:30</t>
+          <t>2025-05-16 07:39:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:25:58</t>
+          <t>2025-05-16 10:46:01</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>13279</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2282,36 +2306,31 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.4763671875</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.4763671875</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
@@ -2319,41 +2338,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251742</v>
+        <v>251465</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>128.53125</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:25:58</t>
+          <t>2025-05-16 10:46:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:57:58</t>
+          <t>2025-05-16 11:05:01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:57:58</t>
+          <t>2025-05-16 11:05:01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:30</t>
+          <t>2025-05-16 12:32:43</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8226</v>
+        <v>6226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2366,74 +2385,69 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.587847222222222</v>
+        <v>-7.522721048518518</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.587847222222222</v>
+        <v>-7.522721048518518</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251395</v>
+        <v>251467</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>35.34375</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:30</t>
+          <t>2025-05-16 12:32:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 14:25:30</t>
+          <t>2025-05-16 12:47:43</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 14:25:30</t>
+          <t>2025-05-16 12:47:43</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:50</t>
+          <t>2025-05-16 14:15:24</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2262</v>
+        <v>6226</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2446,74 +2460,69 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.292252604166667</v>
+        <v>-7.594033646319444</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-2.292252604166667</v>
+        <v>-7.594033646319444</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251396</v>
+        <v>251260</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>35.34375</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:50</t>
+          <t>2025-05-16 14:15:24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:50</t>
+          <t>2025-05-16 14:38:24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:50</t>
+          <t>2025-05-16 14:38:24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:51:11</t>
+          <t>2025-05-19 08:50:21</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2262</v>
+        <v>9369</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2522,7 +2531,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2531,69 +2540,64 @@
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.327213541666667</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-2.327213541666667</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251548</v>
+        <v>251795</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>206.90625</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:51:11</t>
+          <t>2025-05-19 08:50:21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:10:11</t>
+          <t>2025-05-19 09:05:21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:10:11</t>
+          <t>2025-05-19 09:05:21</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 11:37:05</t>
+          <t>2025-05-19 13:29:17</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>13242</v>
+        <v>18739</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2602,114 +2606,113 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-2.484092881944445</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-2.484092881944445</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251564</v>
+        <v>251706</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>42.453125</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:37:05</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:05</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:05</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 12:36:32</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2717</v>
+        <v>3200</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>8</v>
+      <c r="S30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2718,33 +2721,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>101.03125</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:36:32</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:55:32</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:55:32</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:34</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2778,10 +2781,10 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-9.391021126759259</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-9.391021126759259</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2789,41 +2792,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251519</v>
+        <v>251054</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="D32" t="n">
-        <v>205.859375</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:34</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 14:57:34</t>
+          <t>2025-05-09 12:43:04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 14:57:34</t>
+          <t>2025-05-09 12:43:04</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 10:23:26</t>
+          <t>2025-05-09 12:43:04</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13175</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2832,73 +2835,78 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-1.529910015648148</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-1.529910015648148</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251475</v>
+        <v>245275</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="D33" t="n">
-        <v>135.640625</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:23:26</t>
+          <t>2025-05-09 12:43:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:26</t>
+          <t>2025-05-12 07:18:04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:42:26</t>
+          <t>2025-05-12 07:18:04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:04</t>
+          <t>2025-05-12 13:00:14</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>8681</v>
+        <v>24294</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2907,11 +2915,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2924,7 +2932,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2934,46 +2942,46 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>244355</v>
+        <v>251081</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D34" t="n">
-        <v>67.34375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:04</t>
+          <t>2025-05-12 13:00:14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:04</t>
+          <t>2025-05-12 14:05:14</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:04</t>
+          <t>2025-05-12 14:05:14</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 14:20:25</t>
+          <t>2025-05-12 14:47:39</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4310</v>
+        <v>3012</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2982,73 +2990,80 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-19.61643192488426</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-19.61643192488426</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251485</v>
+        <v>251050</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D35" t="n">
-        <v>75.125</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:20:25</t>
+          <t>2025-05-12 14:47:39</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:25</t>
+          <t>2025-05-13 08:52:39</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:25</t>
+          <t>2025-05-13 08:52:39</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:32</t>
+          <t>2025-05-13 08:52:39</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3057,31 +3072,36 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-5.369904147106482</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-5.369904147106482</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
@@ -3089,41 +3109,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251761</v>
+        <v>251109</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D36" t="n">
-        <v>207.484375</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:32</t>
+          <t>2025-05-13 08:52:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:32</t>
+          <t>2025-05-13 11:17:39</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:32</t>
+          <t>2025-05-13 11:17:39</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-13 11:37:01</t>
+          <t>2025-05-14 07:44:15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>13279</v>
+        <v>18928</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3132,11 +3152,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3149,14 +3169,14 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-26.32239827856481</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-26.32239827856481</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
@@ -3164,41 +3184,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251462</v>
+        <v>251846</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>97.28125</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-13 11:37:01</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:01</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:01</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:18</t>
+          <t>2025-05-08 10:26:45</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6226</v>
+        <v>11392</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3224,7 +3244,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3234,46 +3254,46 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251557</v>
+        <v>251371</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>104.765625</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:18</t>
+          <t>2025-05-08 10:26:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:18</t>
+          <t>2025-05-08 10:56:45</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:18</t>
+          <t>2025-05-08 10:56:45</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:04</t>
+          <t>2025-05-08 10:56:45</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6705</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3286,69 +3306,76 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-14.45607923497685</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-14.45607923497685</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251252</v>
+        <v>251462</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>235.671875</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:04</t>
+          <t>2025-05-08 10:56:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:56:04</t>
+          <t>2025-05-08 11:26:45</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:56:04</t>
+          <t>2025-05-08 11:26:45</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-14 11:51:45</t>
+          <t>2025-05-08 13:08:49</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>15083</v>
+        <v>6226</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3357,11 +3384,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3374,7 +3401,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3389,41 +3416,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245089</v>
+        <v>251742</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>1916.640625</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-14 11:51:45</t>
+          <t>2025-05-08 13:08:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-14 12:25:45</t>
+          <t>2025-05-08 13:38:49</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-14 12:25:45</t>
+          <t>2025-05-08 13:38:49</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-20 12:22:23</t>
+          <t>2025-05-09 07:53:40</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>122665</v>
+        <v>8226</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3432,73 +3459,78 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N40" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-2.328938979965278</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0</v>
+        <v>-2.328938979965278</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251050</v>
+        <v>251594</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 07:53:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 08:13:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 08:13:40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3507,78 +3539,73 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.416438979965278</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.416438979965278</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251054</v>
+        <v>251283</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:29:40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:29:40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:42:01</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3587,78 +3614,73 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-52.44585610200232</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-52.44585610200232</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251081</v>
+        <v>251505</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>42.42253521126761</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 10:42:01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 11:07:01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 11:07:01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 07:00:43</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3012</v>
+        <v>14255</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3667,80 +3689,73 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-7.292167577418982</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-7.292167577418982</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245275</v>
+        <v>251840</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1690140845071</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 07:00:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:25</t>
+          <t>2025-05-12 07:20:43</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:25</t>
+          <t>2025-05-12 07:20:43</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:35</t>
+          <t>2025-05-12 08:54:23</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>24294</v>
+        <v>5714</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3749,70 +3764,78 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>7</v>
+        <v>-4.371106557372685</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>-4.371106557372685</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251109</v>
+        <v>251373</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>266.5915492957747</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:35</t>
+          <t>2025-05-12 08:54:23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:35</t>
+          <t>2025-05-12 09:14:23</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:35</t>
+          <t>2025-05-12 09:14:23</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:10</t>
+          <t>2025-05-12 13:54:37</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>18928</v>
+        <v>17094</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3821,11 +3844,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3838,53 +3861,56 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2</v>
+        <v>-14.57959927140046</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>-14.57959927140046</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251520</v>
+        <v>251475</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>230.1408450704225</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:10</t>
+          <t>2025-05-12 13:54:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:10</t>
+          <t>2025-05-12 14:19:37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:10</t>
+          <t>2025-05-12 14:19:37</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:19</t>
+          <t>2025-05-13 08:41:56</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>16340</v>
+        <v>8681</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3893,11 +3919,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3910,53 +3936,56 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
+        <v>-13.36245446266204</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>-13.36245446266204</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251259</v>
+        <v>251809</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>102.0408163265306</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 08:41:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-13 09:01:56</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-13 09:01:56</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:02</t>
+          <t>2025-05-13 11:24:14</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5000</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3969,7 +3998,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3982,7 +4011,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3992,46 +4021,46 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251456</v>
+        <v>251249</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>183.6530612244898</v>
+        <v>78</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:02</t>
+          <t>2025-05-13 11:24:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:02</t>
+          <t>2025-05-13 11:54:14</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:02</t>
+          <t>2025-05-13 11:54:14</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:41</t>
+          <t>2025-05-13 13:12:14</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>8999</v>
+        <v>4758</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4040,36 +4069,31 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-2.583815192743056</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-2.583815192743056</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4077,41 +4101,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251464</v>
+        <v>244023</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>145.9795918367347</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:41</t>
+          <t>2025-05-13 13:12:14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:41</t>
+          <t>2025-05-13 13:32:14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:41</t>
+          <t>2025-05-13 13:32:14</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:40</t>
+          <t>2025-05-13 13:48:35</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>7153</v>
+        <v>997</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4124,7 +4148,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4137,14 +4161,14 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-225.5754098360648</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-225.5754098360648</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4152,41 +4176,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251626</v>
+        <v>251247</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>255.1020408163265</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:40</t>
+          <t>2025-05-13 13:48:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:40</t>
+          <t>2025-05-13 14:08:35</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:40</t>
+          <t>2025-05-13 14:08:35</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 14:01:46</t>
+          <t>2025-05-14 13:30:07</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12500</v>
+        <v>26934</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4195,11 +4219,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4212,56 +4236,56 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-5.562591074675926</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-5.562591074675926</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251416</v>
+        <v>251251</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>229.0204081632653</v>
+        <v>260</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 14:01:46</t>
+          <t>2025-05-14 13:30:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 14:41:46</t>
+          <t>2025-05-14 13:50:07</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 14:41:46</t>
+          <t>2025-05-14 13:50:07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 10:30:47</t>
+          <t>2025-05-15 10:10:07</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>11222</v>
+        <v>15860</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4270,18 +4294,15 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="N51" t="n">
-        <v>39755</v>
-      </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
@@ -4290,7 +4311,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4300,46 +4321,46 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251562</v>
+        <v>243569</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>166.1632653061224</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 10:30:47</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:05:47</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:05:47</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:57</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8142</v>
+        <v>2601</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4348,73 +4369,73 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>76</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>-234.5608568075116</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>-234.5372456964004</v>
+      </c>
+      <c r="T52" t="n">
         <v>2</v>
-      </c>
-      <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251373</v>
+        <v>251225</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>348.8571428571428</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:57</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:57</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:57</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:48</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>17094</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4423,73 +4444,78 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.5490512519560184</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-0.5490512519560184</v>
       </c>
       <c r="T53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251547</v>
+        <v>250670</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>184.9154929577465</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 13:25:38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 13:25:38</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 13:47:38</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13129</v>
+        <v>1563</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4498,74 +4524,69 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-3.574755477303241</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-3.574755477303241</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251225</v>
+        <v>251227</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 13:47:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 14:02:38</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 14:02:38</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 14:02:38</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4588,7 +4609,7 @@
         <v>76</v>
       </c>
       <c r="N55" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4596,18 +4617,18 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.4645246478819445</v>
+        <v>-2.585172143969908</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.4645246478819445</v>
+        <v>-2.585172143969908</v>
       </c>
       <c r="T55" t="n">
         <v>1</v>
@@ -4615,41 +4636,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250759</v>
+        <v>243335</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>118.2816901408451</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 14:02:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 14:32:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 14:32:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 14:17:29</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8398</v>
+        <v>33004</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4658,36 +4679,31 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.5570813771527778</v>
+        <v>-280.5954812206597</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.5570813771527778</v>
+        <v>-280.5954812206597</v>
       </c>
       <c r="T56" t="n">
         <v>1</v>
@@ -4695,41 +4711,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250894</v>
+        <v>251750</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>623.4084507042254</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 14:17:29</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-09 14:34:29</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-09 14:34:29</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-12 07:29:17</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>44262</v>
+        <v>3891</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4738,17 +4754,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
-      </c>
-      <c r="N57" t="n">
-        <v>39755</v>
+        <v>152</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4758,7 +4771,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4768,46 +4781,46 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251466</v>
+        <v>251424</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>78.40845070422536</v>
+        <v>150.96875</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:36</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:36</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:00</t>
+          <t>2025-05-07 09:49:58</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5567</v>
+        <v>9662</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4820,7 +4833,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4833,56 +4846,56 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-9.409700520833333</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-9.409700520833333</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251465</v>
+        <v>251456</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>87.69014084507042</v>
+        <v>140.609375</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:00</t>
+          <t>2025-05-07 09:49:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:00</t>
+          <t>2025-05-07 10:06:58</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:00</t>
+          <t>2025-05-07 10:06:58</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:42</t>
+          <t>2025-05-07 12:27:34</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6226</v>
+        <v>8999</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4895,16 +4908,21 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
+      <c r="N59" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -4912,10 +4930,10 @@
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-1.519151475694444</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-1.519151475694444</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -4923,41 +4941,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251594</v>
+        <v>250819</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D60" t="n">
-        <v>91.07042253521126</v>
+        <v>133.234375</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:42</t>
+          <t>2025-05-07 12:27:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-12 11:58:42</t>
+          <t>2025-05-07 12:48:34</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-12 11:58:42</t>
+          <t>2025-05-07 12:48:34</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:46</t>
+          <t>2025-05-08 07:01:48</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>6466</v>
+        <v>8527</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4970,7 +4988,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4983,56 +5001,56 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-20.29292534722222</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-20.29292534722222</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>250670</v>
+        <v>251519</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
-        <v>22.01408450704225</v>
+        <v>205.859375</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:46</t>
+          <t>2025-05-08 07:01:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:46</t>
+          <t>2025-05-08 07:24:48</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:46</t>
+          <t>2025-05-08 07:24:48</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 14:21:47</t>
+          <t>2025-05-08 10:50:40</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1563</v>
+        <v>13175</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5041,14 +5059,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5058,7 +5076,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -5068,46 +5086,46 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251743</v>
+        <v>251246</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>151.7746478873239</v>
+        <v>187.53125</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-12 14:21:47</t>
+          <t>2025-05-08 10:50:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:47</t>
+          <t>2025-05-08 11:13:40</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:47</t>
+          <t>2025-05-08 11:13:40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:33</t>
+          <t>2025-05-08 14:21:12</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>10776</v>
+        <v>12002</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5116,11 +5134,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5133,7 +5151,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5143,46 +5161,46 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>235572</v>
+        <v>244355</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>140.2535211267606</v>
+        <v>67.34375</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:23:33</t>
+          <t>2025-05-08 14:21:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:33</t>
+          <t>2025-05-08 14:40:12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:33</t>
+          <t>2025-05-08 14:40:12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:49</t>
+          <t>2025-05-09 07:47:32</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>9958</v>
+        <v>4310</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5191,11 +5209,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5208,14 +5226,14 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-1.324685329861111</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-1.324685329861111</v>
       </c>
       <c r="T63" t="n">
         <v>4</v>
@@ -5223,41 +5241,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251245</v>
+        <v>251547</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>10.61971830985915</v>
+        <v>205.140625</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:49</t>
+          <t>2025-05-09 07:47:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:49</t>
+          <t>2025-05-09 08:02:32</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:49</t>
+          <t>2025-05-09 08:02:32</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 12:28:26</t>
+          <t>2025-05-09 11:27:41</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>754</v>
+        <v>13129</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5266,73 +5284,78 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-2.477560763888889</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-2.477560763888889</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251580</v>
+        <v>251455</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>100.7464788732394</v>
+        <v>82.765625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 12:28:26</t>
+          <t>2025-05-09 11:27:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:26</t>
+          <t>2025-05-09 11:42:41</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 12:47:26</t>
+          <t>2025-05-09 11:42:41</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 14:28:10</t>
+          <t>2025-05-09 13:05:27</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7153</v>
+        <v>5297</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5350,64 +5373,69 @@
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-2.545453559027778</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-2.545453559027778</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251062</v>
+        <v>251391</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>318.6478873239437</v>
+        <v>91.640625</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:28:10</t>
+          <t>2025-05-09 13:05:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:47:10</t>
+          <t>2025-05-09 13:22:27</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:47:10</t>
+          <t>2025-05-09 13:22:27</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:49</t>
+          <t>2025-05-09 14:54:05</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>22624</v>
+        <v>5865</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5416,73 +5444,78 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-2.6208984375</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-2.6208984375</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251651</v>
+        <v>251395</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>767.7049180327868</v>
+        <v>35.34375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 14:54:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:11:05</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 07:11:05</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 07:46:26</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>46830</v>
+        <v>2262</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5491,76 +5524,78 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N67" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-5.323914930555556</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-5.323914930555556</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251809</v>
+        <v>251396</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>142.3114754098361</v>
+        <v>35.34375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 07:46:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 08:01:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-12 08:01:26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:00</t>
+          <t>2025-05-12 08:36:46</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8681</v>
+        <v>2262</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5573,66 +5608,74 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>4</v>
+        <v>-5.358875868055556</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>-5.358875868055556</v>
+      </c>
+      <c r="T68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>244023</v>
+        <v>251548</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>16.34426229508197</v>
+        <v>206.90625</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:00</t>
+          <t>2025-05-12 08:36:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:00</t>
+          <t>2025-05-12 08:55:46</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:00</t>
+          <t>2025-05-12 08:55:46</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:06:21</t>
+          <t>2025-05-12 12:22:41</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>997</v>
+        <v>13242</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5645,66 +5688,74 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>1</v>
+        <v>-5.515755208333333</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>-5.515755208333333</v>
+      </c>
+      <c r="T69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251061</v>
+        <v>245090</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>393.3934426229508</v>
+        <v>8073.71875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:06:21</t>
+          <t>2025-05-12 12:22:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:21</t>
+          <t>2025-05-12 12:54:41</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:21</t>
+          <t>2025-05-12 12:54:41</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 07:04:45</t>
+          <t>2025-06-04 11:28:24</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>23997</v>
+        <v>516718</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5713,14 +5764,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5730,53 +5781,56 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S70" t="n">
+      <c r="S70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251251</v>
+        <v>250894</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>260</v>
+        <v>691.59375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:04:45</t>
+          <t>2025-06-04 11:28:24</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:45</t>
+          <t>2025-06-04 11:43:24</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:45</t>
+          <t>2025-06-04 11:43:24</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:45</t>
+          <t>2025-06-06 07:15:00</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>15860</v>
+        <v>44262</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5785,14 +5839,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39755</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5802,53 +5859,56 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1</v>
+        <v>-24.30208333333333</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>-24.30208333333333</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>245350</v>
+        <v>250923</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>405.3623188405797</v>
+        <v>109.46875</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-06 07:15:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-06-06 07:30:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-06-06 07:30:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-06-06 09:19:28</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>27970</v>
+        <v>7006</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5857,70 +5917,78 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>7</v>
+        <v>-30.38851996527778</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>-30.38851996527778</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>250641</v>
+        <v>251477</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>74.14492753623189</v>
+        <v>468.734375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-06-06 09:19:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-06-06 09:38:28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-06-06 09:38:28</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-06-09 09:27:12</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5116</v>
+        <v>29999</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5929,20 +5997,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N73" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -5950,49 +6023,52 @@
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2</v>
+        <v>-33.39389105902778</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>-33.39389105902778</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251463</v>
+        <v>251782</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>100.9710144927536</v>
+        <v>188.640625</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-06-09 09:27:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-06-09 09:42:12</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-06-09 09:42:12</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-06-09 12:50:50</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6967</v>
+        <v>12073</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6001,70 +6077,78 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N74" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" t="n">
+        <v>-31.53530815972222</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>-31.53530815972222</v>
+      </c>
+      <c r="T74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251467</v>
+        <v>244354</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D75" t="n">
-        <v>90.23188405797102</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-09 08:52:51</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6226</v>
+        <v>4310</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6077,7 +6161,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6090,53 +6174,56 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1</v>
+        <v>-1.370044191921296</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>-1.370044191921296</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251260</v>
+        <v>251284</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>45</v>
+        <v>36.5</v>
       </c>
       <c r="D76" t="n">
-        <v>135.7826086956522</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-09 08:52:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:42</t>
+          <t>2025-05-09 09:29:21</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:42</t>
+          <t>2025-05-09 09:29:21</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:29</t>
+          <t>2025-05-09 14:26:27</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>9369</v>
+        <v>16340</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6145,70 +6232,78 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
+        <v>-1.601704545451389</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>-1.601704545451389</v>
+      </c>
+      <c r="T76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251249</v>
+        <v>251245</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D77" t="n">
-        <v>68.95652173913044</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:29</t>
+          <t>2025-05-09 14:26:27</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:29</t>
+          <t>2025-05-09 14:58:57</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:29</t>
+          <t>2025-05-09 14:58:57</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 09:45:26</t>
+          <t>2025-05-12 07:12:39</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4758</v>
+        <v>754</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6234,53 +6329,56 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
+        <v>-45.30046085858796</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>-45.30046085858796</v>
+      </c>
+      <c r="T77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>245090</v>
+        <v>251062</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D78" t="n">
-        <v>7488.666666666667</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-14 09:45:26</t>
+          <t>2025-05-12 07:12:39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:26</t>
+          <t>2025-05-12 07:43:09</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:26</t>
+          <t>2025-05-12 07:43:09</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-06-05 07:09:06</t>
+          <t>2025-05-12 14:34:30</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>516718</v>
+        <v>22624</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6289,14 +6387,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6306,135 +6404,131 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S78" t="n">
+      <c r="S78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251706</v>
+        <v>251520</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="D79" t="n">
-        <v>50.79365079365079</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:34:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:07:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:07:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-13 12:04:06</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3200</v>
+        <v>16340</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-1.502847222222222</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-1.502847222222222</v>
       </c>
       <c r="T79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251227</v>
+        <v>251466</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 09:11:15</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>5567</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6443,36 +6537,31 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
-      </c>
-      <c r="N80" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4424863387962963</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-0.3828210382523148</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6480,41 +6569,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251782</v>
+        <v>251464</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
-        <v>170.0422535211268</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 09:11:15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 09:38:15</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 09:38:15</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-09 11:35:31</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>12073</v>
+        <v>7153</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6523,36 +6612,31 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
-      </c>
-      <c r="N81" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>-0.4830031876157407</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>-0.4830031876157407</v>
       </c>
       <c r="T81" t="n">
         <v>1</v>
@@ -6560,41 +6644,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251340</v>
+        <v>244204</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>461.9718309859155</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:35:31</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-09 12:00:31</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-09 12:00:31</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 12:57:26</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>32800</v>
+        <v>3472</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6603,14 +6687,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6620,53 +6704,56 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
+        <v>-1.539890710381944</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-1.539890710381944</v>
+      </c>
+      <c r="T82" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>243569</v>
+        <v>251580</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>36.63380281690141</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 12:57:26</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 13:22:26</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 13:22:26</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 07:19:42</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2601</v>
+        <v>7153</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6675,14 +6762,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6692,53 +6779,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S83" t="n">
-        <v>2</v>
+      <c r="S83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>245623</v>
+        <v>251252</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>372.0985915492957</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 07:19:42</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 07:48:42</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 07:48:42</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-12 11:55:58</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>26419</v>
+        <v>15083</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6747,14 +6837,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6764,53 +6854,56 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S84" t="n">
-        <v>2</v>
+      <c r="S84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>243335</v>
+        <v>251463</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>464.8450704225352</v>
+        <v>142.1836734693877</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-08 10:07:11</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>33004</v>
+        <v>6967</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6819,14 +6912,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6836,53 +6929,56 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S85" t="n">
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251750</v>
+        <v>251374</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>54.80281690140845</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-08 10:07:11</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-08 10:57:11</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-08 10:57:11</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-09 12:15:12</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3891</v>
+        <v>27343</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6891,14 +6987,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M86" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6908,53 +7004,56 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" t="n">
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251987</v>
+        <v>251259</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>2965.154929577465</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-09 12:15:12</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-09 13:00:12</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-09 13:00:12</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-09 14:42:14</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>210526</v>
+        <v>5000</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6963,14 +7062,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M87" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -6980,14 +7079,17 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1</v>
+        <v>-3.612670068032408</v>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>-3.612670068032408</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>245623</v>
+        <v>251782</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>382.8840579710145</v>
+        <v>174.9710144927536</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:53</t>
+          <t>2025-05-12 10:24:58</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>26419</v>
+        <v>12073</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,39 +558,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-107.5783917069213</v>
+        <v>-3.434007648958333</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-107.5783917069213</v>
+        <v>-3.434007648958333</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>245089</v>
+        <v>250670</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>1777.753623188406</v>
+        <v>22.65217391304348</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:53</t>
+          <t>2025-05-12 10:24:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:53</t>
+          <t>2025-05-12 10:54:58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:53</t>
+          <t>2025-05-12 10:54:58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-16 12:10:38</t>
+          <t>2025-05-12 11:17:37</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>122665</v>
+        <v>1563</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -633,7 +638,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -650,22 +655,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-7.470571658611112</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-7.470571658611112</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251416</v>
+        <v>235572</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -673,33 +678,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>162.6376811594203</v>
+        <v>144.3188405797102</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-16 12:10:38</t>
+          <t>2025-05-12 11:17:37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-16 12:50:38</t>
+          <t>2025-05-12 11:52:37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-16 12:50:38</t>
+          <t>2025-05-12 11:52:37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-19 07:33:16</t>
+          <t>2025-05-12 14:16:56</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>11222</v>
+        <v>9958</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,18 +713,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39755</v>
-      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
@@ -728,22 +730,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-6.314774557164352</v>
+        <v>-553.5950986312384</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-6.314774557164352</v>
+        <v>-553.5950986312384</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251987</v>
+        <v>251561</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -751,33 +753,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>3051.101449275362</v>
+        <v>78.76811594202898</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-19 07:33:16</t>
+          <t>2025-05-12 14:16:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-19 08:23:16</t>
+          <t>2025-05-12 14:41:56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-19 08:23:16</t>
+          <t>2025-05-12 14:41:56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-27 11:14:22</t>
+          <t>2025-05-13 08:00:42</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>210526</v>
+        <v>5435</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -786,14 +788,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -803,22 +805,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-6.333826489537037</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-6.333826489537037</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251557</v>
+        <v>251245</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -826,33 +828,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>97.17391304347827</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-27 11:14:22</t>
+          <t>2025-05-13 08:00:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-27 12:04:22</t>
+          <t>2025-05-13 08:30:42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-27 12:04:22</t>
+          <t>2025-05-13 08:30:42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-27 13:41:33</t>
+          <t>2025-05-13 08:41:38</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6705</v>
+        <v>754</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -861,11 +863,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -878,14 +880,14 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-12.57052133655093</v>
+        <v>-46.36224838969908</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-12.57052133655093</v>
+        <v>-46.36224838969908</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -901,29 +903,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>271.5797101449276</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-27 13:41:33</t>
+          <t>2025-05-13 08:41:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-27 14:26:33</t>
+          <t>2025-05-13 09:06:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-27 14:26:33</t>
+          <t>2025-05-13 09:06:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-28 10:58:07</t>
+          <t>2025-05-13 13:38:13</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -964,10 +966,10 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.45703502415509</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-13.45703502415509</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -990,22 +992,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-28 10:58:07</t>
+          <t>2025-05-13 13:38:13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-28 11:23:07</t>
+          <t>2025-05-13 14:03:13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-28 11:23:07</t>
+          <t>2025-05-13 14:03:13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-28 13:48:03</t>
+          <t>2025-05-14 08:28:08</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1044,10 +1046,10 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-21.57504025765046</v>
+        <v>-7.352878421898148</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-21.57504025765046</v>
+        <v>-7.352878421898148</v>
       </c>
       <c r="T8" t="n">
         <v>4</v>
@@ -1055,7 +1057,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250641</v>
+        <v>244023</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1066,30 +1068,30 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>74.14492753623189</v>
+        <v>14.44927536231884</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-28 13:48:03</t>
+          <t>2025-05-14 08:28:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-28 14:13:03</t>
+          <t>2025-05-14 08:53:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-28 14:13:03</t>
+          <t>2025-05-14 08:53:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-29 07:27:12</t>
+          <t>2025-05-14 09:07:35</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5116</v>
+        <v>997</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1115,17 +1117,17 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-31.3105575684375</v>
+        <v>-226.3802737520139</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-31.3105575684375</v>
+        <v>-226.3802737520139</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1145,22 +1147,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-29 07:27:12</t>
+          <t>2025-05-14 09:07:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-29 07:52:12</t>
+          <t>2025-05-14 09:32:35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-29 07:52:12</t>
+          <t>2025-05-14 09:32:35</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-29 13:39:59</t>
+          <t>2025-05-15 07:20:22</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1194,10 +1196,10 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-24.56943438003472</v>
+        <v>-10.30581723027778</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-24.56943438003472</v>
+        <v>-10.30581723027778</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1205,41 +1207,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251340</v>
+        <v>251251</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>461.9718309859155</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-15 07:20:22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:15:00</t>
+          <t>2025-05-15 07:45:22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:15:00</t>
+          <t>2025-05-15 07:45:22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:58</t>
+          <t>2025-05-15 11:35:13</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>32800</v>
+        <v>15860</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1248,14 +1250,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1265,56 +1267,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-14.43302034428241</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-10.62289710484954</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250759</v>
+        <v>251987</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>118.2816901408451</v>
+        <v>3051.101449275362</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:58</t>
+          <t>2025-05-15 11:35:13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:58</t>
+          <t>2025-05-15 12:05:13</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:58</t>
+          <t>2025-05-15 12:05:13</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:15</t>
+          <t>2025-05-23 14:56:20</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8398</v>
+        <v>210526</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1323,36 +1325,31 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
-      <c r="N12" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.384898278564815</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.384898278564815</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
@@ -1360,119 +1357,120 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251651</v>
+        <v>251706</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>659.5774647887324</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:15</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:31:15</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:31:15</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:30:49</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>46830</v>
+        <v>3200</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4</v>
+      <c r="S13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251566</v>
+        <v>251546</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>97.02816901408451</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:30:49</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:49</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:49</t>
+          <t>2025-05-09 07:52:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:51</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6889</v>
+        <v>6466</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1485,7 +1483,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1498,56 +1496,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-5.611013302037037</v>
+        <v>-9.391021126759259</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-5.611013302037037</v>
+        <v>-9.391021126759259</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251485</v>
+        <v>251284</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>67.71830985915493</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:51</t>
+          <t>2025-05-09 09:23:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:51</t>
+          <t>2025-05-09 10:08:04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:51</t>
+          <t>2025-05-09 10:08:04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:34</t>
+          <t>2025-05-09 13:58:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4808</v>
+        <v>16340</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1556,73 +1554,78 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-20.33651212832176</v>
+        <v>-1.582091158055555</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-20.33651212832176</v>
+        <v>-1.582091158055555</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251743</v>
+        <v>251259</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>151.7746478873239</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:34</t>
+          <t>2025-05-09 13:58:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:34</t>
+          <t>2025-05-09 14:43:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:34</t>
+          <t>2025-05-09 14:43:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 10:53:21</t>
+          <t>2025-05-12 07:53:38</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10776</v>
+        <v>5000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1635,7 +1638,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1648,56 +1651,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-6.32891236306713</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-6.32891236306713</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251397</v>
+        <v>245275</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>76.54929577464789</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 10:53:21</t>
+          <t>2025-05-12 07:53:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:21</t>
+          <t>2025-05-12 08:53:38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:21</t>
+          <t>2025-05-12 08:53:38</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:26:54</t>
+          <t>2025-05-12 14:35:48</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5435</v>
+        <v>24294</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1706,11 +1709,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1723,56 +1726,56 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-15.51868153364583</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-15.51868153364583</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251562</v>
+        <v>251109</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D18" t="n">
-        <v>114.6760563380282</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:26:54</t>
+          <t>2025-05-12 14:35:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:54</t>
+          <t>2025-05-13 07:20:48</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:54</t>
+          <t>2025-05-13 07:20:48</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 14:38:34</t>
+          <t>2025-05-13 11:47:23</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8142</v>
+        <v>18928</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1781,11 +1784,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1798,56 +1801,56 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-25.49124608763888</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-25.49124608763888</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>235572</v>
+        <v>251081</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
-        <v>140.2535211267606</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 14:38:34</t>
+          <t>2025-05-13 11:47:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 14:59:34</t>
+          <t>2025-05-13 12:42:23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 14:59:34</t>
+          <t>2025-05-13 12:42:23</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:49</t>
+          <t>2025-05-13 13:24:49</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9958</v>
+        <v>3012</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1856,73 +1859,80 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-555.3887715179977</v>
+        <v>-20.5589006259838</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-555.3887715179977</v>
+        <v>-20.5589006259838</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251561</v>
+        <v>251050</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D20" t="n">
-        <v>76.54929577464789</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:49</t>
+          <t>2025-05-13 13:24:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:34:49</t>
+          <t>2025-05-14 07:29:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:34:49</t>
+          <t>2025-05-14 07:29:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 10:51:22</t>
+          <t>2025-05-14 07:29:49</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1931,73 +1941,78 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-7.452347417835648</v>
+        <v>-6.312372848206019</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-7.452347417835648</v>
+        <v>-6.312372848206019</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251564</v>
+        <v>251054</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>38.26760563380282</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:51:22</t>
+          <t>2025-05-14 07:29:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:10:22</t>
+          <t>2025-05-14 08:04:49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:10:22</t>
+          <t>2025-05-14 08:04:49</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:48:38</t>
+          <t>2025-05-14 08:04:49</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2717</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2006,73 +2021,78 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-7.492116588414351</v>
+        <v>-6.336678403761574</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-7.492116588414351</v>
+        <v>-6.336678403761574</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251626</v>
+        <v>251467</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D22" t="n">
-        <v>176.056338028169</v>
+        <v>113.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 11:48:38</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:03:38</t>
+          <t>2025-05-09 07:30:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:03:38</t>
+          <t>2025-05-09 07:30:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-14 14:59:42</t>
+          <t>2025-05-09 09:23:42</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12500</v>
+        <v>6226</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2085,7 +2105,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2098,56 +2118,56 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-14.6247946009375</v>
+        <v>-0.3914583333333334</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-14.6247946009375</v>
+        <v>-0.3914583333333334</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>245350</v>
+        <v>251252</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>38.5</v>
       </c>
       <c r="D23" t="n">
-        <v>393.943661971831</v>
+        <v>274.2363636363636</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-14 14:59:42</t>
+          <t>2025-05-09 09:23:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:28:42</t>
+          <t>2025-05-09 10:02:12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:28:42</t>
+          <t>2025-05-09 10:02:12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-15 14:02:38</t>
+          <t>2025-05-09 14:36:26</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>27970</v>
+        <v>15083</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2156,11 +2176,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2173,7 +2193,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2183,46 +2203,46 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251346</v>
+        <v>251062</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D24" t="n">
-        <v>54.35211267605634</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:02:38</t>
+          <t>2025-05-09 14:36:26</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:21:38</t>
+          <t>2025-05-12 07:06:56</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-15 14:21:38</t>
+          <t>2025-05-12 07:06:56</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-16 07:16:00</t>
+          <t>2025-05-12 13:58:16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3859</v>
+        <v>22624</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2231,11 +2251,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2248,56 +2268,56 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-18.30277777777778</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-18.30277777777778</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251761</v>
+        <v>251283</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>30.5</v>
       </c>
       <c r="D25" t="n">
-        <v>187.0281690140845</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:16:00</t>
+          <t>2025-05-12 13:58:16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:39:00</t>
+          <t>2025-05-12 14:28:46</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-16 07:39:00</t>
+          <t>2025-05-12 14:28:46</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-16 10:46:01</t>
+          <t>2025-05-12 14:42:29</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13279</v>
+        <v>754</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2306,11 +2326,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2323,56 +2343,56 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-55.61284090908564</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-55.61284090908564</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251465</v>
+        <v>251246</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D26" t="n">
-        <v>87.69014084507042</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-16 10:46:01</t>
+          <t>2025-05-12 14:42:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-16 11:05:01</t>
+          <t>2025-05-13 07:12:59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-16 11:05:01</t>
+          <t>2025-05-13 07:12:59</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-16 12:32:43</t>
+          <t>2025-05-13 10:51:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6226</v>
+        <v>12002</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2381,11 +2401,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2402,10 +2422,10 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.522721048518518</v>
+        <v>-4.452228535358796</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-7.522721048518518</v>
+        <v>-4.452228535358796</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2413,41 +2433,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251467</v>
+        <v>251249</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D27" t="n">
-        <v>87.69014084507042</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:32:43</t>
+          <t>2025-05-13 10:51:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:47:43</t>
+          <t>2025-05-13 11:21:42</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-16 12:47:43</t>
+          <t>2025-05-13 11:21:42</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-16 14:15:24</t>
+          <t>2025-05-13 12:48:13</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6226</v>
+        <v>4758</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2456,11 +2476,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2473,14 +2493,14 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-7.594033646319444</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-7.594033646319444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
@@ -2488,41 +2508,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251260</v>
+        <v>251520</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>32.5</v>
       </c>
       <c r="D28" t="n">
-        <v>131.9577464788732</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:15:24</t>
+          <t>2025-05-13 12:48:13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:38:24</t>
+          <t>2025-05-13 13:20:43</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-16 14:38:24</t>
+          <t>2025-05-13 13:20:43</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-19 08:50:21</t>
+          <t>2025-05-14 10:17:48</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9369</v>
+        <v>16340</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2531,11 +2551,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2548,14 +2568,14 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-2.429034090914352</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-2.429034090914352</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -2563,41 +2583,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251795</v>
+        <v>251416</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>263.9295774647887</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-19 08:50:21</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-19 09:05:21</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-19 09:05:21</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-19 13:29:17</t>
+          <t>2025-05-08 10:23:58</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>18739</v>
+        <v>11222</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2606,15 +2626,18 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
+      <c r="N29" t="n">
+        <v>39755</v>
+      </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
@@ -2623,7 +2646,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2633,125 +2656,121 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251706</v>
+        <v>251564</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>50.79365079365079</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:23:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:48:58</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:48:58</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 11:33:30</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3200</v>
+        <v>2717</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>7</v>
+        <v>-1.481602914386574</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>-1.481602914386574</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251546</v>
+        <v>251626</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>91.07042253521126</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 11:33:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-08 11:53:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-08 11:53:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-09 07:18:25</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6466</v>
+        <v>12500</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2764,7 +2783,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2781,10 +2800,10 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.391021126759259</v>
+        <v>-9.304462659375</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-9.391021126759259</v>
+        <v>-9.304462659375</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2792,41 +2811,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251054</v>
+        <v>244354</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-09 07:18:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:43:04</t>
+          <t>2025-05-09 07:43:25</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:43:04</t>
+          <t>2025-05-09 07:43:25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 12:43:04</t>
+          <t>2025-05-09 08:54:04</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4310</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2835,78 +2854,73 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-1.529910015648148</v>
+        <v>-1.370890255011574</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-1.529910015648148</v>
+        <v>-1.370890255011574</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>245275</v>
+        <v>251424</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>342.1690140845071</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:43:04</t>
+          <t>2025-05-09 08:54:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 07:18:04</t>
+          <t>2025-05-09 09:14:04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 07:18:04</t>
+          <t>2025-05-09 09:14:04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:14</t>
+          <t>2025-05-09 11:52:28</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>24294</v>
+        <v>9662</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2915,11 +2929,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2932,56 +2946,56 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-11.49477459016204</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-11.49477459016204</v>
       </c>
       <c r="T33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251081</v>
+        <v>251371</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:14</t>
+          <t>2025-05-09 11:52:28</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:14</t>
+          <t>2025-05-09 12:12:28</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:14</t>
+          <t>2025-05-09 12:12:28</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:39</t>
+          <t>2025-05-09 12:12:28</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2990,18 +3004,18 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3010,60 +3024,60 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>39750</v>
+        <v>39666</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-19.61643192488426</v>
+        <v>-15.50866347905093</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-19.61643192488426</v>
+        <v>-15.50866347905093</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251050</v>
+        <v>251505</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:39</t>
+          <t>2025-05-09 12:12:28</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:39</t>
+          <t>2025-05-09 12:37:28</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:39</t>
+          <t>2025-05-09 12:37:28</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:39</t>
+          <t>2025-05-12 08:31:09</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>14255</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3072,78 +3086,73 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-5.369904147106482</v>
+        <v>-7.354974954467593</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-5.369904147106482</v>
+        <v>-7.354974954467593</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251109</v>
+        <v>251373</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>266.5915492957747</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:39</t>
+          <t>2025-05-12 08:31:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:39</t>
+          <t>2025-05-12 08:51:09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:39</t>
+          <t>2025-05-12 08:51:09</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:15</t>
+          <t>2025-05-12 13:31:23</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>18928</v>
+        <v>17094</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3169,22 +3178,22 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-26.32239827856481</v>
+        <v>-14.5634676684838</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-26.32239827856481</v>
+        <v>-14.5634676684838</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251846</v>
+        <v>251485</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3195,30 +3204,30 @@
         <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>186.7540983606557</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:31:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-12 13:51:23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-12 13:51:23</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:45</t>
+          <t>2025-05-13 07:10:12</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>11392</v>
+        <v>4808</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3231,7 +3240,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3244,22 +3253,22 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-20.29875910746528</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-20.29875910746528</v>
       </c>
       <c r="T37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251371</v>
+        <v>251463</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3267,33 +3276,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:26:45</t>
+          <t>2025-05-13 07:10:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:45</t>
+          <t>2025-05-13 07:35:12</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:45</t>
+          <t>2025-05-13 07:35:12</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:45</t>
+          <t>2025-05-13 09:29:25</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6967</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3311,32 +3320,25 @@
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-14.45607923497685</v>
+        <v>-4.395434881597223</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-14.45607923497685</v>
+        <v>-4.395434881597223</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3356,22 +3358,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:45</t>
+          <t>2025-05-13 09:29:25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-08 11:26:45</t>
+          <t>2025-05-13 09:59:25</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-08 11:26:45</t>
+          <t>2025-05-13 09:59:25</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-08 13:08:49</t>
+          <t>2025-05-13 11:41:29</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3405,10 +3407,10 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-4.487147085613426</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-4.487147085613426</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -3416,7 +3418,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251742</v>
+        <v>251557</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3424,33 +3426,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>134.8524590163935</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-08 13:08:49</t>
+          <t>2025-05-13 11:41:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:49</t>
+          <t>2025-05-13 12:01:29</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:49</t>
+          <t>2025-05-13 12:01:29</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:53:40</t>
+          <t>2025-05-13 13:51:24</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>8226</v>
+        <v>6705</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3463,21 +3465,16 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3485,52 +3482,52 @@
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-2.328938979965278</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-2.328938979965278</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251594</v>
+        <v>243569</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>106</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:53:40</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:13:40</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:13:40</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:40</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>6466</v>
+        <v>2601</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3539,14 +3536,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3556,56 +3553,56 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.416438979965278</v>
+        <v>-259.3605242566551</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-2.416438979965278</v>
+        <v>-234.5372456964004</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251283</v>
+        <v>251477</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>12.36065573770492</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:40</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:40</t>
+          <t>2025-05-08 13:08:38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:40</t>
+          <t>2025-05-08 13:08:38</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:01</t>
+          <t>2025-05-09 12:11:09</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>754</v>
+        <v>29999</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3614,31 +3611,36 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-52.44585610200232</v>
+        <v>-2.507746478877315</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-52.44585610200232</v>
+        <v>-2.507746478877315</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -3646,41 +3648,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251505</v>
+        <v>245090</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>233.6885245901639</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:01</t>
+          <t>2025-05-09 12:11:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:01</t>
+          <t>2025-05-09 12:30:09</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:01</t>
+          <t>2025-05-09 12:30:09</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:43</t>
+          <t>2025-05-30 13:47:52</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>14255</v>
+        <v>516718</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3689,14 +3691,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3706,56 +3708,56 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-7.292167577418982</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-7.292167577418982</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:43</t>
+          <t>2025-05-30 13:47:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:43</t>
+          <t>2025-05-30 14:04:52</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:43</t>
+          <t>2025-05-30 14:04:52</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:23</t>
+          <t>2025-06-02 08:03:09</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3764,17 +3766,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N44" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3782,18 +3784,18 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.371106557372685</v>
+        <v>-25.33552425665509</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-4.371106557372685</v>
+        <v>-25.33552425665509</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3801,41 +3803,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251373</v>
+        <v>251225</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>280.2295081967213</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:23</t>
+          <t>2025-06-02 08:03:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:23</t>
+          <t>2025-06-02 08:18:09</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:23</t>
+          <t>2025-06-02 08:18:09</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:54:37</t>
+          <t>2025-06-02 08:18:09</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>17094</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3844,73 +3846,78 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-14.57959927140046</v>
+        <v>-25.34594092332176</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-14.57959927140046</v>
+        <v>-25.34594092332176</v>
       </c>
       <c r="T45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251475</v>
+        <v>251227</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>142.3114754098361</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:54:37</t>
+          <t>2025-06-02 08:18:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:19:37</t>
+          <t>2025-06-02 08:33:09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:19:37</t>
+          <t>2025-06-02 08:33:09</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:56</t>
+          <t>2025-06-02 08:33:09</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8681</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3919,73 +3926,78 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-13.36245446266204</v>
+        <v>-27.35635758998843</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-13.36245446266204</v>
+        <v>-27.35635758998843</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251809</v>
+        <v>243335</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>142.3114754098361</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:56</t>
+          <t>2025-06-02 08:33:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 09:01:56</t>
+          <t>2025-06-02 09:03:09</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 09:01:56</t>
+          <t>2025-06-02 09:03:09</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:14</t>
+          <t>2025-06-03 08:48:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>33004</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3994,14 +4006,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4011,56 +4023,56 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-305.3666666666667</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-305.3666666666667</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251249</v>
+        <v>251750</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>78</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:14</t>
+          <t>2025-06-03 08:48:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:54:14</t>
+          <t>2025-06-03 09:05:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 11:54:14</t>
+          <t>2025-06-03 09:05:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:14</t>
+          <t>2025-06-03 09:59:48</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4758</v>
+        <v>3891</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4069,14 +4081,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4086,14 +4098,14 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-8.416529733958333</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-8.416529733958333</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4101,41 +4113,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244023</v>
+        <v>245623</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>16.34426229508197</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:14</t>
+          <t>2025-06-03 09:59:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:14</t>
+          <t>2025-06-03 10:16:48</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:14</t>
+          <t>2025-06-03 10:16:48</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:35</t>
+          <t>2025-06-04 08:28:54</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>997</v>
+        <v>26419</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4144,14 +4156,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4161,56 +4173,56 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-225.5754098360648</v>
+        <v>-130.353403755868</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-225.5754098360648</v>
+        <v>-130.353403755868</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251247</v>
+        <v>251340</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>441.5409836065574</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:35</t>
+          <t>2025-05-08 07:15:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:35</t>
+          <t>2025-05-08 07:15:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:07</t>
+          <t>2025-05-08 14:56:58</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>26934</v>
+        <v>32800</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4219,14 +4231,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4236,56 +4248,56 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-5.562591074675926</v>
+        <v>-14.53165101721065</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-5.562591074675926</v>
+        <v>-10.62289710484954</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251251</v>
+        <v>251651</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>260</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:07</t>
+          <t>2025-05-08 14:56:58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:50:07</t>
+          <t>2025-05-09 07:17:58</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-14 13:50:07</t>
+          <t>2025-05-09 07:17:58</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-15 10:10:07</t>
+          <t>2025-05-12 10:17:32</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>15860</v>
+        <v>46830</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4294,14 +4306,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39755</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4311,7 +4326,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
@@ -4321,46 +4336,46 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>243569</v>
+        <v>251566</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>36.63380281690141</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 10:17:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-12 10:49:32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-12 10:49:32</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:38</t>
+          <t>2025-05-12 12:26:34</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2601</v>
+        <v>6889</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4369,14 +4384,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4386,56 +4401,56 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-234.5608568075116</v>
+        <v>-5.518456572766204</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-234.5372456964004</v>
+        <v>-5.518456572766204</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251225</v>
+        <v>251562</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:38</t>
+          <t>2025-05-12 12:26:34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:38</t>
+          <t>2025-05-12 12:45:34</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:38</t>
+          <t>2025-05-12 12:45:34</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:38</t>
+          <t>2025-05-12 14:40:15</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>8142</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4444,36 +4459,31 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.5490512519560184</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.5490512519560184</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -4481,41 +4491,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250670</v>
+        <v>251519</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>22.01408450704225</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:38</t>
+          <t>2025-05-12 14:40:15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 13:25:38</t>
+          <t>2025-05-12 14:55:15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 13:25:38</t>
+          <t>2025-05-12 14:55:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-08 13:47:38</t>
+          <t>2025-05-13 10:00:49</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1563</v>
+        <v>13175</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4524,14 +4534,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4541,56 +4551,56 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-3.574755477303241</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-3.574755477303241</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251227</v>
+        <v>244204</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:47:38</t>
+          <t>2025-05-13 10:00:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-08 14:02:38</t>
+          <t>2025-05-13 10:19:49</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-08 14:02:38</t>
+          <t>2025-05-13 10:19:49</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-08 14:02:38</t>
+          <t>2025-05-13 11:08:43</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3472</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4599,78 +4609,73 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
-      </c>
-      <c r="N55" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-2.585172143969908</v>
+        <v>-5.464387715185185</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-2.585172143969908</v>
+        <v>-5.464387715185185</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>243335</v>
+        <v>244355</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>464.8450704225352</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:02:38</t>
+          <t>2025-05-13 11:08:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:32:38</t>
+          <t>2025-05-13 11:23:43</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:32:38</t>
+          <t>2025-05-13 11:23:43</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:29</t>
+          <t>2025-05-13 12:24:25</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>33004</v>
+        <v>4310</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4679,14 +4684,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4696,56 +4701,56 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-280.5954812206597</v>
+        <v>-5.516960093900463</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-280.5954812206597</v>
+        <v>-5.516960093900463</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251750</v>
+        <v>251455</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>54.80281690140845</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:29</t>
+          <t>2025-05-13 12:24:25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:29</t>
+          <t>2025-05-13 12:39:25</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:29</t>
+          <t>2025-05-13 12:39:25</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:17</t>
+          <t>2025-05-13 13:54:01</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3891</v>
+        <v>5297</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4754,73 +4759,78 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N57" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-6.579186228483796</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-6.579186228483796</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251424</v>
+        <v>251742</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>150.96875</v>
+        <v>115.8591549295775</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-13 13:54:01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-13 14:09:01</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-13 14:09:01</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-07 09:49:58</t>
+          <t>2025-05-14 08:04:53</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>9662</v>
+        <v>8226</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4838,64 +4848,69 @@
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-9.409700520833333</v>
+        <v>-7.336727308298611</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-9.409700520833333</v>
+        <v>-7.336727308298611</v>
       </c>
       <c r="T58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251456</v>
+        <v>251547</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>140.609375</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-07 09:49:58</t>
+          <t>2025-05-14 08:04:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-07 10:06:58</t>
+          <t>2025-05-14 08:19:53</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-07 10:06:58</t>
+          <t>2025-05-14 08:19:53</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:34</t>
+          <t>2025-05-14 11:24:48</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8999</v>
+        <v>13129</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4908,13 +4923,13 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
       <c r="N59" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4922,60 +4937,60 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-1.519151475694444</v>
+        <v>-7.475557511736111</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-1.519151475694444</v>
+        <v>-7.475557511736111</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>250819</v>
+        <v>251761</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>133.234375</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:34</t>
+          <t>2025-05-14 11:24:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:48:34</t>
+          <t>2025-05-14 11:39:48</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-07 12:48:34</t>
+          <t>2025-05-14 11:39:48</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 07:01:48</t>
+          <t>2025-05-14 14:46:49</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8527</v>
+        <v>13279</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4988,7 +5003,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -5001,14 +5016,14 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-20.29292534722222</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-20.29292534722222</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>2</v>
@@ -5016,41 +5031,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251519</v>
+        <v>251464</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>205.859375</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:01:48</t>
+          <t>2025-05-14 14:46:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:48</t>
+          <t>2025-05-15 07:01:49</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:48</t>
+          <t>2025-05-15 07:01:49</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 10:50:40</t>
+          <t>2025-05-15 08:42:34</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>13175</v>
+        <v>7153</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5063,7 +5078,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -5076,56 +5091,56 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-6.362901017210648</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-6.362901017210648</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251246</v>
+        <v>250641</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>187.53125</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:50:40</t>
+          <t>2025-05-15 08:42:34</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 11:13:40</t>
+          <t>2025-05-15 09:01:34</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 11:13:40</t>
+          <t>2025-05-15 09:01:34</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 14:21:12</t>
+          <t>2025-05-15 10:13:38</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12002</v>
+        <v>5116</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5134,7 +5149,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -5151,56 +5166,56 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-17.42613458528935</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-17.42613458528935</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>244355</v>
+        <v>251374</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>67.34375</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:21:12</t>
+          <t>2025-05-15 10:13:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:12</t>
+          <t>2025-05-15 10:30:38</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:12</t>
+          <t>2025-05-15 10:30:38</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:32</t>
+          <t>2025-05-16 08:55:44</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4310</v>
+        <v>27343</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5209,11 +5224,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5226,56 +5241,56 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.324685329861111</v>
+        <v>-1.37204616587963</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-1.324685329861111</v>
+        <v>-1.37204616587963</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251547</v>
+        <v>251346</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>205.140625</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:32</t>
+          <t>2025-05-16 08:55:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 08:02:32</t>
+          <t>2025-05-16 09:12:44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 08:02:32</t>
+          <t>2025-05-16 09:12:44</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:27:41</t>
+          <t>2025-05-16 10:07:05</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>13129</v>
+        <v>3859</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5288,74 +5303,69 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-2.477560763888889</v>
+        <v>-18.42159624413194</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-2.477560763888889</v>
+        <v>-18.42159624413194</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251455</v>
+        <v>245350</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>82.765625</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:27:41</t>
+          <t>2025-05-16 10:07:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:42:41</t>
+          <t>2025-05-16 10:26:05</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:42:41</t>
+          <t>2025-05-16 10:26:05</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:27</t>
+          <t>2025-05-19 09:00:02</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5297</v>
+        <v>27970</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5364,36 +5374,31 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-2.545453559027778</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-2.545453559027778</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5401,41 +5406,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251391</v>
+        <v>250819</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>91.640625</v>
+        <v>174.0204081632653</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:27</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:27</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:27</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:05</t>
+          <t>2025-05-08 10:49:01</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5865</v>
+        <v>8527</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5448,74 +5453,66 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-2.6208984375</v>
-      </c>
-      <c r="S66" s="1" t="n">
-        <v>-2.6208984375</v>
-      </c>
-      <c r="T66" t="n">
-        <v>7</v>
+        <v>-20.45070861678241</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251395</v>
+        <v>251247</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>35.34375</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:05</t>
+          <t>2025-05-08 10:49:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:05</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:05</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:46:26</t>
+          <t>2025-05-09 12:33:41</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2262</v>
+        <v>26934</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5524,7 +5521,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5533,35 +5530,27 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-5.323914930555556</v>
-      </c>
-      <c r="S67" s="1" t="n">
-        <v>-5.323914930555556</v>
-      </c>
-      <c r="T67" t="n">
-        <v>7</v>
+        <v>-0.5233985260763889</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251396</v>
+        <v>251846</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5572,30 +5561,30 @@
         <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>35.34375</v>
+        <v>178</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:46:26</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:01:26</t>
+          <t>2025-05-07 07:15:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:01:26</t>
+          <t>2025-05-07 07:15:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:46</t>
+          <t>2025-05-07 10:13:00</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2262</v>
+        <v>11392</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5608,32 +5597,27 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-5.358875868055556</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-5.358875868055556</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5641,7 +5625,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251548</v>
+        <v>251456</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5649,33 +5633,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>206.90625</v>
+        <v>140.609375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:46</t>
+          <t>2025-05-07 10:13:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:46</t>
+          <t>2025-05-07 10:30:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:46</t>
+          <t>2025-05-07 10:30:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:41</t>
+          <t>2025-05-07 12:50:36</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13242</v>
+        <v>8999</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5688,13 +5672,13 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
       <c r="N69" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5702,26 +5686,26 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-5.515755208333333</v>
+        <v>-1.535145399305555</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-5.515755208333333</v>
+        <v>-1.535145399305555</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>245090</v>
+        <v>251397</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5729,33 +5713,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>8073.71875</v>
+        <v>84.921875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:41</t>
+          <t>2025-05-07 12:50:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:41</t>
+          <t>2025-05-07 13:05:36</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:41</t>
+          <t>2025-05-07 13:05:36</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-04 11:28:24</t>
+          <t>2025-05-07 14:30:31</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>516718</v>
+        <v>5435</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5764,14 +5748,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5781,22 +5765,22 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-9.604535590277777</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-9.604535590277777</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250894</v>
+        <v>251548</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5804,33 +5788,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D71" t="n">
-        <v>691.59375</v>
+        <v>206.90625</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:28:24</t>
+          <t>2025-05-07 14:30:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:43:24</t>
+          <t>2025-05-07 14:47:31</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-04 11:43:24</t>
+          <t>2025-05-07 14:47:31</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-06 07:15:00</t>
+          <t>2025-05-08 10:14:26</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>44262</v>
+        <v>13242</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5839,42 +5823,44 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N71" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-24.30208333333333</v>
+        <v>-1.426692708333333</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-24.30208333333333</v>
+        <v>-1.426692708333333</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>250923</v>
+        <v>251594</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5885,30 +5871,30 @@
         <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>109.46875</v>
+        <v>101.03125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:15:00</t>
+          <t>2025-05-08 10:14:26</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:30:00</t>
+          <t>2025-05-08 10:29:26</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-06 07:30:00</t>
+          <t>2025-05-08 10:29:26</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:28</t>
+          <t>2025-05-08 12:10:28</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7006</v>
+        <v>6466</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5917,44 +5903,39 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="N72" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-30.38851996527778</v>
+        <v>-1.507269965277778</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-30.38851996527778</v>
+        <v>-1.507269965277778</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251477</v>
+        <v>251475</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5962,33 +5943,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>468.734375</v>
+        <v>135.640625</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:28</t>
+          <t>2025-05-08 12:10:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:38:28</t>
+          <t>2025-05-08 12:25:28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-06 09:38:28</t>
+          <t>2025-05-08 12:25:28</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-09 09:27:12</t>
+          <t>2025-05-08 14:41:06</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>29999</v>
+        <v>8681</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5997,44 +5978,39 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
-      </c>
-      <c r="N73" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-33.39389105902778</v>
+        <v>-8.611881510416667</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-33.39389105902778</v>
+        <v>-8.611881510416667</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251782</v>
+        <v>251840</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6042,33 +6018,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>188.640625</v>
+        <v>89.28125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:27:12</t>
+          <t>2025-05-08 14:41:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:42:12</t>
+          <t>2025-05-08 14:58:06</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-09 09:42:12</t>
+          <t>2025-05-08 14:58:06</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-06-09 12:50:50</t>
+          <t>2025-05-09 08:27:23</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>12073</v>
+        <v>5714</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6077,17 +6053,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N74" t="n">
-        <v>39754</v>
+        <v>39758</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6095,18 +6071,18 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39754</v>
+        <v>39758</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-31.53530815972222</v>
+        <v>-1.352354600694444</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-31.53530815972222</v>
+        <v>-1.352354600694444</v>
       </c>
       <c r="T74" t="n">
         <v>1</v>
@@ -6114,41 +6090,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>244354</v>
+        <v>251391</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>78.36363636363636</v>
+        <v>91.640625</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 08:27:23</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-09 08:42:23</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-09 08:42:23</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:51</t>
+          <t>2025-05-09 10:14:01</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4310</v>
+        <v>5865</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6161,69 +6137,74 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.370044191921296</v>
+        <v>-2.426410590277778</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-1.370044191921296</v>
+        <v>-2.426410590277778</v>
       </c>
       <c r="T75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251284</v>
+        <v>251395</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>297.0909090909091</v>
+        <v>35.34375</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:51</t>
+          <t>2025-05-09 10:14:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:29:21</t>
+          <t>2025-05-09 10:31:01</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:29:21</t>
+          <t>2025-05-09 10:31:01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 14:26:27</t>
+          <t>2025-05-09 11:06:22</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>16340</v>
+        <v>2262</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6232,17 +6213,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
       <c r="N76" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6250,60 +6231,60 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-1.601704545451389</v>
+        <v>-2.462760416666667</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-1.601704545451389</v>
+        <v>-2.462760416666667</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251245</v>
+        <v>251396</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>13.70909090909091</v>
+        <v>35.34375</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 14:26:27</t>
+          <t>2025-05-09 11:06:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 14:58:57</t>
+          <t>2025-05-09 11:21:22</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 14:58:57</t>
+          <t>2025-05-09 11:21:22</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:12:39</t>
+          <t>2025-05-09 11:56:43</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>754</v>
+        <v>2262</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6312,7 +6293,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -6321,64 +6302,69 @@
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
+      <c r="N77" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-45.30046085858796</v>
+        <v>-2.497721354166667</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-45.30046085858796</v>
+        <v>-2.497721354166667</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251062</v>
+        <v>250894</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
-        <v>411.3454545454546</v>
+        <v>691.59375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:12:39</t>
+          <t>2025-05-09 11:56:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:43:09</t>
+          <t>2025-05-09 12:28:43</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:43:09</t>
+          <t>2025-05-09 12:28:43</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:30</t>
+          <t>2025-05-13 08:00:18</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>22624</v>
+        <v>44262</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6387,14 +6373,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N78" t="n">
+        <v>39755</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6404,56 +6393,56 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
+        <v>-0.3335503472222222</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>0</v>
+        <v>-0.3335503472222222</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251520</v>
+        <v>250923</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>297.0909090909091</v>
+        <v>109.46875</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:30</t>
+          <t>2025-05-13 08:00:18</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:07:00</t>
+          <t>2025-05-13 08:15:18</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:07:00</t>
+          <t>2025-05-13 08:15:18</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 12:04:06</t>
+          <t>2025-05-13 10:04:46</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>16340</v>
+        <v>7006</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6462,73 +6451,78 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N79" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-1.502847222222222</v>
+        <v>-6.419986979166667</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-1.502847222222222</v>
+        <v>-6.419986979166667</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251466</v>
+        <v>245089</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
-        <v>91.26229508196721</v>
+        <v>1916.640625</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 10:04:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-05-13 10:21:46</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-05-13 10:21:46</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 09:11:15</t>
+          <t>2025-05-19 10:18:25</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>5567</v>
+        <v>122665</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6537,14 +6531,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6554,14 +6548,14 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-0.4424863387962963</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-0.3828210382523148</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6569,7 +6563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251464</v>
+        <v>251809</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6577,33 +6571,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D81" t="n">
-        <v>117.2622950819672</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 09:11:15</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 09:38:15</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 09:38:15</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 11:35:31</t>
+          <t>2025-05-09 10:04:18</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>7153</v>
+        <v>8681</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6629,22 +6623,19 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-0.4830031876157407</v>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>-0.4830031876157407</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>244204</v>
+        <v>251743</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6655,30 +6646,30 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>56.91803278688525</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:35:31</t>
+          <t>2025-05-09 10:04:18</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 12:00:31</t>
+          <t>2025-05-09 10:29:18</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 12:00:31</t>
+          <t>2025-05-09 10:29:18</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:26</t>
+          <t>2025-05-09 13:25:58</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3472</v>
+        <v>10776</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6704,22 +6695,19 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-1.539890710381944</v>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>-1.539890710381944</v>
-      </c>
-      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251580</v>
+        <v>251466</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6727,33 +6715,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n">
-        <v>117.2622950819672</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:26</t>
+          <t>2025-05-09 13:25:58</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:26</t>
+          <t>2025-05-09 13:52:58</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:26</t>
+          <t>2025-05-09 13:52:58</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:42</t>
+          <t>2025-05-12 07:24:13</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>7153</v>
+        <v>5567</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6766,7 +6754,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6779,22 +6767,19 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T83" t="n">
+        <v>-3.308492714027778</v>
+      </c>
+      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251252</v>
+        <v>251465</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6802,33 +6787,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" t="n">
-        <v>247.2622950819672</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:42</t>
+          <t>2025-05-12 07:24:13</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:48:42</t>
+          <t>2025-05-12 07:51:13</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:48:42</t>
+          <t>2025-05-12 07:51:13</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:58</t>
+          <t>2025-05-12 09:33:17</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>15083</v>
+        <v>6226</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6837,11 +6822,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6854,56 +6839,53 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
+        <v>-3.398121584699074</v>
+      </c>
+      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251463</v>
+        <v>251580</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>142.1836734693877</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 09:33:17</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-12 10:02:17</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-12 10:02:17</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:11</t>
+          <t>2025-05-12 11:59:33</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>6967</v>
+        <v>7153</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6929,56 +6911,53 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
+      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251374</v>
+        <v>251260</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D86" t="n">
-        <v>558.0204081632653</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:11</t>
+          <t>2025-05-12 11:59:33</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:11</t>
+          <t>2025-05-12 12:28:33</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:11</t>
+          <t>2025-05-12 12:28:33</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-09 12:15:12</t>
+          <t>2025-05-13 07:02:08</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>27343</v>
+        <v>9369</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6987,11 +6966,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -7004,56 +6983,53 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
+      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251259</v>
+        <v>251795</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>102.0408163265306</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-09 12:15:12</t>
+          <t>2025-05-13 07:02:08</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:12</t>
+          <t>2025-05-13 07:27:08</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:12</t>
+          <t>2025-05-13 07:27:08</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:14</t>
+          <t>2025-05-13 12:34:20</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>5000</v>
+        <v>18739</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7062,11 +7038,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -7079,17 +7055,14 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-3.612670068032408</v>
-      </c>
-      <c r="S87" s="1" t="n">
-        <v>-3.612670068032408</v>
-      </c>
-      <c r="T87" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251782</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>174.9710144927536</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,40 +535,42 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:58</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12073</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39754</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,60 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39754</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-3.434007648958333</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-3.434007648958333</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250670</v>
+        <v>251782</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>22.65217391304348</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:58</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:58</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:58</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 11:17:37</t>
+          <t>2025-05-09 10:32:02</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1563</v>
+        <v>12073</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,73 +637,75 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="N3" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-7.470571658611112</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-7.470571658611112</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
+        <v>-0.4389182316087963</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>235572</v>
+        <v>251546</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>144.3188405797102</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:17:37</t>
+          <t>2025-05-09 10:32:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:52:37</t>
+          <t>2025-05-09 11:19:02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:52:37</t>
+          <t>2025-05-09 11:19:02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:56</t>
+          <t>2025-05-09 12:50:06</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9958</v>
+        <v>6466</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -713,7 +714,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -730,56 +731,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-553.5950986312384</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-553.5950986312384</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4</v>
+        <v>-9.534800469479167</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251561</v>
+        <v>251050</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>78.76811594202898</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:56</t>
+          <t>2025-05-09 12:50:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:56</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:56</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:42</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -788,73 +786,75 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-6.333826489537037</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-6.333826489537037</v>
-      </c>
-      <c r="T5" t="n">
-        <v>8</v>
+        <v>-4.340356025034722</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251245</v>
+        <v>251054</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>10.92753623188406</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:42</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:42</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:42</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:38</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -863,73 +863,75 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="N6" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-46.36224838969908</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-46.36224838969908</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
+        <v>-4.364661580590278</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>251081</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>271.5797101449276</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:38</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:06:38</t>
+          <t>2025-05-12 10:50:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:06:38</t>
+          <t>2025-05-12 10:50:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 13:38:13</t>
+          <t>2025-05-12 11:32:32</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>3012</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -938,18 +940,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -958,60 +960,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>39750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
+        <v>-19.4809272300463</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>144.9275362318841</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 13:38:13</t>
+          <t>2025-05-12 11:32:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 14:03:13</t>
+          <t>2025-05-12 13:12:32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 14:03:13</t>
+          <t>2025-05-12 13:12:32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-14 08:28:08</t>
+          <t>2025-05-13 09:02:40</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1019,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,60 +1037,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-7.352878421898148</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-7.352878421898148</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
+        <v>-5.376858372453704</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>244023</v>
+        <v>251109</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>14.44927536231884</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-14 08:28:08</t>
+          <t>2025-05-13 09:02:40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-14 08:53:08</t>
+          <t>2025-05-13 10:22:40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-14 08:53:08</t>
+          <t>2025-05-13 10:22:40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 09:07:35</t>
+          <t>2025-05-13 14:49:16</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>997</v>
+        <v>18928</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1100,11 +1096,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1117,56 +1113,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-226.3802737520139</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-226.3802737520139</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
+        <v>-25.61754694835648</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251061</v>
+        <v>245275</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>347.7826086956522</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:07:35</t>
+          <t>2025-05-13 14:49:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:32:35</t>
+          <t>2025-05-14 07:34:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:32:35</t>
+          <t>2025-05-14 07:34:16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-15 07:20:22</t>
+          <t>2025-05-14 13:16:26</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>23997</v>
+        <v>24294</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1175,11 +1168,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1192,56 +1185,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-10.30581723027778</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-10.30581723027778</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251251</v>
+        <v>251520</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D11" t="n">
-        <v>229.8550724637681</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-15 07:20:22</t>
+          <t>2025-05-14 13:16:26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-15 07:45:22</t>
+          <t>2025-05-14 14:26:26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-15 07:45:22</t>
+          <t>2025-05-14 14:26:26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-15 11:35:13</t>
+          <t>2025-05-15 10:16:34</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>15860</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1250,11 +1240,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1267,56 +1257,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
+        <v>-3.428178794988426</v>
+      </c>
+      <c r="S11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251987</v>
+        <v>251846</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>3051.101449275362</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:35:13</t>
+          <t>2025-05-15 10:16:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-15 12:05:13</t>
+          <t>2025-05-15 11:16:34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-15 12:05:13</t>
+          <t>2025-05-15 11:16:34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-23 14:56:20</t>
+          <t>2025-05-15 13:57:01</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>210526</v>
+        <v>11392</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1325,14 +1312,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1342,101 +1329,91 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
+      <c r="S12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251706</v>
+        <v>251340</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>50.79365079365079</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-15 13:57:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-15 14:34:01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-15 14:34:01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-16 14:16:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3200</v>
+        <v>32800</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-18.59444444444444</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251546</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1444,33 +1421,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>91.07042253521126</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-16 14:16:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-19 07:06:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:00</t>
+          <t>2025-05-19 07:06:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-20 10:05:34</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6466</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1479,14 +1456,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39755</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1496,22 +1476,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-9.391021126759259</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-9.391021126759259</v>
-      </c>
-      <c r="T14" t="n">
-        <v>7</v>
+        <v>-7.420539906099537</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251284</v>
+        <v>251519</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1519,33 +1496,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>230.1408450704225</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:04</t>
+          <t>2025-05-20 10:05:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:08:04</t>
+          <t>2025-05-20 10:57:34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:08:04</t>
+          <t>2025-05-20 10:57:34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:12</t>
+          <t>2025-05-20 14:03:08</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>16340</v>
+        <v>13175</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1554,78 +1531,70 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.582091158055555</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-1.582091158055555</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251259</v>
+        <v>251456</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D16" t="n">
-        <v>70.4225352112676</v>
+        <v>163.6181818181818</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:12</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 14:43:12</t>
+          <t>2025-05-09 07:32:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 14:43:12</t>
+          <t>2025-05-09 07:32:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:53:38</t>
+          <t>2025-05-09 10:16:07</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5000</v>
+        <v>8999</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1638,69 +1607,74 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-6.32891236306713</v>
+        <v>-3.427859848483796</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-6.32891236306713</v>
+        <v>-3.427859848483796</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>245275</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>36.5</v>
       </c>
       <c r="D17" t="n">
-        <v>342.1690140845071</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:53:38</t>
+          <t>2025-05-09 10:16:07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:38</t>
+          <t>2025-05-09 10:52:37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:53:38</t>
+          <t>2025-05-09 10:52:37</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:48</t>
+          <t>2025-05-12 08:33:19</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>24294</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1709,24 +1683,31 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1736,46 +1717,46 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251109</v>
+        <v>251424</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="D18" t="n">
-        <v>266.5915492957747</v>
+        <v>175.6727272727273</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:48</t>
+          <t>2025-05-12 08:33:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:48</t>
+          <t>2025-05-12 09:07:49</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:48</t>
+          <t>2025-05-12 09:07:49</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:23</t>
+          <t>2025-05-12 12:03:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18928</v>
+        <v>9662</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1784,11 +1765,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1801,56 +1782,56 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-25.49124608763888</v>
+        <v>-14.50243055555556</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-25.49124608763888</v>
+        <v>-14.50243055555556</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251081</v>
+        <v>251467</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>55</v>
+        <v>34.5</v>
       </c>
       <c r="D19" t="n">
-        <v>42.42253521126761</v>
+        <v>113.2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:23</t>
+          <t>2025-05-12 12:03:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:23</t>
+          <t>2025-05-12 12:38:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:23</t>
+          <t>2025-05-12 12:38:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:49</t>
+          <t>2025-05-12 14:31:12</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3012</v>
+        <v>6226</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1859,80 +1840,73 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-20.5589006259838</v>
+        <v>-3.605</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-20.5589006259838</v>
+        <v>-3.605</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251050</v>
+        <v>251397</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>125</v>
+        <v>32.5</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:49</t>
+          <t>2025-05-12 14:31:12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:49</t>
+          <t>2025-05-13 07:03:42</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:49</t>
+          <t>2025-05-13 07:03:42</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:49</t>
+          <t>2025-05-13 08:42:31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1941,78 +1915,73 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-6.312372848206019</v>
+        <v>-15.3628598484838</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-6.312372848206019</v>
+        <v>-15.3628598484838</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251054</v>
+        <v>251743</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>195.9272727272727</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:49</t>
+          <t>2025-05-13 08:42:31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:49</t>
+          <t>2025-05-13 09:15:01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:49</t>
+          <t>2025-05-13 09:15:01</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:49</t>
+          <t>2025-05-13 12:30:56</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10776</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,44 +1990,39 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-6.336678403761574</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-6.336678403761574</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251467</v>
+        <v>251742</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2069,30 +2033,30 @@
         <v>30.5</v>
       </c>
       <c r="D22" t="n">
-        <v>113.2</v>
+        <v>149.5636363636364</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 12:30:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:30</t>
+          <t>2025-05-13 13:01:26</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:30</t>
+          <t>2025-05-13 13:01:26</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:42</t>
+          <t>2025-05-14 07:31:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6226</v>
+        <v>8226</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2105,35 +2069,40 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="N22" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.3914583333333334</v>
+        <v>-7.313200757581019</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.3914583333333334</v>
+        <v>-7.313200757581019</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251252</v>
+        <v>251260</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2141,33 +2110,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="D23" t="n">
-        <v>274.2363636363636</v>
+        <v>170.3454545454545</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:42</t>
+          <t>2025-05-14 07:31:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:12</t>
+          <t>2025-05-14 08:05:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:12</t>
+          <t>2025-05-14 08:05:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:26</t>
+          <t>2025-05-14 10:55:51</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15083</v>
+        <v>9369</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2176,7 +2145,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -2193,7 +2162,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2208,41 +2177,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251062</v>
+        <v>251475</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>411.3454545454546</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:26</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:56</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:06:56</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:16</t>
+          <t>2025-05-08 09:52:18</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>22624</v>
+        <v>8681</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2251,11 +2220,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2268,56 +2237,56 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-8.61592668488426</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-8.411327413483797</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251283</v>
+        <v>244355</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>13.70909090909091</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:16</t>
+          <t>2025-05-08 09:52:18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:46</t>
+          <t>2025-05-08 10:12:18</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:46</t>
+          <t>2025-05-08 10:12:18</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:29</t>
+          <t>2025-05-08 11:22:58</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>754</v>
+        <v>4310</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2326,11 +2295,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2343,56 +2312,56 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-55.61284090908564</v>
+        <v>-0.474282786886574</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-55.61284090908564</v>
+        <v>-0.474282786886574</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251246</v>
+        <v>251164</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>218.2181818181818</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:29</t>
+          <t>2025-05-08 11:22:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:59</t>
+          <t>2025-05-08 11:52:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:59</t>
+          <t>2025-05-08 11:52:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 10:51:12</t>
+          <t>2025-05-08 14:36:54</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12002</v>
+        <v>10000</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2401,7 +2370,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2410,64 +2379,69 @@
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="N26" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-4.452228535358796</v>
+        <v>-1.608959471770834</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-4.452228535358796</v>
+        <v>-1.608959471770834</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251249</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>86.50909090909092</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 10:51:12</t>
+          <t>2025-05-08 14:36:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 11:21:42</t>
+          <t>2025-05-09 07:16:54</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 11:21:42</t>
+          <t>2025-05-09 07:16:54</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:13</t>
+          <t>2025-05-09 10:20:52</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4758</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2476,15 +2450,18 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
+      <c r="N27" t="n">
+        <v>39755</v>
+      </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
@@ -2493,7 +2470,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2503,46 +2480,46 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251520</v>
+        <v>251840</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>297.0909090909091</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:13</t>
+          <t>2025-05-09 10:20:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 13:20:43</t>
+          <t>2025-05-09 10:55:52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 13:20:43</t>
+          <t>2025-05-09 10:55:52</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-14 10:17:48</t>
+          <t>2025-05-09 12:29:32</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>16340</v>
+        <v>5714</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2551,31 +2528,36 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.429034090914352</v>
+        <v>-1.520514571944445</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-2.429034090914352</v>
+        <v>-1.520514571944445</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -2583,7 +2565,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251416</v>
+        <v>251594</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2591,33 +2573,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>183.9672131147541</v>
+        <v>106</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 12:29:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-09 12:54:32</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-09 12:54:32</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 10:23:58</t>
+          <t>2025-05-09 14:40:32</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11222</v>
+        <v>6466</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2630,14 +2612,11 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39755</v>
-      </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
@@ -2646,22 +2625,22 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-2.611486794166667</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-2.611486794166667</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251564</v>
+        <v>250819</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2669,33 +2648,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>44.54098360655738</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 10:23:58</t>
+          <t>2025-05-09 14:40:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 10:48:58</t>
+          <t>2025-05-12 07:10:32</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 10:48:58</t>
+          <t>2025-05-12 07:10:32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:30</t>
+          <t>2025-05-12 09:30:19</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2717</v>
+        <v>8527</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2708,7 +2687,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2721,22 +2700,22 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.481602914386574</v>
+        <v>-24.39606102003472</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-1.481602914386574</v>
+        <v>-24.39606102003472</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251626</v>
+        <v>251373</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2744,33 +2723,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>204.9180327868852</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 11:33:30</t>
+          <t>2025-05-12 09:30:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 11:53:30</t>
+          <t>2025-05-12 09:55:19</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 11:53:30</t>
+          <t>2025-05-12 09:55:19</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 07:18:25</t>
+          <t>2025-05-12 14:35:33</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12500</v>
+        <v>17094</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2783,7 +2762,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2796,22 +2775,22 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.304462659375</v>
+        <v>-14.60802595628472</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-9.304462659375</v>
+        <v>-14.60802595628472</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>244354</v>
+        <v>251505</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2819,33 +2798,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>70.65573770491804</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:18:25</t>
+          <t>2025-05-12 14:35:33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:25</t>
+          <t>2025-05-12 14:55:33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:25</t>
+          <t>2025-05-12 14:55:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 08:54:04</t>
+          <t>2025-05-13 10:49:14</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4310</v>
+        <v>14255</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2858,7 +2837,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2871,22 +2850,22 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-1.370890255011574</v>
+        <v>-8.450865209467592</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-1.370890255011574</v>
+        <v>-8.450865209467592</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251424</v>
+        <v>251466</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2894,33 +2873,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>158.3934426229508</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 08:54:04</t>
+          <t>2025-05-13 10:49:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:04</t>
+          <t>2025-05-13 11:19:14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:04</t>
+          <t>2025-05-13 11:19:14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:28</t>
+          <t>2025-05-13 12:50:30</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>9662</v>
+        <v>5567</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2933,7 +2912,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2946,22 +2925,22 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-11.49477459016204</v>
+        <v>-4.535075136608796</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-11.49477459016204</v>
+        <v>-4.535075136608796</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251371</v>
+        <v>251465</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2969,33 +2948,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 11:52:28</t>
+          <t>2025-05-13 12:50:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:28</t>
+          <t>2025-05-13 13:15:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:28</t>
+          <t>2025-05-13 13:15:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:28</t>
+          <t>2025-05-13 14:57:34</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3008,42 +2987,35 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-15.50866347905093</v>
+        <v>-4.623315118402777</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-15.50866347905093</v>
+        <v>-4.623315118402777</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251505</v>
+        <v>251562</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3051,33 +3023,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>233.6885245901639</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:28</t>
+          <t>2025-05-13 14:57:34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:28</t>
+          <t>2025-05-14 07:17:34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:28</t>
+          <t>2025-05-14 07:17:34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:09</t>
+          <t>2025-05-14 09:31:02</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>14255</v>
+        <v>8142</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3090,7 +3062,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3103,22 +3075,22 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-7.354974954467593</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-7.354974954467593</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251373</v>
+        <v>251251</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3126,33 +3098,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>280.2295081967213</v>
+        <v>260</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:09</t>
+          <t>2025-05-14 09:31:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:51:09</t>
+          <t>2025-05-14 10:11:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:51:09</t>
+          <t>2025-05-14 10:11:02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:23</t>
+          <t>2025-05-14 14:31:02</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>17094</v>
+        <v>15860</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3161,11 +3133,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3178,56 +3150,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-14.5634676684838</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-14.5634676684838</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251485</v>
+        <v>250923</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
-        <v>78.81967213114754</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:23</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:23</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:23</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:12</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4808</v>
+        <v>7006</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3236,31 +3208,36 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-20.29875910746528</v>
+        <v>-1.583108372453704</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-20.29875910746528</v>
+        <v>-1.583108372453704</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3268,41 +3245,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251463</v>
+        <v>251225</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>114.2131147540984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:12</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:12</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:12</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:25</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6967</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3311,31 +3288,36 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-4.395434881597223</v>
+        <v>-0.5949139280092592</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-4.395434881597223</v>
+        <v>-0.5949139280092592</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -3343,41 +3325,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251462</v>
+        <v>250670</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>102.0655737704918</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:25</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:25</t>
+          <t>2025-05-08 14:31:40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:25</t>
+          <t>2025-05-08 14:31:40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:29</t>
+          <t>2025-05-08 14:53:41</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6226</v>
+        <v>1563</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3386,73 +3368,73 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>-3.620618153368055</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>-3.620618153368055</v>
+      </c>
+      <c r="T39" t="n">
         <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R39" s="1" t="n">
-        <v>-4.487147085613426</v>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>-4.487147085613426</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251557</v>
+        <v>243569</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>109.9180327868852</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:29</t>
+          <t>2025-05-08 14:53:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 12:01:29</t>
+          <t>2025-05-09 07:10:41</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 12:01:29</t>
+          <t>2025-05-09 07:10:41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:24</t>
+          <t>2025-05-09 07:47:19</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6705</v>
+        <v>2601</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3461,39 +3443,39 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>76</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>-235.3245305164352</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>-235.3245305164352</v>
+      </c>
+      <c r="T40" t="n">
         <v>2</v>
-      </c>
-      <c r="M40" t="n">
-        <v>70</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>243569</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3501,33 +3483,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>36.63380281690141</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:47:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 08:19:19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 08:19:19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:38</t>
+          <t>2025-05-09 14:31:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2601</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3540,10 +3522,10 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3553,14 +3535,14 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-259.3605242566551</v>
+        <v>-104.6051545383449</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-234.5372456964004</v>
+        <v>-104.6051545383449</v>
       </c>
       <c r="T41" t="n">
         <v>2</v>
@@ -3568,7 +3550,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251477</v>
+        <v>243335</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3576,33 +3558,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>422.5211267605634</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:38</t>
+          <t>2025-05-09 14:31:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 13:08:38</t>
+          <t>2025-05-09 14:50:25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 13:08:38</t>
+          <t>2025-05-09 14:50:25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:09</t>
+          <t>2025-05-12 14:35:16</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>29999</v>
+        <v>33004</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3611,36 +3593,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="N42" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-2.507746478877315</v>
+        <v>-283.6078247261343</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-2.507746478877315</v>
+        <v>-283.6078247261343</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -3648,7 +3625,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>245090</v>
+        <v>251987</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3656,33 +3633,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>7277.718309859155</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:09</t>
+          <t>2025-05-12 14:35:16</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:09</t>
+          <t>2025-05-13 07:09:16</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:09</t>
+          <t>2025-05-13 07:09:16</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-30 13:47:52</t>
+          <t>2025-05-21 08:34:25</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>516718</v>
+        <v>210526</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3691,11 +3668,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>76</v>
@@ -3708,7 +3685,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3723,41 +3700,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>250759</v>
+        <v>251564</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
-        <v>118.2816901408451</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-30 13:47:52</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-30 14:04:52</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-30 14:04:52</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-02 08:03:09</t>
+          <t>2025-05-08 08:10:16</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>8398</v>
+        <v>2717</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3766,78 +3743,73 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-25.33552425665509</v>
+        <v>-1.340463615023148</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-25.33552425665509</v>
+        <v>-1.340463615023148</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251225</v>
+        <v>251346</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:03:09</t>
+          <t>2025-05-08 08:10:16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:18:09</t>
+          <t>2025-05-08 08:35:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:18:09</t>
+          <t>2025-05-08 08:35:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:18:09</t>
+          <t>2025-05-08 09:29:37</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3859</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3846,78 +3818,73 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-25.34594092332176</v>
+        <v>-10.39556924883102</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-25.34594092332176</v>
+        <v>-10.39556924883102</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251227</v>
+        <v>251455</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:18:09</t>
+          <t>2025-05-08 09:29:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:33:09</t>
+          <t>2025-05-08 09:52:37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:33:09</t>
+          <t>2025-05-08 09:52:37</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:33:09</t>
+          <t>2025-05-08 11:07:13</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3926,17 +3893,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N46" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3944,60 +3911,60 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-27.35635758998843</v>
+        <v>-1.463350938969907</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-27.35635758998843</v>
+        <v>-1.463350938969907</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243335</v>
+        <v>244204</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>464.8450704225352</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-02 08:33:09</t>
+          <t>2025-05-08 11:07:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-02 09:03:09</t>
+          <t>2025-05-08 11:22:13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-02 09:03:09</t>
+          <t>2025-05-08 11:22:13</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-03 08:48:00</t>
+          <t>2025-05-08 12:11:07</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>33004</v>
+        <v>3472</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4006,14 +3973,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4023,56 +3990,56 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-305.3666666666667</v>
+        <v>-0.5077269170601851</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-305.3666666666667</v>
+        <v>-0.5077269170601851</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251750</v>
+        <v>251547</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>54.80281690140845</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-03 08:48:00</t>
+          <t>2025-05-08 12:11:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-03 09:05:00</t>
+          <t>2025-05-08 12:26:07</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-03 09:05:00</t>
+          <t>2025-05-08 12:26:07</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-03 09:59:48</t>
+          <t>2025-05-09 07:31:02</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3891</v>
+        <v>13129</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4081,73 +4048,78 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>152</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-8.416529733958333</v>
+        <v>-2.313223787164352</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-8.416529733958333</v>
+        <v>-2.313223787164352</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245623</v>
+        <v>250759</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>372.0985915492957</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-03 09:59:48</t>
+          <t>2025-05-09 07:31:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-03 10:16:48</t>
+          <t>2025-05-09 08:01:02</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-03 10:16:48</t>
+          <t>2025-05-09 08:01:02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-04 08:28:54</t>
+          <t>2025-05-09 09:59:19</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>26419</v>
+        <v>8398</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4156,39 +4128,44 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>152</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-130.353403755868</v>
+        <v>-1.416197183101852</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-130.353403755868</v>
+        <v>-1.416197183101852</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251340</v>
+        <v>235572</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4196,33 +4173,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>461.9718309859155</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:59:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:15:00</t>
+          <t>2025-05-09 10:31:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:15:00</t>
+          <t>2025-05-09 10:31:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:58</t>
+          <t>2025-05-09 12:51:34</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>32800</v>
+        <v>9958</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4231,14 +4208,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4248,14 +4225,14 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-14.53165101721065</v>
+        <v>-550.5358176838773</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-10.62289710484954</v>
+        <v>-550.5358176838773</v>
       </c>
       <c r="T50" t="n">
         <v>4</v>
@@ -4263,7 +4240,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251651</v>
+        <v>251462</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4274,30 +4251,30 @@
         <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>659.5774647887324</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:58</t>
+          <t>2025-05-09 12:51:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:17:58</t>
+          <t>2025-05-09 13:12:34</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:17:58</t>
+          <t>2025-05-09 13:12:34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 10:17:32</t>
+          <t>2025-05-09 14:40:16</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>46830</v>
+        <v>6226</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4306,17 +4283,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="N51" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4326,22 +4300,22 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.6112969483564815</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-0.6112969483564815</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251566</v>
+        <v>245350</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4349,33 +4323,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>97.02816901408451</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 10:17:32</t>
+          <t>2025-05-09 14:40:16</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:32</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:32</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:26:34</t>
+          <t>2025-05-12 13:45:12</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6889</v>
+        <v>27970</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4384,11 +4358,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4401,22 +4375,22 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-5.518456572766204</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-5.518456572766204</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251562</v>
+        <v>251557</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4424,33 +4398,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
-        <v>114.6760563380282</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 12:26:34</t>
+          <t>2025-05-12 13:45:12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 12:45:34</t>
+          <t>2025-05-12 14:16:12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 12:45:34</t>
+          <t>2025-05-12 14:16:12</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:40:15</t>
+          <t>2025-05-13 07:50:38</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8142</v>
+        <v>6705</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4491,7 +4465,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251519</v>
+        <v>251062</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4499,33 +4473,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>185.5633802816901</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:40:15</t>
+          <t>2025-05-13 07:50:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:15</t>
+          <t>2025-05-13 08:13:38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:15</t>
+          <t>2025-05-13 08:13:38</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:49</t>
+          <t>2025-05-13 13:32:17</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13175</v>
+        <v>22624</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4534,11 +4508,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4551,7 +4525,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4561,46 +4535,46 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>244204</v>
+        <v>251245</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D55" t="n">
-        <v>48.90140845070422</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:49</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:49</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:49</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 11:08:43</t>
+          <t>2025-05-09 07:58:21</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3472</v>
+        <v>754</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4609,11 +4583,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4626,56 +4600,56 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-5.464387715185185</v>
+        <v>-42.33219489981482</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-5.464387715185185</v>
+        <v>-42.33219489981482</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244355</v>
+        <v>251259</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>60.70422535211268</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:08:43</t>
+          <t>2025-05-09 07:58:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:43</t>
+          <t>2025-05-09 08:29:21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:43</t>
+          <t>2025-05-09 08:29:21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 12:24:25</t>
+          <t>2025-05-09 09:51:19</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4310</v>
+        <v>5000</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4688,7 +4662,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4701,56 +4675,56 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-5.516960093900463</v>
+        <v>-3.410644353368056</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-5.516960093900463</v>
+        <v>-3.410644353368056</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>74.6056338028169</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 12:24:25</t>
+          <t>2025-05-09 09:51:19</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:25</t>
+          <t>2025-05-09 10:24:19</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:25</t>
+          <t>2025-05-09 10:24:19</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 13:54:01</t>
+          <t>2025-05-09 12:00:28</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4763,7 +4737,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4781,14 +4755,14 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-6.579186228483796</v>
+        <v>-2.500330145717593</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-6.579186228483796</v>
+        <v>-2.500330145717593</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4796,41 +4770,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251742</v>
+        <v>251061</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
-        <v>115.8591549295775</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 13:54:01</t>
+          <t>2025-05-09 12:00:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:01</t>
+          <t>2025-05-09 12:27:28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:01</t>
+          <t>2025-05-09 12:27:28</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:53</t>
+          <t>2025-05-12 11:00:52</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>8226</v>
+        <v>23997</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4839,78 +4813,73 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="N58" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.336727308298611</v>
+        <v>-7.458936703101852</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-7.336727308298611</v>
+        <v>-7.458936703101852</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251547</v>
+        <v>250894</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>184.9154929577465</v>
+        <v>725.6065573770492</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:53</t>
+          <t>2025-05-12 11:00:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:53</t>
+          <t>2025-05-12 11:42:52</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:53</t>
+          <t>2025-05-12 11:42:52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 11:24:48</t>
+          <t>2025-05-14 07:48:28</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>13129</v>
+        <v>44262</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4919,78 +4888,76 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>-1.325330145717593</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>-1.325330145717593</v>
+      </c>
+      <c r="T59" t="n">
         <v>4</v>
-      </c>
-      <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R59" s="1" t="n">
-        <v>-7.475557511736111</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <v>-7.475557511736111</v>
-      </c>
-      <c r="T59" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251761</v>
+        <v>251750</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D60" t="n">
-        <v>187.0281690140845</v>
+        <v>63.78688524590164</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 11:24:48</t>
+          <t>2025-05-14 07:48:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:48</t>
+          <t>2025-05-14 08:32:28</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:48</t>
+          <t>2025-05-14 08:32:28</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 14:46:49</t>
+          <t>2025-05-14 09:36:15</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>13279</v>
+        <v>3891</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4999,14 +4966,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -5016,7 +4983,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -5026,46 +4993,46 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251464</v>
+        <v>245090</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>100.7464788732394</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-14 14:46:49</t>
+          <t>2025-05-14 09:36:15</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-15 07:01:49</t>
+          <t>2025-05-14 10:20:15</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-15 07:01:49</t>
+          <t>2025-05-14 10:20:15</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-15 08:42:34</t>
+          <t>2025-06-09 07:31:02</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>7153</v>
+        <v>516718</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5074,14 +5041,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5091,14 +5058,14 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-6.362901017210648</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-6.362901017210648</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
@@ -5106,41 +5073,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>250641</v>
+        <v>251477</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>72.05633802816901</v>
+        <v>434.768115942029</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-15 08:42:34</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:34</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:34</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-15 10:13:38</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5116</v>
+        <v>29999</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5149,20 +5116,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N62" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5170,52 +5142,49 @@
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-17.42613458528935</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>-17.42613458528935</v>
-      </c>
-      <c r="T62" t="n">
-        <v>2</v>
+        <v>-5.614422302743056</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251374</v>
+        <v>251247</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>385.112676056338</v>
+        <v>390.3478260869565</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-15 10:13:38</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-15 10:30:38</t>
+          <t>2025-05-13 07:29:46</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-15 10:30:38</t>
+          <t>2025-05-13 07:29:46</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-16 08:55:44</t>
+          <t>2025-05-13 14:00:06</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>27343</v>
+        <v>26934</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5228,7 +5197,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5241,56 +5210,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.37204616587963</v>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>-1.37204616587963</v>
-      </c>
-      <c r="T63" t="n">
+        <v>-4.58341384863426</v>
+      </c>
+      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251346</v>
+        <v>251809</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>54.35211267605634</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-16 08:55:44</t>
+          <t>2025-05-13 14:00:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-16 09:12:44</t>
+          <t>2025-05-13 14:35:06</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-16 09:12:44</t>
+          <t>2025-05-13 14:35:06</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-16 10:07:05</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3859</v>
+        <v>8681</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5303,7 +5269,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5316,56 +5282,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-18.42159624413194</v>
-      </c>
-      <c r="S64" s="1" t="n">
-        <v>-18.42159624413194</v>
-      </c>
-      <c r="T64" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>245350</v>
+        <v>251249</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>393.943661971831</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-16 10:07:05</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-16 10:26:05</t>
+          <t>2025-05-14 09:15:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-16 10:26:05</t>
+          <t>2025-05-14 09:15:55</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-19 09:00:02</t>
+          <t>2025-05-14 10:24:53</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>27970</v>
+        <v>4758</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5374,11 +5337,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5391,56 +5354,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>7</v>
+      <c r="S65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>250819</v>
+        <v>251795</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>174.0204081632653</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 10:24:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 10:49:53</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 10:49:53</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-08 10:49:01</t>
+          <t>2025-05-15 07:21:27</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8527</v>
+        <v>18739</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5449,7 +5409,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5466,53 +5426,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-20.45070861678241</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251247</v>
+        <v>251227</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
-        <v>549.6734693877551</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:49:01</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-09 12:33:41</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>26934</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5521,36 +5481,44 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N67" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.5233985260763889</v>
-      </c>
-      <c r="S67" t="n">
+        <v>-1.342068142361111</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>-1.315277777777778</v>
+      </c>
+      <c r="T67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251846</v>
+        <v>251371</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5558,33 +5526,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:15:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:15:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 10:13:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>11392</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5597,27 +5565,34 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-13.33611111111111</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-13.33611111111111</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5625,7 +5600,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251456</v>
+        <v>244023</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5633,33 +5608,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>140.609375</v>
+        <v>15.578125</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 10:13:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:00</t>
+          <t>2025-05-07 08:23:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:00</t>
+          <t>2025-05-07 08:23:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:50:36</t>
+          <t>2025-05-07 08:38:34</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8999</v>
+        <v>997</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5672,32 +5647,27 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.535145399305555</v>
+        <v>-219.3601236979167</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-1.535145399305555</v>
+        <v>-219.3601236979167</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
@@ -5705,7 +5675,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251397</v>
+        <v>251396</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5716,30 +5686,30 @@
         <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>84.921875</v>
+        <v>35.34375</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:50:36</t>
+          <t>2025-05-07 08:38:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 13:05:36</t>
+          <t>2025-05-07 08:53:34</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 13:05:36</t>
+          <t>2025-05-07 08:53:34</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:31</t>
+          <t>2025-05-07 09:28:55</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5435</v>
+        <v>2262</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5752,35 +5722,40 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
+      <c r="N70" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-9.604535590277777</v>
+        <v>-0.3950846354166667</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-9.604535590277777</v>
+        <v>-0.3950846354166667</v>
       </c>
       <c r="T70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251548</v>
+        <v>251395</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5788,33 +5763,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:31</t>
+          <t>2025-05-07 09:28:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 14:47:31</t>
+          <t>2025-05-07 09:43:55</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 14:47:31</t>
+          <t>2025-05-07 09:43:55</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:26</t>
+          <t>2025-05-07 10:19:15</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5827,7 +5802,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5845,14 +5820,14 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.426692708333333</v>
+        <v>-0.4300455729166667</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-1.426692708333333</v>
+        <v>-0.4300455729166667</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -5860,7 +5835,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251594</v>
+        <v>251548</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5868,33 +5843,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>101.03125</v>
+        <v>206.90625</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:26</t>
+          <t>2025-05-07 10:19:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:26</t>
+          <t>2025-05-07 10:38:15</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:26</t>
+          <t>2025-05-07 10:38:15</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 12:10:28</t>
+          <t>2025-05-07 14:05:10</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6466</v>
+        <v>13242</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5912,30 +5887,35 @@
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-1.507269965277778</v>
+        <v>-0.5869249131944444</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-1.507269965277778</v>
+        <v>-0.5869249131944444</v>
       </c>
       <c r="T72" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251475</v>
+        <v>251463</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5946,30 +5926,30 @@
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>135.640625</v>
+        <v>108.859375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 12:10:28</t>
+          <t>2025-05-07 14:05:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 12:25:28</t>
+          <t>2025-05-07 14:20:10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 12:25:28</t>
+          <t>2025-05-07 14:20:10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:06</t>
+          <t>2025-05-08 08:09:01</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>8681</v>
+        <v>6967</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5995,22 +5975,22 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-8.611881510416667</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-8.611881510416667</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251840</v>
+        <v>251626</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6021,30 +6001,30 @@
         <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>89.28125</v>
+        <v>195.3125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:06</t>
+          <t>2025-05-08 08:09:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 14:58:06</t>
+          <t>2025-05-08 08:26:01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 14:58:06</t>
+          <t>2025-05-08 08:26:01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 08:27:23</t>
+          <t>2025-05-08 11:41:20</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5714</v>
+        <v>12500</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6057,40 +6037,35 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-1.352354600694444</v>
+        <v>-8.487044270833334</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-1.352354600694444</v>
+        <v>-8.487044270833334</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251391</v>
+        <v>250641</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6098,33 +6073,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>91.640625</v>
+        <v>79.9375</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:27:23</t>
+          <t>2025-05-08 11:41:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:42:23</t>
+          <t>2025-05-08 12:02:20</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:42:23</t>
+          <t>2025-05-08 12:02:20</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:01</t>
+          <t>2025-05-08 13:22:16</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5865</v>
+        <v>5116</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6137,40 +6112,35 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-2.426410590277778</v>
+        <v>-10.55713975694444</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-2.426410590277778</v>
+        <v>-10.55713975694444</v>
       </c>
       <c r="T75" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251395</v>
+        <v>251283</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6178,33 +6148,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>35.34375</v>
+        <v>11.78125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:01</t>
+          <t>2025-05-08 13:22:16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:31:01</t>
+          <t>2025-05-08 13:37:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:31:01</t>
+          <t>2025-05-08 13:37:16</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:22</t>
+          <t>2025-05-08 13:49:03</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2262</v>
+        <v>754</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6213,7 +6183,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6222,35 +6192,30 @@
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-2.462760416666667</v>
+        <v>-51.57573784722222</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-2.462760416666667</v>
+        <v>-51.57573784722222</v>
       </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251396</v>
+        <v>251561</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6258,33 +6223,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>35.34375</v>
+        <v>84.921875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:22</t>
+          <t>2025-05-08 13:49:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:22</t>
+          <t>2025-05-08 14:06:03</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:22</t>
+          <t>2025-05-08 14:06:03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:43</t>
+          <t>2025-05-09 07:30:59</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2262</v>
+        <v>5435</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6297,40 +6262,35 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="N77" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-2.497721354166667</v>
+        <v>-2.31318359375</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-2.497721354166667</v>
+        <v>-2.31318359375</v>
       </c>
       <c r="T77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>250894</v>
+        <v>251246</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6338,33 +6298,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>691.59375</v>
+        <v>187.53125</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:43</t>
+          <t>2025-05-09 07:30:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:43</t>
+          <t>2025-05-09 07:47:59</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:43</t>
+          <t>2025-05-09 07:47:59</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:18</t>
+          <t>2025-05-09 10:55:30</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>44262</v>
+        <v>12002</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6373,17 +6333,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
-      </c>
-      <c r="N78" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6393,22 +6350,22 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-0.3335503472222222</v>
+        <v>-0.4552191840277778</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-0.3335503472222222</v>
+        <v>-0.4552191840277778</v>
       </c>
       <c r="T78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>250923</v>
+        <v>251374</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6416,33 +6373,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>109.46875</v>
+        <v>427.234375</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:18</t>
+          <t>2025-05-09 10:55:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:18</t>
+          <t>2025-05-09 11:12:30</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:18</t>
+          <t>2025-05-09 11:12:30</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:04:46</t>
+          <t>2025-05-12 10:19:45</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>7006</v>
+        <v>27343</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6451,39 +6408,34 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
-      </c>
-      <c r="N79" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-6.419986979166667</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-6.419986979166667</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6496,29 +6448,29 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
         <v>1916.640625</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:04:46</t>
+          <t>2025-05-12 10:19:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:21:46</t>
+          <t>2025-05-12 10:55:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:21:46</t>
+          <t>2025-05-12 10:55:45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-19 10:18:25</t>
+          <t>2025-05-16 10:52:23</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6563,41 +6515,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251809</v>
+        <v>251566</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>142.3114754098361</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:18</t>
+          <t>2025-05-08 10:05:35</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>8681</v>
+        <v>6889</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6623,53 +6575,56 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" t="n">
-        <v>4</v>
+        <v>-1.420549886620371</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>-1.420549886620371</v>
+      </c>
+      <c r="T81" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251743</v>
+        <v>251485</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>176.655737704918</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:18</t>
+          <t>2025-05-08 10:05:35</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:18</t>
+          <t>2025-05-08 10:45:35</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 10:29:18</t>
+          <t>2025-05-08 10:45:35</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:25:58</t>
+          <t>2025-05-08 12:23:42</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>10776</v>
+        <v>4808</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6682,7 +6637,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6695,53 +6650,56 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
-        <v>4</v>
+        <v>-15.51646825396991</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-15.51646825396991</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251466</v>
+        <v>244354</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>91.26229508196721</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:25:58</t>
+          <t>2025-05-08 12:23:42</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:58</t>
+          <t>2025-05-08 13:03:42</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:58</t>
+          <t>2025-05-08 13:03:42</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:24:13</t>
+          <t>2025-05-08 14:31:40</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>5567</v>
+        <v>4310</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6754,7 +6712,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6767,53 +6725,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-3.308492714027778</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1</v>
+        <v>-0.6053287981828703</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>-0.6053287981828703</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251465</v>
+        <v>251464</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
-        <v>102.0655737704918</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:24:13</t>
+          <t>2025-05-08 14:31:40</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:13</t>
+          <t>2025-05-09 07:06:40</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:13</t>
+          <t>2025-05-09 07:06:40</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:17</t>
+          <t>2025-05-09 09:32:39</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6826,7 +6787,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6843,49 +6804,52 @@
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-3.398121584699074</v>
-      </c>
-      <c r="S84" t="n">
+        <v>-0.3976757369560185</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>-0.3976757369560185</v>
+      </c>
+      <c r="T84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251580</v>
+        <v>251761</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>117.2622950819672</v>
+        <v>271</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 09:33:17</t>
+          <t>2025-05-09 09:32:39</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:02:17</t>
+          <t>2025-05-09 10:07:39</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:02:17</t>
+          <t>2025-05-09 10:07:39</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:33</t>
+          <t>2025-05-09 14:38:39</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>7153</v>
+        <v>13279</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6911,53 +6875,56 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S85" t="n">
-        <v>1</v>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251260</v>
+        <v>251580</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>153.5901639344262</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:33</t>
+          <t>2025-05-09 14:38:39</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 12:28:33</t>
+          <t>2025-05-12 07:13:39</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 12:28:33</t>
+          <t>2025-05-12 07:13:39</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:08</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>9369</v>
+        <v>7153</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6966,11 +6933,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6983,53 +6950,56 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" t="n">
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251795</v>
+        <v>251252</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>307.1967213114754</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:08</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:08</t>
+          <t>2025-05-12 10:24:37</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:08</t>
+          <t>2025-05-12 10:24:37</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:20</t>
+          <t>2025-05-13 07:32:26</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>18739</v>
+        <v>15083</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7038,7 +7008,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -7055,13 +7025,16 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S87" t="n">
+      <c r="S87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,62 +515,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>251782</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>50.79365079365079</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>12073</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39754</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,60 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>39754</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v>7</v>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251782</v>
+        <v>244204</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>170.0422535211268</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:32:02</t>
+          <t>2025-05-08 11:27:56</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12073</v>
+        <v>3472</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,75 +638,73 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4389182316087963</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
+        <v>-0.4777386541435185</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>-0.4777386541435185</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251546</v>
+        <v>251164</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>91.07042253521126</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:32:02</t>
+          <t>2025-05-08 11:27:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:02</t>
+          <t>2025-05-08 11:46:56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:02</t>
+          <t>2025-05-08 11:46:56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:50:06</t>
+          <t>2025-05-08 14:07:47</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6466</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,66 +717,74 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-9.534800469479167</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7</v>
+        <v>-1.588742175277778</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-1.588742175277778</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251050</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:50:06</t>
+          <t>2025-05-08 14:07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-08 14:30:47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-08 14:30:47</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-09 09:08:50</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -786,75 +793,76 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-4.340356025034722</v>
-      </c>
-      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251054</v>
+        <v>251547</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:06</t>
+          <t>2025-05-09 09:08:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 09:27:50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 09:27:50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 12:32:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -863,17 +871,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -881,57 +889,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.364661580590278</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
+        <v>-2.522750391238426</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-2.522750391238426</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251081</v>
+        <v>251477</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>42.42253521126761</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:06</t>
+          <t>2025-05-09 12:32:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:06</t>
+          <t>2025-05-09 13:04:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:06</t>
+          <t>2025-05-09 13:04:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:32</t>
+          <t>2025-05-12 12:07:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3012</v>
+        <v>29999</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -940,19 +951,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39760</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -960,57 +969,60 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39750</v>
+        <v>39760</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-19.4809272300463</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
+        <v>-5.505056729259259</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-5.505056729259259</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251284</v>
+        <v>250894</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>230.1408450704225</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:32</t>
+          <t>2025-05-12 12:07:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:32</t>
+          <t>2025-05-12 12:26:16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:32</t>
+          <t>2025-05-12 12:26:16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:40</t>
+          <t>2025-05-13 14:49:41</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16340</v>
+        <v>44262</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1019,75 +1031,76 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-5.376858372453704</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
+        <v>-0.6178403755902778</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-0.6178403755902778</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251109</v>
+        <v>251475</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>266.5915492957747</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:40</t>
+          <t>2025-05-13 14:49:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:40</t>
+          <t>2025-05-14 07:21:41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:40</t>
+          <t>2025-05-14 07:21:41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 14:49:16</t>
+          <t>2025-05-14 09:23:57</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>18928</v>
+        <v>8681</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1096,11 +1109,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1113,53 +1126,56 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-25.61754694835648</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
+        <v>-14.39163732394676</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-14.39163732394676</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>245275</v>
+        <v>251485</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>342.1690140845071</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 14:49:16</t>
+          <t>2025-05-14 09:23:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:16</t>
+          <t>2025-05-14 09:40:57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:16</t>
+          <t>2025-05-14 09:40:57</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-14 13:16:26</t>
+          <t>2025-05-14 10:48:40</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>24294</v>
+        <v>4808</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1168,11 +1184,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1185,53 +1201,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7</v>
+        <v>-21.45046948356481</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-21.45046948356481</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251520</v>
+        <v>251259</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>230.1408450704225</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-14 13:16:26</t>
+          <t>2025-05-14 10:48:40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-14 14:26:26</t>
+          <t>2025-05-14 11:11:40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-14 14:26:26</t>
+          <t>2025-05-14 11:11:40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-15 10:16:34</t>
+          <t>2025-05-14 12:22:05</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16340</v>
+        <v>5000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1240,11 +1259,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1257,53 +1276,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-3.428178794988426</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
+        <v>-8.515346244131944</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-8.515346244131944</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251846</v>
+        <v>251246</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>160.4507042253521</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-15 10:16:34</t>
+          <t>2025-05-14 12:22:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:16:34</t>
+          <t>2025-05-14 12:43:05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:16:34</t>
+          <t>2025-05-14 12:43:05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-15 13:57:01</t>
+          <t>2025-05-15 07:32:08</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>11392</v>
+        <v>12002</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1312,11 +1334,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1329,53 +1351,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>7</v>
+        <v>-6.313986697962963</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-6.313986697962963</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251340</v>
+        <v>251743</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>461.9718309859155</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-15 13:57:01</t>
+          <t>2025-05-15 07:32:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:34:01</t>
+          <t>2025-05-15 07:51:08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:34:01</t>
+          <t>2025-05-15 07:51:08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-16 14:16:00</t>
+          <t>2025-05-15 10:22:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>32800</v>
+        <v>10776</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1384,14 +1409,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1401,13 +1426,16 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-18.59444444444444</v>
-      </c>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1417,33 +1445,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>659.5774647887324</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-16 14:16:00</t>
+          <t>2025-05-15 10:22:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-19 07:06:00</t>
+          <t>2025-05-15 10:54:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-19 07:06:00</t>
+          <t>2025-05-15 10:54:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-20 10:05:34</t>
+          <t>2025-05-16 13:54:29</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1480,49 +1508,52 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-7.420539906099537</v>
-      </c>
-      <c r="S14" t="n">
+        <v>-3.5795089984375</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-3.5795089984375</v>
+      </c>
+      <c r="T14" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251519</v>
+        <v>251809</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>185.5633802816901</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-20 10:05:34</t>
+          <t>2025-05-16 13:54:29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-20 10:57:34</t>
+          <t>2025-05-16 14:26:29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-20 10:57:34</t>
+          <t>2025-05-16 14:26:29</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-20 14:03:08</t>
+          <t>2025-05-19 08:28:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>13175</v>
+        <v>8681</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1535,7 +1566,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1548,53 +1579,56 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S15" t="n">
-        <v>7</v>
+      <c r="S15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251456</v>
+        <v>251374</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32.5</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>163.6181818181818</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-19 08:28:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:32:30</t>
+          <t>2025-05-19 08:49:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:32:30</t>
+          <t>2025-05-19 08:49:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:16:07</t>
+          <t>2025-05-20 07:14:52</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8999</v>
+        <v>27343</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1603,36 +1637,31 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-3.427859848483796</v>
+        <v>-5.301995305162038</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-3.427859848483796</v>
+        <v>-5.301995305162038</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1640,41 +1669,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251229</v>
+        <v>245089</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>340.7090909090909</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:16:07</t>
+          <t>2025-05-20 07:14:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:37</t>
+          <t>2025-05-20 07:50:52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:37</t>
+          <t>2025-05-20 07:50:52</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:19</t>
+          <t>2025-05-23 12:38:32</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>122665</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1683,31 +1712,24 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1722,41 +1744,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251424</v>
+        <v>250759</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>175.6727272727273</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:19</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:49</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:49</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:03:30</t>
+          <t>2025-05-08 14:17:16</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>9662</v>
+        <v>8398</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1765,73 +1787,78 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-14.50243055555556</v>
+        <v>-0.5953345070370371</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-14.50243055555556</v>
+        <v>-0.5953345070370371</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251467</v>
+        <v>243569</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>113.2</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 12:03:30</t>
+          <t>2025-05-08 14:17:16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:00</t>
+          <t>2025-05-08 14:34:16</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 12:38:00</t>
+          <t>2025-05-08 14:34:16</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:12</t>
+          <t>2025-05-09 07:10:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6226</v>
+        <v>2601</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1840,73 +1867,73 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>76</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>-235.2992468701042</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-235.2992468701042</v>
+      </c>
+      <c r="T19" t="n">
         <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>-3.605</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-3.605</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251397</v>
+        <v>245623</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>98.81818181818181</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:12</t>
+          <t>2025-05-09 07:10:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 07:03:42</t>
+          <t>2025-05-09 07:42:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 07:03:42</t>
+          <t>2025-05-09 07:42:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:31</t>
+          <t>2025-05-09 13:55:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>26419</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1915,14 +1942,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1932,56 +1959,56 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-15.3628598484838</v>
+        <v>-104.5798708920139</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-15.3628598484838</v>
+        <v>-104.5798708920139</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251743</v>
+        <v>243335</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>195.9272727272727</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:31</t>
+          <t>2025-05-09 13:55:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:01</t>
+          <t>2025-05-09 14:14:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:01</t>
+          <t>2025-05-09 14:14:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:56</t>
+          <t>2025-05-12 13:58:51</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10776</v>
+        <v>33004</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1990,14 +2017,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2007,56 +2034,56 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-283.5825410798148</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-283.5825410798148</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251742</v>
+        <v>251340</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30.5</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>149.5636363636364</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:56</t>
+          <t>2025-05-12 13:58:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-13 13:01:26</t>
+          <t>2025-05-12 14:32:51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-13 13:01:26</t>
+          <t>2025-05-12 14:32:51</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-14 07:31:00</t>
+          <t>2025-05-13 14:14:49</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8226</v>
+        <v>32800</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2065,78 +2092,73 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>76</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-15.5936326291088</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>-15.5936326291088</v>
+      </c>
+      <c r="T22" t="n">
         <v>4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-7.313200757581019</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-7.313200757581019</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251260</v>
+        <v>251987</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34.5</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>170.3454545454545</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-14 07:31:00</t>
+          <t>2025-05-13 14:14:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-14 08:05:30</t>
+          <t>2025-05-13 14:37:49</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-14 08:05:30</t>
+          <t>2025-05-13 14:37:49</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-14 10:55:51</t>
+          <t>2025-05-22 08:02:59</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>9369</v>
+        <v>210526</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2145,14 +2167,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2162,7 +2184,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2177,116 +2199,120 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251475</v>
+        <v>251706</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>142.3114754098361</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:18</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8681</v>
+        <v>3200</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-8.61592668488426</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-8.411327413483797</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>244355</v>
+        <v>251456</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>70.65573770491804</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:18</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:12:18</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:12:18</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:22:58</t>
+          <t>2025-05-09 09:48:44</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4310</v>
+        <v>8999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2299,69 +2325,74 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
+      <c r="N25" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.474282786886574</v>
+        <v>-3.408851721435185</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.474282786886574</v>
+        <v>-3.408851721435185</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251164</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D26" t="n">
-        <v>163.9344262295082</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:22:58</t>
+          <t>2025-05-09 09:48:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:52:58</t>
+          <t>2025-05-09 11:48:44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:52:58</t>
+          <t>2025-05-09 11:48:44</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 14:36:54</t>
+          <t>2025-05-09 12:31:10</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>10000</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2370,17 +2401,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39749</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2388,60 +2421,60 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.608959471770834</v>
+        <v>-16.52164514866898</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.608959471770834</v>
+        <v>-16.52164514866898</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251050</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D27" t="n">
-        <v>183.9672131147541</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 14:36:54</t>
+          <t>2025-05-09 12:31:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:54</t>
+          <t>2025-05-09 14:36:10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:54</t>
+          <t>2025-05-09 14:36:10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:52</t>
+          <t>2025-05-09 14:36:10</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2450,34 +2483,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.608450704224537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.608450704224537</v>
       </c>
       <c r="T27" t="n">
         <v>2</v>
@@ -2485,41 +2520,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251840</v>
+        <v>251054</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:52</t>
+          <t>2025-05-09 14:36:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 10:55:52</t>
+          <t>2025-05-12 07:11:10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 10:55:52</t>
+          <t>2025-05-12 07:11:10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:32</t>
+          <t>2025-05-12 07:11:10</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2528,17 +2563,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
       <c r="N28" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2546,60 +2581,60 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.520514571944445</v>
+        <v>-4.299422926446759</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-1.520514571944445</v>
+        <v>-4.299422926446759</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251594</v>
+        <v>251505</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="D29" t="n">
-        <v>106</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:32</t>
+          <t>2025-05-12 07:11:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 12:54:32</t>
+          <t>2025-05-12 10:31:10</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 12:54:32</t>
+          <t>2025-05-12 10:31:10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:32</t>
+          <t>2025-05-12 13:51:56</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6466</v>
+        <v>14255</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2612,7 +2647,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2625,56 +2660,56 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-2.611486794166667</v>
+        <v>-7.577738654143518</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-2.611486794166667</v>
+        <v>-7.577738654143518</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250819</v>
+        <v>251519</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
-        <v>139.7868852459016</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:32</t>
+          <t>2025-05-12 13:51:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:32</t>
+          <t>2025-05-12 14:41:56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:32</t>
+          <t>2025-05-12 14:41:56</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:19</t>
+          <t>2025-05-13 09:47:30</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>8527</v>
+        <v>13175</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2687,7 +2722,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2700,17 +2735,17 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-24.39606102003472</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-24.39606102003472</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2719,33 +2754,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>280.2295081967213</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:19</t>
+          <t>2025-05-13 09:47:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:19</t>
+          <t>2025-05-13 10:37:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:19</t>
+          <t>2025-05-13 10:37:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:33</t>
+          <t>2025-05-13 14:38:16</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2779,10 +2814,10 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-14.60802595628472</v>
+        <v>-15.60990805946759</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-14.60802595628472</v>
+        <v>-15.60990805946759</v>
       </c>
       <c r="T31" t="n">
         <v>4</v>
@@ -2790,41 +2825,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251505</v>
+        <v>251109</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D32" t="n">
-        <v>233.6885245901639</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:33</t>
+          <t>2025-05-13 14:38:16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:33</t>
+          <t>2025-05-14 08:08:16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:55:33</t>
+          <t>2025-05-14 08:08:16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:14</t>
+          <t>2025-05-14 12:34:51</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14255</v>
+        <v>18928</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2833,11 +2868,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2850,56 +2885,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-8.450865209467592</v>
+        <v>-26.52420774648148</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-8.450865209467592</v>
+        <v>-26.52420774648148</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251466</v>
+        <v>251520</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D33" t="n">
-        <v>91.26229508196721</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:14</t>
+          <t>2025-05-14 12:34:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:19:14</t>
+          <t>2025-05-14 13:54:51</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:19:14</t>
+          <t>2025-05-14 13:54:51</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:30</t>
+          <t>2025-05-15 09:45:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5567</v>
+        <v>16340</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2908,11 +2943,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2925,14 +2960,14 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.535075136608796</v>
+        <v>-3.40625</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-4.535075136608796</v>
+        <v>-3.40625</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -2940,41 +2975,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251465</v>
+        <v>245350</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>102.0655737704918</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:30</t>
+          <t>2025-05-15 09:45:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:30</t>
+          <t>2025-05-15 10:35:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:30</t>
+          <t>2025-05-15 10:35:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-13 14:57:34</t>
+          <t>2025-05-16 09:08:56</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6226</v>
+        <v>27970</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2983,11 +3018,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3000,22 +3035,22 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-4.623315118402777</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-4.623315118402777</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251562</v>
+        <v>251391</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3023,33 +3058,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>133.4754098360656</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-13 14:57:34</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:34</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:34</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 09:31:02</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8142</v>
+        <v>5865</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3062,35 +3097,40 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-1.475056921678241</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-1.382741347905093</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251251</v>
+        <v>251455</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3098,33 +3138,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>260</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 09:31:02</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:02</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:02</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-14 14:31:02</t>
+          <t>2025-05-08 11:02:59</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>15860</v>
+        <v>5297</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3133,73 +3173,78 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
+      <c r="N36" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-1.460405282326389</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-1.460405282326389</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>250923</v>
+        <v>251840</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>98.67605633802818</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:02:59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-08 11:27:59</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-08 11:27:59</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-05-08 13:01:39</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>7006</v>
+        <v>5714</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3208,17 +3253,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N37" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3226,60 +3271,60 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-1.583108372453704</v>
+        <v>-0.5428164845138889</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-1.583108372453704</v>
+        <v>-0.5428164845138889</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251225</v>
+        <v>251566</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-05-08 13:01:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-08 13:26:39</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-08 13:26:39</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-09 07:19:35</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6889</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3288,78 +3333,73 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
-      </c>
-      <c r="N38" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.5949139280092592</v>
+        <v>-2.305270947175926</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.5949139280092592</v>
+        <v>-2.305270947175926</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>250670</v>
+        <v>251564</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>22.01408450704225</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-09 07:19:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:40</t>
+          <t>2025-05-09 07:44:35</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:40</t>
+          <t>2025-05-09 07:44:35</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-08 14:53:41</t>
+          <t>2025-05-09 08:29:07</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1563</v>
+        <v>2717</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3368,14 +3408,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3385,56 +3425,56 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-3.620618153368055</v>
+        <v>-2.353563296898148</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-3.620618153368055</v>
+        <v>-2.353563296898148</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>243569</v>
+        <v>251626</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>36.63380281690141</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-08 14:53:41</t>
+          <t>2025-05-09 08:29:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:41</t>
+          <t>2025-05-09 08:49:07</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:41</t>
+          <t>2025-05-09 08:49:07</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:19</t>
+          <t>2025-05-09 12:14:02</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2601</v>
+        <v>12500</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3443,14 +3483,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3460,56 +3500,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-235.3245305164352</v>
+        <v>-9.509756375231483</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-235.3245305164352</v>
+        <v>-9.509756375231483</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245623</v>
+        <v>244354</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>372.0985915492957</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:19</t>
+          <t>2025-05-09 12:14:02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:19</t>
+          <t>2025-05-09 12:39:02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:19:19</t>
+          <t>2025-05-09 12:39:02</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:31:25</t>
+          <t>2025-05-09 13:49:42</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26419</v>
+        <v>4310</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3518,14 +3558,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3535,56 +3575,56 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-104.6051545383449</v>
+        <v>-1.576183970856482</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-104.6051545383449</v>
+        <v>-1.576183970856482</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>243335</v>
+        <v>251229</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>464.8450704225352</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:31:25</t>
+          <t>2025-05-09 13:49:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:25</t>
+          <t>2025-05-09 14:19:42</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:25</t>
+          <t>2025-05-09 14:19:42</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:16</t>
+          <t>2025-05-12 11:26:54</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>33004</v>
+        <v>18739</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3593,31 +3633,38 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>152</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-283.6078247261343</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-283.6078247261343</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -3625,41 +3672,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251987</v>
+        <v>251466</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>2965.154929577465</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:16</t>
+          <t>2025-05-12 11:26:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:16</t>
+          <t>2025-05-12 12:01:54</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:16</t>
+          <t>2025-05-12 12:01:54</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-21 08:34:25</t>
+          <t>2025-05-12 13:33:09</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>210526</v>
+        <v>5567</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3668,14 +3715,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3685,14 +3732,14 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-3.564697176689815</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-3.564697176689815</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
@@ -3700,41 +3747,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251564</v>
+        <v>251548</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>38.26760563380282</v>
+        <v>217.0819672131148</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:33:09</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:32:00</t>
+          <t>2025-05-12 13:58:09</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:32:00</t>
+          <t>2025-05-12 13:58:09</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:16</t>
+          <t>2025-05-13 09:35:14</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2717</v>
+        <v>13242</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3747,69 +3794,74 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-1.340463615023148</v>
+        <v>-6.399476320578704</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-1.340463615023148</v>
+        <v>-6.399476320578704</v>
       </c>
       <c r="T44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251346</v>
+        <v>251465</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>54.35211267605634</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:16</t>
+          <t>2025-05-13 09:35:14</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-08 08:35:16</t>
+          <t>2025-05-13 10:05:14</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-08 08:35:16</t>
+          <t>2025-05-13 10:05:14</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-08 09:29:37</t>
+          <t>2025-05-13 11:47:18</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3859</v>
+        <v>6226</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3822,7 +3874,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3835,56 +3887,56 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-10.39556924883102</v>
+        <v>-4.491188524594907</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-10.39556924883102</v>
+        <v>-4.491188524594907</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251455</v>
+        <v>251557</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>74.6056338028169</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-08 09:29:37</t>
+          <t>2025-05-13 11:47:18</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:37</t>
+          <t>2025-05-13 12:07:18</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:37</t>
+          <t>2025-05-13 12:07:18</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-08 11:07:13</t>
+          <t>2025-05-13 13:57:13</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5297</v>
+        <v>6705</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3897,74 +3949,69 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-1.463350938969907</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-1.463350938969907</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244204</v>
+        <v>251062</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>48.90140845070422</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-08 11:07:13</t>
+          <t>2025-05-13 13:57:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-08 11:22:13</t>
+          <t>2025-05-13 14:37:13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-08 11:22:13</t>
+          <t>2025-05-13 14:37:13</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-08 12:11:07</t>
+          <t>2025-05-14 12:48:06</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3472</v>
+        <v>22624</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3973,11 +4020,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3990,56 +4037,56 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.5077269170601851</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.5077269170601851</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251547</v>
+        <v>251283</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>184.9154929577465</v>
+        <v>11.78125</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:11:07</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:26:07</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:26:07</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-09 07:31:02</t>
+          <t>2025-05-07 07:34:46</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>13129</v>
+        <v>754</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4048,78 +4095,73 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-2.313223787164352</v>
+        <v>-50.43428819444444</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-2.313223787164352</v>
+        <v>-50.3158203125</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>250759</v>
+        <v>250670</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>118.2816901408451</v>
+        <v>24.421875</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-09 07:31:02</t>
+          <t>2025-05-07 07:34:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-09 08:01:02</t>
+          <t>2025-05-07 08:08:46</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-09 08:01:02</t>
+          <t>2025-05-07 08:08:46</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:19</t>
+          <t>2025-05-07 08:33:12</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>8398</v>
+        <v>1563</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4128,7 +4170,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4137,69 +4179,64 @@
       <c r="M49" t="n">
         <v>76</v>
       </c>
-      <c r="N49" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-1.416197183101852</v>
+        <v>-2.356391059027778</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-1.416197183101852</v>
+        <v>-2.356391059027778</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>235572</v>
+        <v>251225</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>140.2535211267606</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:19</t>
+          <t>2025-05-07 08:33:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-09 10:31:19</t>
+          <t>2025-05-07 08:48:12</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-09 10:31:19</t>
+          <t>2025-05-07 08:48:12</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 12:51:34</t>
+          <t>2025-05-07 08:48:12</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>9958</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4208,73 +4245,78 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-550.5358176838773</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-550.5358176838773</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251462</v>
+        <v>251227</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>87.69014084507042</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 12:51:34</t>
+          <t>2025-05-07 08:48:12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:34</t>
+          <t>2025-05-07 09:03:12</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:34</t>
+          <t>2025-05-07 09:03:12</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:16</t>
+          <t>2025-05-07 09:03:12</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4283,31 +4325,36 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.6112969483564815</v>
+        <v>-1.377224392361111</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.6112969483564815</v>
+        <v>-1.377224392361111</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -4315,41 +4362,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>245350</v>
+        <v>235572</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>393.943661971831</v>
+        <v>155.59375</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-09 14:40:16</t>
+          <t>2025-05-07 09:03:12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:16</t>
+          <t>2025-05-07 09:35:12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:16</t>
+          <t>2025-05-07 09:35:12</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:12</t>
+          <t>2025-05-07 12:10:47</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>27970</v>
+        <v>9958</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4362,7 +4409,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4375,56 +4422,56 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-548.5074978298611</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-548.5074978298611</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251557</v>
+        <v>251395</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>94.43661971830986</v>
+        <v>35.34375</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:12</t>
+          <t>2025-05-07 12:10:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:12</t>
+          <t>2025-05-07 12:27:47</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:12</t>
+          <t>2025-05-07 12:27:47</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:38</t>
+          <t>2025-05-07 13:03:08</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6705</v>
+        <v>2262</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4437,69 +4484,74 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
+      <c r="N53" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.54384765625</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-0.54384765625</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251062</v>
+        <v>251371</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>318.6478873239437</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:38</t>
+          <t>2025-05-07 13:03:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:38</t>
+          <t>2025-05-07 13:22:08</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:38</t>
+          <t>2025-05-07 13:22:08</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:17</t>
+          <t>2025-05-07 13:22:08</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>22624</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4508,73 +4560,80 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-13.55704210069444</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-13.55704210069444</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251245</v>
+        <v>251396</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>12.36065573770492</v>
+        <v>35.34375</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 13:22:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-07 13:41:08</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-07 13:41:08</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:21</t>
+          <t>2025-05-07 14:16:29</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>754</v>
+        <v>2262</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4583,7 +4642,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -4592,64 +4651,69 @@
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
+      <c r="N55" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-42.33219489981482</v>
+        <v>-0.5947808159722222</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-42.33219489981482</v>
+        <v>-0.5947808159722222</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251259</v>
+        <v>250923</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
-        <v>81.9672131147541</v>
+        <v>109.46875</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:21</t>
+          <t>2025-05-07 14:16:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-09 08:29:21</t>
+          <t>2025-05-07 14:48:29</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-09 08:29:21</t>
+          <t>2025-05-07 14:48:29</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:19</t>
+          <t>2025-05-08 08:37:57</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5000</v>
+        <v>7006</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4658,31 +4722,36 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-3.410644353368056</v>
+        <v>-1.359689670138889</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-3.410644353368056</v>
+        <v>-1.359689670138889</v>
       </c>
       <c r="T56" t="n">
         <v>2</v>
@@ -4690,41 +4759,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251391</v>
+        <v>251546</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>96.14754098360656</v>
+        <v>101.03125</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:19</t>
+          <t>2025-05-08 08:37:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-09 10:24:19</t>
+          <t>2025-05-08 09:07:57</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-09 10:24:19</t>
+          <t>2025-05-08 09:07:57</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-09 12:00:28</t>
+          <t>2025-05-08 10:48:59</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5865</v>
+        <v>6466</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4742,27 +4811,22 @@
       <c r="M57" t="n">
         <v>70</v>
       </c>
-      <c r="N57" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-2.500330145717593</v>
+        <v>-8.45068359375</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-2.500330145717593</v>
+        <v>-8.45068359375</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4770,41 +4834,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251061</v>
+        <v>251397</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>393.3934426229508</v>
+        <v>84.921875</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-09 12:00:28</t>
+          <t>2025-05-08 10:48:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-09 12:27:28</t>
+          <t>2025-05-08 11:07:59</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-09 12:27:28</t>
+          <t>2025-05-08 11:07:59</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:52</t>
+          <t>2025-05-08 12:32:54</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>23997</v>
+        <v>5435</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4813,11 +4877,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4830,56 +4894,56 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.458936703101852</v>
+        <v>-10.5228515625</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-7.458936703101852</v>
+        <v>-10.5228515625</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250894</v>
+        <v>251594</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>725.6065573770492</v>
+        <v>101.03125</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:52</t>
+          <t>2025-05-08 12:32:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:52</t>
+          <t>2025-05-08 12:49:54</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:52</t>
+          <t>2025-05-08 12:49:54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:48:28</t>
+          <t>2025-05-08 14:30:56</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>44262</v>
+        <v>6466</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4888,17 +4952,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4908,14 +4969,14 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-1.325330145717593</v>
+        <v>-1.604817708333333</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-1.325330145717593</v>
+        <v>-1.604817708333333</v>
       </c>
       <c r="T59" t="n">
         <v>4</v>
@@ -4923,41 +4984,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251750</v>
+        <v>250819</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>63.78688524590164</v>
+        <v>133.234375</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 07:48:28</t>
+          <t>2025-05-08 14:30:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:32:28</t>
+          <t>2025-05-08 14:49:56</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:32:28</t>
+          <t>2025-05-08 14:49:56</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:15</t>
+          <t>2025-05-09 09:03:10</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3891</v>
+        <v>8527</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4966,14 +5027,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4983,56 +5044,56 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-21.37720269097222</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-21.37720269097222</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>245090</v>
+        <v>251245</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>8470.786885245901</v>
+        <v>11.78125</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:15</t>
+          <t>2025-05-09 09:03:10</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:15</t>
+          <t>2025-05-09 09:18:10</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:15</t>
+          <t>2025-05-09 09:18:10</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:02</t>
+          <t>2025-05-09 09:29:57</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>516718</v>
+        <v>754</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5041,14 +5102,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5058,14 +5119,14 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-42.39580078125</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-42.39580078125</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
@@ -5073,41 +5134,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251477</v>
+        <v>251742</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>434.768115942029</v>
+        <v>128.53125</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 09:29:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-09 09:48:57</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-09 09:48:57</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-09 11:57:29</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>29999</v>
+        <v>8226</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5116,17 +5177,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N62" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5134,57 +5195,60 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-5.614422302743056</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1</v>
+        <v>-2.498253038194445</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>-2.498253038194445</v>
+      </c>
+      <c r="T62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251247</v>
+        <v>245275</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>390.3478260869565</v>
+        <v>379.59375</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-09 11:57:29</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:46</t>
+          <t>2025-05-09 12:32:29</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:46</t>
+          <t>2025-05-09 12:32:29</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 14:00:06</t>
+          <t>2025-05-12 10:52:04</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>26934</v>
+        <v>24294</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5193,11 +5257,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5210,53 +5274,56 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-4.58341384863426</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251809</v>
+        <v>251247</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>125.8115942028985</v>
+        <v>420.84375</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 14:00:06</t>
+          <t>2025-05-12 10:52:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:06</t>
+          <t>2025-05-12 11:23:04</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:06</t>
+          <t>2025-05-12 11:23:04</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 08:40:55</t>
+          <t>2025-05-13 10:23:55</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>8681</v>
+        <v>26934</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5265,11 +5332,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5282,53 +5349,56 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>4</v>
+        <v>-4.433279079861111</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>-4.433279079861111</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251249</v>
+        <v>251761</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>68.95652173913044</v>
+        <v>207.484375</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-14 08:40:55</t>
+          <t>2025-05-13 10:23:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-14 09:15:55</t>
+          <t>2025-05-13 10:42:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-14 09:15:55</t>
+          <t>2025-05-13 10:42:55</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 10:24:53</t>
+          <t>2025-05-13 14:10:24</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>4758</v>
+        <v>13279</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5337,11 +5407,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5354,53 +5424,56 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S65" t="n">
-        <v>1</v>
+      <c r="S65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251795</v>
+        <v>251249</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>271.5797101449276</v>
+        <v>74.34375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-14 10:24:53</t>
+          <t>2025-05-13 14:10:24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-14 10:49:53</t>
+          <t>2025-05-13 14:29:24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-14 10:49:53</t>
+          <t>2025-05-13 14:29:24</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-15 07:21:27</t>
+          <t>2025-05-14 07:43:45</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>18739</v>
+        <v>4758</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5409,7 +5482,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5426,19 +5499,22 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S66" t="n">
+      <c r="S66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251227</v>
+        <v>245090</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5446,33 +5522,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>8073.71875</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-14 07:43:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-14 08:15:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-14 08:15:45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 14:49:28</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>516718</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5485,32 +5561,27 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>76</v>
       </c>
-      <c r="N67" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.342068142361111</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
         <v>1</v>
@@ -5518,41 +5589,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251371</v>
+        <v>251462</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-09 09:24:03</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5565,76 +5636,69 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-13.33611111111111</v>
+        <v>-0.4765027322453704</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-13.33611111111111</v>
+        <v>-0.3917122040046296</v>
       </c>
       <c r="T68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>244023</v>
+        <v>244355</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>15.578125</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-09 09:24:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 08:23:00</t>
+          <t>2025-05-09 09:53:03</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 08:23:00</t>
+          <t>2025-05-09 09:53:03</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 08:38:34</t>
+          <t>2025-05-09 11:03:43</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>997</v>
+        <v>4310</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5647,7 +5711,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5660,56 +5724,56 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-219.3601236979167</v>
+        <v>-1.460917577418982</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-219.3601236979167</v>
+        <v>-1.460917577418982</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251396</v>
+        <v>251561</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
-        <v>35.34375</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:38:34</t>
+          <t>2025-05-09 11:03:43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:53:34</t>
+          <t>2025-05-09 11:30:43</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:53:34</t>
+          <t>2025-05-09 11:30:43</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-07 09:28:55</t>
+          <t>2025-05-09 12:59:49</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2262</v>
+        <v>5435</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5722,74 +5786,69 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-0.3950846354166667</v>
+        <v>-2.541541438981481</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-0.3950846354166667</v>
+        <v>-2.541541438981481</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251395</v>
+        <v>250641</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
-        <v>35.34375</v>
+        <v>83.8688524590164</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 09:28:55</t>
+          <t>2025-05-09 12:59:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:55</t>
+          <t>2025-05-09 13:26:49</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:55</t>
+          <t>2025-05-09 13:26:49</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 10:19:15</t>
+          <t>2025-05-09 14:50:41</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2262</v>
+        <v>5116</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5807,69 +5866,64 @@
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.4300455729166667</v>
+        <v>-11.61853369762732</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-0.4300455729166667</v>
+        <v>-11.61853369762732</v>
       </c>
       <c r="T71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251548</v>
+        <v>251061</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>206.90625</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:19:15</t>
+          <t>2025-05-09 14:50:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:38:15</t>
+          <t>2025-05-12 07:15:41</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:38:15</t>
+          <t>2025-05-12 07:15:41</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:10</t>
+          <t>2025-05-12 13:49:04</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>13242</v>
+        <v>23997</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5878,78 +5932,73 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="N72" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-0.5869249131944444</v>
+        <v>-7.575751366122685</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-0.5869249131944444</v>
+        <v>-7.575751366122685</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251463</v>
+        <v>251252</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>108.859375</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:10</t>
+          <t>2025-05-12 13:49:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-07 14:20:10</t>
+          <t>2025-05-12 14:14:04</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-07 14:20:10</t>
+          <t>2025-05-12 14:14:04</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:09:01</t>
+          <t>2025-05-13 10:21:20</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6967</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5958,11 +6007,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5975,7 +6024,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5990,41 +6039,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251626</v>
+        <v>251463</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>195.3125</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 08:09:01</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:01</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:01</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-08 11:41:20</t>
+          <t>2025-05-12 09:15:58</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>12500</v>
+        <v>6967</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6037,7 +6086,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6050,56 +6099,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-8.487044270833334</v>
-      </c>
-      <c r="S74" s="1" t="n">
-        <v>-8.487044270833334</v>
-      </c>
-      <c r="T74" t="n">
-        <v>7</v>
+        <v>-3.386090982291666</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>250641</v>
+        <v>251846</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>79.9375</v>
+        <v>165.1014492753623</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-08 11:41:20</t>
+          <t>2025-05-12 09:15:58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-08 12:02:20</t>
+          <t>2025-05-12 09:50:58</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-08 12:02:20</t>
+          <t>2025-05-12 09:50:58</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:16</t>
+          <t>2025-05-12 12:36:04</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5116</v>
+        <v>11392</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6112,7 +6158,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6125,56 +6171,53 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-10.55713975694444</v>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>-10.55713975694444</v>
-      </c>
-      <c r="T75" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251283</v>
+        <v>251562</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>11.78125</v>
+        <v>118</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:16</t>
+          <t>2025-05-12 12:36:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-08 13:37:16</t>
+          <t>2025-05-12 13:01:04</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-08 13:37:16</t>
+          <t>2025-05-12 13:01:04</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-08 13:49:03</t>
+          <t>2025-05-12 14:59:04</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>754</v>
+        <v>8142</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6183,11 +6226,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6200,56 +6243,53 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-51.57573784722222</v>
-      </c>
-      <c r="S76" s="1" t="n">
-        <v>-51.57573784722222</v>
-      </c>
-      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251561</v>
+        <v>251750</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D77" t="n">
-        <v>84.921875</v>
+        <v>56.39130434782609</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-08 13:49:03</t>
+          <t>2025-05-12 14:59:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:03</t>
+          <t>2025-05-13 07:34:04</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:03</t>
+          <t>2025-05-13 07:34:04</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:59</t>
+          <t>2025-05-13 08:30:27</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>5435</v>
+        <v>3891</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6258,14 +6298,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -6275,56 +6315,53 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-2.31318359375</v>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>-2.31318359375</v>
-      </c>
-      <c r="T77" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251246</v>
+        <v>251795</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>187.53125</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:59</t>
+          <t>2025-05-13 08:30:27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:59</t>
+          <t>2025-05-13 09:15:27</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:59</t>
+          <t>2025-05-13 09:15:27</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 10:55:30</t>
+          <t>2025-05-13 13:47:02</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>12002</v>
+        <v>18739</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6333,7 +6370,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -6350,56 +6387,53 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-0.4552191840277778</v>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>-0.4552191840277778</v>
-      </c>
-      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251374</v>
+        <v>251424</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>427.234375</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:55:30</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:30</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:30</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:45</t>
+          <t>2025-05-08 11:02:11</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>27343</v>
+        <v>9662</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6408,11 +6442,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6425,56 +6459,56 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-10.57239229025463</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-10.45984977324074</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>245089</v>
+        <v>251346</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D80" t="n">
-        <v>1916.640625</v>
+        <v>78.75510204081633</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:45</t>
+          <t>2025-05-08 11:02:11</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-12 10:55:45</t>
+          <t>2025-05-08 11:57:11</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-12 10:55:45</t>
+          <t>2025-05-08 11:57:11</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-16 10:52:23</t>
+          <t>2025-05-08 13:15:56</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>122665</v>
+        <v>3859</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6483,14 +6517,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6500,22 +6534,22 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-10.55273526077546</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-10.55273526077546</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251566</v>
+        <v>244023</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6526,30 +6560,30 @@
         <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>140.5918367346939</v>
+        <v>20.3469387755102</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 13:15:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-08 14:00:56</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-08 14:00:56</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-08 10:05:35</t>
+          <t>2025-05-08 14:21:17</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>6889</v>
+        <v>997</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6562,7 +6596,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6575,22 +6609,22 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-1.420549886620371</v>
+        <v>-220.5981150793634</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-1.420549886620371</v>
+        <v>-220.5981150793634</v>
       </c>
       <c r="T81" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251485</v>
+        <v>251467</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6598,33 +6632,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D82" t="n">
-        <v>98.12244897959184</v>
+        <v>127.0612244897959</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-08 10:05:35</t>
+          <t>2025-05-08 14:21:17</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-08 10:45:35</t>
+          <t>2025-05-09 07:16:17</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-08 10:45:35</t>
+          <t>2025-05-09 07:16:17</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-08 12:23:42</t>
+          <t>2025-05-09 09:23:20</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>4808</v>
+        <v>6226</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6637,7 +6671,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6650,22 +6684,22 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-15.51646825396991</v>
+        <v>-0.3912131519328704</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-15.51646825396991</v>
+        <v>-0.3912131519328704</v>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>244354</v>
+        <v>251464</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6673,33 +6707,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>87.95918367346938</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-08 12:23:42</t>
+          <t>2025-05-09 09:23:20</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:42</t>
+          <t>2025-05-09 10:08:20</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:42</t>
+          <t>2025-05-09 10:08:20</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:40</t>
+          <t>2025-05-09 12:34:19</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4310</v>
+        <v>7153</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6725,22 +6759,22 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-0.6053287981828703</v>
+        <v>-0.5238378684837963</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-0.6053287981828703</v>
+        <v>-0.5238378684837963</v>
       </c>
       <c r="T83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251464</v>
+        <v>251580</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6755,22 +6789,22 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:40</t>
+          <t>2025-05-09 12:34:19</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:40</t>
+          <t>2025-05-09 13:09:19</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:40</t>
+          <t>2025-05-09 13:09:19</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-09 09:32:39</t>
+          <t>2025-05-12 07:35:18</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6800,14 +6834,14 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-0.3976757369560185</v>
+        <v>0</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-0.3976757369560185</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
         <v>1</v>
@@ -6815,7 +6849,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251761</v>
+        <v>251251</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6823,33 +6857,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>271</v>
+        <v>323.6734693877551</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-09 09:32:39</t>
+          <t>2025-05-12 07:35:18</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:39</t>
+          <t>2025-05-12 08:20:18</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:39</t>
+          <t>2025-05-12 08:20:18</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-09 14:38:39</t>
+          <t>2025-05-12 13:43:58</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>13279</v>
+        <v>15860</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6858,11 +6892,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6875,7 +6909,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6885,46 +6919,46 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251580</v>
+        <v>251284</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D86" t="n">
-        <v>145.9795918367347</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-09 14:38:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:37</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>7153</v>
+        <v>16340</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6933,73 +6967,75 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
       </c>
-      <c r="O86" t="n">
-        <v>0</v>
+      <c r="N86" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251252</v>
+        <v>251260</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D87" t="n">
-        <v>307.8163265306122</v>
+        <v>170.3454545454545</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:37</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:37</t>
+          <t>2025-05-09 13:10:05</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:37</t>
+          <t>2025-05-09 13:10:05</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:26</t>
+          <t>2025-05-12 08:00:26</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>15083</v>
+        <v>9369</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7008,7 +7044,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -7025,16 +7061,13 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
+      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251782</v>
+        <v>251225</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,18 +576,18 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3490414710532407</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>244204</v>
+        <v>251283</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -603,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>48.90140845070422</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:02</t>
+          <t>2025-05-08 07:53:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:02</t>
+          <t>2025-05-08 07:53:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:27:56</t>
+          <t>2025-05-08 08:03:37</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3472</v>
+        <v>754</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,11 +638,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -655,22 +655,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4777386541435185</v>
+        <v>-51.3358470266088</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4777386541435185</v>
+        <v>-51.3358470266088</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251164</v>
+        <v>251548</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,30 +681,30 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>140.8450704225352</v>
+        <v>186.5070422535211</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:27:56</t>
+          <t>2025-05-08 08:03:37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:46:56</t>
+          <t>2025-05-08 08:22:37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:46:56</t>
+          <t>2025-05-08 08:22:37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:07:47</t>
+          <t>2025-05-08 11:29:07</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>13242</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -735,22 +735,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.588742175277778</v>
+        <v>-1.478560250393519</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1.588742175277778</v>
+        <v>-1.478560250393519</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,33 +758,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:07:47</t>
+          <t>2025-05-08 11:29:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:30:47</t>
+          <t>2025-05-08 11:44:07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:30:47</t>
+          <t>2025-05-08 11:44:07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:08:50</t>
+          <t>2025-05-08 12:58:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -797,33 +797,35 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-1.540786384976852</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-1.540786384976852</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -836,29 +838,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>184.9154929577465</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:08:50</t>
+          <t>2025-05-08 12:58:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:50</t>
+          <t>2025-05-08 13:13:43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:50</t>
+          <t>2025-05-08 13:13:43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:45</t>
+          <t>2025-05-09 08:18:38</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -897,10 +899,10 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-2.522750391238426</v>
+        <v>-2.346283255081019</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-2.522750391238426</v>
+        <v>-2.346283255081019</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -908,7 +910,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251477</v>
+        <v>250759</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -916,33 +918,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>422.5211267605634</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:45</t>
+          <t>2025-05-09 08:18:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:45</t>
+          <t>2025-05-09 08:48:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:45</t>
+          <t>2025-05-09 08:48:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:16</t>
+          <t>2025-05-09 10:46:55</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>29999</v>
+        <v>8398</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,17 +953,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -969,18 +971,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-5.505056729259259</v>
+        <v>-1.449256651018519</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-5.505056729259259</v>
+        <v>-1.449256651018519</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -988,7 +990,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250894</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -996,33 +998,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>623.4084507042254</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:16</t>
+          <t>2025-05-09 10:46:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:26:16</t>
+          <t>2025-05-09 11:20:55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:26:16</t>
+          <t>2025-05-09 11:20:55</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 14:49:41</t>
+          <t>2025-05-09 13:41:46</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>44262</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1031,34 +1033,36 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.6178403755902778</v>
+        <v>-2.57067683880787</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.6178403755902778</v>
+        <v>-2.57067683880787</v>
       </c>
       <c r="T8" t="n">
         <v>4</v>
@@ -1066,7 +1070,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251475</v>
+        <v>251229</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1074,33 +1078,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2676056338028</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 14:49:41</t>
+          <t>2025-05-09 13:41:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:41</t>
+          <t>2025-05-09 13:56:46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:41</t>
+          <t>2025-05-09 13:56:46</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:57</t>
+          <t>2025-05-12 10:20:42</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8681</v>
+        <v>18739</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1109,39 +1113,46 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-14.39163732394676</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-14.39163732394676</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251485</v>
+        <v>251397</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1149,33 +1160,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>67.71830985915493</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:57</t>
+          <t>2025-05-12 10:20:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:40:57</t>
+          <t>2025-05-12 10:41:42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:40:57</t>
+          <t>2025-05-12 10:41:42</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-14 10:48:40</t>
+          <t>2025-05-12 11:58:15</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4808</v>
+        <v>5435</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1188,7 +1199,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1201,22 +1212,22 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-21.45046948356481</v>
+        <v>-14.4987871674537</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-21.45046948356481</v>
+        <v>-14.4987871674537</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251259</v>
+        <v>251761</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1224,33 +1235,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>70.4225352112676</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-14 10:48:40</t>
+          <t>2025-05-12 11:58:15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:40</t>
+          <t>2025-05-12 12:15:15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:40</t>
+          <t>2025-05-12 12:15:15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-14 12:22:05</t>
+          <t>2025-05-13 07:22:16</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5000</v>
+        <v>13279</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1263,7 +1274,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1276,14 +1287,14 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-8.515346244131944</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-8.515346244131944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1291,7 +1302,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251246</v>
+        <v>250819</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,33 +1310,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>169.0422535211268</v>
+        <v>120.0985915492958</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-14 12:22:05</t>
+          <t>2025-05-13 07:22:16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-14 12:43:05</t>
+          <t>2025-05-13 07:41:16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-14 12:43:05</t>
+          <t>2025-05-13 07:41:16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-15 07:32:08</t>
+          <t>2025-05-13 09:41:22</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12002</v>
+        <v>8527</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,7 +1345,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1351,22 +1362,22 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-6.313986697962963</v>
+        <v>-25.40373630672454</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-6.313986697962963</v>
+        <v>-25.40373630672454</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251743</v>
+        <v>251594</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1377,30 +1388,30 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>151.7746478873239</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-15 07:32:08</t>
+          <t>2025-05-13 09:41:22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-15 07:51:08</t>
+          <t>2025-05-13 10:00:22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-15 07:51:08</t>
+          <t>2025-05-13 10:00:22</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-15 10:22:54</t>
+          <t>2025-05-13 11:31:27</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>10776</v>
+        <v>6466</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1426,14 +1437,14 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-6.480174100162037</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-6.480174100162037</v>
       </c>
       <c r="T13" t="n">
         <v>4</v>
@@ -1441,7 +1452,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>251464</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1449,33 +1460,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>659.5774647887324</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-15 10:22:54</t>
+          <t>2025-05-13 11:31:27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:54</t>
+          <t>2025-05-13 11:46:27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:54</t>
+          <t>2025-05-13 11:46:27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-16 13:54:29</t>
+          <t>2025-05-13 13:27:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>7153</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,17 +1495,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1504,22 +1512,22 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-3.5795089984375</v>
+        <v>-4.560553599375</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-3.5795089984375</v>
+        <v>-4.560553599375</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251809</v>
+        <v>251340</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1527,33 +1535,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>122.2676056338028</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-16 13:54:29</t>
+          <t>2025-05-13 13:27:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-16 14:26:29</t>
+          <t>2025-05-13 14:01:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-16 14:26:29</t>
+          <t>2025-05-13 14:01:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-19 08:28:45</t>
+          <t>2025-05-14 13:43:10</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8681</v>
+        <v>32800</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1562,14 +1570,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1579,14 +1587,14 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-16.57164514866898</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-16.57164514866898</v>
       </c>
       <c r="T15" t="n">
         <v>4</v>
@@ -1602,29 +1610,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
         <v>385.112676056338</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-19 08:28:45</t>
+          <t>2025-05-14 13:43:10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-19 08:49:45</t>
+          <t>2025-05-14 14:23:10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-19 08:49:45</t>
+          <t>2025-05-14 14:23:10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-20 07:14:52</t>
+          <t>2025-05-15 12:48:16</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1658,10 +1666,10 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-5.301995305162038</v>
+        <v>-0.5335289514814815</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-5.301995305162038</v>
+        <v>-0.5335289514814815</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1684,22 +1692,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-20 07:14:52</t>
+          <t>2025-05-15 12:48:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-20 07:50:52</t>
+          <t>2025-05-15 13:24:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-20 07:50:52</t>
+          <t>2025-05-15 13:24:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-23 12:38:32</t>
+          <t>2025-05-21 10:11:57</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1744,41 +1752,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250759</v>
+        <v>251456</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>118.2816901408451</v>
+        <v>140.609375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 07:17:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 07:17:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 14:17:16</t>
+          <t>2025-05-07 09:37:36</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8398</v>
+        <v>8999</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1787,17 +1795,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1805,18 +1813,18 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5953345070370371</v>
+        <v>-1.487250434027778</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.5953345070370371</v>
+        <v>-1.401117621527778</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1824,41 +1832,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>243569</v>
+        <v>251462</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>36.63380281690141</v>
+        <v>97.28125</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:17:16</t>
+          <t>2025-05-07 09:37:36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:34:16</t>
+          <t>2025-05-07 09:54:36</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:34:16</t>
+          <t>2025-05-07 09:54:36</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:54</t>
+          <t>2025-05-07 11:31:53</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2601</v>
+        <v>6226</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1867,14 +1875,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1884,56 +1892,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-235.2992468701042</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-235.2992468701042</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>245623</v>
+        <v>251227</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>372.0985915492957</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:54</t>
+          <t>2025-05-07 11:31:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:54</t>
+          <t>2025-05-07 12:05:53</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:54</t>
+          <t>2025-05-07 12:05:53</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 13:55:00</t>
+          <t>2025-05-07 12:05:53</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>26419</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1946,69 +1954,74 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>152</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-104.5798708920139</v>
+        <v>-1.504090711805556</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-104.5798708920139</v>
+        <v>-1.504090711805556</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>243335</v>
+        <v>251546</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>464.8450704225352</v>
+        <v>101.03125</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 13:55:00</t>
+          <t>2025-05-07 12:05:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 14:14:00</t>
+          <t>2025-05-07 12:37:53</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 14:14:00</t>
+          <t>2025-05-07 12:37:53</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:51</t>
+          <t>2025-05-07 14:18:55</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>33004</v>
+        <v>6466</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2017,14 +2030,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2034,56 +2047,56 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-283.5825410798148</v>
+        <v>-7.596473524305556</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-283.5825410798148</v>
+        <v>-7.596473524305556</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251340</v>
+        <v>251391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>461.9718309859155</v>
+        <v>91.640625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:51</t>
+          <t>2025-05-07 14:18:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:51</t>
+          <t>2025-05-07 14:33:55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:51</t>
+          <t>2025-05-07 14:33:55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-13 14:14:49</t>
+          <t>2025-05-08 08:05:33</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>32800</v>
+        <v>5865</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2092,73 +2105,78 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-15.5936326291088</v>
+        <v>-1.337196180555555</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-15.5936326291088</v>
+        <v>-1.337196180555555</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251987</v>
+        <v>251395</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>2965.154929577465</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-13 14:14:49</t>
+          <t>2025-05-08 08:05:33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:49</t>
+          <t>2025-05-08 08:22:33</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:49</t>
+          <t>2025-05-08 08:22:33</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-22 08:02:59</t>
+          <t>2025-05-08 08:57:54</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>210526</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2167,93 +2185,98 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-1.373546006944445</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-1.373546006944445</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251706</v>
+        <v>251371</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 08:57:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 09:16:54</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 09:16:54</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 09:16:54</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2262,57 +2285,60 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39764</v>
+        <v>39666</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
+        <v>-14.38674045138889</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-14.38674045138889</v>
+      </c>
+      <c r="T24" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251456</v>
+        <v>251396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>126.7464788732394</v>
+        <v>35.34375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 09:16:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 09:35:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 09:35:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:44</t>
+          <t>2025-05-08 10:11:15</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8999</v>
+        <v>2262</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2325,13 +2351,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2339,60 +2365,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-3.408851721435185</v>
+        <v>-1.424479166666667</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-3.408851721435185</v>
+        <v>-1.424479166666667</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251081</v>
+        <v>251742</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>42.42253521126761</v>
+        <v>128.53125</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:44</t>
+          <t>2025-05-08 10:11:15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:48:44</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:48:44</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:31:10</t>
+          <t>2025-05-08 12:38:46</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3012</v>
+        <v>8226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2401,19 +2427,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N26" t="n">
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2421,60 +2445,60 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-16.52164514866898</v>
+        <v>-1.526931423611111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-16.52164514866898</v>
+        <v>-1.526931423611111</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251050</v>
+        <v>250923</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:31:10</t>
+          <t>2025-05-08 12:38:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:10</t>
+          <t>2025-05-08 13:10:46</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:10</t>
+          <t>2025-05-08 13:10:46</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:10</t>
+          <t>2025-05-09 07:00:15</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2483,17 +2507,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2501,18 +2525,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.608450704224537</v>
+        <v>-2.291840277777778</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.608450704224537</v>
+        <v>-2.291840277777778</v>
       </c>
       <c r="T27" t="n">
         <v>2</v>
@@ -2520,41 +2544,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251054</v>
+        <v>251519</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>205.859375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:10</t>
+          <t>2025-05-09 07:00:15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:10</t>
+          <t>2025-05-09 07:36:15</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:10</t>
+          <t>2025-05-09 07:36:15</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:10</t>
+          <t>2025-05-09 11:02:06</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2563,78 +2587,73 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-4.299422926446759</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-4.299422926446759</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251505</v>
+        <v>235572</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>200.7746478873239</v>
+        <v>155.59375</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:11:10</t>
+          <t>2025-05-09 11:02:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 10:31:10</t>
+          <t>2025-05-09 11:23:06</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 10:31:10</t>
+          <t>2025-05-09 11:23:06</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:56</t>
+          <t>2025-05-09 13:58:42</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>14255</v>
+        <v>9958</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2643,7 +2662,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2660,56 +2679,56 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-7.577738654143518</v>
+        <v>-550.5824327256944</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-7.577738654143518</v>
+        <v>-550.5824327256944</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251519</v>
+        <v>244355</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>185.5633802816901</v>
+        <v>67.34375</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:56</t>
+          <t>2025-05-09 13:58:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:56</t>
+          <t>2025-05-09 14:15:42</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:56</t>
+          <t>2025-05-09 14:15:42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:30</t>
+          <t>2025-05-12 07:23:02</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>13175</v>
+        <v>4310</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2722,7 +2741,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2735,56 +2754,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-4.307671440972222</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-4.307671440972222</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251373</v>
+        <v>251477</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7605633802817</v>
+        <v>468.734375</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:30</t>
+          <t>2025-05-12 07:23:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:30</t>
+          <t>2025-05-12 07:55:02</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:30</t>
+          <t>2025-05-12 07:55:02</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:38:16</t>
+          <t>2025-05-13 07:43:46</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>17094</v>
+        <v>29999</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2793,20 +2812,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2814,52 +2838,52 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-15.60990805946759</v>
+        <v>-6.3220703125</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-15.60990805946759</v>
+        <v>-6.3220703125</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251109</v>
+        <v>250894</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5915492957747</v>
+        <v>691.59375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:38:16</t>
+          <t>2025-05-13 07:43:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-14 08:08:16</t>
+          <t>2025-05-13 08:02:46</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-14 08:08:16</t>
+          <t>2025-05-13 08:02:46</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 12:34:51</t>
+          <t>2025-05-14 11:34:22</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>18928</v>
+        <v>44262</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2868,14 +2892,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39755</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2885,56 +2912,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-26.52420774648148</v>
+        <v>-1.482204861111111</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-26.52420774648148</v>
+        <v>-1.482204861111111</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251520</v>
+        <v>251061</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>230.1408450704225</v>
+        <v>374.953125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-14 12:34:51</t>
+          <t>2025-05-14 11:34:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:51</t>
+          <t>2025-05-14 12:06:22</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:51</t>
+          <t>2025-05-14 12:06:22</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-15 09:45:00</t>
+          <t>2025-05-15 10:21:19</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>16340</v>
+        <v>23997</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2943,11 +2970,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2960,14 +2987,14 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-3.40625</v>
+        <v>-10.43147786458333</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-3.40625</v>
+        <v>-10.43147786458333</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -2975,41 +3002,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>245350</v>
+        <v>251562</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>393.943661971831</v>
+        <v>127.21875</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-15 09:45:00</t>
+          <t>2025-05-15 10:21:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-15 10:35:00</t>
+          <t>2025-05-15 10:44:19</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-15 10:35:00</t>
+          <t>2025-05-15 10:44:19</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-16 09:08:56</t>
+          <t>2025-05-15 12:51:32</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>27970</v>
+        <v>8142</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3018,11 +3045,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3035,56 +3062,56 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-0.5357964409722222</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-0.5357964409722222</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251391</v>
+        <v>251249</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>96.14754098360656</v>
+        <v>74.34375</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-15 12:51:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-15 13:14:32</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-15 13:14:32</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-15 14:28:53</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5865</v>
+        <v>4758</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3093,78 +3120,73 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-1.475056921678241</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-1.382741347905093</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251455</v>
+        <v>245090</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>86.8360655737705</v>
+        <v>8073.71875</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-15 14:28:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-16 07:00:53</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-16 07:00:53</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:59</t>
+          <t>2025-06-09 13:34:36</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5297</v>
+        <v>516718</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3173,97 +3195,94 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
-      </c>
-      <c r="N36" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.460405282326389</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-1.460405282326389</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251840</v>
+        <v>251706</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>93.67213114754098</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:59</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:27:59</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:27:59</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 13:01:39</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5714</v>
+        <v>3200</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39758</v>
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3271,60 +3290,57 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>39758</v>
+        <v>39764</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.5428164845138889</v>
-      </c>
-      <c r="S37" s="1" t="n">
-        <v>-0.5428164845138889</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251566</v>
+        <v>251416</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>112.9344262295082</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 13:01:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:39</t>
+          <t>2025-05-09 07:37:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:39</t>
+          <t>2025-05-09 07:37:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:35</t>
+          <t>2025-05-09 10:15:03</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6889</v>
+        <v>11222</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3337,11 +3353,14 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
+      <c r="N38" t="n">
+        <v>39755</v>
+      </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
@@ -3350,56 +3369,56 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-2.305270947175926</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-2.305270947175926</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251564</v>
+        <v>251050</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="D39" t="n">
-        <v>44.54098360655738</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:35</t>
+          <t>2025-05-09 10:15:03</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:35</t>
+          <t>2025-05-09 13:50:03</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:35</t>
+          <t>2025-05-09 13:50:03</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 08:29:07</t>
+          <t>2025-05-09 13:50:03</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2717</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3408,73 +3427,78 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-2.353563296898148</v>
+        <v>-1.576428012523148</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-2.353563296898148</v>
+        <v>-1.576428012523148</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251626</v>
+        <v>251054</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
-        <v>204.9180327868852</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 08:29:07</t>
+          <t>2025-05-09 13:50:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:07</t>
+          <t>2025-05-09 14:25:03</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:07</t>
+          <t>2025-05-09 14:25:03</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:14:02</t>
+          <t>2025-05-09 14:25:03</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3483,73 +3507,78 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-9.509756375231483</v>
+        <v>-1.600733568078704</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-9.509756375231483</v>
+        <v>-1.600733568078704</v>
       </c>
       <c r="T40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>244354</v>
+        <v>251651</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D41" t="n">
-        <v>70.65573770491804</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:14:02</t>
+          <t>2025-05-09 14:25:03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:02</t>
+          <t>2025-05-12 09:47:03</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:02</t>
+          <t>2025-05-12 09:47:03</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:49:42</t>
+          <t>2025-05-13 12:46:38</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4310</v>
+        <v>46830</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3558,14 +3587,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N41" t="n">
+        <v>39755</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3575,14 +3607,14 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.576183970856482</v>
+        <v>-0.5323845852893518</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-1.576183970856482</v>
+        <v>-0.5323845852893518</v>
       </c>
       <c r="T41" t="n">
         <v>4</v>
@@ -3590,41 +3622,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251229</v>
+        <v>245275</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D42" t="n">
-        <v>307.1967213114754</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 13:49:42</t>
+          <t>2025-05-13 12:46:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:42</t>
+          <t>2025-05-13 14:08:38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:42</t>
+          <t>2025-05-13 14:08:38</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:26:54</t>
+          <t>2025-05-14 11:50:48</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>18739</v>
+        <v>24294</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3633,31 +3665,24 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3667,46 +3692,46 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251466</v>
+        <v>251081</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D43" t="n">
-        <v>91.26229508196721</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 11:26:54</t>
+          <t>2025-05-14 11:50:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:54</t>
+          <t>2025-05-14 12:55:48</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:54</t>
+          <t>2025-05-14 12:55:48</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:09</t>
+          <t>2025-05-14 13:38:13</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5567</v>
+        <v>3012</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3715,73 +3740,80 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-3.564697176689815</v>
+        <v>-21.56821205008102</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-3.564697176689815</v>
+        <v>-21.56821205008102</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251548</v>
+        <v>245350</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D44" t="n">
-        <v>217.0819672131148</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:09</t>
+          <t>2025-05-14 13:38:13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:09</t>
+          <t>2025-05-15 07:03:13</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:58:09</t>
+          <t>2025-05-15 07:03:13</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 09:35:14</t>
+          <t>2025-05-15 13:37:10</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>13242</v>
+        <v>27970</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3790,36 +3822,31 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.399476320578704</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-6.399476320578704</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3827,41 +3854,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251465</v>
+        <v>251373</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D45" t="n">
-        <v>102.0655737704918</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:35:14</t>
+          <t>2025-05-15 13:37:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:14</t>
+          <t>2025-05-15 14:37:10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:14</t>
+          <t>2025-05-15 14:37:10</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:18</t>
+          <t>2025-05-16 10:37:55</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6226</v>
+        <v>17094</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3874,7 +3901,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3887,56 +3914,56 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-4.491188524594907</v>
+        <v>-18.44300665101852</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-4.491188524594907</v>
+        <v>-18.44300665101852</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251557</v>
+        <v>251109</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D46" t="n">
-        <v>109.9180327868852</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:18</t>
+          <t>2025-05-16 10:37:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:18</t>
+          <t>2025-05-16 12:07:55</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:18</t>
+          <t>2025-05-16 12:07:55</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:13</t>
+          <t>2025-05-19 08:34:31</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6705</v>
+        <v>18928</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3945,11 +3972,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3962,56 +3989,56 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-31.35730633803241</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-31.35730633803241</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251062</v>
+        <v>251809</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D47" t="n">
-        <v>370.8852459016393</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:13</t>
+          <t>2025-05-19 08:34:31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:13</t>
+          <t>2025-05-19 10:09:31</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:13</t>
+          <t>2025-05-19 10:09:31</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-14 12:48:06</t>
+          <t>2025-05-19 12:11:47</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>22624</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4020,11 +4047,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -4037,7 +4064,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -4047,46 +4074,46 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251283</v>
+        <v>244204</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>11.78125</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:46</t>
+          <t>2025-05-08 08:26:55</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>754</v>
+        <v>3472</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4095,11 +4122,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -4112,56 +4139,56 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-50.43428819444444</v>
+        <v>-0.4380464480902778</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-50.3158203125</v>
+        <v>-0.3520264116550926</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>250670</v>
+        <v>250641</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>24.421875</v>
+        <v>83.8688524590164</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:46</t>
+          <t>2025-05-08 08:26:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:46</t>
+          <t>2025-05-08 08:56:55</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:46</t>
+          <t>2025-05-08 08:56:55</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-07 08:33:12</t>
+          <t>2025-05-08 10:20:47</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1563</v>
+        <v>5116</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4170,14 +4197,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4187,14 +4214,14 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-2.356391059027778</v>
+        <v>-10.43110200364583</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-2.356391059027778</v>
+        <v>-10.43110200364583</v>
       </c>
       <c r="T49" t="n">
         <v>2</v>
@@ -4202,41 +4229,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-07 08:33:12</t>
+          <t>2025-05-08 10:20:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-07 08:48:12</t>
+          <t>2025-05-08 10:45:47</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-07 08:48:12</t>
+          <t>2025-05-08 10:45:47</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-07 08:48:12</t>
+          <t>2025-05-08 12:19:27</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4245,17 +4272,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N50" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4263,18 +4290,18 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-0.5135132058333334</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-0.5135132058333334</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4282,41 +4309,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251227</v>
+        <v>251564</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-07 08:48:12</t>
+          <t>2025-05-08 12:19:27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-07 09:03:12</t>
+          <t>2025-05-08 12:49:27</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-07 09:03:12</t>
+          <t>2025-05-08 12:49:27</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-07 09:03:12</t>
+          <t>2025-05-08 13:34:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2717</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4325,78 +4352,73 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="N51" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-1.377224392361111</v>
+        <v>-1.565277777777778</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-1.377224392361111</v>
+        <v>-1.565277777777778</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>235572</v>
+        <v>251475</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>155.59375</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-07 09:03:12</t>
+          <t>2025-05-08 13:34:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-07 09:35:12</t>
+          <t>2025-05-08 13:59:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-07 09:35:12</t>
+          <t>2025-05-08 13:59:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-07 12:10:47</t>
+          <t>2025-05-09 08:21:18</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>9958</v>
+        <v>8681</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4405,11 +4427,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4422,14 +4444,14 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-548.5074978298611</v>
+        <v>-9.348132969039352</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-548.5074978298611</v>
+        <v>-9.348132969039352</v>
       </c>
       <c r="T52" t="n">
         <v>4</v>
@@ -4437,41 +4459,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251395</v>
+        <v>244354</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>35.34375</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-07 12:10:47</t>
+          <t>2025-05-09 08:21:18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:47</t>
+          <t>2025-05-09 08:41:18</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:47</t>
+          <t>2025-05-09 08:41:18</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-07 13:03:08</t>
+          <t>2025-05-09 09:51:58</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2262</v>
+        <v>4310</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4484,74 +4506,69 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="N53" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.54384765625</v>
+        <v>-1.41108834244213</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.54384765625</v>
+        <v>-1.41108834244213</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251371</v>
+        <v>251245</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-07 13:03:08</t>
+          <t>2025-05-09 09:51:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-07 13:22:08</t>
+          <t>2025-05-09 10:21:58</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-07 13:22:08</t>
+          <t>2025-05-09 10:21:58</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-07 13:22:08</t>
+          <t>2025-05-09 10:34:19</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4560,80 +4577,73 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-13.55704210069444</v>
+        <v>-42.44050546447917</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-13.55704210069444</v>
+        <v>-42.44050546447917</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251396</v>
+        <v>251466</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>35.34375</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-07 13:22:08</t>
+          <t>2025-05-09 10:34:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-07 13:41:08</t>
+          <t>2025-05-09 11:09:19</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-07 13:41:08</t>
+          <t>2025-05-09 11:09:19</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-07 14:16:29</t>
+          <t>2025-05-09 12:40:35</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2262</v>
+        <v>5567</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4646,74 +4656,69 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="N55" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.5947808159722222</v>
+        <v>-0.5281876138425926</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.5947808159722222</v>
+        <v>-0.5281876138425926</v>
       </c>
       <c r="T55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250923</v>
+        <v>251465</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>109.46875</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-07 14:16:29</t>
+          <t>2025-05-09 12:40:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-07 14:48:29</t>
+          <t>2025-05-09 13:05:35</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-07 14:48:29</t>
+          <t>2025-05-09 13:05:35</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 08:37:57</t>
+          <t>2025-05-09 14:47:39</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7006</v>
+        <v>6226</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4722,78 +4727,73 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1.359689670138889</v>
+        <v>-0.6164275956249999</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-1.359689670138889</v>
+        <v>-0.6164275956249999</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251546</v>
+        <v>251463</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>101.03125</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:37:57</t>
+          <t>2025-05-09 14:47:39</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:57</t>
+          <t>2025-05-12 07:17:39</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:57</t>
+          <t>2025-05-12 07:17:39</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-08 10:48:59</t>
+          <t>2025-05-12 09:11:52</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6466</v>
+        <v>6967</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4819,56 +4819,56 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-8.45068359375</v>
+        <v>-3.383242258657408</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-8.45068359375</v>
+        <v>-3.383242258657408</v>
       </c>
       <c r="T57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251397</v>
+        <v>251626</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>84.921875</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 10:48:59</t>
+          <t>2025-05-12 09:11:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 11:07:59</t>
+          <t>2025-05-12 09:36:52</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 11:07:59</t>
+          <t>2025-05-12 09:36:52</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:54</t>
+          <t>2025-05-12 13:01:47</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5435</v>
+        <v>12500</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4894,56 +4894,56 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-10.5228515625</v>
+        <v>-12.54290755920139</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-10.5228515625</v>
+        <v>-12.54290755920139</v>
       </c>
       <c r="T58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251594</v>
+        <v>251580</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>101.03125</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:54</t>
+          <t>2025-05-12 13:01:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:49:54</t>
+          <t>2025-05-12 13:26:47</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:49:54</t>
+          <t>2025-05-12 13:26:47</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 14:30:56</t>
+          <t>2025-05-13 07:24:02</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6466</v>
+        <v>7153</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4969,56 +4969,56 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-1.604817708333333</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-1.604817708333333</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>250819</v>
+        <v>251062</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>133.234375</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 14:30:56</t>
+          <t>2025-05-13 07:24:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:56</t>
+          <t>2025-05-13 07:54:02</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:56</t>
+          <t>2025-05-13 07:54:02</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-09 09:03:10</t>
+          <t>2025-05-13 14:04:56</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8527</v>
+        <v>22624</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -5044,56 +5044,56 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-21.37720269097222</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-21.37720269097222</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251245</v>
+        <v>251782</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>11.78125</v>
+        <v>197.9180327868852</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 09:03:10</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:10</t>
+          <t>2025-05-09 07:25:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:10</t>
+          <t>2025-05-09 07:25:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 09:29:57</t>
+          <t>2025-05-09 10:42:55</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>754</v>
+        <v>12073</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5102,31 +5102,36 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-42.39580078125</v>
+        <v>-0.446470856099537</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-42.39580078125</v>
+        <v>-0.446470856099537</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
@@ -5134,41 +5139,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251742</v>
+        <v>251561</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
-        <v>128.53125</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 09:29:57</t>
+          <t>2025-05-09 10:42:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:57</t>
+          <t>2025-05-09 11:26:55</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:57</t>
+          <t>2025-05-09 11:26:55</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:29</t>
+          <t>2025-05-09 12:56:00</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8226</v>
+        <v>5435</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5181,74 +5186,69 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-2.498253038194445</v>
+        <v>-2.538900273229167</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-2.498253038194445</v>
+        <v>-2.538900273229167</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>245275</v>
+        <v>251346</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
-        <v>379.59375</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:29</t>
+          <t>2025-05-09 12:56:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:29</t>
+          <t>2025-05-09 13:27:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:29</t>
+          <t>2025-05-09 13:27:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:04</t>
+          <t>2025-05-09 14:30:16</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>24294</v>
+        <v>3859</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5257,11 +5257,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5274,56 +5274,56 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-11.6043602003588</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-11.6043602003588</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251247</v>
+        <v>251505</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>420.84375</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:04</t>
+          <t>2025-05-09 14:30:16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:04</t>
+          <t>2025-05-12 07:01:16</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:04</t>
+          <t>2025-05-12 07:01:16</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:55</t>
+          <t>2025-05-12 10:54:58</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>26934</v>
+        <v>14255</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5332,11 +5332,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5349,56 +5349,56 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-4.433279079861111</v>
+        <v>-7.454838342442129</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-4.433279079861111</v>
+        <v>-7.454838342442129</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251761</v>
+        <v>243335</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>207.484375</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:55</t>
+          <t>2025-05-12 10:54:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 10:42:55</t>
+          <t>2025-05-12 11:36:58</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 10:42:55</t>
+          <t>2025-05-12 11:36:58</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 14:10:24</t>
+          <t>2025-05-13 12:38:00</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>13279</v>
+        <v>33004</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5407,14 +5407,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5424,56 +5424,56 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-284.5264002732292</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-284.5264002732292</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251249</v>
+        <v>251251</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D66" t="n">
-        <v>74.34375</v>
+        <v>260</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:10:24</t>
+          <t>2025-05-13 12:38:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:24</t>
+          <t>2025-05-13 13:22:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:24</t>
+          <t>2025-05-13 13:22:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:45</t>
+          <t>2025-05-14 09:42:00</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>4758</v>
+        <v>15860</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5514,41 +5514,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>245090</v>
+        <v>251467</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>8073.71875</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-14 07:43:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-14 08:15:45</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-14 08:15:45</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:28</t>
+          <t>2025-05-12 09:05:13</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>516718</v>
+        <v>6226</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5557,14 +5557,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5574,14 +5574,14 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-3.3786332528125</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-3.3786332528125</v>
       </c>
       <c r="T67" t="n">
         <v>1</v>
@@ -5589,41 +5589,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251462</v>
+        <v>251247</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>102.0655737704918</v>
+        <v>390.3478260869565</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:05:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 09:50:13</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 09:50:13</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:03</t>
+          <t>2025-05-13 08:20:34</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6226</v>
+        <v>26934</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5632,11 +5632,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-0.4765027322453704</v>
+        <v>-4.347624798715278</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-0.3917122040046296</v>
+        <v>-4.347624798715278</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -5664,41 +5664,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>244355</v>
+        <v>251846</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>70.65573770491804</v>
+        <v>165.1014492753623</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:03</t>
+          <t>2025-05-13 08:20:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 09:53:03</t>
+          <t>2025-05-13 09:05:34</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 09:53:03</t>
+          <t>2025-05-13 09:05:34</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 11:03:43</t>
+          <t>2025-05-13 11:50:40</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4310</v>
+        <v>11392</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5724,56 +5724,56 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.460917577418982</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-1.460917577418982</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251561</v>
+        <v>251260</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>89.09836065573771</v>
+        <v>135.7826086956522</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:03:43</t>
+          <t>2025-05-13 11:50:40</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:43</t>
+          <t>2025-05-13 12:35:40</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:43</t>
+          <t>2025-05-13 12:35:40</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:59:49</t>
+          <t>2025-05-13 14:51:27</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5435</v>
+        <v>9369</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5782,11 +5782,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5799,56 +5799,56 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-2.541541438981481</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-2.541541438981481</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250641</v>
+        <v>251795</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>83.8688524590164</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:59:49</t>
+          <t>2025-05-13 14:51:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:49</t>
+          <t>2025-05-14 07:16:27</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:49</t>
+          <t>2025-05-14 07:16:27</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:41</t>
+          <t>2025-05-14 11:48:02</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>5116</v>
+        <v>18739</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -5874,56 +5874,56 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-11.61853369762732</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-11.61853369762732</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251061</v>
+        <v>251424</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>393.3934426229508</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:41</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:15:41</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:15:41</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:04</t>
+          <t>2025-05-08 11:02:11</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>23997</v>
+        <v>9662</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5932,11 +5932,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5949,56 +5949,56 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-7.575751366122685</v>
+        <v>-10.58178854875</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-7.575751366122685</v>
+        <v>-10.45984977324074</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251252</v>
+        <v>251485</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
-        <v>247.2622950819672</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:04</t>
+          <t>2025-05-08 11:02:11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-12 14:14:04</t>
+          <t>2025-05-08 11:42:11</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-12 14:14:04</t>
+          <t>2025-05-08 11:42:11</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:21:20</t>
+          <t>2025-05-08 13:20:18</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15083</v>
+        <v>4808</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6007,11 +6007,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6024,56 +6024,56 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-15.55576814059028</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-15.55576814059028</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251463</v>
+        <v>251566</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
-        <v>100.9710144927536</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 13:20:18</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 14:00:18</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 14:00:18</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 09:15:58</t>
+          <t>2025-05-09 08:20:53</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6967</v>
+        <v>6889</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6099,53 +6099,56 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-3.386090982291666</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1</v>
+        <v>-2.347845804988426</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>-2.347845804988426</v>
+      </c>
+      <c r="T74" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251846</v>
+        <v>244023</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>165.1014492753623</v>
+        <v>20.3469387755102</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 09:15:58</t>
+          <t>2025-05-09 08:20:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 09:50:58</t>
+          <t>2025-05-09 09:05:53</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 09:50:58</t>
+          <t>2025-05-09 09:05:53</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:04</t>
+          <t>2025-05-09 09:26:14</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>11392</v>
+        <v>997</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6158,7 +6161,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6171,53 +6174,56 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>7</v>
+        <v>-221.3932256235879</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>-221.3932256235879</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251562</v>
+        <v>251246</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>118</v>
+        <v>244.9387755102041</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:04</t>
+          <t>2025-05-09 09:26:14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:04</t>
+          <t>2025-05-09 10:01:14</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:04</t>
+          <t>2025-05-09 10:01:14</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 14:59:04</t>
+          <t>2025-05-09 14:06:11</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>8142</v>
+        <v>12002</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6226,11 +6232,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6243,53 +6249,56 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
+        <v>-0.5876275510185185</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>-0.5876275510185185</v>
+      </c>
+      <c r="T76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251750</v>
+        <v>251557</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D77" t="n">
-        <v>56.39130434782609</v>
+        <v>136.8367346938776</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 14:59:04</t>
+          <t>2025-05-09 14:06:11</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:34:04</t>
+          <t>2025-05-12 07:01:11</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:34:04</t>
+          <t>2025-05-12 07:01:11</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:27</t>
+          <t>2025-05-12 09:18:01</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3891</v>
+        <v>6705</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6298,14 +6307,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -6315,53 +6324,56 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S77" t="n">
+      <c r="S77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251795</v>
+        <v>251252</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D78" t="n">
-        <v>271.5797101449276</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:27</t>
+          <t>2025-05-12 09:18:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:27</t>
+          <t>2025-05-12 10:13:01</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:27</t>
+          <t>2025-05-12 10:13:01</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 13:47:02</t>
+          <t>2025-05-13 07:20:50</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>18739</v>
+        <v>15083</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6370,7 +6382,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -6387,53 +6399,56 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S78" t="n">
+      <c r="S78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251424</v>
+        <v>243569</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>197.1836734693877</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:11</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>9662</v>
+        <v>2601</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6442,14 +6457,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6459,56 +6474,56 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-10.57239229025463</v>
+        <v>-234.5372456964004</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-10.45984977324074</v>
+        <v>-234.5372456964004</v>
       </c>
       <c r="T79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251346</v>
+        <v>250670</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
-        <v>78.75510204081633</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:11</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-08 11:57:11</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-08 11:57:11</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-08 13:15:56</t>
+          <t>2025-05-08 13:32:38</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3859</v>
+        <v>1563</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6517,14 +6532,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -6534,14 +6549,14 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-10.55273526077546</v>
+        <v>-3.564338810636574</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-10.55273526077546</v>
+        <v>-3.564338810636574</v>
       </c>
       <c r="T80" t="n">
         <v>2</v>
@@ -6549,41 +6564,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>244023</v>
+        <v>245623</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D81" t="n">
-        <v>20.3469387755102</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 13:15:56</t>
+          <t>2025-05-08 13:32:38</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:56</t>
+          <t>2025-05-08 14:06:38</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:56</t>
+          <t>2025-05-08 14:06:38</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-08 14:21:17</t>
+          <t>2025-05-09 12:18:44</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>997</v>
+        <v>26419</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6592,14 +6607,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -6609,56 +6624,56 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-220.5981150793634</v>
+        <v>-104.5130183881019</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-220.5981150793634</v>
+        <v>-104.5130183881019</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251467</v>
+        <v>251750</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>127.0612244897959</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-08 14:21:17</t>
+          <t>2025-05-09 12:18:44</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:17</t>
+          <t>2025-05-09 12:35:44</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:17</t>
+          <t>2025-05-09 12:35:44</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:20</t>
+          <t>2025-05-09 13:30:32</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>6226</v>
+        <v>3891</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6667,14 +6682,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6684,14 +6699,14 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-0.3912131519328704</v>
+        <v>0</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-0.3912131519328704</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
         <v>1</v>
@@ -6699,41 +6714,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251464</v>
+        <v>251987</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>145.9795918367347</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:20</t>
+          <t>2025-05-09 13:30:32</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 10:08:20</t>
+          <t>2025-05-09 14:06:32</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 10:08:20</t>
+          <t>2025-05-09 14:06:32</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:34:19</t>
+          <t>2025-05-20 07:31:42</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>7153</v>
+        <v>210526</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6742,14 +6757,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6759,14 +6774,14 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-0.5238378684837963</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-0.5238378684837963</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
         <v>1</v>
@@ -6774,41 +6789,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251580</v>
+        <v>251284</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D84" t="n">
-        <v>145.9795918367347</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 12:34:19</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:09:19</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:09:19</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:18</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>7153</v>
+        <v>16340</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6817,73 +6832,75 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="O84" t="n">
-        <v>0</v>
+      <c r="N84" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251251</v>
+        <v>251259</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="D85" t="n">
-        <v>323.6734693877551</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:18</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:18</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:18</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:58</t>
+          <t>2025-05-09 14:43:00</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>15860</v>
+        <v>5000</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6892,11 +6909,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6909,22 +6926,19 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1</v>
+        <v>-3.613194444444444</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251284</v>
+        <v>251520</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6932,29 +6946,29 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>40.5</v>
+        <v>34.5</v>
       </c>
       <c r="D86" t="n">
         <v>297.0909090909091</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 14:43:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:17:30</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:17:30</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:14:35</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6976,16 +6990,11 @@
       <c r="M86" t="n">
         <v>70</v>
       </c>
-      <c r="N86" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -6993,7 +7002,7 @@
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5101325757523149</v>
       </c>
       <c r="S86" t="n">
         <v>1</v>
@@ -7001,7 +7010,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251260</v>
+        <v>251743</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7009,33 +7018,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D87" t="n">
-        <v>170.3454545454545</v>
+        <v>195.9272727272727</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:14:35</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:05</t>
+          <t>2025-05-12 12:51:05</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:05</t>
+          <t>2025-05-12 12:51:05</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-12 08:00:26</t>
+          <t>2025-05-13 08:07:01</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>9369</v>
+        <v>10776</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7044,11 +7053,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -7061,14 +7070,14 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,121 +515,113 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251225</v>
+        <v>252375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>99.2063492063492</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 08:39:12</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-07-04 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3490414710532407</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-0.3048611111111111</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251283</v>
+        <v>252042</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>10.61971830985915</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 08:03:37</t>
+          <t>2025-06-04 09:25:58</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>754</v>
+        <v>7684</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,11 +630,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -655,56 +647,56 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-51.3358470266088</v>
+        <v>-5.556910291435185</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-51.3358470266088</v>
+        <v>-5.393032786886574</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251548</v>
+        <v>251741</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>186.5070422535211</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 08:03:37</t>
+          <t>2025-06-04 09:25:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:37</t>
+          <t>2025-06-04 09:55:58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:37</t>
+          <t>2025-06-04 09:55:58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:07</t>
+          <t>2025-06-04 11:25:03</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>13242</v>
+        <v>5435</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -722,27 +714,22 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.478560250393519</v>
+        <v>-7.475739981782407</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1.478560250393519</v>
+        <v>-7.475739981782407</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -750,41 +737,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251519</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>74.6056338028169</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:07</t>
+          <t>2025-06-04 11:25:03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:07</t>
+          <t>2025-06-04 11:55:03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:07</t>
+          <t>2025-06-04 11:55:03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:43</t>
+          <t>2025-06-05 07:31:02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>13175</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -797,32 +784,27 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.540786384976852</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-1.540786384976852</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -830,41 +812,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251547</v>
+        <v>251390</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>184.9154929577465</v>
+        <v>35.32786885245902</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:43</t>
+          <t>2025-06-05 07:31:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:13:43</t>
+          <t>2025-06-05 08:01:02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:13:43</t>
+          <t>2025-06-05 08:01:02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:38</t>
+          <t>2025-06-05 08:36:22</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>13129</v>
+        <v>2155</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -882,27 +864,22 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-2.346283255081019</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-2.346283255081019</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -910,41 +887,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250759</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>118.2816901408451</v>
+        <v>205.7213114754098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:18:38</t>
+          <t>2025-06-05 08:36:22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:38</t>
+          <t>2025-06-05 09:06:22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:38</t>
+          <t>2025-06-05 09:06:22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:46:55</t>
+          <t>2025-06-05 12:32:05</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8398</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -953,17 +930,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -971,18 +948,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.449256651018519</v>
+        <v>-0.5222905282291667</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-1.449256651018519</v>
+        <v>-0.5222905282291667</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -990,41 +967,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>252282</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>140.8450704225352</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:46:55</t>
+          <t>2025-06-05 12:32:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:20:55</t>
+          <t>2025-06-05 13:07:05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:20:55</t>
+          <t>2025-06-05 13:07:05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:46</t>
+          <t>2025-06-05 13:51:59</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>2738</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1037,13 +1014,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1051,60 +1028,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.57067683880787</v>
+        <v>-0.5777663934375</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-2.57067683880787</v>
+        <v>-0.5777663934375</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251229</v>
+        <v>251180</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>263.9295774647887</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:46</t>
+          <t>2025-06-05 13:51:59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:46</t>
+          <t>2025-06-05 14:16:59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:46</t>
+          <t>2025-06-05 14:16:59</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:20:42</t>
+          <t>2025-06-05 14:16:59</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1113,18 +1090,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39887 (esterno)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1133,60 +1110,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39723</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-16.59512750454861</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-16.59512750454861</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251397</v>
+        <v>251984</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>76.54929577464789</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 10:20:42</t>
+          <t>2025-06-05 14:16:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 10:41:42</t>
+          <t>2025-06-05 14:41:59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 10:41:42</t>
+          <t>2025-06-05 14:41:59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:58:15</t>
+          <t>2025-06-06 12:20:18</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5435</v>
+        <v>20638</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1204,64 +1181,69 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="N10" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-14.4987871674537</v>
+        <v>-1.514105191261574</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-14.4987871674537</v>
+        <v>-1.514105191261574</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251761</v>
+        <v>252156</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>187.0281690140845</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:58:15</t>
+          <t>2025-06-06 12:20:18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:15</t>
+          <t>2025-06-06 12:50:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:15</t>
+          <t>2025-06-06 12:50:18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:16</t>
+          <t>2025-06-10 10:52:26</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13279</v>
+        <v>51370</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1274,7 +1256,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1287,7 +1269,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1297,46 +1279,46 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250819</v>
+        <v>251772</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>120.0985915492958</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:16</t>
+          <t>2025-06-10 10:52:26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:16</t>
+          <t>2025-06-10 11:17:26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:16</t>
+          <t>2025-06-10 11:17:26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 09:41:22</t>
+          <t>2025-06-12 07:39:06</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8527</v>
+        <v>45242</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1349,7 +1331,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1362,56 +1344,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-25.40373630672454</v>
+        <v>-7.318829690347222</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-25.40373630672454</v>
+        <v>-7.318829690347222</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251594</v>
+        <v>252084</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>91.07042253521126</v>
+        <v>641</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 09:41:22</t>
+          <t>2025-06-12 07:39:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:22</t>
+          <t>2025-06-12 08:09:06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:22</t>
+          <t>2025-06-12 08:09:06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:31:27</t>
+          <t>2025-06-13 10:50:06</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6466</v>
+        <v>39101</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1424,69 +1406,74 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="N13" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-6.480174100162037</v>
+        <v>-8.451468579236112</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-6.480174100162037</v>
+        <v>-8.451468579236112</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251464</v>
+        <v>251916</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7464788732394</v>
+        <v>768.4426229508197</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:31:27</t>
+          <t>2025-06-13 10:50:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:27</t>
+          <t>2025-06-13 11:20:06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:27</t>
+          <t>2025-06-13 11:20:06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:11</t>
+          <t>2025-06-17 08:08:33</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7153</v>
+        <v>46875</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1512,14 +1499,14 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-4.560553599375</v>
+        <v>-4.339275956284722</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-4.560553599375</v>
+        <v>-4.339275956284722</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1527,116 +1514,118 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251340</v>
+        <v>251082</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>461.9718309859155</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:11</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:11</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:11</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:43:10</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>32800</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>-0.2916666666666667</v>
+      </c>
+      <c r="S15" t="n">
         <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>-16.57164514866898</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-16.57164514866898</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251374</v>
+        <v>251500</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>385.112676056338</v>
+        <v>154.625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:43:10</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:23:10</t>
+          <t>2025-06-05 12:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:23:10</t>
+          <t>2025-06-05 12:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-15 12:48:16</t>
+          <t>2025-06-05 14:51:37</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>27343</v>
+        <v>9896</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1645,73 +1634,78 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5335289514814815</v>
+        <v>-1.504926215277778</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.5335289514814815</v>
+        <v>-0.6191840277777778</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>245089</v>
+        <v>244023</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>1727.676056338028</v>
+        <v>15.578125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-15 12:48:16</t>
+          <t>2025-06-05 14:51:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-15 13:24:16</t>
+          <t>2025-06-06 07:10:37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-15 13:24:16</t>
+          <t>2025-06-06 07:10:37</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-21 10:11:57</t>
+          <t>2025-06-06 07:26:12</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>122665</v>
+        <v>997</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1720,14 +1714,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1737,14 +1731,14 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-249.30986328125</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-249.30986328125</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1752,7 +1746,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251456</v>
+        <v>251895</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1760,33 +1754,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>140.609375</v>
+        <v>276.46875</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-06 07:26:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:17:00</t>
+          <t>2025-06-06 07:49:12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:17:00</t>
+          <t>2025-06-06 07:49:12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:37:36</t>
+          <t>2025-06-06 12:25:40</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8999</v>
+        <v>17694</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1795,17 +1789,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39746</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1813,26 +1809,26 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39746</v>
+        <v>39891</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.487250434027778</v>
+        <v>-11.51782769097222</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.401117621527778</v>
+        <v>-11.51782769097222</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251462</v>
+        <v>251972</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1840,33 +1836,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>97.28125</v>
+        <v>75.75</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:37:36</t>
+          <t>2025-06-06 12:25:40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:36</t>
+          <t>2025-06-06 13:07:40</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:36</t>
+          <t>2025-06-06 13:07:40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:31:53</t>
+          <t>2025-06-06 14:23:25</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6226</v>
+        <v>4848</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,14 +1871,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1892,14 +1888,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-7.599598524305556</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-7.599598524305556</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
@@ -1907,7 +1903,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251227</v>
+        <v>251897</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1915,33 +1911,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>290.734375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:31:53</t>
+          <t>2025-06-06 14:23:25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:05:53</t>
+          <t>2025-06-09 07:05:25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:05:53</t>
+          <t>2025-06-09 07:05:25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:05:53</t>
+          <t>2025-06-09 11:56:09</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>18607</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1950,44 +1946,46 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>70</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>-14.49733072916667</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-14.49733072916667</v>
+      </c>
+      <c r="T20" t="n">
         <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>76</v>
-      </c>
-      <c r="N20" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>-1.504090711805556</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-1.504090711805556</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251546</v>
+        <v>252235</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1995,33 +1993,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>101.03125</v>
+        <v>379.03125</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:05:53</t>
+          <t>2025-06-09 11:56:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:37:53</t>
+          <t>2025-06-09 12:30:09</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:37:53</t>
+          <t>2025-06-09 12:30:09</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 14:18:55</t>
+          <t>2025-06-10 10:49:11</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6466</v>
+        <v>24258</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2030,14 +2028,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2047,14 +2045,14 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-7.596473524305556</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-7.596473524305556</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2062,7 +2060,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251391</v>
+        <v>252111</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2070,33 +2068,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>91.640625</v>
+        <v>284.171875</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:18:55</t>
+          <t>2025-06-10 10:49:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:33:55</t>
+          <t>2025-06-10 11:29:11</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:33:55</t>
+          <t>2025-06-10 11:29:11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:05:33</t>
+          <t>2025-06-11 08:13:21</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5865</v>
+        <v>18187</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2109,40 +2107,35 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.337196180555555</v>
+        <v>-6.342610677083333</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-1.337196180555555</v>
+        <v>-6.342610677083333</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251395</v>
+        <v>252110</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2150,33 +2143,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>100.15625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:05:33</t>
+          <t>2025-06-11 08:13:21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:33</t>
+          <t>2025-06-11 08:28:21</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:33</t>
+          <t>2025-06-11 08:28:21</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:57:54</t>
+          <t>2025-06-11 10:08:30</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>6410</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2189,40 +2182,35 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.373546006944445</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.373546006944445</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251371</v>
+        <v>252121</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2230,33 +2218,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>194.578125</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:57:54</t>
+          <t>2025-06-11 10:08:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:16:54</t>
+          <t>2025-06-11 10:25:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:16:54</t>
+          <t>2025-06-11 10:25:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:16:54</t>
+          <t>2025-06-11 13:40:05</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>12453</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2269,42 +2257,35 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-14.38674045138889</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-14.38674045138889</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251396</v>
+        <v>252325</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2312,33 +2293,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>35.34375</v>
+        <v>282.8125</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:16:54</t>
+          <t>2025-06-11 13:40:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:54</t>
+          <t>2025-06-11 14:03:05</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:54</t>
+          <t>2025-06-11 14:03:05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:11:15</t>
+          <t>2025-06-12 10:45:54</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2262</v>
+        <v>18100</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2347,7 +2328,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2356,35 +2337,30 @@
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="N25" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.424479166666667</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.424479166666667</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251742</v>
+        <v>251684</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2392,33 +2368,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>128.53125</v>
+        <v>235.671875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:11:15</t>
+          <t>2025-06-12 10:45:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-06-12 11:00:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-06-12 11:00:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:46</t>
+          <t>2025-06-12 14:56:34</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8226</v>
+        <v>15083</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2427,78 +2403,73 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.526931423611111</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.526931423611111</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250923</v>
+        <v>251935</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>109.46875</v>
+        <v>94.21126760563381</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:46</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:46</t>
+          <t>2025-06-05 07:35:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:46</t>
+          <t>2025-06-05 07:35:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:15</t>
+          <t>2025-06-05 09:09:12</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>7006</v>
+        <v>6689</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2507,78 +2478,73 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.291840277777778</v>
+        <v>-0.4638497652546297</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-2.291840277777778</v>
+        <v>-0.381396713611111</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251519</v>
+        <v>251992</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>205.859375</v>
+        <v>63.73239436619718</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:15</t>
+          <t>2025-06-05 09:09:12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:36:15</t>
+          <t>2025-06-05 09:54:12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:36:15</t>
+          <t>2025-06-05 09:54:12</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 11:02:06</t>
+          <t>2025-06-05 10:57:56</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>13175</v>
+        <v>4525</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2591,7 +2557,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2604,14 +2570,14 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-1.456905320810185</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-1.456905320810185</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2619,41 +2585,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>235572</v>
+        <v>251070</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>155.59375</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 11:02:06</t>
+          <t>2025-06-05 10:57:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:06</t>
+          <t>2025-06-05 11:32:56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:06</t>
+          <t>2025-06-05 11:32:56</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:42</t>
+          <t>2025-06-05 11:32:56</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>9958</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2666,69 +2632,74 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-550.5824327256944</v>
+        <v>-0.4812108763657408</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-550.5824327256944</v>
+        <v>-0.4812108763657408</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>244355</v>
+        <v>251780</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
-        <v>67.34375</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:42</t>
+          <t>2025-06-05 11:32:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:42</t>
+          <t>2025-06-05 12:22:56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 14:15:42</t>
+          <t>2025-06-05 12:22:56</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:02</t>
+          <t>2025-06-06 10:05:10</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4310</v>
+        <v>24299</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2741,69 +2712,76 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-4.307671440972222</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-4.307671440972222</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251477</v>
+        <v>251943</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>468.734375</v>
+        <v>83.14084507042253</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:02</t>
+          <t>2025-06-06 10:05:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:02</t>
+          <t>2025-06-06 10:45:10</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:02</t>
+          <t>2025-06-06 10:45:10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:46</t>
+          <t>2025-06-06 12:08:19</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29999</v>
+        <v>5903</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2812,78 +2790,73 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-6.3220703125</v>
+        <v>-7.505780516435186</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-6.3220703125</v>
+        <v>-7.505780516435186</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>250894</v>
+        <v>251944</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>691.59375</v>
+        <v>574.1971830985915</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:43:46</t>
+          <t>2025-06-06 12:08:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 08:02:46</t>
+          <t>2025-06-06 12:48:19</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 08:02:46</t>
+          <t>2025-06-06 12:48:19</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:22</t>
+          <t>2025-06-09 14:22:31</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>44262</v>
+        <v>40768</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2892,17 +2865,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="N32" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2912,56 +2882,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-1.482204861111111</v>
+        <v>-14.59897300469907</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-1.482204861111111</v>
+        <v>-14.59897300469907</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251061</v>
+        <v>251655</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
-        <v>374.953125</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:22</t>
+          <t>2025-06-09 14:22:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:22</t>
+          <t>2025-06-09 14:57:31</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:22</t>
+          <t>2025-06-09 14:57:31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-15 10:21:19</t>
+          <t>2025-06-13 09:54:43</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>23997</v>
+        <v>114822</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2970,73 +2940,78 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
+      <c r="N33" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-10.43147786458333</v>
+        <v>-8.413008607199075</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-10.43147786458333</v>
+        <v>-8.413008607199075</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251562</v>
+        <v>251747</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>127.21875</v>
+        <v>219.0985915492958</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-15 10:21:19</t>
+          <t>2025-06-13 09:54:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-15 10:44:19</t>
+          <t>2025-06-13 10:39:43</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-15 10:44:19</t>
+          <t>2025-06-13 10:39:43</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-15 12:51:32</t>
+          <t>2025-06-13 14:18:49</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8142</v>
+        <v>15556</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3049,7 +3024,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3062,56 +3037,56 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.5357964409722222</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-0.5357964409722222</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251249</v>
+        <v>251681</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>74.34375</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-15 12:51:32</t>
+          <t>2025-06-13 14:18:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-15 13:14:32</t>
+          <t>2025-06-16 07:03:49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-15 13:14:32</t>
+          <t>2025-06-16 07:03:49</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-15 14:28:53</t>
+          <t>2025-06-16 07:59:57</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4758</v>
+        <v>3985</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3120,11 +3095,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3137,7 +3112,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3152,41 +3127,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>245090</v>
+        <v>251917</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>8073.71875</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-15 14:28:53</t>
+          <t>2025-06-16 07:59:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-16 07:00:53</t>
+          <t>2025-06-16 08:34:57</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-16 07:00:53</t>
+          <t>2025-06-16 08:34:57</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:34:36</t>
+          <t>2025-06-16 09:07:13</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>516718</v>
+        <v>2291</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3195,14 +3170,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3212,7 +3187,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3227,120 +3202,116 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251706</v>
+        <v>252293</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>50.79365079365079</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-16 09:07:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-16 09:42:13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-16 09:42:13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-16 10:14:29</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3200</v>
+        <v>2291</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S37" t="n">
-        <v>7</v>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251416</v>
+        <v>252108</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>30.5</v>
       </c>
       <c r="D38" t="n">
-        <v>158.056338028169</v>
+        <v>260.0181818181818</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:00</t>
+          <t>2025-06-05 07:30:30</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:00</t>
+          <t>2025-06-05 07:30:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 10:15:03</t>
+          <t>2025-06-05 11:50:31</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>11222</v>
+        <v>14301</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3353,14 +3324,11 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39755</v>
-      </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
@@ -3369,7 +3337,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3379,42 +3347,42 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251050</v>
+        <v>251773</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>215</v>
+        <v>38.5</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:15:03</t>
+          <t>2025-06-05 11:50:31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:50:03</t>
+          <t>2025-06-05 12:29:01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:50:03</t>
+          <t>2025-06-05 12:29:01</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:50:03</t>
+          <t>2025-06-05 12:29:01</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3427,17 +3395,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
       <c r="N39" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3445,60 +3413,60 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.576428012523148</v>
+        <v>-0.520151515150463</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.576428012523148</v>
+        <v>-0.520151515150463</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251054</v>
+        <v>251879</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>109.2181818181818</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 13:50:03</t>
+          <t>2025-06-05 12:29:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:25:03</t>
+          <t>2025-06-05 13:07:31</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:25:03</t>
+          <t>2025-06-05 13:07:31</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:25:03</t>
+          <t>2025-06-05 14:56:44</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6007</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3507,78 +3475,73 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.600733568078704</v>
+        <v>-6.622733585856482</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-1.600733568078704</v>
+        <v>-6.622733585856482</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251651</v>
+        <v>251979</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>202</v>
+        <v>32.5</v>
       </c>
       <c r="D41" t="n">
-        <v>659.5774647887324</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:25:03</t>
+          <t>2025-06-05 14:56:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:47:03</t>
+          <t>2025-06-06 07:29:14</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:47:03</t>
+          <t>2025-06-06 07:29:14</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:46:38</t>
+          <t>2025-06-06 13:43:20</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>46830</v>
+        <v>20576</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3587,17 +3550,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
-      </c>
-      <c r="N41" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3607,56 +3567,56 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.5323845852893518</v>
+        <v>-1.571767676770833</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.5323845852893518</v>
+        <v>-1.571767676770833</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245275</v>
+        <v>252082</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>82</v>
+        <v>30.5</v>
       </c>
       <c r="D42" t="n">
-        <v>342.1690140845071</v>
+        <v>816.1454545454545</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 12:46:38</t>
+          <t>2025-06-06 13:43:20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:38</t>
+          <t>2025-06-06 14:13:50</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:38</t>
+          <t>2025-06-06 14:13:50</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-14 11:50:48</t>
+          <t>2025-06-10 11:49:59</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>24294</v>
+        <v>44888</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3665,11 +3625,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3682,56 +3642,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-0.4930492424189815</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-0.4930492424189815</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251081</v>
+        <v>252410</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>65</v>
+        <v>38.5</v>
       </c>
       <c r="D43" t="n">
-        <v>42.42253521126761</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-14 11:50:48</t>
+          <t>2025-06-10 11:49:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:48</t>
+          <t>2025-06-10 12:28:29</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:48</t>
+          <t>2025-06-10 12:28:29</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-14 13:38:13</t>
+          <t>2025-06-10 14:45:36</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3012</v>
+        <v>7541</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3740,80 +3700,73 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-21.56821205008102</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-21.56821205008102</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245350</v>
+        <v>251680</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>85</v>
+        <v>30.5</v>
       </c>
       <c r="D44" t="n">
-        <v>393.943661971831</v>
+        <v>307.3818181818182</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-14 13:38:13</t>
+          <t>2025-06-10 14:45:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-15 07:03:13</t>
+          <t>2025-06-11 07:16:06</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-15 07:03:13</t>
+          <t>2025-06-11 07:16:06</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-15 13:37:10</t>
+          <t>2025-06-11 12:23:28</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>27970</v>
+        <v>16906</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3822,11 +3775,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3839,7 +3792,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3849,46 +3802,46 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251373</v>
+        <v>251362</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>240.7605633802817</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-15 13:37:10</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-15 14:37:10</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-15 14:37:10</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-16 10:37:55</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>17094</v>
+        <v>2505</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3897,73 +3850,78 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-18.44300665101852</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-18.44300665101852</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251109</v>
+        <v>251752</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>266.5915492957747</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-16 10:37:55</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-16 12:07:55</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-16 12:07:55</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-19 08:34:31</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>18928</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3972,73 +3930,78 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>39846</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39846</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-31.35730633803241</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-31.35730633803241</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251809</v>
+        <v>243569</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>122.2676056338028</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-19 08:34:31</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-19 10:09:31</t>
+          <t>2025-06-04 13:22:16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-19 10:09:31</t>
+          <t>2025-06-04 13:22:16</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-19 12:11:47</t>
+          <t>2025-06-04 13:58:54</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>2601</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4047,14 +4010,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4064,56 +4027,56 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-261.5825802034375</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-261.5825802034375</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244204</v>
+        <v>251631</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>56.91803278688525</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 13:58:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 14:13:54</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 14:13:54</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:55</t>
+          <t>2025-06-05 08:39:58</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3472</v>
+        <v>10370</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4122,73 +4085,78 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.4380464480902778</v>
+        <v>-0.3610915492939815</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.3520264116550926</v>
+        <v>-0.3610915492939815</v>
       </c>
       <c r="T48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>250641</v>
+        <v>251978</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>83.8688524590164</v>
+        <v>440.1408450704225</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:55</t>
+          <t>2025-06-05 08:39:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:55</t>
+          <t>2025-06-05 09:09:58</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:55</t>
+          <t>2025-06-05 09:09:58</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-08 10:20:47</t>
+          <t>2025-06-06 08:30:06</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>5116</v>
+        <v>31250</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4201,7 +4169,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4214,56 +4182,56 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-10.43110200364583</v>
+        <v>-3.354244913923611</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-10.43110200364583</v>
+        <v>-3.354244913923611</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251840</v>
+        <v>251958</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>93.67213114754098</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 10:20:47</t>
+          <t>2025-06-06 08:30:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 10:45:47</t>
+          <t>2025-06-06 09:02:06</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 10:45:47</t>
+          <t>2025-06-06 09:02:06</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:27</t>
+          <t>2025-06-06 11:04:22</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5714</v>
+        <v>8681</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4272,78 +4240,73 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.5135132058333334</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.5135132058333334</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251564</v>
+        <v>251792</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>44.54098360655738</v>
+        <v>129.6338028169014</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:27</t>
+          <t>2025-06-06 11:04:22</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:49:27</t>
+          <t>2025-06-06 11:21:22</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:49:27</t>
+          <t>2025-06-06 11:21:22</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-08 13:34:00</t>
+          <t>2025-06-06 13:31:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2717</v>
+        <v>9204</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4352,14 +4315,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
         <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4369,56 +4332,56 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-1.565277777777778</v>
+        <v>-11.56320422534722</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-1.565277777777778</v>
+        <v>-11.56320422534722</v>
       </c>
       <c r="T51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251475</v>
+        <v>251898</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>142.3114754098361</v>
+        <v>93.02816901408451</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:34:00</t>
+          <t>2025-06-06 13:31:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:00</t>
+          <t>2025-06-06 13:48:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:00</t>
+          <t>2025-06-06 13:48:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-09 08:21:18</t>
+          <t>2025-06-09 07:21:02</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8681</v>
+        <v>6605</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4427,14 +4390,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4444,56 +4407,56 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-9.348132969039352</v>
+        <v>-3.306279342719908</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-9.348132969039352</v>
+        <v>-3.306279342719908</v>
       </c>
       <c r="T52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>244354</v>
+        <v>251798</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>70.65573770491804</v>
+        <v>318.943661971831</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-09 08:21:18</t>
+          <t>2025-06-09 07:21:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-09 08:41:18</t>
+          <t>2025-06-09 07:36:02</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-09 08:41:18</t>
+          <t>2025-06-09 07:36:02</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:58</t>
+          <t>2025-06-09 12:54:59</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4310</v>
+        <v>22645</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4502,14 +4465,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4519,56 +4482,56 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-1.41108834244213</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-1.41108834244213</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251245</v>
+        <v>252195</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>12.36065573770492</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:58</t>
+          <t>2025-06-09 12:54:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-09 10:21:58</t>
+          <t>2025-06-09 13:26:59</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-09 10:21:58</t>
+          <t>2025-06-09 13:26:59</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:19</t>
+          <t>2025-06-10 13:50:32</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>754</v>
+        <v>35753</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4577,11 +4540,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4594,14 +4557,14 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-42.44050546447917</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-42.44050546447917</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -4609,41 +4572,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251466</v>
+        <v>251679</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
-        <v>91.26229508196721</v>
+        <v>223.3802816901408</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:19</t>
+          <t>2025-06-10 13:50:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:19</t>
+          <t>2025-06-10 14:11:32</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:19</t>
+          <t>2025-06-10 14:11:32</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:35</t>
+          <t>2025-06-11 09:54:55</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5567</v>
+        <v>15860</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4652,11 +4615,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4669,14 +4632,14 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.5281876138425926</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.5281876138425926</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>1</v>
@@ -4684,41 +4647,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251465</v>
+        <v>251218</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>102.0655737704918</v>
+        <v>112.7868852459016</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:35</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:35</t>
+          <t>2025-06-05 07:31:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:35</t>
+          <t>2025-06-05 07:31:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:39</t>
+          <t>2025-06-05 09:23:47</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6226</v>
+        <v>6880</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4727,20 +4690,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4748,52 +4716,49 @@
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.6164275956249999</v>
-      </c>
-      <c r="S56" s="1" t="n">
-        <v>-0.6164275956249999</v>
-      </c>
-      <c r="T56" t="n">
+        <v>-0.3915186703125</v>
+      </c>
+      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251463</v>
+        <v>251219</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>114.2131147540984</v>
+        <v>112.7868852459016</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:39</t>
+          <t>2025-06-05 09:23:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:39</t>
+          <t>2025-06-05 09:48:47</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:39</t>
+          <t>2025-06-05 09:48:47</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 09:11:52</t>
+          <t>2025-06-05 11:41:34</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6967</v>
+        <v>6880</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4802,20 +4767,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N57" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4823,52 +4793,49 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-3.383242258657408</v>
-      </c>
-      <c r="S57" s="1" t="n">
-        <v>-3.383242258657408</v>
-      </c>
-      <c r="T57" t="n">
+        <v>-0.4872040072916666</v>
+      </c>
+      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251626</v>
+        <v>251445</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D58" t="n">
-        <v>204.9180327868852</v>
+        <v>445.4754098360656</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 09:11:52</t>
+          <t>2025-06-05 11:41:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 09:36:52</t>
+          <t>2025-06-05 12:27:34</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 09:36:52</t>
+          <t>2025-06-05 12:27:34</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:47</t>
+          <t>2025-06-06 11:53:02</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>12500</v>
+        <v>27174</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4894,56 +4861,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-12.54290755920139</v>
-      </c>
-      <c r="S58" s="1" t="n">
-        <v>-12.54290755920139</v>
-      </c>
-      <c r="T58" t="n">
+        <v>-2.495173041898148</v>
+      </c>
+      <c r="S58" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251580</v>
+        <v>252058</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>117.2622950819672</v>
+        <v>86.88524590163935</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:47</t>
+          <t>2025-06-06 11:53:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:47</t>
+          <t>2025-06-06 12:22:02</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:47</t>
+          <t>2025-06-06 12:22:02</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:02</t>
+          <t>2025-06-06 13:48:56</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>7153</v>
+        <v>5300</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4956,7 +4920,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4969,56 +4933,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1</v>
+      <c r="S59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251062</v>
+        <v>252337</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
-        <v>370.8852459016393</v>
+        <v>1561.27868852459</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:02</t>
+          <t>2025-06-06 13:48:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:54:02</t>
+          <t>2025-06-06 14:15:56</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:54:02</t>
+          <t>2025-06-06 14:15:56</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 14:04:56</t>
+          <t>2025-06-12 08:17:12</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>22624</v>
+        <v>95238</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -5044,56 +5005,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1</v>
+      <c r="S60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251782</v>
+        <v>245623</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>197.9180327868852</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:25:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:25:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:55</t>
+          <t>2025-06-06 13:57:53</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12073</v>
+        <v>26419</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5102,78 +5060,70 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
-      </c>
-      <c r="N61" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.446470856099537</v>
-      </c>
-      <c r="S61" s="1" t="n">
-        <v>-0.446470856099537</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1</v>
+        <v>-132.5818639291435</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251561</v>
+        <v>251186</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>89.09836065573771</v>
+        <v>369.7391304347826</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:55</t>
+          <t>2025-06-06 13:57:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:26:55</t>
+          <t>2025-06-06 14:37:53</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:26:55</t>
+          <t>2025-06-06 14:37:53</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:56:00</t>
+          <t>2025-06-09 12:47:37</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5435</v>
+        <v>25512</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5186,7 +5136,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5199,56 +5149,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-2.538900273229167</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>-2.538900273229167</v>
-      </c>
-      <c r="T62" t="n">
-        <v>8</v>
+        <v>-10.53307165861111</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251346</v>
+        <v>252196</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>63.26229508196721</v>
+        <v>682.4492753623189</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 12:56:00</t>
+          <t>2025-06-09 12:47:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:00</t>
+          <t>2025-06-09 13:17:37</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:00</t>
+          <t>2025-06-09 13:17:37</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 14:30:16</t>
+          <t>2025-06-11 08:40:04</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3859</v>
+        <v>47089</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5261,7 +5208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5274,56 +5221,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-11.6043602003588</v>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>-11.6043602003588</v>
-      </c>
-      <c r="T63" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251505</v>
+        <v>252112</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>233.6885245901639</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:30:16</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-12 07:01:16</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-12 07:01:16</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:58</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>14255</v>
+        <v>12453</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5336,69 +5280,74 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-7.454838342442129</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-7.454838342442129</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>243335</v>
+        <v>251762</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>541.0491803278688</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:58</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:58</t>
+          <t>2025-06-04 12:34:08</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:58</t>
+          <t>2025-06-04 12:34:08</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:00</t>
+          <t>2025-06-04 14:20:25</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>33004</v>
+        <v>5208</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5407,14 +5356,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5424,56 +5373,56 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-284.5264002732292</v>
+        <v>-14.59751984127315</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-284.5264002732292</v>
+        <v>-14.59751984127315</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251251</v>
+        <v>251911</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
-        <v>260</v>
+        <v>191.3265306122449</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:00</t>
+          <t>2025-06-04 14:20:25</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:00</t>
+          <t>2025-06-05 07:00:25</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:00</t>
+          <t>2025-06-05 07:00:25</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-14 09:42:00</t>
+          <t>2025-06-05 10:11:45</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>15860</v>
+        <v>9375</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5482,11 +5431,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5499,56 +5448,56 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-8.424829931967592</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-8.424829931967592</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251467</v>
+        <v>251910</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>90.23188405797102</v>
+        <v>270.2448979591837</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 10:11:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-06-05 10:46:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-06-05 10:46:45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:13</t>
+          <t>2025-06-06 07:17:00</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6226</v>
+        <v>13242</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5561,7 +5510,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5574,56 +5523,56 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-3.3786332528125</v>
+        <v>-9.303472222222222</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-3.3786332528125</v>
+        <v>-9.303472222222222</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251247</v>
+        <v>251993</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>390.3478260869565</v>
+        <v>248.0204081632653</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:13</t>
+          <t>2025-06-06 07:17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 09:50:13</t>
+          <t>2025-06-06 07:52:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 09:50:13</t>
+          <t>2025-06-06 07:52:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:20:34</t>
+          <t>2025-06-06 12:00:01</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>26934</v>
+        <v>12153</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5632,11 +5581,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5649,56 +5598,56 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.347624798715278</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-4.347624798715278</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251846</v>
+        <v>252395</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
-        <v>165.1014492753623</v>
+        <v>1832.387755102041</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:20:34</t>
+          <t>2025-06-06 12:00:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:34</t>
+          <t>2025-06-06 12:47:01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:34</t>
+          <t>2025-06-06 12:47:01</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:40</t>
+          <t>2025-06-12 11:19:24</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>11392</v>
+        <v>89787</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5707,14 +5656,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
         <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5724,7 +5673,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5739,41 +5688,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251260</v>
+        <v>252326</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D70" t="n">
-        <v>135.7826086956522</v>
+        <v>523.2857142857143</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:40</t>
+          <t>2025-06-12 11:19:24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:40</t>
+          <t>2025-06-12 12:16:24</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:40</t>
+          <t>2025-06-12 12:16:24</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 14:51:27</t>
+          <t>2025-06-13 12:59:41</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>9369</v>
+        <v>25641</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5782,7 +5731,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -5799,7 +5748,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5814,41 +5763,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251795</v>
+        <v>251573</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
-        <v>271.5797101449276</v>
+        <v>87.36619718309859</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 14:51:27</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:27</t>
+          <t>2025-06-05 07:34:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:27</t>
+          <t>2025-06-05 07:34:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 11:48:02</t>
+          <t>2025-06-05 09:01:21</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>18739</v>
+        <v>6203</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5857,73 +5806,75 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
+        <v>-0.3759487480439815</v>
+      </c>
+      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251424</v>
+        <v>251237</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>197.1836734693877</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 09:01:21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-06-05 09:20:21</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-06-05 09:20:21</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:11</t>
+          <t>2025-06-06 10:45:43</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>9662</v>
+        <v>40140</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5932,73 +5883,75 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-10.58178854875</v>
-      </c>
-      <c r="S72" s="1" t="n">
-        <v>-10.45984977324074</v>
-      </c>
-      <c r="T72" t="n">
-        <v>4</v>
+        <v>-1.448415492962963</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251485</v>
+        <v>251905</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>98.12244897959184</v>
+        <v>194.943661971831</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:11</t>
+          <t>2025-06-06 10:45:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:42:11</t>
+          <t>2025-06-06 11:15:43</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 11:42:11</t>
+          <t>2025-06-06 11:15:43</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 13:20:18</t>
+          <t>2025-06-06 14:30:39</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4808</v>
+        <v>13841</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6007,14 +5960,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -6024,56 +5977,53 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-15.55576814059028</v>
-      </c>
-      <c r="S73" s="1" t="n">
-        <v>-15.55576814059028</v>
-      </c>
-      <c r="T73" t="n">
+        <v>-9.604626369328704</v>
+      </c>
+      <c r="S73" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251566</v>
+        <v>243335</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>140.5918367346939</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 13:20:18</t>
+          <t>2025-06-06 14:30:39</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:18</t>
+          <t>2025-06-09 07:04:39</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:18</t>
+          <t>2025-06-09 07:04:39</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 08:20:53</t>
+          <t>2025-06-09 14:49:30</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6889</v>
+        <v>33004</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6082,14 +6032,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -6099,56 +6049,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-2.347845804988426</v>
-      </c>
-      <c r="S74" s="1" t="n">
-        <v>-2.347845804988426</v>
-      </c>
-      <c r="T74" t="n">
-        <v>8</v>
+        <v>-311.6177132237847</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>244023</v>
+        <v>245089</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>20.3469387755102</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 08:20:53</t>
+          <t>2025-06-09 14:49:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:53</t>
+          <t>2025-06-10 07:19:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:53</t>
+          <t>2025-06-10 07:19:30</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:26:14</t>
+          <t>2025-06-13 12:07:10</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>997</v>
+        <v>122665</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6157,14 +6104,14 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -6174,910 +6121,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-221.3932256235879</v>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>-221.3932256235879</v>
-      </c>
-      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>251246</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>35</v>
-      </c>
-      <c r="D76" t="n">
-        <v>244.9387755102041</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:26:14</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:01:14</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:01:14</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:06:11</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>12002</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>6</v>
-      </c>
-      <c r="M76" t="n">
-        <v>70</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>-0.5876275510185185</v>
-      </c>
-      <c r="S76" s="1" t="n">
-        <v>-0.5876275510185185</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>251557</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>55</v>
-      </c>
-      <c r="D77" t="n">
-        <v>136.8367346938776</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:06:11</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:01:11</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:01:11</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:18:01</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>6705</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>2</v>
-      </c>
-      <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>251252</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>55</v>
-      </c>
-      <c r="D78" t="n">
-        <v>307.8163265306122</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:18:01</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:13:01</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:13:01</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:20:50</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>15083</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>6</v>
-      </c>
-      <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>17</v>
-      </c>
-      <c r="D79" t="n">
-        <v>36.63380281690141</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:17:00</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:17:00</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:53:38</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>2601</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>3</v>
-      </c>
-      <c r="M79" t="n">
-        <v>76</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>2024-09-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R79" s="1" t="n">
-        <v>-234.5372456964004</v>
-      </c>
-      <c r="S79" s="1" t="n">
-        <v>-234.5372456964004</v>
-      </c>
-      <c r="T79" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>250670</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>17</v>
-      </c>
-      <c r="D80" t="n">
-        <v>22.01408450704225</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:53:38</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:10:38</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:10:38</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:32:38</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1563</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>4</v>
-      </c>
-      <c r="M80" t="n">
-        <v>76</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R80" s="1" t="n">
-        <v>-3.564338810636574</v>
-      </c>
-      <c r="S80" s="1" t="n">
-        <v>-3.564338810636574</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>245623</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>34</v>
-      </c>
-      <c r="D81" t="n">
-        <v>372.0985915492957</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:32:38</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:06:38</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:06:38</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:18:44</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>26419</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>2</v>
-      </c>
-      <c r="M81" t="n">
-        <v>152</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>2025-01-25 00:00:00</t>
-        </is>
-      </c>
-      <c r="R81" s="1" t="n">
-        <v>-104.5130183881019</v>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>-104.5130183881019</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>251750</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>17</v>
-      </c>
-      <c r="D82" t="n">
-        <v>54.80281690140845</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:18:44</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:35:44</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:35:44</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:30:32</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>3891</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>3</v>
-      </c>
-      <c r="M82" t="n">
-        <v>152</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>251987</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>36</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2965.154929577465</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:30:32</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:06:32</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:06:32</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-20 07:31:42</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>210526</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>6</v>
-      </c>
-      <c r="M83" t="n">
-        <v>76</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>2025-09-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="R83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>251284</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D84" t="n">
-        <v>297.0909090909091</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:40:30</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:40:30</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:37:35</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>7</v>
-      </c>
-      <c r="M84" t="n">
-        <v>70</v>
-      </c>
-      <c r="N84" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>251259</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>90.90909090909091</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:37:35</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:12:05</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:12:05</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:43:00</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>9</v>
-      </c>
-      <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R85" s="1" t="n">
-        <v>-3.613194444444444</v>
-      </c>
-      <c r="S85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>251520</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D86" t="n">
-        <v>297.0909090909091</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:43:00</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:17:30</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:17:30</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:14:35</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>7</v>
-      </c>
-      <c r="M86" t="n">
-        <v>70</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R86" s="1" t="n">
-        <v>-0.5101325757523149</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>251743</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>195.9272727272727</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:14:35</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:51:05</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:51:05</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:07:01</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>10776</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>4</v>
-      </c>
-      <c r="M87" t="n">
-        <v>70</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,57 +515,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252375</v>
+        <v>251467</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>99.2063492063492</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:12</t>
+          <t>2025-05-08 09:02:03</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6250</v>
+        <v>6226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T1 ;T2 ;T8</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -575,19 +575,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-07-04 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v>2</v>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252042</v>
+        <v>251475</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,33 +598,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>125.9672131147541</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 09:02:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 09:32:03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 09:32:03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-04 09:25:58</t>
+          <t>2025-05-08 11:54:22</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>7684</v>
+        <v>8681</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -634,7 +637,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -647,22 +650,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-5.556910291435185</v>
+        <v>-8.496095173043981</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-5.393032786886574</v>
+        <v>-8.496095173043981</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251741</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -673,30 +676,30 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>89.09836065573771</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 09:25:58</t>
+          <t>2025-05-08 11:54:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 09:55:58</t>
+          <t>2025-05-08 12:24:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 09:55:58</t>
+          <t>2025-05-08 12:24:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 11:25:03</t>
+          <t>2025-05-09 09:31:34</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5435</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -705,39 +708,46 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-7.475739981782407</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-7.475739981782407</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251519</v>
+        <v>251164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -745,33 +755,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>215.983606557377</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 11:25:03</t>
+          <t>2025-05-09 09:31:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 11:55:03</t>
+          <t>2025-05-09 09:51:34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 11:55:03</t>
+          <t>2025-05-09 09:51:34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-05 07:31:02</t>
+          <t>2025-05-09 12:35:30</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13175</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -784,35 +794,40 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-2.52465846994213</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-2.52465846994213</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251390</v>
+        <v>251485</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -820,33 +835,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>35.32786885245902</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:31:02</t>
+          <t>2025-05-09 12:35:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 08:01:02</t>
+          <t>2025-05-09 13:00:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 08:01:02</t>
+          <t>2025-05-09 13:00:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 08:36:22</t>
+          <t>2025-05-09 14:19:19</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2155</v>
+        <v>4808</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -859,7 +874,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -872,22 +887,22 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-16.59675546447917</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-16.59675546447917</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251565</v>
+        <v>251283</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -895,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>205.7213114754098</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 08:36:22</t>
+          <t>2025-05-09 14:19:19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:06:22</t>
+          <t>2025-05-09 14:44:19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:06:22</t>
+          <t>2025-05-09 14:44:19</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:32:05</t>
+          <t>2025-05-09 14:56:41</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12549</v>
+        <v>754</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -930,36 +945,31 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5222905282291667</v>
+        <v>-52.62270036429398</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.5222905282291667</v>
+        <v>-52.62270036429398</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -967,7 +977,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252282</v>
+        <v>251546</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -975,33 +985,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>44.88524590163934</v>
+        <v>106</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:32:05</t>
+          <t>2025-05-09 14:56:41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:05</t>
+          <t>2025-05-12 07:21:41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:05</t>
+          <t>2025-05-12 07:21:41</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:59</t>
+          <t>2025-05-12 09:07:41</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2738</v>
+        <v>6466</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1019,35 +1029,30 @@
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5777663934375</v>
+        <v>-12.38033925318287</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.5777663934375</v>
+        <v>-12.38033925318287</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251180</v>
+        <v>251245</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1058,30 +1063,30 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:59</t>
+          <t>2025-05-12 09:07:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 14:16:59</t>
+          <t>2025-05-12 09:32:41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 14:16:59</t>
+          <t>2025-05-12 09:32:41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 14:16:59</t>
+          <t>2025-05-12 09:45:02</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1090,46 +1095,39 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.59512750454861</v>
+        <v>-45.40628415300926</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-16.59512750454861</v>
+        <v>-45.40628415300926</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251984</v>
+        <v>251561</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1140,30 +1138,30 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>338.327868852459</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 14:16:59</t>
+          <t>2025-05-12 09:45:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 14:41:59</t>
+          <t>2025-05-12 10:10:02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 14:41:59</t>
+          <t>2025-05-12 10:10:02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-06 12:20:18</t>
+          <t>2025-05-12 11:39:08</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>20638</v>
+        <v>5435</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,40 +1174,35 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.514105191261574</v>
+        <v>-5.48551912568287</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.514105191261574</v>
+        <v>-5.48551912568287</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252156</v>
+        <v>251566</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1217,33 +1210,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>842.1311475409836</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-06 12:20:18</t>
+          <t>2025-05-12 11:39:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-06 12:50:18</t>
+          <t>2025-05-12 12:04:08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-06 12:50:18</t>
+          <t>2025-05-12 12:04:08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-10 10:52:26</t>
+          <t>2025-05-12 13:57:04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>51370</v>
+        <v>6889</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1256,7 +1249,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1269,22 +1262,22 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-5.581306921678241</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-5.581306921678241</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251772</v>
+        <v>251466</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1295,30 +1288,30 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>741.672131147541</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-10 10:52:26</t>
+          <t>2025-05-12 13:57:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:26</t>
+          <t>2025-05-12 14:22:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:26</t>
+          <t>2025-05-12 14:22:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-12 07:39:06</t>
+          <t>2025-05-13 07:53:20</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>45242</v>
+        <v>5567</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1331,7 +1324,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1344,14 +1337,14 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-7.318829690347222</v>
+        <v>-4.328711293263889</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-7.318829690347222</v>
+        <v>-4.328711293263889</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
@@ -1359,7 +1352,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>251416</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1367,33 +1360,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-12 07:39:06</t>
+          <t>2025-05-13 07:53:20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-12 08:09:06</t>
+          <t>2025-05-13 08:18:20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-12 08:09:06</t>
+          <t>2025-05-13 08:18:20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-13 10:50:06</t>
+          <t>2025-05-13 11:22:18</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>11222</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1412,34 +1405,32 @@
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-8.451468579236112</v>
+        <v>-0.4738274134837963</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-8.451468579236112</v>
+        <v>-0.4738274134837963</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251916</v>
+        <v>251462</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1447,33 +1438,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>768.4426229508197</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-13 10:50:06</t>
+          <t>2025-05-13 11:22:18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-13 11:20:06</t>
+          <t>2025-05-13 11:42:18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-13 11:20:06</t>
+          <t>2025-05-13 11:42:18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-17 08:08:33</t>
+          <t>2025-05-13 13:24:22</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46875</v>
+        <v>6226</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,7 +1477,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1499,14 +1490,14 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-4.339275956284722</v>
+        <v>-4.558595173043981</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-4.339275956284722</v>
+        <v>-4.558595173043981</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1514,118 +1505,116 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251082</v>
+        <v>251562</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-13 13:24:22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-13 13:44:22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-13 13:44:22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-14 07:57:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8142</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T1 ;T2 ;T8</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251500</v>
+        <v>251465</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v>154.625</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:17:00</t>
+          <t>2025-05-09 07:37:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:17:00</t>
+          <t>2025-05-09 07:37:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 14:51:37</t>
+          <t>2025-05-09 09:04:41</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>9896</v>
+        <v>6226</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1634,78 +1623,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.504926215277778</v>
+        <v>-0.3782570422569445</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.6191840277777778</v>
+        <v>-0.3782570422569445</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244023</v>
+        <v>251464</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
-        <v>15.578125</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 14:51:37</t>
+          <t>2025-05-09 09:04:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-06 07:10:37</t>
+          <t>2025-05-09 09:49:41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-06 07:10:37</t>
+          <t>2025-05-09 09:49:41</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-06 07:26:12</t>
+          <t>2025-05-09 11:30:26</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>997</v>
+        <v>7153</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1718,7 +1702,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1731,14 +1715,14 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-249.30986328125</v>
+        <v>-0.4794698748032407</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-249.30986328125</v>
+        <v>-0.4794698748032407</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1746,41 +1730,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251895</v>
+        <v>250670</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>276.46875</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-06 07:26:12</t>
+          <t>2025-05-09 11:30:26</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:12</t>
+          <t>2025-05-09 12:07:26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:12</t>
+          <t>2025-05-09 12:07:26</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 12:25:40</t>
+          <t>2025-05-09 12:29:27</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>17694</v>
+        <v>1563</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1789,80 +1773,73 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-11.51782769097222</v>
+        <v>-4.520451877939816</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-11.51782769097222</v>
+        <v>-4.520451877939816</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251972</v>
+        <v>235572</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>75.75</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-06 12:25:40</t>
+          <t>2025-05-09 12:29:27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-06 13:07:40</t>
+          <t>2025-05-09 13:11:27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-06 13:07:40</t>
+          <t>2025-05-09 13:11:27</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-06 14:23:25</t>
+          <t>2025-05-12 07:31:42</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4848</v>
+        <v>9958</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1871,73 +1848,73 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2023-11-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>-553.3136834898264</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-553.3136834898264</v>
+      </c>
+      <c r="T19" t="n">
         <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>76</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>-7.599598524305556</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-7.599598524305556</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251897</v>
+        <v>251743</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>290.734375</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-06 14:23:25</t>
+          <t>2025-05-12 07:31:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-09 07:05:25</t>
+          <t>2025-05-12 08:11:42</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-09 07:05:25</t>
+          <t>2025-05-12 08:11:42</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-09 11:56:09</t>
+          <t>2025-05-12 10:43:28</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18607</v>
+        <v>10776</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1946,38 +1923,31 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-14.49733072916667</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-14.49733072916667</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>4</v>
@@ -1985,41 +1955,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252235</v>
+        <v>245350</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
-        <v>379.03125</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-09 11:56:09</t>
+          <t>2025-05-12 10:43:28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-09 12:30:09</t>
+          <t>2025-05-12 11:48:28</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-09 12:30:09</t>
+          <t>2025-05-12 11:48:28</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-10 10:49:11</t>
+          <t>2025-05-13 10:22:25</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>24258</v>
+        <v>27970</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2028,14 +1998,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2045,7 +2015,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
@@ -2060,41 +2030,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252111</v>
+        <v>245275</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>284.171875</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-10 10:49:11</t>
+          <t>2025-05-13 10:22:25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-10 11:29:11</t>
+          <t>2025-05-13 11:17:25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-10 11:29:11</t>
+          <t>2025-05-13 11:17:25</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-11 08:13:21</t>
+          <t>2025-05-14 08:59:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18187</v>
+        <v>24294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2103,11 +2073,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2120,56 +2090,56 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-6.342610677083333</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-6.342610677083333</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252110</v>
+        <v>251050</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D23" t="n">
-        <v>100.15625</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-11 08:13:21</t>
+          <t>2025-05-14 08:59:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-11 08:28:21</t>
+          <t>2025-05-14 11:34:35</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-11 08:28:21</t>
+          <t>2025-05-14 11:34:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-11 10:08:30</t>
+          <t>2025-05-14 11:34:35</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6410</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2178,73 +2148,78 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-6.482355242569445</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-6.482355242569445</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252121</v>
+        <v>251054</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>194.578125</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-11 10:08:30</t>
+          <t>2025-05-14 11:34:35</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-11 10:25:30</t>
+          <t>2025-05-14 12:09:35</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-11 10:25:30</t>
+          <t>2025-05-14 12:09:35</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-11 13:40:05</t>
+          <t>2025-05-14 12:09:35</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2253,73 +2228,78 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-6.506660798125001</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-6.506660798125001</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252325</v>
+        <v>251081</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D25" t="n">
-        <v>282.8125</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-11 13:40:05</t>
+          <t>2025-05-14 12:09:35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-11 14:03:05</t>
+          <t>2025-05-14 14:14:35</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-11 14:03:05</t>
+          <t>2025-05-14 14:14:35</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-12 10:45:54</t>
+          <t>2025-05-14 14:57:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>18100</v>
+        <v>3012</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2328,73 +2308,80 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-21.62292644756944</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-21.62292644756944</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251684</v>
+        <v>251109</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>235.671875</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-12 10:45:54</t>
+          <t>2025-05-14 14:57:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-12 11:00:54</t>
+          <t>2025-05-15 07:52:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-12 11:00:54</t>
+          <t>2025-05-15 07:52:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-12 14:56:34</t>
+          <t>2025-05-15 12:18:36</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15083</v>
+        <v>18928</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2403,11 +2390,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2420,56 +2407,56 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-27.51292057902778</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-27.51292057902778</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251935</v>
+        <v>244204</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>94.21126760563381</v>
+        <v>70.85714285714286</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-05 07:35:00</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-05 07:35:00</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-05 09:09:12</t>
+          <t>2025-05-08 08:55:51</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6689</v>
+        <v>3472</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2495,14 +2482,14 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.4638497652546297</v>
+        <v>-0.5333616780092593</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.381396713611111</v>
+        <v>-0.3721230158680556</v>
       </c>
       <c r="T27" t="n">
         <v>4</v>
@@ -2510,41 +2497,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251992</v>
+        <v>251259</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>63.73239436619718</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-05 09:09:12</t>
+          <t>2025-05-08 08:55:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 09:54:12</t>
+          <t>2025-05-08 09:55:51</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 09:54:12</t>
+          <t>2025-05-08 09:55:51</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 10:57:56</t>
+          <t>2025-05-08 11:37:53</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4525</v>
+        <v>5000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2557,7 +2544,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2570,56 +2557,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.456905320810185</v>
+        <v>-2.484651360543982</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-1.456905320810185</v>
+        <v>-2.484651360543982</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251070</v>
+        <v>250641</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>104.4081632653061</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 10:57:56</t>
+          <t>2025-05-08 11:37:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:32:56</t>
+          <t>2025-05-08 12:27:53</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:32:56</t>
+          <t>2025-05-08 12:27:53</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:32:56</t>
+          <t>2025-05-08 14:12:18</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2628,7 +2615,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2637,27 +2624,22 @@
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.4812108763657408</v>
+        <v>-10.59187925170139</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.4812108763657408</v>
+        <v>-10.59187925170139</v>
       </c>
       <c r="T29" t="n">
         <v>2</v>
@@ -2665,41 +2647,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251780</v>
+        <v>251424</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>342.2394366197183</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:32:56</t>
+          <t>2025-05-08 14:12:18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 12:22:56</t>
+          <t>2025-05-08 14:57:18</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 12:22:56</t>
+          <t>2025-05-08 14:57:18</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-06 10:05:10</t>
+          <t>2025-05-09 10:14:29</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>24299</v>
+        <v>9662</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2712,76 +2694,69 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-11.42672902494213</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-11.42672902494213</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251943</v>
+        <v>251463</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>83.14084507042253</v>
+        <v>142.1836734693877</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-06 10:05:10</t>
+          <t>2025-05-09 10:14:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:10</t>
+          <t>2025-05-09 10:49:29</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:10</t>
+          <t>2025-05-09 10:49:29</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-06 12:08:19</t>
+          <t>2025-05-09 13:11:40</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5903</v>
+        <v>6967</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2807,56 +2782,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-7.505780516435186</v>
+        <v>-0.5497732426273149</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-7.505780516435186</v>
+        <v>-0.5497732426273149</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251944</v>
+        <v>251594</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>574.1971830985915</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-06 12:08:19</t>
+          <t>2025-05-09 13:11:40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-06 12:48:19</t>
+          <t>2025-05-09 13:46:40</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-06 12:48:19</t>
+          <t>2025-05-09 13:46:40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-09 14:22:31</t>
+          <t>2025-05-12 07:58:37</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>40768</v>
+        <v>6466</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2869,7 +2844,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2882,56 +2857,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-14.59897300469907</v>
+        <v>-5.332383786851851</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-14.59897300469907</v>
+        <v>-5.332383786851851</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251655</v>
+        <v>251651</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
-        <v>1617.211267605634</v>
+        <v>955.7142857142857</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-09 14:22:31</t>
+          <t>2025-05-12 07:58:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-09 14:57:31</t>
+          <t>2025-05-12 08:40:37</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-09 14:57:31</t>
+          <t>2025-05-12 08:40:37</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-13 09:54:43</t>
+          <t>2025-05-14 08:36:20</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>114822</v>
+        <v>46830</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2940,78 +2915,76 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N33" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-8.413008607199075</v>
+        <v>-1.358574263043981</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-8.413008607199075</v>
+        <v>-1.358574263043981</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251747</v>
+        <v>251580</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D34" t="n">
-        <v>219.0985915492958</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-13 09:54:43</t>
+          <t>2025-05-14 08:36:20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-13 10:39:43</t>
+          <t>2025-05-14 09:18:20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-13 10:39:43</t>
+          <t>2025-05-14 09:18:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-13 14:18:49</t>
+          <t>2025-05-14 11:44:19</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>15556</v>
+        <v>7153</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3024,7 +2997,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3037,7 +3010,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -3047,46 +3020,46 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251681</v>
+        <v>251062</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>56.12676056338028</v>
+        <v>461.7142857142857</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-13 14:18:49</t>
+          <t>2025-05-14 11:44:19</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-16 07:03:49</t>
+          <t>2025-05-14 12:29:19</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-16 07:03:49</t>
+          <t>2025-05-14 12:29:19</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-16 07:59:57</t>
+          <t>2025-05-15 12:11:02</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3985</v>
+        <v>22624</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3095,11 +3068,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3112,7 +3085,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3127,41 +3100,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251917</v>
+        <v>250759</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>32.26760563380282</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-16 07:59:57</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-16 08:34:57</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-16 08:34:57</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-16 09:07:13</t>
+          <t>2025-05-08 14:17:16</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2291</v>
+        <v>8398</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3170,31 +3143,36 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N36" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-0.5953345070370371</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-0.5953345070370371</v>
       </c>
       <c r="T36" t="n">
         <v>1</v>
@@ -3202,41 +3180,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252293</v>
+        <v>251227</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>32.26760563380282</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-16 09:07:13</t>
+          <t>2025-05-08 14:17:16</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-16 09:42:13</t>
+          <t>2025-05-08 14:32:16</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-16 09:42:13</t>
+          <t>2025-05-08 14:32:16</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-16 10:14:29</t>
+          <t>2025-05-08 14:32:16</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2291</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3245,31 +3223,36 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-2.605751173703704</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-2.605751173703704</v>
       </c>
       <c r="T37" t="n">
         <v>1</v>
@@ -3277,41 +3260,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252108</v>
+        <v>251477</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>260.0181818181818</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 14:32:16</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-05 07:30:30</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-05 07:30:30</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-05 11:50:31</t>
+          <t>2025-05-09 13:51:48</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>14301</v>
+        <v>29999</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3320,31 +3303,36 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-2.577640845069445</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-2.577640845069445</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -3352,41 +3340,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251773</v>
+        <v>245623</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-05 11:50:31</t>
+          <t>2025-05-09 13:51:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-05 12:29:01</t>
+          <t>2025-05-09 14:23:48</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-05 12:29:01</t>
+          <t>2025-05-09 14:23:48</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-05 12:29:01</t>
+          <t>2025-05-12 12:35:54</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26419</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3395,78 +3383,73 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.520151515150463</v>
+        <v>-107.5249315336458</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.520151515150463</v>
+        <v>-107.5249315336458</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251879</v>
+        <v>243335</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>38.5</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>109.2181818181818</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-05 12:29:01</t>
+          <t>2025-05-12 12:35:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:31</t>
+          <t>2025-05-12 12:54:54</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:31</t>
+          <t>2025-05-12 12:54:54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-05 14:56:44</t>
+          <t>2025-05-13 12:39:44</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6007</v>
+        <v>33004</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3475,14 +3458,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3492,56 +3475,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-6.622733585856482</v>
+        <v>-284.5276017214352</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-6.622733585856482</v>
+        <v>-284.5276017214352</v>
       </c>
       <c r="T40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251979</v>
+        <v>251750</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>374.1090909090909</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-05 14:56:44</t>
+          <t>2025-05-13 12:39:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06 07:29:14</t>
+          <t>2025-05-13 12:56:44</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-06 07:29:14</t>
+          <t>2025-05-13 12:56:44</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-06 13:43:20</t>
+          <t>2025-05-13 13:51:32</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>20576</v>
+        <v>3891</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3550,14 +3533,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3567,56 +3550,56 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.571767676770833</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-1.571767676770833</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252082</v>
+        <v>251340</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>816.1454545454545</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-06 13:43:20</t>
+          <t>2025-05-13 13:51:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-06 14:13:50</t>
+          <t>2025-05-13 14:23:32</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-06 14:13:50</t>
+          <t>2025-05-13 14:23:32</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-10 11:49:59</t>
+          <t>2025-05-14 14:05:31</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>44888</v>
+        <v>32800</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3625,14 +3608,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3642,56 +3625,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.4930492424189815</v>
+        <v>-16.58716744914352</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.4930492424189815</v>
+        <v>-16.58716744914352</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252410</v>
+        <v>245089</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.5</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>137.1090909090909</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-10 11:49:59</t>
+          <t>2025-05-14 14:05:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-10 12:28:29</t>
+          <t>2025-05-14 14:24:31</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-10 12:28:29</t>
+          <t>2025-05-14 14:24:31</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 14:45:36</t>
+          <t>2025-05-20 11:12:11</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>7541</v>
+        <v>122665</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3700,14 +3683,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3717,7 +3700,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3732,41 +3715,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251680</v>
+        <v>251782</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>307.3818181818182</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 14:45:36</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-11 07:16:06</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-11 07:16:06</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 12:23:28</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>16906</v>
+        <v>12073</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3775,24 +3758,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N44" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3807,7 +3795,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251362</v>
+        <v>251626</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3815,33 +3803,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>35.28169014084507</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-08 10:37:02</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-08 10:37:02</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-08 13:33:05</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2505</v>
+        <v>12500</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3850,36 +3838,31 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
         <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-8.5646517996875</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-8.5646517996875</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -3887,7 +3870,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251752</v>
+        <v>251519</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3895,33 +3878,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-08 13:33:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-08 13:50:05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-08 13:50:05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-09 08:55:39</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3930,44 +3913,39 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
-      </c>
-      <c r="N46" t="n">
-        <v>39846</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>39846</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243569</v>
+        <v>251249</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3975,33 +3953,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>36.63380281690141</v>
+        <v>67.01408450704226</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-09 08:55:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-04 13:22:16</t>
+          <t>2025-05-09 09:18:39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-04 13:22:16</t>
+          <t>2025-05-09 09:18:39</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-04 13:58:54</t>
+          <t>2025-05-09 10:25:40</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2601</v>
+        <v>4758</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4010,14 +3988,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4027,22 +4005,22 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-261.5825802034375</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-261.5825802034375</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251631</v>
+        <v>251371</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4050,33 +4028,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>146.056338028169</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-04 13:58:54</t>
+          <t>2025-05-09 10:25:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-04 14:13:54</t>
+          <t>2025-05-09 10:44:40</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-04 14:13:54</t>
+          <t>2025-05-09 10:44:40</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:58</t>
+          <t>2025-05-09 10:44:40</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>10370</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4085,17 +4063,19 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4103,26 +4083,26 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.3610915492939815</v>
+        <v>-15.44769170578704</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.3610915492939815</v>
+        <v>-15.44769170578704</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251978</v>
+        <v>251456</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4130,33 +4110,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>440.1408450704225</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:58</t>
+          <t>2025-05-09 10:44:40</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-05 09:09:58</t>
+          <t>2025-05-09 11:01:40</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-05 09:09:58</t>
+          <t>2025-05-09 11:01:40</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-06 08:30:06</t>
+          <t>2025-05-09 13:08:25</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>31250</v>
+        <v>8999</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4174,30 +4154,35 @@
       <c r="M49" t="n">
         <v>70</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
+      <c r="N49" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-3.354244913923611</v>
+        <v>-3.547515649456018</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-3.354244913923611</v>
+        <v>-3.547515649456018</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251958</v>
+        <v>251840</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4205,33 +4190,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D50" t="n">
-        <v>122.2676056338028</v>
+        <v>80.47887323943662</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-06 08:30:06</t>
+          <t>2025-05-09 13:08:25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-06 09:02:06</t>
+          <t>2025-05-09 13:27:25</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-06 09:02:06</t>
+          <t>2025-05-09 13:27:25</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-06 11:04:22</t>
+          <t>2025-05-09 14:47:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8681</v>
+        <v>5714</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4240,39 +4225,44 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-1.6165982003125</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-1.6165982003125</v>
       </c>
       <c r="T50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251792</v>
+        <v>251373</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4280,33 +4270,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>129.6338028169014</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-06 11:04:22</t>
+          <t>2025-05-09 14:47:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-06 11:21:22</t>
+          <t>2025-05-12 07:02:54</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-06 11:21:22</t>
+          <t>2025-05-12 07:02:54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-06 13:31:00</t>
+          <t>2025-05-12 11:03:39</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>9204</v>
+        <v>17094</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4315,14 +4305,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4332,22 +4322,22 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-11.56320422534722</v>
+        <v>-14.4608763693287</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-11.56320422534722</v>
+        <v>-14.4608763693287</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251898</v>
+        <v>251505</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4355,33 +4345,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>93.02816901408451</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-06 13:31:00</t>
+          <t>2025-05-12 11:03:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-06 13:48:00</t>
+          <t>2025-05-12 11:18:39</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-06 13:48:00</t>
+          <t>2025-05-12 11:18:39</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-09 07:21:02</t>
+          <t>2025-05-12 14:39:26</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6605</v>
+        <v>14255</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4390,14 +4380,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4407,22 +4397,22 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-3.306279342719908</v>
+        <v>-7.610719874803241</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-3.306279342719908</v>
+        <v>-7.610719874803241</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251798</v>
+        <v>251742</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4430,33 +4420,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>318.943661971831</v>
+        <v>115.8591549295775</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:21:02</t>
+          <t>2025-05-12 14:39:26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:36:02</t>
+          <t>2025-05-12 14:56:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:36:02</t>
+          <t>2025-05-12 14:56:26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-09 12:54:59</t>
+          <t>2025-05-13 08:52:17</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>22645</v>
+        <v>8226</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4465,39 +4455,44 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-6.369649843506944</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-6.369649843506944</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252195</v>
+        <v>251547</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4505,33 +4500,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>503.5633802816901</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-09 12:54:59</t>
+          <t>2025-05-13 08:52:17</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-09 13:26:59</t>
+          <t>2025-05-13 09:07:17</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-09 13:26:59</t>
+          <t>2025-05-13 09:07:17</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-10 13:50:32</t>
+          <t>2025-05-13 12:12:12</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>35753</v>
+        <v>13129</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4544,35 +4539,40 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-6.508480046944445</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-6.508480046944445</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251679</v>
+        <v>251761</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4580,33 +4580,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>223.3802816901408</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-10 13:50:32</t>
+          <t>2025-05-13 12:12:12</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-10 14:11:32</t>
+          <t>2025-05-13 12:27:12</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-10 14:11:32</t>
+          <t>2025-05-13 12:27:12</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-11 09:54:55</t>
+          <t>2025-05-14 07:34:14</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>15860</v>
+        <v>13279</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4615,11 +4615,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4642,46 +4642,46 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251218</v>
+        <v>251260</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>112.7868852459016</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-14 07:34:14</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-05 07:31:00</t>
+          <t>2025-05-14 07:53:14</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-05 07:31:00</t>
+          <t>2025-05-14 07:53:14</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-05 09:23:47</t>
+          <t>2025-05-14 10:05:11</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6880</v>
+        <v>9369</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4690,75 +4690,73 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.3915186703125</v>
-      </c>
-      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251219</v>
+        <v>251795</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>112.7868852459016</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-05 09:23:47</t>
+          <t>2025-05-14 10:05:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:47</t>
+          <t>2025-05-14 10:20:11</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:47</t>
+          <t>2025-05-14 10:20:11</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-05 11:41:34</t>
+          <t>2025-05-14 14:44:07</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6880</v>
+        <v>18739</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4767,41 +4765,39 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
-      </c>
-      <c r="N57" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.4872040072916666</v>
-      </c>
-      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251445</v>
+        <v>251564</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4809,33 +4805,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>445.4754098360656</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-05 11:41:34</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:34</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:34</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-06 11:53:02</t>
+          <t>2025-05-09 08:24:32</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>27174</v>
+        <v>2717</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4861,19 +4857,22 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-2.495173041898148</v>
-      </c>
-      <c r="S58" t="n">
-        <v>7</v>
+        <v>-2.350375683055556</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>-2.350375683055556</v>
+      </c>
+      <c r="T58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252058</v>
+        <v>251397</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4881,33 +4880,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>86.88524590163935</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-06 11:53:02</t>
+          <t>2025-05-09 08:24:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-06 12:22:02</t>
+          <t>2025-05-09 08:49:32</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-06 12:22:02</t>
+          <t>2025-05-09 08:49:32</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-06 13:48:56</t>
+          <t>2025-05-09 10:18:38</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5300</v>
+        <v>5435</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4920,7 +4919,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4933,19 +4932,22 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2</v>
+        <v>-11.42961065574074</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>-11.42961065574074</v>
+      </c>
+      <c r="T59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252337</v>
+        <v>244023</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4953,33 +4955,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
-        <v>1561.27868852459</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-06 13:48:56</t>
+          <t>2025-05-09 10:18:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-06 14:15:56</t>
+          <t>2025-05-09 10:49:38</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-06 14:15:56</t>
+          <t>2025-05-09 10:49:38</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-12 08:17:12</t>
+          <t>2025-05-09 11:05:59</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>95238</v>
+        <v>997</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4988,7 +4990,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -5005,53 +5007,56 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2</v>
+        <v>-221.4624886156597</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>-221.4624886156597</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>245623</v>
+        <v>251346</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>382.8840579710145</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-09 11:05:59</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-09 11:34:59</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-09 11:34:59</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-06 13:57:53</t>
+          <t>2025-05-09 12:38:14</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>26419</v>
+        <v>3859</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5060,14 +5065,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5077,53 +5082,56 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-132.5818639291435</v>
-      </c>
-      <c r="S61" t="n">
+        <v>-11.52655965391204</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>-11.52655965391204</v>
+      </c>
+      <c r="T61" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251186</v>
+        <v>251061</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
-        <v>369.7391304347826</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-06 13:57:53</t>
+          <t>2025-05-09 12:38:14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-06 14:37:53</t>
+          <t>2025-05-09 13:07:14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-06 14:37:53</t>
+          <t>2025-05-09 13:07:14</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-09 12:47:37</t>
+          <t>2025-05-12 11:40:38</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>25512</v>
+        <v>23997</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5132,11 +5140,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5149,53 +5157,56 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-10.53307165861111</v>
-      </c>
-      <c r="S62" t="n">
+        <v>-7.486555100185185</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>-7.486555100185185</v>
+      </c>
+      <c r="T62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252196</v>
+        <v>251252</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>682.4492753623189</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-09 12:47:37</t>
+          <t>2025-05-12 11:40:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-09 13:17:37</t>
+          <t>2025-05-12 12:05:38</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-09 13:17:37</t>
+          <t>2025-05-12 12:05:38</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-11 08:40:04</t>
+          <t>2025-05-13 08:12:54</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>47089</v>
+        <v>15083</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5204,11 +5215,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5221,53 +5232,56 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S63" t="n">
+      <c r="S63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252112</v>
+        <v>251251</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>254.1428571428571</v>
+        <v>260</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-13 08:12:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-13 08:37:54</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-13 08:37:54</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-13 12:57:54</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>12453</v>
+        <v>15860</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5276,29 +5290,24 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5313,41 +5322,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251762</v>
+        <v>251548</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>106.2857142857143</v>
+        <v>191.9130434782609</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:08</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:08</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:25</t>
+          <t>2025-05-12 10:46:54</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5208</v>
+        <v>13242</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5360,69 +5369,71 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-14.59751984127315</v>
-      </c>
-      <c r="S65" s="1" t="n">
-        <v>-14.59751984127315</v>
-      </c>
-      <c r="T65" t="n">
+        <v>-5.449245169085648</v>
+      </c>
+      <c r="S65" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251911</v>
+        <v>251809</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>191.3265306122449</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:25</t>
+          <t>2025-05-12 10:46:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:25</t>
+          <t>2025-05-12 11:11:54</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:25</t>
+          <t>2025-05-12 11:11:54</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-05 10:11:45</t>
+          <t>2025-05-12 13:17:43</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>9375</v>
+        <v>8681</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5448,56 +5459,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-8.424829931967592</v>
-      </c>
-      <c r="S66" s="1" t="n">
-        <v>-8.424829931967592</v>
-      </c>
-      <c r="T66" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251910</v>
+        <v>251247</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>270.2448979591837</v>
+        <v>390.3478260869565</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-05 10:11:45</t>
+          <t>2025-05-12 13:17:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-05 10:46:45</t>
+          <t>2025-05-12 13:52:43</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-05 10:46:45</t>
+          <t>2025-05-12 13:52:43</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-06 07:17:00</t>
+          <t>2025-05-13 12:23:04</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>13242</v>
+        <v>26934</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5506,11 +5514,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5523,56 +5531,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-9.303472222222222</v>
-      </c>
-      <c r="S67" s="1" t="n">
-        <v>-9.303472222222222</v>
-      </c>
-      <c r="T67" t="n">
-        <v>7</v>
+        <v>-4.516022544282407</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251993</v>
+        <v>250894</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>248.0204081632653</v>
+        <v>641.4782608695652</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-06 07:17:00</t>
+          <t>2025-05-13 12:23:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-06 07:52:00</t>
+          <t>2025-05-13 12:58:04</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-06 07:52:00</t>
+          <t>2025-05-13 12:58:04</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-06 12:00:01</t>
+          <t>2025-05-15 07:39:33</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>12153</v>
+        <v>44262</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5581,14 +5586,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N68" t="n">
+        <v>39755</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5598,56 +5606,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
+        <v>-2.319132447662037</v>
+      </c>
+      <c r="S68" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252395</v>
+        <v>251284</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>47</v>
+        <v>40.5</v>
       </c>
       <c r="D69" t="n">
-        <v>1832.387755102041</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-06 12:00:01</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-06 12:47:01</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-06 12:47:01</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-12 11:19:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>89787</v>
+        <v>16340</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5656,73 +5661,75 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N69" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>7</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252326</v>
+        <v>251520</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>57</v>
+        <v>30.5</v>
       </c>
       <c r="D70" t="n">
-        <v>523.2857142857143</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-12 11:19:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-12 12:16:24</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-12 12:16:24</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-13 12:59:41</t>
+          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>25641</v>
+        <v>16340</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5731,11 +5738,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5748,56 +5755,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
+        <v>-0.4202651515162037</v>
+      </c>
+      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251573</v>
+        <v>251391</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>87.36619718309859</v>
+        <v>91.640625</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-05 07:34:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-05 07:34:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-05 09:01:21</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6203</v>
+        <v>5865</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5806,17 +5810,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N71" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5824,57 +5828,60 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.3759487480439815</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>-0.3698893229166667</v>
+      </c>
+      <c r="T71" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251237</v>
+        <v>251395</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>565.3521126760563</v>
+        <v>35.34375</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-05 09:01:21</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-05 09:20:21</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-05 09:20:21</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:43</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>40140</v>
+        <v>2262</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5883,17 +5890,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N72" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5901,57 +5908,60 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-1.448415492962963</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1</v>
+        <v>-0.4062391493055555</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>-0.4062391493055555</v>
+      </c>
+      <c r="T72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251905</v>
+        <v>251396</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>194.943661971831</v>
+        <v>35.34375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:43</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-06 11:15:43</t>
+          <t>2025-05-07 09:59:59</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-06 11:15:43</t>
+          <t>2025-05-07 09:59:59</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-06 14:30:39</t>
+          <t>2025-05-07 10:35:19</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>13841</v>
+        <v>2262</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5960,70 +5970,78 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
         <v>6</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N73" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-9.604626369328704</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2</v>
+        <v>-0.4412000868055556</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>-0.4412000868055556</v>
+      </c>
+      <c r="T73" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>243335</v>
+        <v>251225</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>464.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-06-06 14:30:39</t>
+          <t>2025-05-07 10:35:19</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-09 07:04:39</t>
+          <t>2025-05-07 11:09:19</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-09 07:04:39</t>
+          <t>2025-05-07 11:09:19</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-06-09 14:49:30</t>
+          <t>2025-05-07 11:09:19</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>33004</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6039,63 +6057,71 @@
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>152</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N74" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-311.6177132237847</v>
-      </c>
-      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>245089</v>
+        <v>250923</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>1727.676056338028</v>
+        <v>109.46875</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-06-09 14:49:30</t>
+          <t>2025-05-07 11:09:19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-06-10 07:19:30</t>
+          <t>2025-05-07 11:26:19</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-06-10 07:19:30</t>
+          <t>2025-05-07 11:26:19</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-06-13 12:07:10</t>
+          <t>2025-05-07 13:15:47</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>122665</v>
+        <v>7006</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6108,27 +6134,944 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>76</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>-0.55263671875</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>-0.55263671875</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>19</v>
+      </c>
+      <c r="D76" t="n">
+        <v>40.640625</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-05-07 13:15:47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-07 13:34:47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-05-07 13:34:47</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:15:26</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>76</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>-233.5940538194444</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>-233.5940538194444</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>251557</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>32</v>
+      </c>
+      <c r="D77" t="n">
+        <v>104.765625</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:15:26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:47:26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:47:26</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:32:12</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>6705</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>70</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>251846</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15</v>
+      </c>
+      <c r="D78" t="n">
+        <v>178</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:32:12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:47:12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:47:12</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:45:12</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>11392</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>251455</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>19</v>
+      </c>
+      <c r="D79" t="n">
+        <v>82.765625</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:45:12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:04:12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:04:12</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:26:58</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>5297</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>70</v>
+      </c>
+      <c r="N79" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2025-04-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>-1.560394965277778</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>-1.560394965277778</v>
+      </c>
+      <c r="T79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>244354</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>15</v>
+      </c>
+      <c r="D80" t="n">
+        <v>67.34375</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:26:58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:41:58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:41:58</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:49:18</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>4310</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="n">
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2025-05-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>-0.617578125</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>-0.617578125</v>
+      </c>
+      <c r="T80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>244355</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>15</v>
+      </c>
+      <c r="D81" t="n">
+        <v>67.34375</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:49:18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:04:18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:04:18</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:11:39</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>4310</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>4</v>
+      </c>
+      <c r="M81" t="n">
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2025-05-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>-1.341427951388889</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>-1.341427951388889</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>250819</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>19</v>
+      </c>
+      <c r="D82" t="n">
+        <v>133.234375</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:11:39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:30:39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:30:39</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:43:53</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>8527</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M82" t="n">
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>-21.44714626736111</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-21.44714626736111</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>251246</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>15</v>
+      </c>
+      <c r="D83" t="n">
+        <v>187.53125</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:43:53</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:58:53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:58:53</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:06:25</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>12002</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>70</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>-0.58779296875</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>-0.58779296875</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>251374</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>17</v>
+      </c>
+      <c r="D84" t="n">
+        <v>427.234375</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:06:25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:23:25</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:23:25</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:30:39</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>27343</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>7</v>
+      </c>
+      <c r="M84" t="n">
+        <v>70</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>245090</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>34</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8073.71875</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:30:39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:04:39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:04:39</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:38:22</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>516718</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5</v>
+      </c>
+      <c r="M85" t="n">
+        <v>76</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
           <t>2025-12-31 00:00:00</t>
         </is>
       </c>
-      <c r="R75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
+      <c r="R85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>251987</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>17</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3289.46875</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:38:22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:55:22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-06-04 12:55:22</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2025-06-13 11:44:50</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>210526</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>6</v>
+      </c>
+      <c r="M86" t="n">
+        <v>76</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>2025-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251467</v>
+        <v>252337</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>102.0655737704918</v>
+        <v>1488.09375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-06-05 12:21:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-06-05 12:21:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:02:03</t>
+          <t>2025-06-10 13:09:05</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6226</v>
+        <v>95238</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,11 +558,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -575,56 +575,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
+      <c r="S2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251475</v>
+        <v>251772</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>142.3114754098361</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:02:03</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:03</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:03</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:22</t>
+          <t>2025-06-06 12:03:40</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8681</v>
+        <v>45242</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -650,56 +647,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-8.496095173043981</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-8.496095173043981</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
+        <v>-1.502550091076389</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>252042</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:22</t>
+          <t>2025-06-06 12:03:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:24:22</t>
+          <t>2025-06-06 12:32:40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:24:22</t>
+          <t>2025-06-06 12:32:40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:31:34</t>
+          <t>2025-06-06 14:38:38</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>7684</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,80 +702,70 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
+        <v>-7.610166211296296</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251164</v>
+        <v>252156</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>163.9344262295082</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:31:34</t>
+          <t>2025-06-06 14:38:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:34</t>
+          <t>2025-06-09 07:09:38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:34</t>
+          <t>2025-06-09 07:09:38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:35:30</t>
+          <t>2025-06-10 13:11:46</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>51370</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -794,74 +778,66 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-2.52465846994213</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-2.52465846994213</v>
-      </c>
-      <c r="T5" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251485</v>
+        <v>252235</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>78.81967213114754</v>
+        <v>397.672131147541</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 12:35:30</t>
+          <t>2025-06-10 13:11:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:30</t>
+          <t>2025-06-10 13:57:46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:30</t>
+          <t>2025-06-10 13:57:46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:19</t>
+          <t>2025-06-11 12:35:26</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4808</v>
+        <v>24258</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,14 +846,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -887,56 +863,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-16.59675546447917</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-16.59675546447917</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251283</v>
+        <v>243335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>12.36065573770492</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:19</t>
+          <t>2025-06-11 12:35:26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:19</t>
+          <t>2025-06-11 13:23:26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:44:19</t>
+          <t>2025-06-11 13:23:26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:56:41</t>
+          <t>2025-06-12 14:24:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>754</v>
+        <v>33004</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +918,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,56 +935,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-52.62270036429398</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-52.62270036429398</v>
-      </c>
-      <c r="T7" t="n">
+        <v>-314.6003415300578</v>
+      </c>
+      <c r="S7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251546</v>
+        <v>251519</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>106</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 14:56:41</t>
+          <t>2025-06-12 14:24:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:41</t>
+          <t>2025-06-13 07:08:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:41</t>
+          <t>2025-06-13 07:08:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:41</t>
+          <t>2025-06-13 10:44:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6466</v>
+        <v>13175</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,7 +994,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1037,56 +1007,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-12.38033925318287</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-12.38033925318287</v>
-      </c>
-      <c r="T8" t="n">
+        <v>-3.447552367939815</v>
+      </c>
+      <c r="S8" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251245</v>
+        <v>252110</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>12.36065573770492</v>
+        <v>105.0819672131148</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:41</t>
+          <t>2025-06-13 10:44:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:41</t>
+          <t>2025-06-13 11:11:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:41</t>
+          <t>2025-06-13 11:11:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:45:02</t>
+          <t>2025-06-13 12:56:33</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>754</v>
+        <v>6410</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1095,11 +1062,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1112,56 +1079,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-45.40628415300926</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-45.40628415300926</v>
-      </c>
-      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251561</v>
+        <v>252121</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>89.09836065573771</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 09:45:02</t>
+          <t>2025-06-13 12:56:33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 10:10:02</t>
+          <t>2025-06-13 13:23:33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 10:10:02</t>
+          <t>2025-06-13 13:23:33</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:08</t>
+          <t>2025-06-16 08:47:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5435</v>
+        <v>12453</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,7 +1138,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1187,56 +1151,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-5.48551912568287</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-5.48551912568287</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251566</v>
+        <v>252325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>112.9344262295082</v>
+        <v>296.7213114754098</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:08</t>
+          <t>2025-06-16 08:47:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:04:08</t>
+          <t>2025-06-16 09:20:42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:04:08</t>
+          <t>2025-06-16 09:20:42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:04</t>
+          <t>2025-06-16 14:17:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6889</v>
+        <v>18100</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1245,11 +1206,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1262,56 +1223,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-5.581306921678241</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-5.581306921678241</v>
-      </c>
-      <c r="T11" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251466</v>
+        <v>251752</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>91.26229508196721</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:57:04</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:04</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:04</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:20</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5567</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1320,73 +1278,75 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39846</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39846</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-4.328711293263889</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-4.328711293263889</v>
-      </c>
-      <c r="T12" t="n">
+        <v>-0.5118055555555555</v>
+      </c>
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251416</v>
+        <v>251218</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>183.9672131147541</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:20</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:20</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:20</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:22:18</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11222</v>
+        <v>6880</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1395,76 +1355,75 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4738274134837963</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-0.4738274134837963</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251462</v>
+        <v>245623</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>102.0655737704918</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:22:18</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:18</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:18</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:22</t>
+          <t>2025-06-05 13:05:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6226</v>
+        <v>26419</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1473,14 +1432,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1490,56 +1449,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-4.558595173043981</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-4.558595173043981</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
+        <v>-131.5451388888889</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251562</v>
+        <v>251897</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>133.4754098360656</v>
+        <v>262.0704225352113</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:22</t>
+          <t>2025-06-05 13:05:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:22</t>
+          <t>2025-06-05 13:51:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:22</t>
+          <t>2025-06-05 13:51:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 07:57:51</t>
+          <t>2025-06-06 10:13:04</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8142</v>
+        <v>18607</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1548,73 +1504,77 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
+        <v>-11.42574334898148</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251465</v>
+        <v>251500</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>87.69014084507042</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-06 10:13:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:00</t>
+          <t>2025-06-06 10:40:04</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:00</t>
+          <t>2025-06-06 10:40:04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:04:41</t>
+          <t>2025-06-06 12:59:27</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6226</v>
+        <v>9896</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1623,73 +1583,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3782570422569445</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>-0.3782570422569445</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
+        <v>-1.541285211273148</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251464</v>
+        <v>251390</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>100.7464788732394</v>
+        <v>30.35211267605634</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:04:41</t>
+          <t>2025-06-06 12:59:27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:41</t>
+          <t>2025-06-06 13:14:27</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:41</t>
+          <t>2025-06-06 13:14:27</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:26</t>
+          <t>2025-06-06 13:44:48</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>7153</v>
+        <v>2155</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,56 +1677,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4794698748032407</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-0.4794698748032407</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250670</v>
+        <v>252058</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>22.01408450704225</v>
+        <v>74.64788732394366</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:30:26</t>
+          <t>2025-06-06 13:44:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:07:26</t>
+          <t>2025-06-06 14:01:48</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:07:26</t>
+          <t>2025-06-06 14:01:48</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:27</t>
+          <t>2025-06-09 07:16:27</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1563</v>
+        <v>5300</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1773,14 +1732,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1790,56 +1749,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-4.520451877939816</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-4.520451877939816</v>
-      </c>
-      <c r="T18" t="n">
+        <v>-0.3030907668287037</v>
+      </c>
+      <c r="S18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>235572</v>
+        <v>251993</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>140.2535211267606</v>
+        <v>171.169014084507</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:27</t>
+          <t>2025-06-09 07:16:27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:27</t>
+          <t>2025-06-09 07:33:27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:27</t>
+          <t>2025-06-09 07:33:27</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:42</t>
+          <t>2025-06-09 10:24:37</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9958</v>
+        <v>12153</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1848,11 +1804,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1865,56 +1821,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-553.3136834898264</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-553.3136834898264</v>
-      </c>
-      <c r="T19" t="n">
+        <v>-0.433763693275463</v>
+      </c>
+      <c r="S19" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251743</v>
+        <v>251186</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>151.7746478873239</v>
+        <v>359.3239436619718</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:42</t>
+          <t>2025-06-09 10:24:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-12 08:11:42</t>
+          <t>2025-06-09 10:39:37</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-12 08:11:42</t>
+          <t>2025-06-09 10:39:37</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-12 10:43:28</t>
+          <t>2025-06-10 08:38:56</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>10776</v>
+        <v>25512</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1940,56 +1893,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4</v>
+        <v>-11.36037754303241</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>245350</v>
+        <v>251445</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>393.943661971831</v>
+        <v>382.7323943661972</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-12 10:43:28</t>
+          <t>2025-06-10 08:38:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:28</t>
+          <t>2025-06-10 08:55:56</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:28</t>
+          <t>2025-06-10 08:55:56</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:25</t>
+          <t>2025-06-11 07:18:40</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>27970</v>
+        <v>27174</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1998,11 +1948,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2015,56 +1965,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
+        <v>-7.304636150231481</v>
+      </c>
+      <c r="S21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245275</v>
+        <v>251916</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>342.1690140845071</v>
+        <v>660.2112676056338</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:25</t>
+          <t>2025-06-11 07:18:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:25</t>
+          <t>2025-06-11 07:35:40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:25</t>
+          <t>2025-06-11 07:35:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-14 08:59:35</t>
+          <t>2025-06-12 10:35:53</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>24294</v>
+        <v>46875</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2073,11 +2020,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2090,56 +2037,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
+      <c r="S22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251050</v>
+        <v>252293</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-14 08:59:35</t>
+          <t>2025-06-12 10:35:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:35</t>
+          <t>2025-06-12 10:52:53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:35</t>
+          <t>2025-06-12 10:52:53</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:35</t>
+          <t>2025-06-12 11:25:09</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2291</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2148,78 +2092,70 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-6.482355242569445</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>-6.482355242569445</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251054</v>
+        <v>251911</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>170.4545454545455</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-14 11:34:35</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:35</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:35</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:35</t>
+          <t>2025-06-05 10:22:57</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9375</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2228,78 +2164,70 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-6.506660798125001</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-6.506660798125001</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2</v>
+        <v>-8.432607323229165</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251081</v>
+        <v>252108</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>125</v>
+        <v>32.5</v>
       </c>
       <c r="D25" t="n">
-        <v>42.42253521126761</v>
+        <v>260.0181818181818</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:35</t>
+          <t>2025-06-05 10:22:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-14 14:14:35</t>
+          <t>2025-06-05 10:55:27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-14 14:14:35</t>
+          <t>2025-06-05 10:55:27</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-14 14:57:00</t>
+          <t>2025-06-06 07:15:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3012</v>
+        <v>14301</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2308,80 +2236,70 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-21.62292644756944</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-21.62292644756944</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
+        <v>-0.3024116161574074</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251109</v>
+        <v>251070</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>36.5</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5915492957747</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-14 14:57:00</t>
+          <t>2025-06-06 07:15:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-15 07:52:00</t>
+          <t>2025-06-06 07:51:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-15 07:52:00</t>
+          <t>2025-06-06 07:51:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-15 12:18:36</t>
+          <t>2025-06-06 07:51:58</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>18928</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2390,73 +2308,75 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="N26" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-27.51292057902778</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-27.51292057902778</v>
-      </c>
-      <c r="T26" t="n">
+        <v>-1.327758838379629</v>
+      </c>
+      <c r="S26" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>244204</v>
+        <v>252111</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>45</v>
+        <v>36.5</v>
       </c>
       <c r="D27" t="n">
-        <v>70.85714285714286</v>
+        <v>330.6727272727273</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 07:51:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-06-06 08:28:28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-06-06 08:28:28</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 08:55:51</t>
+          <t>2025-06-06 13:59:08</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3472</v>
+        <v>18187</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2469,7 +2389,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2482,56 +2402,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.5333616780092593</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-0.3721230158680556</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4</v>
+        <v>-1.582739898993055</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251259</v>
+        <v>251773</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
+        <v>38.5</v>
       </c>
       <c r="D28" t="n">
-        <v>102.0408163265306</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 08:55:51</t>
+          <t>2025-06-06 13:59:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 09:55:51</t>
+          <t>2025-06-06 14:37:38</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 09:55:51</t>
+          <t>2025-06-06 14:37:38</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 11:37:53</t>
+          <t>2025-06-06 14:37:38</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2540,73 +2457,75 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.484651360543982</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>-2.484651360543982</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2</v>
+        <v>-1.609476010104167</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250641</v>
+        <v>251565</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D29" t="n">
-        <v>104.4081632653061</v>
+        <v>228.1636363636364</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 11:37:53</t>
+          <t>2025-06-06 14:37:38</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:27:53</t>
+          <t>2025-06-09 07:18:08</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:27:53</t>
+          <t>2025-06-09 07:18:08</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 14:12:18</t>
+          <t>2025-06-09 11:06:18</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5116</v>
+        <v>12549</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2619,69 +2538,71 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-10.59187925170139</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>-10.59187925170139</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
+        <v>-4.462714646469908</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251424</v>
+        <v>251180</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="D30" t="n">
-        <v>197.1836734693877</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:12:18</t>
+          <t>2025-06-09 11:06:18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:18</t>
+          <t>2025-06-09 11:40:48</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:18</t>
+          <t>2025-06-09 11:40:48</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:29</t>
+          <t>2025-06-09 11:40:48</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9662</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2699,64 +2620,68 @@
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-11.42672902494213</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>-11.42672902494213</v>
-      </c>
-      <c r="T30" t="n">
-        <v>4</v>
+        <v>-20.48667297980324</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251463</v>
+        <v>251895</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="D31" t="n">
-        <v>142.1836734693877</v>
+        <v>321.7090909090909</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:29</t>
+          <t>2025-06-09 11:40:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:49:29</t>
+          <t>2025-06-09 12:23:18</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 10:49:29</t>
+          <t>2025-06-09 12:23:18</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:40</t>
+          <t>2025-06-10 09:45:01</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6967</v>
+        <v>17694</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2765,73 +2690,77 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.5497732426273149</v>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>-0.5497732426273149</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1</v>
+        <v>-15.40626262626157</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251594</v>
+        <v>251979</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>46.5</v>
       </c>
       <c r="D32" t="n">
-        <v>131.9591836734694</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:40</t>
+          <t>2025-06-10 09:45:01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 13:46:40</t>
+          <t>2025-06-10 10:31:31</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 13:46:40</t>
+          <t>2025-06-10 10:31:31</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:37</t>
+          <t>2025-06-11 08:45:37</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6466</v>
+        <v>20576</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2840,11 +2769,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2857,56 +2786,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-5.332383786851851</v>
-      </c>
-      <c r="S32" s="1" t="n">
-        <v>-5.332383786851851</v>
-      </c>
-      <c r="T32" t="n">
-        <v>4</v>
+        <v>-6.365018939398149</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251651</v>
+        <v>252082</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>30.5</v>
       </c>
       <c r="D33" t="n">
-        <v>955.7142857142857</v>
+        <v>816.1454545454545</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 07:58:37</t>
+          <t>2025-06-11 08:45:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:37</t>
+          <t>2025-06-11 09:16:07</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:37</t>
+          <t>2025-06-11 09:16:07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:20</t>
+          <t>2025-06-12 14:52:16</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>46830</v>
+        <v>44888</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2915,17 +2841,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
-      </c>
-      <c r="N33" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2935,56 +2858,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-1.358574263043981</v>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>-1.358574263043981</v>
-      </c>
-      <c r="T33" t="n">
-        <v>4</v>
+        <v>-2.61963383837963</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251580</v>
+        <v>252410</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42</v>
+        <v>38.5</v>
       </c>
       <c r="D34" t="n">
-        <v>145.9795918367347</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:20</t>
+          <t>2025-06-12 14:52:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:18:20</t>
+          <t>2025-06-13 07:30:46</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:18:20</t>
+          <t>2025-06-13 07:30:46</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 11:44:19</t>
+          <t>2025-06-13 09:47:52</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>7153</v>
+        <v>7541</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2993,11 +2913,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3010,56 +2930,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251062</v>
+        <v>251679</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>30.5</v>
       </c>
       <c r="D35" t="n">
-        <v>461.7142857142857</v>
+        <v>288.3636363636364</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:44:19</t>
+          <t>2025-06-13 09:47:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 12:29:19</t>
+          <t>2025-06-13 10:18:22</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 12:29:19</t>
+          <t>2025-06-13 10:18:22</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-15 12:11:02</t>
+          <t>2025-06-16 07:06:44</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>22624</v>
+        <v>15860</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3085,56 +3002,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250759</v>
+        <v>252112</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>118.2816901408451</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 14:17:16</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>8398</v>
+        <v>12453</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3143,17 +3057,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3161,60 +3075,57 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.5953345070370371</v>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>-0.5953345070370371</v>
-      </c>
-      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251227</v>
+        <v>251943</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>96.77049180327869</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 14:17:16</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 14:32:16</t>
+          <t>2025-06-04 11:14:08</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 14:32:16</t>
+          <t>2025-06-04 11:14:08</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 14:32:16</t>
+          <t>2025-06-04 12:50:55</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5903</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3223,78 +3134,70 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-2.605751173703704</v>
-      </c>
-      <c r="S37" s="1" t="n">
-        <v>-2.605751173703704</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1</v>
+        <v>-5.535359744988425</v>
+      </c>
+      <c r="S37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251477</v>
+        <v>251935</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>422.5211267605634</v>
+        <v>109.655737704918</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:32:16</t>
+          <t>2025-06-04 12:50:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 13:10:55</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 13:10:55</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:48</t>
+          <t>2025-06-05 07:00:34</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>29999</v>
+        <v>6689</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3303,78 +3206,70 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
-      </c>
-      <c r="N38" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-2.577640845069445</v>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>-2.577640845069445</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1</v>
+        <v>-0.2920651184027778</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>245623</v>
+        <v>252282</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>372.0985915492957</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:48</t>
+          <t>2025-06-05 07:00:34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:23:48</t>
+          <t>2025-06-05 07:25:34</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 14:23:48</t>
+          <t>2025-06-05 07:25:34</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:35:54</t>
+          <t>2025-06-05 08:10:27</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>26419</v>
+        <v>2738</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3383,73 +3278,75 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-107.5249315336458</v>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>-107.5249315336458</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2</v>
+        <v>-0.3405965391666667</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>243335</v>
+        <v>251984</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>464.8450704225352</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 12:35:54</t>
+          <t>2025-06-05 08:10:27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:54</t>
+          <t>2025-06-05 08:40:27</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:54</t>
+          <t>2025-06-05 08:40:27</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:44</t>
+          <t>2025-06-05 14:18:47</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>33004</v>
+        <v>20638</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3458,73 +3355,75 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>152</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N40" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-284.5276017214352</v>
-      </c>
-      <c r="S40" s="1" t="n">
-        <v>-284.5276017214352</v>
-      </c>
-      <c r="T40" t="n">
+        <v>-0.5963797814236111</v>
+      </c>
+      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251750</v>
+        <v>252195</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>54.80281690140845</v>
+        <v>586.1147540983607</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:44</t>
+          <t>2025-06-05 14:18:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:44</t>
+          <t>2025-06-05 14:38:47</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:44</t>
+          <t>2025-06-05 14:38:47</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:32</t>
+          <t>2025-06-09 08:24:54</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3891</v>
+        <v>35753</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3533,14 +3432,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3550,56 +3449,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251340</v>
+        <v>251910</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>461.9718309859155</v>
+        <v>217.0819672131148</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:32</t>
+          <t>2025-06-09 08:24:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:32</t>
+          <t>2025-06-09 08:49:54</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:32</t>
+          <t>2025-06-09 08:49:54</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-14 14:05:31</t>
+          <t>2025-06-09 12:26:59</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>32800</v>
+        <v>13242</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3608,14 +3504,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3625,56 +3521,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-16.58716744914352</v>
-      </c>
-      <c r="S42" s="1" t="n">
-        <v>-16.58716744914352</v>
-      </c>
-      <c r="T42" t="n">
-        <v>4</v>
+        <v>-12.51873861565972</v>
+      </c>
+      <c r="S42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>245089</v>
+        <v>251762</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>1727.676056338028</v>
+        <v>85.37704918032787</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-14 14:05:31</t>
+          <t>2025-06-09 12:26:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-14 14:24:31</t>
+          <t>2025-06-09 12:51:59</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-14 14:24:31</t>
+          <t>2025-06-09 12:51:59</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-20 11:12:11</t>
+          <t>2025-06-09 14:17:21</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>122665</v>
+        <v>5208</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3683,14 +3576,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3700,56 +3593,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1</v>
+        <v>-19.59538934425926</v>
+      </c>
+      <c r="S43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251782</v>
+        <v>251978</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>170.0422535211268</v>
+        <v>512.2950819672132</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-09 14:17:21</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-06-09 14:37:21</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-06-09 14:37:21</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-06-11 07:09:39</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>12073</v>
+        <v>31250</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3758,78 +3648,70 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1</v>
+        <v>-8.298372040069445</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251626</v>
+        <v>251944</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>176.056338028169</v>
+        <v>668.327868852459</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-06-11 07:09:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:02</t>
+          <t>2025-06-11 07:39:39</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:02</t>
+          <t>2025-06-11 07:39:39</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:33:05</t>
+          <t>2025-06-12 10:47:59</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>12500</v>
+        <v>40768</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3842,7 +3724,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3855,56 +3737,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-8.5646517996875</v>
-      </c>
-      <c r="S45" s="1" t="n">
-        <v>-8.5646517996875</v>
-      </c>
-      <c r="T45" t="n">
-        <v>7</v>
+        <v>-17.44998861565972</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251519</v>
+        <v>251684</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>185.5633802816901</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-08 13:33:05</t>
+          <t>2025-06-12 10:47:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-08 13:50:05</t>
+          <t>2025-06-12 11:12:59</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-08 13:50:05</t>
+          <t>2025-06-12 11:12:59</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 08:55:39</t>
+          <t>2025-06-13 07:20:14</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>13175</v>
+        <v>15083</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3913,11 +3792,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3930,56 +3809,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>7</v>
+      <c r="S46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251249</v>
+        <v>251780</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>67.01408450704226</v>
+        <v>398.344262295082</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 08:55:39</t>
+          <t>2025-06-13 07:20:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:39</t>
+          <t>2025-06-13 07:55:14</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:39</t>
+          <t>2025-06-13 07:55:14</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 10:25:40</t>
+          <t>2025-06-13 14:33:35</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4758</v>
+        <v>24299</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3988,73 +3864,77 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1</v>
+      <c r="S47" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251371</v>
+        <v>251958</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 10:25:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:40</t>
+          <t>2025-06-05 07:19:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:40</t>
+          <t>2025-06-05 07:19:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:40</t>
+          <t>2025-06-05 09:21:16</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4063,80 +3943,70 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-15.44769170578704</v>
-      </c>
-      <c r="S48" s="1" t="n">
-        <v>-15.44769170578704</v>
-      </c>
-      <c r="T48" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251456</v>
+        <v>251219</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>126.7464788732394</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:40</t>
+          <t>2025-06-05 09:21:16</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-09 11:01:40</t>
+          <t>2025-06-05 09:40:16</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-09 11:01:40</t>
+          <t>2025-06-05 09:40:16</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:25</t>
+          <t>2025-06-05 11:17:10</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>8999</v>
+        <v>6880</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4145,17 +4015,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N49" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4163,7 +4033,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4171,52 +4041,49 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-3.547515649456018</v>
-      </c>
-      <c r="S49" s="1" t="n">
-        <v>-3.547515649456018</v>
-      </c>
-      <c r="T49" t="n">
+        <v>-0.4702562597800926</v>
+      </c>
+      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251840</v>
+        <v>251237</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>80.47887323943662</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:25</t>
+          <t>2025-06-05 11:17:10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:25</t>
+          <t>2025-06-05 11:47:10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:25</t>
+          <t>2025-06-05 11:47:10</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:54</t>
+          <t>2025-06-06 13:12:31</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5714</v>
+        <v>40140</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4225,17 +4092,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4243,60 +4110,57 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-1.6165982003125</v>
-      </c>
-      <c r="S50" s="1" t="n">
-        <v>-1.6165982003125</v>
-      </c>
-      <c r="T50" t="n">
+        <v>-1.550361893587963</v>
+      </c>
+      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251373</v>
+        <v>243569</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D51" t="n">
-        <v>240.7605633802817</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:54</t>
+          <t>2025-06-06 13:12:31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:02:54</t>
+          <t>2025-06-06 13:48:31</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:02:54</t>
+          <t>2025-06-06 13:48:31</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 11:03:39</t>
+          <t>2025-06-06 14:25:09</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>17094</v>
+        <v>2601</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4305,14 +4169,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4322,56 +4186,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-14.4608763693287</v>
-      </c>
-      <c r="S51" s="1" t="n">
-        <v>-14.4608763693287</v>
-      </c>
-      <c r="T51" t="n">
-        <v>4</v>
+        <v>-263.6008020344329</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251505</v>
+        <v>251362</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>200.7746478873239</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:03:39</t>
+          <t>2025-06-06 14:25:09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:39</t>
+          <t>2025-06-06 14:40:09</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:39</t>
+          <t>2025-06-06 14:40:09</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:26</t>
+          <t>2025-06-09 07:15:26</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>14255</v>
+        <v>2505</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4380,73 +4241,75 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N52" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-7.610719874803241</v>
-      </c>
-      <c r="S52" s="1" t="n">
-        <v>-7.610719874803241</v>
-      </c>
-      <c r="T52" t="n">
+        <v>-4.302386541469907</v>
+      </c>
+      <c r="S52" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251742</v>
+        <v>251792</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>115.8591549295775</v>
+        <v>129.6338028169014</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:26</t>
+          <t>2025-06-09 07:15:26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:26</t>
+          <t>2025-06-09 07:30:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:26</t>
+          <t>2025-06-09 07:30:26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:17</t>
+          <t>2025-06-09 09:40:04</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8226</v>
+        <v>9204</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4455,78 +4318,70 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="N53" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-6.369649843506944</v>
-      </c>
-      <c r="S53" s="1" t="n">
-        <v>-6.369649843506944</v>
-      </c>
-      <c r="T53" t="n">
-        <v>7</v>
+        <v>-14.40282668231482</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251547</v>
+        <v>251898</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>184.9154929577465</v>
+        <v>93.02816901408451</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:17</t>
+          <t>2025-06-09 09:40:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:17</t>
+          <t>2025-06-09 09:57:04</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:17</t>
+          <t>2025-06-09 09:57:04</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 12:12:12</t>
+          <t>2025-06-09 11:30:05</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13129</v>
+        <v>6605</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4535,78 +4390,70 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-6.508480046944445</v>
-      </c>
-      <c r="S54" s="1" t="n">
-        <v>-6.508480046944445</v>
-      </c>
-      <c r="T54" t="n">
-        <v>7</v>
+        <v>-3.479235133020834</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251761</v>
+        <v>251798</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>187.0281690140845</v>
+        <v>318.943661971831</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 12:12:12</t>
+          <t>2025-06-09 11:30:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 12:27:12</t>
+          <t>2025-06-09 11:45:05</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 12:27:12</t>
+          <t>2025-06-09 11:45:05</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:14</t>
+          <t>2025-06-10 09:04:02</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13279</v>
+        <v>22645</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4615,14 +4462,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4632,56 +4479,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
+      <c r="S55" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251260</v>
+        <v>245089</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>131.9577464788732</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:14</t>
+          <t>2025-06-10 09:04:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:53:14</t>
+          <t>2025-06-10 09:19:02</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:53:14</t>
+          <t>2025-06-10 09:19:02</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:05:11</t>
+          <t>2025-06-13 14:06:43</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>9369</v>
+        <v>122665</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4690,14 +4534,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4707,56 +4551,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
+      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251795</v>
+        <v>244023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>263.9295774647887</v>
+        <v>20.3469387755102</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 10:05:11</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:11</t>
+          <t>2025-06-04 07:50:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:11</t>
+          <t>2025-06-04 07:50:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 14:44:07</t>
+          <t>2025-06-04 08:10:20</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>18739</v>
+        <v>997</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4765,7 +4606,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4782,56 +4623,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
+        <v>-247.3405187074884</v>
+      </c>
+      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251564</v>
+        <v>251905</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D58" t="n">
-        <v>44.54098360655738</v>
+        <v>282.469387755102</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 08:10:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-06-04 08:47:20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-06-04 08:47:20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-09 08:24:32</t>
+          <t>2025-06-04 13:29:48</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2717</v>
+        <v>13841</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4840,14 +4678,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4857,56 +4695,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-2.350375683055556</v>
-      </c>
-      <c r="S58" s="1" t="n">
-        <v>-2.350375683055556</v>
-      </c>
-      <c r="T58" t="n">
-        <v>8</v>
+        <v>-7.562372448981482</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251397</v>
+        <v>251879</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D59" t="n">
-        <v>89.09836065573771</v>
+        <v>122.5918367346939</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-09 08:24:32</t>
+          <t>2025-06-04 13:29:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:32</t>
+          <t>2025-06-04 14:21:48</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:32</t>
+          <t>2025-06-04 14:21:48</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:38</t>
+          <t>2025-06-05 08:24:24</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5435</v>
+        <v>6007</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4932,56 +4767,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-11.42961065574074</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <v>-11.42961065574074</v>
-      </c>
-      <c r="T59" t="n">
-        <v>4</v>
+        <v>-6.350283446712963</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>244023</v>
+        <v>252084</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D60" t="n">
-        <v>16.34426229508197</v>
+        <v>797.9795918367347</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:38</t>
+          <t>2025-06-05 08:24:24</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-09 10:49:38</t>
+          <t>2025-06-05 09:04:24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-09 10:49:38</t>
+          <t>2025-06-05 09:04:24</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:59</t>
+          <t>2025-06-06 14:22:23</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>997</v>
+        <v>39101</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4994,69 +4826,71 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="O60" t="n">
-        <v>0</v>
+      <c r="N60" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-221.4624886156597</v>
-      </c>
-      <c r="S60" s="1" t="n">
-        <v>-221.4624886156597</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1</v>
+        <v>-1.598880385486111</v>
+      </c>
+      <c r="S60" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251346</v>
+        <v>251741</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D61" t="n">
-        <v>63.26229508196721</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:59</t>
+          <t>2025-06-06 14:22:23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:59</t>
+          <t>2025-06-09 07:07:23</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:59</t>
+          <t>2025-06-09 07:07:23</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 12:38:14</t>
+          <t>2025-06-09 08:58:18</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3859</v>
+        <v>5435</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5069,7 +4903,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -5082,56 +4916,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-11.52655965391204</v>
-      </c>
-      <c r="S61" s="1" t="n">
-        <v>-11.52655965391204</v>
-      </c>
-      <c r="T61" t="n">
-        <v>2</v>
+        <v>-12.37382369614583</v>
+      </c>
+      <c r="S61" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251061</v>
+        <v>251992</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>393.3934426229508</v>
+        <v>92.34693877551021</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:38:14</t>
+          <t>2025-06-09 08:58:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 13:07:14</t>
+          <t>2025-06-09 09:43:18</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 13:07:14</t>
+          <t>2025-06-09 09:43:18</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:38</t>
+          <t>2025-06-09 11:15:39</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>23997</v>
+        <v>4525</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5140,7 +4971,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -5157,56 +4988,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-7.486555100185185</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>-7.486555100185185</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1</v>
+        <v>-5.469203514733796</v>
+      </c>
+      <c r="S62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251252</v>
+        <v>251747</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D63" t="n">
-        <v>247.2622950819672</v>
+        <v>317.469387755102</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:38</t>
+          <t>2025-06-09 11:15:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:38</t>
+          <t>2025-06-09 12:05:39</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:38</t>
+          <t>2025-06-09 12:05:39</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:54</t>
+          <t>2025-06-10 09:23:07</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>15083</v>
+        <v>15556</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5215,11 +5043,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5232,56 +5060,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1</v>
+      <c r="S63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251251</v>
+        <v>252395</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>260</v>
+        <v>1832.387755102041</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:54</t>
+          <t>2025-06-10 09:23:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:54</t>
+          <t>2025-06-10 10:05:07</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:54</t>
+          <t>2025-06-10 10:05:07</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 12:57:54</t>
+          <t>2025-06-16 08:37:30</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>15860</v>
+        <v>89787</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5290,14 +5115,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5307,56 +5132,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1</v>
+      <c r="S64" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251548</v>
+        <v>251917</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D65" t="n">
-        <v>191.9130434782609</v>
+        <v>46.75510204081633</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-16 08:37:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-06-16 09:29:30</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-06-16 09:29:30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 10:46:54</t>
+          <t>2025-06-16 10:16:15</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>13242</v>
+        <v>2291</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5369,71 +5191,66 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-5.449245169085648</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251809</v>
+        <v>251631</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D66" t="n">
-        <v>125.8115942028985</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 10:46:54</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 11:11:54</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 11:11:54</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:43</t>
+          <t>2025-06-05 10:08:03</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8681</v>
+        <v>10370</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5442,70 +5259,75 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N66" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4222613458564815</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251247</v>
+        <v>251655</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D67" t="n">
-        <v>390.3478260869565</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:43</t>
+          <t>2025-06-05 10:08:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:43</t>
+          <t>2025-06-05 10:55:03</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:43</t>
+          <t>2025-06-05 10:55:03</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 12:23:04</t>
+          <t>2025-06-10 13:52:16</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>26934</v>
+        <v>114822</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5514,70 +5336,75 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-4.516022544282407</v>
+        <v>-5.577963615023148</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>250894</v>
+        <v>251680</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>641.4782608695652</v>
+        <v>238.112676056338</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 12:23:04</t>
+          <t>2025-06-10 13:52:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 12:58:04</t>
+          <t>2025-06-10 14:32:16</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 12:58:04</t>
+          <t>2025-06-10 14:32:16</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-15 07:39:33</t>
+          <t>2025-06-11 10:30:22</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>44262</v>
+        <v>16906</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5586,17 +5413,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
-      </c>
-      <c r="N68" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5606,53 +5430,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-2.319132447662037</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251284</v>
+        <v>251573</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>297.0909090909091</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>16340</v>
+        <v>6203</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5661,17 +5485,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5679,15 +5503,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5695,41 +5519,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251520</v>
+        <v>251972</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>297.0909090909091</v>
+        <v>70.26086956521739</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-06-06 10:45:09</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>16340</v>
+        <v>4848</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5738,14 +5562,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5755,11 +5579,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-0.4202651515162037</v>
+        <v>-7.448027375196759</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5767,41 +5591,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251391</v>
+        <v>251681</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>91.640625</v>
+        <v>57.7536231884058</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-06 10:45:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-06-06 11:20:09</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-06-06 11:20:09</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-06-06 12:17:54</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>5865</v>
+        <v>3985</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5819,69 +5643,61 @@
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S71" s="1" t="n">
-        <v>-0.3698893229166667</v>
-      </c>
-      <c r="T71" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251395</v>
+        <v>252196</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>35.34375</v>
+        <v>682.4492753623189</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-06-06 12:17:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-06-06 12:42:54</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-06-06 12:42:54</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-06-10 08:05:21</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2262</v>
+        <v>47089</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5894,74 +5710,66 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="N72" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-0.4062391493055555</v>
-      </c>
-      <c r="S72" s="1" t="n">
-        <v>-0.4062391493055555</v>
-      </c>
-      <c r="T72" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251396</v>
+        <v>252326</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>35.34375</v>
+        <v>371.6086956521739</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-06-10 08:05:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:59</t>
+          <t>2025-06-10 08:35:21</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:59</t>
+          <t>2025-06-10 08:35:21</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:19</t>
+          <t>2025-06-10 14:46:58</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2262</v>
+        <v>25641</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5970,7 +5778,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -5979,65 +5787,57 @@
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.4412000868055556</v>
-      </c>
-      <c r="S73" s="1" t="n">
-        <v>-0.4412000868055556</v>
-      </c>
-      <c r="T73" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251225</v>
+        <v>251082</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:19</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:09:19</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:09:19</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:09:19</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6045,22 +5845,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6068,1010 +5868,90 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1</v>
+        <v>-0.2916666666666667</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>250923</v>
+        <v>252375</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>109.46875</v>
+        <v>99.2063492063492</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-07 11:09:19</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-07 11:26:19</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-07 11:26:19</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-07 13:15:47</t>
+          <t>2025-06-05 08:39:12</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>7006</v>
+        <v>6250</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>76</v>
-      </c>
-      <c r="N75" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-07-04 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-0.55263671875</v>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>-0.55263671875</v>
-      </c>
-      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>19</v>
-      </c>
-      <c r="D76" t="n">
-        <v>40.640625</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2025-05-07 13:15:47</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-07 13:34:47</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-07 13:34:47</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-07 14:15:26</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2601</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>3</v>
-      </c>
-      <c r="M76" t="n">
-        <v>76</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2024-09-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>-233.5940538194444</v>
-      </c>
-      <c r="S76" s="1" t="n">
-        <v>-233.5940538194444</v>
-      </c>
-      <c r="T76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>251557</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>32</v>
-      </c>
-      <c r="D77" t="n">
-        <v>104.765625</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2025-05-07 14:15:26</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2025-05-07 14:47:26</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2025-05-07 14:47:26</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:32:12</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>6705</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>2</v>
-      </c>
-      <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>251846</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>15</v>
-      </c>
-      <c r="D78" t="n">
-        <v>178</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:32:12</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:47:12</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:47:12</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:45:12</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>11392</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>2</v>
-      </c>
-      <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>251455</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>19</v>
-      </c>
-      <c r="D79" t="n">
-        <v>82.765625</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:45:12</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:04:12</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:04:12</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:26:58</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>5297</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>4</v>
-      </c>
-      <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="N79" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R79" s="1" t="n">
-        <v>-1.560394965277778</v>
-      </c>
-      <c r="S79" s="1" t="n">
-        <v>-1.560394965277778</v>
-      </c>
-      <c r="T79" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>244354</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>15</v>
-      </c>
-      <c r="D80" t="n">
-        <v>67.34375</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:26:58</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:41:58</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:41:58</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:49:18</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>4310</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>4</v>
-      </c>
-      <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>2025-05-08 00:00:00</t>
-        </is>
-      </c>
-      <c r="R80" s="1" t="n">
-        <v>-0.617578125</v>
-      </c>
-      <c r="S80" s="1" t="n">
-        <v>-0.617578125</v>
-      </c>
-      <c r="T80" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>244355</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>15</v>
-      </c>
-      <c r="D81" t="n">
-        <v>67.34375</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:49:18</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:04:18</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:04:18</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-05-09 08:11:39</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>4310</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>4</v>
-      </c>
-      <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>2025-05-08 00:00:00</t>
-        </is>
-      </c>
-      <c r="R81" s="1" t="n">
-        <v>-1.341427951388889</v>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>-1.341427951388889</v>
-      </c>
-      <c r="T81" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>250819</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>19</v>
-      </c>
-      <c r="D82" t="n">
-        <v>133.234375</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2025-05-09 08:11:39</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-05-09 08:30:39</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2025-05-09 08:30:39</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:43:53</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>8527</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>6</v>
-      </c>
-      <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>2025-04-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="R82" s="1" t="n">
-        <v>-21.44714626736111</v>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>-21.44714626736111</v>
-      </c>
-      <c r="T82" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>251246</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>15</v>
-      </c>
-      <c r="D83" t="n">
-        <v>187.53125</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:43:53</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:58:53</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:58:53</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:06:25</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>12002</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>6</v>
-      </c>
-      <c r="M83" t="n">
-        <v>70</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R83" s="1" t="n">
-        <v>-0.58779296875</v>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>-0.58779296875</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>251374</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>17</v>
-      </c>
-      <c r="D84" t="n">
-        <v>427.234375</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:06:25</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:23:25</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:23:25</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:30:39</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>27343</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>7</v>
-      </c>
-      <c r="M84" t="n">
-        <v>70</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>245090</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>34</v>
-      </c>
-      <c r="D85" t="n">
-        <v>8073.71875</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:30:39</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:04:39</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:04:39</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2025-06-04 12:38:22</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>516718</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>5</v>
-      </c>
-      <c r="M85" t="n">
-        <v>76</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>251987</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>BIMEC 2</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>17</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3289.46875</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2025-06-04 12:38:22</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-06-04 12:55:22</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-06-04 12:55:22</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2025-06-13 11:44:50</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>210526</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>6</v>
-      </c>
-      <c r="M86" t="n">
-        <v>76</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>2025-09-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="R86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252337</v>
+        <v>251879</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1488.09375</v>
+        <v>93.859375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:00</t>
+          <t>2025-06-05 12:15:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:00</t>
+          <t>2025-06-05 12:15:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-10 13:09:05</t>
+          <t>2025-06-05 13:48:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>95238</v>
+        <v>6007</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,11 +558,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -575,53 +575,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-6.575596788194445</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251772</v>
+        <v>251445</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>741.672131147541</v>
+        <v>424.59375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 13:48:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-05 14:03:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-05 14:03:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-06 12:03:40</t>
+          <t>2025-06-06 13:08:27</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>45242</v>
+        <v>27174</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -647,53 +647,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.502550091076389</v>
+        <v>-2.547536892361111</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252042</v>
+        <v>251219</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>125.9672131147541</v>
+        <v>107.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-06 12:03:40</t>
+          <t>2025-06-06 13:08:27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-06 12:32:40</t>
+          <t>2025-06-06 13:44:27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-06 12:32:40</t>
+          <t>2025-06-06 13:44:27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-06 14:38:38</t>
+          <t>2025-06-09 07:31:57</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7684</v>
+        <v>6880</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -702,70 +702,75 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-7.610166211296296</v>
+        <v>-4.313856336805555</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252156</v>
+        <v>251792</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>842.1311475409836</v>
+        <v>143.8125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-06 14:38:38</t>
+          <t>2025-06-09 07:31:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:09:38</t>
+          <t>2025-06-09 07:52:57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:09:38</t>
+          <t>2025-06-09 07:52:57</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-10 13:11:46</t>
+          <t>2025-06-09 10:16:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>51370</v>
+        <v>9204</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -774,14 +779,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -791,53 +796,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-14.42830946180556</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252235</v>
+        <v>251898</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>397.672131147541</v>
+        <v>103.203125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-10 13:11:46</t>
+          <t>2025-06-09 10:16:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:46</t>
+          <t>2025-06-09 10:33:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:46</t>
+          <t>2025-06-09 10:33:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-11 12:35:26</t>
+          <t>2025-06-09 12:16:58</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>24258</v>
+        <v>6605</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -846,11 +851,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
@@ -863,53 +868,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-3.511783854166667</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>243335</v>
+        <v>251798</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>541.0491803278688</v>
+        <v>353.828125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-11 12:35:26</t>
+          <t>2025-06-09 12:16:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-11 13:23:26</t>
+          <t>2025-06-09 12:31:58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-11 13:23:26</t>
+          <t>2025-06-09 12:31:58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-12 14:24:29</t>
+          <t>2025-06-10 10:25:47</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>33004</v>
+        <v>22645</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -918,14 +923,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -935,53 +940,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-314.6003415300578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251519</v>
+        <v>251972</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>215.983606557377</v>
+        <v>75.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-12 14:24:29</t>
+          <t>2025-06-10 10:25:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-13 07:08:29</t>
+          <t>2025-06-10 10:40:47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-13 07:08:29</t>
+          <t>2025-06-10 10:40:47</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-13 10:44:28</t>
+          <t>2025-06-10 11:56:32</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13175</v>
+        <v>4848</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -990,14 +995,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1007,53 +1012,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-3.447552367939815</v>
+        <v>-11.49760199652778</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252110</v>
+        <v>245089</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>105.0819672131148</v>
+        <v>1916.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-13 10:44:28</t>
+          <t>2025-06-10 11:56:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-13 11:11:28</t>
+          <t>2025-06-10 12:11:32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-13 11:11:28</t>
+          <t>2025-06-10 12:11:32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-13 12:56:33</t>
+          <t>2025-06-16 12:08:11</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6410</v>
+        <v>122665</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1062,14 +1067,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1079,7 +1084,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1091,41 +1096,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252121</v>
+        <v>252110</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>204.1475409836065</v>
+        <v>100.15625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-13 12:56:33</t>
+          <t>2025-06-16 12:08:11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-13 13:23:33</t>
+          <t>2025-06-16 12:40:11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-13 13:23:33</t>
+          <t>2025-06-16 12:40:11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-16 08:47:42</t>
+          <t>2025-06-16 14:20:20</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12453</v>
+        <v>6410</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1138,7 +1143,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1151,7 +1156,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1163,41 +1168,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252325</v>
+        <v>251780</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>296.7213114754098</v>
+        <v>379.671875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-16 08:47:42</t>
+          <t>2025-06-16 14:20:20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-16 09:20:42</t>
+          <t>2025-06-16 14:35:20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-16 09:20:42</t>
+          <t>2025-06-16 14:35:20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-16 14:17:25</t>
+          <t>2025-06-17 12:55:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18100</v>
+        <v>24299</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1206,20 +1211,27 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1230,46 +1242,46 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251752</v>
+        <v>251681</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>62.265625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-06-17 12:55:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-17 13:14:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-17 13:14:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-17 14:16:16</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3985</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1278,33 +1290,28 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39846</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39846</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1312,41 +1319,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251218</v>
+        <v>251910</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>96.90140845070422</v>
+        <v>217.0819672131148</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-05 11:19:04</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6880</v>
+        <v>13242</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1355,75 +1362,70 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-8.471584699456018</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>245623</v>
+        <v>251897</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>372.0985915492957</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-05 11:19:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 11:56:04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 11:56:04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 13:05:00</t>
+          <t>2025-06-06 09:01:06</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>26419</v>
+        <v>18607</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1432,70 +1434,77 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>152</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-131.5451388888889</v>
+        <v>-11.37577413479167</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251897</v>
+        <v>251992</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>262.0704225352113</v>
+        <v>74.18032786885246</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 13:05:00</t>
+          <t>2025-06-06 09:01:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:00</t>
+          <t>2025-06-06 09:34:06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:00</t>
+          <t>2025-06-06 09:34:06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 10:13:04</t>
+          <t>2025-06-06 10:48:17</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>18607</v>
+        <v>4525</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1504,77 +1513,70 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-11.42574334898148</v>
+        <v>-2.450204918032407</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251500</v>
+        <v>251390</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>139.3802816901408</v>
+        <v>35.32786885245902</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-06 10:13:04</t>
+          <t>2025-06-06 10:48:17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-06 10:40:04</t>
+          <t>2025-06-06 11:17:17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-06 10:40:04</t>
+          <t>2025-06-06 11:17:17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:27</t>
+          <t>2025-06-06 11:52:37</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>9896</v>
+        <v>2155</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1583,7 +1585,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1592,66 +1594,61 @@
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.541285211273148</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251390</v>
+        <v>251917</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>30.35211267605634</v>
+        <v>37.55737704918032</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:27</t>
+          <t>2025-06-06 11:52:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-06 13:14:27</t>
+          <t>2025-06-06 12:19:37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-06 13:14:27</t>
+          <t>2025-06-06 12:19:37</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-06 13:44:48</t>
+          <t>2025-06-06 12:57:10</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2155</v>
+        <v>2291</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1664,7 +1661,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1677,53 +1674,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252058</v>
+        <v>251747</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>74.64788732394366</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-06 13:44:48</t>
+          <t>2025-06-06 12:57:10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-06 14:01:48</t>
+          <t>2025-06-06 13:26:10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-06 14:01:48</t>
+          <t>2025-06-06 13:26:10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-09 07:16:27</t>
+          <t>2025-06-09 09:41:11</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5300</v>
+        <v>15556</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1736,7 +1733,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1749,53 +1746,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3030907668287037</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251993</v>
+        <v>252042</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>171.169014084507</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-09 07:16:27</t>
+          <t>2025-06-09 09:41:11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:27</t>
+          <t>2025-06-09 10:08:11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:27</t>
+          <t>2025-06-09 10:08:11</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-09 10:24:37</t>
+          <t>2025-06-09 12:14:09</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12153</v>
+        <v>7684</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1808,7 +1805,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1821,53 +1818,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.433763693275463</v>
+        <v>-10.50983606557871</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251186</v>
+        <v>252058</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>359.3239436619718</v>
+        <v>86.88524590163935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-09 10:24:37</t>
+          <t>2025-06-09 12:14:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-09 10:39:37</t>
+          <t>2025-06-09 12:45:09</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-09 10:39:37</t>
+          <t>2025-06-09 12:45:09</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 08:38:56</t>
+          <t>2025-06-09 14:12:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>25512</v>
+        <v>5300</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1880,7 +1877,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1893,53 +1890,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-11.36037754303241</v>
+        <v>-0.5917008196759259</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251445</v>
+        <v>244023</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>382.7323943661972</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-10 08:38:56</t>
+          <t>2025-06-09 14:12:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-10 08:55:56</t>
+          <t>2025-06-09 14:39:02</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-10 08:55:56</t>
+          <t>2025-06-09 14:39:02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-11 07:18:40</t>
+          <t>2025-06-09 14:55:23</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>27174</v>
+        <v>997</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1952,7 +1949,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1965,53 +1962,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-7.304636150231481</v>
+        <v>-252.6218010018171</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251916</v>
+        <v>251186</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>660.2112676056338</v>
+        <v>418.2295081967213</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-11 07:18:40</t>
+          <t>2025-06-09 14:55:23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-11 07:35:40</t>
+          <t>2025-06-10 07:24:23</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-11 07:35:40</t>
+          <t>2025-06-10 07:24:23</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-12 10:35:53</t>
+          <t>2025-06-10 14:22:37</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>46875</v>
+        <v>25512</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2037,11 +2034,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-11.59904371584491</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2049,41 +2046,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252293</v>
+        <v>252196</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>32.26760563380282</v>
+        <v>771.9508196721312</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-12 10:35:53</t>
+          <t>2025-06-10 14:22:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-12 10:52:53</t>
+          <t>2025-06-10 14:49:37</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-12 10:52:53</t>
+          <t>2025-06-10 14:49:37</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-12 11:25:09</t>
+          <t>2025-06-12 11:41:34</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2291</v>
+        <v>47089</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2109,7 +2106,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2121,41 +2118,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251911</v>
+        <v>251752</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>170.4545454545455</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-05 10:22:57</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9375</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2164,70 +2161,75 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39846</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39846</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-8.432607323229165</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252108</v>
+        <v>251362</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>260.0181818181818</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-05 10:22:57</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-05 10:55:27</t>
+          <t>2025-06-04 12:32:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-05 10:55:27</t>
+          <t>2025-06-04 12:32:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-06 07:15:28</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>14301</v>
+        <v>2505</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2236,70 +2238,75 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.3024116161574074</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251070</v>
+        <v>251218</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>36.5</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:15:28</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:58</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:58</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:58</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2308,14 +2315,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
         <v>39885</v>
@@ -2330,53 +2337,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.327758838379629</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252111</v>
+        <v>251895</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>330.6727272727273</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:58</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-06 08:28:28</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-06 08:28:28</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-06 13:59:08</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>18187</v>
+        <v>17694</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2385,70 +2392,77 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.582739898993055</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251773</v>
+        <v>251762</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>38.5</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>73.35211267605634</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-06 13:59:08</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-06 14:37:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-06 14:37:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-06 14:37:38</t>
+          <t>2025-06-05 13:34:44</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5208</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2457,75 +2471,70 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.609476010104167</v>
+        <v>-15.56579616587963</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251565</v>
+        <v>251741</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>228.1636363636364</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-06 14:37:38</t>
+          <t>2025-06-05 13:34:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-09 07:18:08</t>
+          <t>2025-06-05 13:51:44</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-09 07:18:08</t>
+          <t>2025-06-05 13:51:44</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-09 11:06:18</t>
+          <t>2025-06-06 07:08:17</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12549</v>
+        <v>5435</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2538,71 +2547,66 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-4.462714646469908</v>
+        <v>-9.297427621284722</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251180</v>
+        <v>251943</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>83.14084507042253</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-09 11:06:18</t>
+          <t>2025-06-06 07:08:17</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-09 11:40:48</t>
+          <t>2025-06-06 07:23:17</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-09 11:40:48</t>
+          <t>2025-06-06 07:23:17</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-09 11:40:48</t>
+          <t>2025-06-06 08:46:26</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5903</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2620,26 +2624,19 @@
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-20.48667297980324</v>
+        <v>-7.365580985914352</v>
       </c>
       <c r="S30" t="n">
         <v>7</v>
@@ -2647,41 +2644,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251895</v>
+        <v>252293</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>42.5</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>321.7090909090909</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-09 11:40:48</t>
+          <t>2025-06-06 08:46:26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-09 12:23:18</t>
+          <t>2025-06-06 09:03:26</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-09 12:23:18</t>
+          <t>2025-06-06 09:03:26</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-10 09:45:01</t>
+          <t>2025-06-06 09:35:42</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>17694</v>
+        <v>2291</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2690,77 +2687,70 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-15.40626262626157</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251979</v>
+        <v>251978</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>46.5</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>374.1090909090909</v>
+        <v>440.1408450704225</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-10 09:45:01</t>
+          <t>2025-06-06 09:35:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-10 10:31:31</t>
+          <t>2025-06-06 09:54:42</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-10 10:31:31</t>
+          <t>2025-06-06 09:54:42</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-11 08:45:37</t>
+          <t>2025-06-09 09:14:50</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>20576</v>
+        <v>31250</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2769,11 +2759,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2786,11 +2776,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-6.365018939398149</v>
+        <v>-6.385309076678241</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2798,41 +2788,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252082</v>
+        <v>251519</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>816.1454545454545</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-11 08:45:37</t>
+          <t>2025-06-09 09:14:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-11 09:16:07</t>
+          <t>2025-06-09 09:31:50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-11 09:16:07</t>
+          <t>2025-06-09 09:31:50</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-12 14:52:16</t>
+          <t>2025-06-09 12:37:24</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>44888</v>
+        <v>13175</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2862,49 +2852,49 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-2.61963383837963</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252410</v>
+        <v>252108</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>38.5</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>137.1090909090909</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-12 14:52:16</t>
+          <t>2025-06-09 12:37:24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-13 07:30:46</t>
+          <t>2025-06-09 12:54:24</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-13 07:30:46</t>
+          <t>2025-06-09 12:54:24</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-13 09:47:52</t>
+          <t>2025-06-10 08:15:49</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>7541</v>
+        <v>14301</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2913,11 +2903,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2930,11 +2920,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-4.344327073553241</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -2942,41 +2932,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251679</v>
+        <v>252156</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>288.3636363636364</v>
+        <v>723.5211267605633</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-13 09:47:52</t>
+          <t>2025-06-10 08:15:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-13 10:18:22</t>
+          <t>2025-06-10 08:34:49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-13 10:18:22</t>
+          <t>2025-06-10 08:34:49</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-16 07:06:44</t>
+          <t>2025-06-11 12:38:21</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15860</v>
+        <v>51370</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2985,11 +2975,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3002,53 +2992,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252112</v>
+        <v>252195</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>204.1475409836065</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-11 12:38:21</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-11 12:57:21</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-11 12:57:21</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-12 13:20:54</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12453</v>
+        <v>35753</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3061,25 +3051,20 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="N36" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3091,41 +3076,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251943</v>
+        <v>252337</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
-        <v>96.77049180327869</v>
+        <v>1341.380281690141</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-12 13:20:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-04 11:14:08</t>
+          <t>2025-06-12 13:41:54</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-04 11:14:08</t>
+          <t>2025-06-12 13:41:54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-04 12:50:55</t>
+          <t>2025-06-17 12:03:17</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5903</v>
+        <v>95238</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3134,11 +3119,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3151,53 +3136,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.535359744988425</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251935</v>
+        <v>252326</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>109.655737704918</v>
+        <v>361.1408450704225</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-04 12:50:55</t>
+          <t>2025-06-17 12:03:17</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-04 13:10:55</t>
+          <t>2025-06-17 12:18:17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-04 13:10:55</t>
+          <t>2025-06-17 12:18:17</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:34</t>
+          <t>2025-06-18 10:19:26</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6689</v>
+        <v>25641</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3206,11 +3191,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3223,53 +3208,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.2920651184027778</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252282</v>
+        <v>252395</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>44.88524590163934</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:34</t>
+          <t>2025-06-18 10:19:26</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-05 07:25:34</t>
+          <t>2025-06-18 10:57:26</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-05 07:25:34</t>
+          <t>2025-06-18 10:57:26</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-05 08:10:27</t>
+          <t>2025-06-23 08:02:02</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2738</v>
+        <v>89787</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3278,75 +3263,70 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.3405965391666667</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251984</v>
+        <v>251772</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="D40" t="n">
-        <v>338.327868852459</v>
+        <v>822.5818181818182</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-05 08:10:27</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05 08:40:27</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-05 08:40:27</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-05 14:18:47</t>
+          <t>2025-06-06 13:15:04</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>20638</v>
+        <v>45242</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3359,29 +3339,24 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.5963797814236111</v>
+        <v>-1.552140151516204</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -3389,41 +3364,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252195</v>
+        <v>251500</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="D41" t="n">
-        <v>586.1147540983607</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-05 14:18:47</t>
+          <t>2025-06-06 13:15:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-05 14:38:47</t>
+          <t>2025-06-06 13:45:34</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-05 14:38:47</t>
+          <t>2025-06-06 13:45:34</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-09 08:24:54</t>
+          <t>2025-06-09 08:45:30</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>35753</v>
+        <v>9896</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3432,70 +3407,75 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-4.36493686869213</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251910</v>
+        <v>251070</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D42" t="n">
-        <v>217.0819672131148</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-09 08:24:54</t>
+          <t>2025-06-09 08:45:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-09 08:49:54</t>
+          <t>2025-06-09 09:20:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-09 08:49:54</t>
+          <t>2025-06-09 09:20:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-09 12:26:59</t>
+          <t>2025-06-09 09:20:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3504,70 +3484,75 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-12.51873861565972</v>
+        <v>-4.388895202025463</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251762</v>
+        <v>251773</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>85.37704918032787</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-09 12:26:59</t>
+          <t>2025-06-09 09:20:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:59</t>
+          <t>2025-06-09 09:52:30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:59</t>
+          <t>2025-06-09 09:52:30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-09 14:17:21</t>
+          <t>2025-06-09 09:52:30</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5208</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3576,70 +3561,75 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
+      <c r="N43" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-19.59538934425926</v>
+        <v>-4.411464646469907</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251978</v>
+        <v>251565</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>40.5</v>
       </c>
       <c r="D44" t="n">
-        <v>512.2950819672132</v>
+        <v>228.1636363636364</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-09 14:17:21</t>
+          <t>2025-06-09 09:52:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-09 14:37:21</t>
+          <t>2025-06-09 10:33:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-09 14:37:21</t>
+          <t>2025-06-09 10:33:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 07:09:39</t>
+          <t>2025-06-09 14:21:10</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>31250</v>
+        <v>12549</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3652,66 +3642,71 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-8.298372040069445</v>
+        <v>-4.598036616157407</v>
       </c>
       <c r="S44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251944</v>
+        <v>251979</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D45" t="n">
-        <v>668.327868852459</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-11 07:09:39</t>
+          <t>2025-06-09 14:21:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 07:39:39</t>
+          <t>2025-06-09 14:51:40</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 07:39:39</t>
+          <t>2025-06-09 14:51:40</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-12 10:47:59</t>
+          <t>2025-06-10 13:05:46</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>40768</v>
+        <v>20576</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3720,11 +3715,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3737,53 +3732,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-17.44998861565972</v>
+        <v>-5.54568181818287</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251684</v>
+        <v>252111</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D46" t="n">
-        <v>247.2622950819672</v>
+        <v>330.6727272727273</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-12 10:47:59</t>
+          <t>2025-06-10 13:05:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-12 11:12:59</t>
+          <t>2025-06-10 13:38:16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-12 11:12:59</t>
+          <t>2025-06-10 13:38:16</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-13 07:20:14</t>
+          <t>2025-06-11 11:08:57</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>15083</v>
+        <v>18187</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3792,11 +3787,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3809,11 +3804,11 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-6.46455176767361</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -3821,7 +3816,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251780</v>
+        <v>252084</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3829,33 +3824,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>398.344262295082</v>
+        <v>641</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-13 07:20:14</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-13 07:55:14</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-13 07:55:14</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-13 14:33:35</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>24299</v>
+        <v>39101</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3868,15 +3863,13 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N47" t="n">
+        <v>39885</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3884,15 +3877,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S47" t="n">
         <v>7</v>
@@ -3900,41 +3893,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251958</v>
+        <v>251180</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>122.2676056338028</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-05 07:19:00</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-05 07:19:00</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-05 09:21:16</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>8681</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3943,70 +3936,77 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-16.43819444444444</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251219</v>
+        <v>251984</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>96.90140845070422</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-05 09:21:16</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-05 09:40:16</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-05 09:40:16</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-05 11:17:10</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6880</v>
+        <v>20638</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4015,17 +4015,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N49" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4033,15 +4033,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.4702562597800926</v>
+        <v>-1.357172131145833</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4049,41 +4049,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251237</v>
+        <v>251935</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>565.3521126760563</v>
+        <v>109.655737704918</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-05 11:17:10</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:10</t>
+          <t>2025-06-06 08:59:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:10</t>
+          <t>2025-06-06 08:59:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-06 13:12:31</t>
+          <t>2025-06-06 10:48:59</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>40140</v>
+        <v>6689</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4092,75 +4092,70 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-1.550361893587963</v>
+        <v>-1.450683060104167</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>243569</v>
+        <v>251993</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>36.63380281690141</v>
+        <v>199.2295081967213</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-06 13:12:31</t>
+          <t>2025-06-06 10:48:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-06 13:48:31</t>
+          <t>2025-06-06 11:08:59</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-06 13:48:31</t>
+          <t>2025-06-06 11:08:59</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-06 14:25:09</t>
+          <t>2025-06-06 14:28:12</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2601</v>
+        <v>12153</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4169,14 +4164,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4186,53 +4181,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-263.6008020344329</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251362</v>
+        <v>252282</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>35.28169014084507</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:25:09</t>
+          <t>2025-06-06 14:28:12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:40:09</t>
+          <t>2025-06-06 14:53:12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:40:09</t>
+          <t>2025-06-06 14:53:12</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-09 07:15:26</t>
+          <t>2025-06-09 07:38:05</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2505</v>
+        <v>2738</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4241,17 +4236,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N52" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4259,57 +4254,57 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-4.302386541469907</v>
+        <v>-4.318123861562499</v>
       </c>
       <c r="S52" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251792</v>
+        <v>251944</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>129.6338028169014</v>
+        <v>668.327868852459</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:15:26</t>
+          <t>2025-06-09 07:38:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:30:26</t>
+          <t>2025-06-09 07:58:05</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:30:26</t>
+          <t>2025-06-09 07:58:05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-09 09:40:04</t>
+          <t>2025-06-10 11:06:25</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>9204</v>
+        <v>40768</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4318,14 +4313,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4339,7 +4334,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-14.40282668231482</v>
+        <v>-15.46279599270833</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4347,41 +4342,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251898</v>
+        <v>251916</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>93.02816901408451</v>
+        <v>768.4426229508197</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-09 09:40:04</t>
+          <t>2025-06-10 11:06:25</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-09 09:57:04</t>
+          <t>2025-06-10 11:31:25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-09 09:57:04</t>
+          <t>2025-06-10 11:31:25</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-09 11:30:05</t>
+          <t>2025-06-12 08:19:52</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6605</v>
+        <v>46875</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4390,14 +4385,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4407,53 +4402,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-3.479235133020834</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251798</v>
+        <v>252325</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>318.943661971831</v>
+        <v>296.7213114754098</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-09 11:30:05</t>
+          <t>2025-06-12 08:19:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-09 11:45:05</t>
+          <t>2025-06-12 08:49:52</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-09 11:45:05</t>
+          <t>2025-06-12 08:49:52</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-10 09:04:02</t>
+          <t>2025-06-12 13:46:35</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>22645</v>
+        <v>18100</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4462,14 +4457,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4479,53 +4474,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245089</v>
+        <v>252410</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>1727.676056338028</v>
+        <v>123.6229508196721</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-10 09:04:02</t>
+          <t>2025-06-12 13:46:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-10 09:19:02</t>
+          <t>2025-06-12 14:06:35</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-10 09:19:02</t>
+          <t>2025-06-12 14:06:35</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-13 14:06:43</t>
+          <t>2025-06-13 08:10:12</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>122665</v>
+        <v>7541</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4534,14 +4529,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4551,7 +4546,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4563,41 +4558,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>244023</v>
+        <v>251680</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>20.3469387755102</v>
+        <v>277.1475409836066</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-13 08:10:12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-04 07:50:00</t>
+          <t>2025-06-13 08:30:12</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-04 07:50:00</t>
+          <t>2025-06-13 08:30:12</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-04 08:10:20</t>
+          <t>2025-06-13 13:07:21</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>997</v>
+        <v>16906</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4623,11 +4618,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-247.3405187074884</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -4635,41 +4630,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251905</v>
+        <v>251684</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>282.469387755102</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-04 08:10:20</t>
+          <t>2025-06-13 13:07:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-04 08:47:20</t>
+          <t>2025-06-13 13:27:21</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-04 08:47:20</t>
+          <t>2025-06-13 13:27:21</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-04 13:29:48</t>
+          <t>2025-06-16 09:34:37</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13841</v>
+        <v>15083</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4678,14 +4673,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>6</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4695,53 +4690,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.562372448981482</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251879</v>
+        <v>251631</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>122.5918367346939</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-04 13:29:48</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-04 14:21:48</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-04 14:21:48</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-05 08:24:24</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6007</v>
+        <v>10370</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4750,70 +4745,75 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-6.350283446712963</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252084</v>
+        <v>251958</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>797.9795918367347</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-05 08:24:24</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-05 09:04:24</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-05 09:04:24</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-06 14:22:23</t>
+          <t>2025-06-05 12:02:19</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>39101</v>
+        <v>8681</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4822,75 +4822,70 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="N60" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-1.598880385486111</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251741</v>
+        <v>243569</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>110.9183673469388</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-06 14:22:23</t>
+          <t>2025-06-05 12:02:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:23</t>
+          <t>2025-06-05 12:19:19</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:23</t>
+          <t>2025-06-05 12:19:19</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-09 08:58:18</t>
+          <t>2025-06-05 12:55:57</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5435</v>
+        <v>2601</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4899,14 +4894,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4916,53 +4911,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-12.37382369614583</v>
+        <v>-262.538859546169</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251992</v>
+        <v>251237</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D62" t="n">
-        <v>92.34693877551021</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-09 08:58:18</t>
+          <t>2025-06-05 12:55:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-09 09:43:18</t>
+          <t>2025-06-05 13:31:57</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-09 09:43:18</t>
+          <t>2025-06-05 13:31:57</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-09 11:15:39</t>
+          <t>2025-06-06 14:57:18</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>4525</v>
+        <v>40140</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4971,70 +4966,75 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N62" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-5.469203514733796</v>
+        <v>-1.623131846631944</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251747</v>
+        <v>245623</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>317.469387755102</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-09 11:15:39</t>
+          <t>2025-06-06 14:57:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-09 12:05:39</t>
+          <t>2025-06-09 07:35:18</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-09 12:05:39</t>
+          <t>2025-06-09 07:35:18</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-10 09:23:07</t>
+          <t>2025-06-09 13:47:24</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>15556</v>
+        <v>26419</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5043,14 +5043,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5060,53 +5060,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-135.574589201875</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252395</v>
+        <v>243335</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>1832.387755102041</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-10 09:23:07</t>
+          <t>2025-06-09 13:47:24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-10 10:05:07</t>
+          <t>2025-06-09 14:06:24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-10 10:05:07</t>
+          <t>2025-06-09 14:06:24</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-16 08:37:30</t>
+          <t>2025-06-10 13:51:15</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>89787</v>
+        <v>33004</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5115,14 +5115,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5132,53 +5132,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-312.5772593896759</v>
       </c>
       <c r="S64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251917</v>
+        <v>252235</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D65" t="n">
-        <v>46.75510204081633</v>
+        <v>341.6619718309859</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-16 08:37:30</t>
+          <t>2025-06-10 13:51:15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-16 09:29:30</t>
+          <t>2025-06-10 14:29:15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-16 09:29:30</t>
+          <t>2025-06-10 14:29:15</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-16 10:16:15</t>
+          <t>2025-06-11 12:10:54</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2291</v>
+        <v>24258</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5187,14 +5187,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5204,53 +5204,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251631</v>
+        <v>252112</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
-        <v>146.056338028169</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:03</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>10370</v>
+        <v>12453</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5259,14 +5259,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N66" t="n">
         <v>39885</v>
@@ -5281,53 +5281,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.4222613458564815</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251655</v>
+        <v>251911</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>1617.211267605634</v>
+        <v>191.3265306122449</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:03</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-05 10:55:03</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-05 10:55:03</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-10 13:52:16</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>114822</v>
+        <v>9375</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5336,75 +5336,70 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-5.577963615023148</v>
+        <v>-8.326714852604166</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251680</v>
+        <v>251905</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>238.112676056338</v>
+        <v>282.469387755102</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-10 13:52:16</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-10 14:32:16</t>
+          <t>2025-06-05 08:37:28</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-10 14:32:16</t>
+          <t>2025-06-05 08:37:28</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-11 10:30:22</t>
+          <t>2025-06-05 13:19:56</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>16906</v>
+        <v>13841</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5413,14 +5408,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5430,53 +5425,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-8.55551303855324</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251573</v>
+        <v>251655</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>89.89855072463769</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6203</v>
+        <v>114822</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5485,14 +5480,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N69" t="n">
         <v>39885</v>
@@ -5507,19 +5502,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.378401771331018</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251972</v>
+        <v>252082</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5527,33 +5522,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>70.26086956521739</v>
+        <v>650.5507246376811</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:53</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:53</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:09</t>
+          <t>2025-06-09 10:25:33</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4848</v>
+        <v>44888</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5562,14 +5557,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5579,19 +5574,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-7.448027375196759</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251681</v>
+        <v>252121</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5599,33 +5594,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>57.7536231884058</v>
+        <v>180.4782608695652</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:09</t>
+          <t>2025-06-09 10:25:33</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-06 11:20:09</t>
+          <t>2025-06-09 10:50:33</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-06 11:20:09</t>
+          <t>2025-06-09 10:50:33</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-06 12:17:54</t>
+          <t>2025-06-09 13:51:01</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>3985</v>
+        <v>12453</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5638,7 +5633,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5663,7 +5658,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252196</v>
+        <v>251573</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5671,33 +5666,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>682.4492753623189</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-06 12:17:54</t>
+          <t>2025-06-09 13:51:01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-06 12:42:54</t>
+          <t>2025-06-09 14:31:01</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-06 12:42:54</t>
+          <t>2025-06-09 14:31:01</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-10 08:05:21</t>
+          <t>2025-06-10 08:00:55</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>47089</v>
+        <v>6203</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5706,28 +5701,33 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-5.333977455717593</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252326</v>
+        <v>251679</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5743,33 +5743,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
-        <v>371.6086956521739</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-10 08:05:21</t>
+          <t>2025-06-10 08:00:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-10 08:35:21</t>
+          <t>2025-06-10 08:40:55</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-10 08:35:21</t>
+          <t>2025-06-10 08:40:55</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-10 14:46:58</t>
+          <t>2025-06-10 12:30:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>25641</v>
+        <v>15860</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251879</v>
+        <v>251445</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>93.859375</v>
+        <v>424.59375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 13:48:51</t>
+          <t>2025-06-06 11:19:35</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6007</v>
+        <v>27174</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -575,11 +575,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-6.575596788194445</v>
+        <v>-2.471940104166667</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251445</v>
+        <v>251978</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,30 +598,30 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>424.59375</v>
+        <v>488.28125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 13:48:51</t>
+          <t>2025-06-06 11:19:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:03:51</t>
+          <t>2025-06-06 11:34:35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:03:51</t>
+          <t>2025-06-06 11:34:35</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-06 13:08:27</t>
+          <t>2025-06-09 11:42:52</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>27174</v>
+        <v>31250</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -647,11 +647,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.547536892361111</v>
+        <v>-6.488107638888889</v>
       </c>
       <c r="S3" t="n">
         <v>7</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251219</v>
+        <v>251565</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -667,33 +667,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>107.5</v>
+        <v>196.078125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-06 13:08:27</t>
+          <t>2025-06-09 11:42:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-06 13:44:27</t>
+          <t>2025-06-09 11:59:52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-06 13:44:27</t>
+          <t>2025-06-09 11:59:52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:57</t>
+          <t>2025-06-10 07:15:57</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6880</v>
+        <v>12549</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -702,14 +702,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
         <v>39885</v>
@@ -724,11 +724,11 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-4.313856336805555</v>
+        <v>-5.302745225694444</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251792</v>
+        <v>251655</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -747,30 +747,30 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>143.8125</v>
+        <v>1794.09375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:57</t>
+          <t>2025-06-10 07:15:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:52:57</t>
+          <t>2025-06-10 07:36:57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:52:57</t>
+          <t>2025-06-10 07:36:57</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-09 10:16:45</t>
+          <t>2025-06-13 13:31:02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9204</v>
+        <v>114822</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,28 +779,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-14.42830946180556</v>
+        <v>-8.563226996527778</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -808,7 +813,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251898</v>
+        <v>251916</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -819,30 +824,30 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>103.203125</v>
+        <v>732.421875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:16:45</t>
+          <t>2025-06-13 13:31:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:33:45</t>
+          <t>2025-06-13 13:48:02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:33:45</t>
+          <t>2025-06-13 13:48:02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:58</t>
+          <t>2025-06-17 10:00:28</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6605</v>
+        <v>46875</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -851,14 +856,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -868,19 +873,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-3.511783854166667</v>
+        <v>-4.4169921875</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251798</v>
+        <v>251780</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,33 +893,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>353.828125</v>
+        <v>379.671875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:58</t>
+          <t>2025-06-17 10:00:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:31:58</t>
+          <t>2025-06-17 10:17:28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:31:58</t>
+          <t>2025-06-17 10:17:28</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-10 10:25:47</t>
+          <t>2025-06-18 08:37:08</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>22645</v>
+        <v>24299</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -923,36 +928,43 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-0.3591254340277778</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251972</v>
+        <v>251897</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -960,33 +972,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>75.75</v>
+        <v>290.734375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-10 10:25:47</t>
+          <t>2025-06-18 08:37:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-10 10:40:47</t>
+          <t>2025-06-18 09:06:08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-10 10:40:47</t>
+          <t>2025-06-18 09:06:08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-10 11:56:32</t>
+          <t>2025-06-18 13:56:52</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4848</v>
+        <v>18607</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -995,36 +1007,43 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>-23.58116319444444</v>
+      </c>
+      <c r="S8" t="n">
         <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>-11.49760199652778</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>245089</v>
+        <v>251943</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1032,33 +1051,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>1916.640625</v>
+        <v>92.234375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-10 11:56:32</t>
+          <t>2025-06-18 13:56:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-10 12:11:32</t>
+          <t>2025-06-18 14:23:52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-10 12:11:32</t>
+          <t>2025-06-18 14:23:52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-16 12:08:11</t>
+          <t>2025-06-19 07:56:06</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>122665</v>
+        <v>5903</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1067,14 +1086,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1084,19 +1103,19 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-20.33063151041667</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252110</v>
+        <v>251390</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1104,33 +1123,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>100.15625</v>
+        <v>33.671875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-16 12:08:11</t>
+          <t>2025-06-19 07:56:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-16 12:40:11</t>
+          <t>2025-06-19 08:11:06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-16 12:40:11</t>
+          <t>2025-06-19 08:11:06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-16 14:20:20</t>
+          <t>2025-06-19 08:44:46</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6410</v>
+        <v>2155</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1143,7 +1162,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1156,19 +1175,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-10.36443142361111</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251780</v>
+        <v>252110</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1176,33 +1195,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>379.671875</v>
+        <v>100.15625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-16 14:20:20</t>
+          <t>2025-06-19 08:44:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-16 14:35:20</t>
+          <t>2025-06-19 09:01:46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-16 14:35:20</t>
+          <t>2025-06-19 09:01:46</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-17 12:55:00</t>
+          <t>2025-06-19 10:41:56</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>24299</v>
+        <v>6410</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1220,34 +1239,27 @@
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-2.445789930555556</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251681</v>
+        <v>252325</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1255,33 +1267,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>62.265625</v>
+        <v>282.8125</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-17 12:55:00</t>
+          <t>2025-06-19 10:41:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-17 13:14:00</t>
+          <t>2025-06-19 11:02:56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-17 13:14:00</t>
+          <t>2025-06-19 11:02:56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-17 14:16:16</t>
+          <t>2025-06-20 07:45:45</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3985</v>
+        <v>18100</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1290,11 +1302,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1311,7 +1323,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-2.3234375</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1319,41 +1331,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251910</v>
+        <v>251917</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>217.0819672131148</v>
+        <v>35.796875</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-20 07:45:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-20 08:02:45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-20 08:02:45</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 11:19:04</t>
+          <t>2025-06-20 08:38:32</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13242</v>
+        <v>2291</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1366,7 +1378,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1379,53 +1391,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-8.471584699456018</v>
+        <v>-0.3601019965277778</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251897</v>
+        <v>252326</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>305.0327868852459</v>
+        <v>400.640625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:19:04</t>
+          <t>2025-06-20 08:38:32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:56:04</t>
+          <t>2025-06-20 08:55:32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:56:04</t>
+          <t>2025-06-20 08:55:32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-06 09:01:06</t>
+          <t>2025-06-23 07:36:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18607</v>
+        <v>25641</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1434,43 +1446,36 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-11.37577413479167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251992</v>
+        <v>251362</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1478,33 +1483,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>74.18032786885246</v>
+        <v>41.0655737704918</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:01:06</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:06</t>
+          <t>2025-06-05 07:25:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:34:06</t>
+          <t>2025-06-05 07:25:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:17</t>
+          <t>2025-06-05 08:06:03</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4525</v>
+        <v>2505</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1513,28 +1518,33 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-2.450204918032407</v>
+        <v>-0.3375455373379629</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1542,7 +1552,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251390</v>
+        <v>251898</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1550,33 +1560,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>35.32786885245902</v>
+        <v>108.2786885245902</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:17</t>
+          <t>2025-06-05 08:06:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-06 11:17:17</t>
+          <t>2025-06-05 08:33:03</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-06 11:17:17</t>
+          <t>2025-06-05 08:33:03</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 11:52:37</t>
+          <t>2025-06-05 10:21:20</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2155</v>
+        <v>6605</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1585,14 +1595,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1602,19 +1612,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251917</v>
+        <v>251798</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1622,33 +1632,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>37.55737704918032</v>
+        <v>371.2295081967213</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-06 11:52:37</t>
+          <t>2025-06-05 10:21:20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-06 12:19:37</t>
+          <t>2025-06-05 10:46:20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-06 12:19:37</t>
+          <t>2025-06-05 10:46:20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-06 12:57:10</t>
+          <t>2025-06-06 08:57:34</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2291</v>
+        <v>22645</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1657,14 +1667,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1674,19 +1684,19 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251747</v>
+        <v>251972</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1694,33 +1704,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>255.016393442623</v>
+        <v>79.47540983606558</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-06 12:57:10</t>
+          <t>2025-06-06 08:57:34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-06 13:26:10</t>
+          <t>2025-06-06 09:22:34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-06 13:26:10</t>
+          <t>2025-06-06 09:22:34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-09 09:41:11</t>
+          <t>2025-06-06 10:42:02</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15556</v>
+        <v>4848</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1729,14 +1739,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1746,19 +1756,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-7.445867486342593</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252042</v>
+        <v>251772</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1766,33 +1776,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>125.9672131147541</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-09 09:41:11</t>
+          <t>2025-06-06 10:42:02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-09 10:08:11</t>
+          <t>2025-06-06 11:22:02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-09 10:08:11</t>
+          <t>2025-06-06 11:22:02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-09 12:14:09</t>
+          <t>2025-06-10 07:43:43</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>7684</v>
+        <v>45242</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1805,7 +1815,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1818,19 +1828,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-10.50983606557871</v>
+        <v>-5.322028688530093</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252058</v>
+        <v>251519</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1838,33 +1848,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>86.88524590163935</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-09 12:14:09</t>
+          <t>2025-06-10 07:43:43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-09 12:45:09</t>
+          <t>2025-06-10 08:12:43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-09 12:45:09</t>
+          <t>2025-06-10 08:12:43</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-09 14:12:02</t>
+          <t>2025-06-10 11:48:42</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5300</v>
+        <v>13175</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1877,7 +1887,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1890,19 +1900,19 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5917008196759259</v>
+        <v>-0.4921561930787037</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>244023</v>
+        <v>252112</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1910,33 +1920,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>16.34426229508197</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-09 14:12:02</t>
+          <t>2025-06-10 11:48:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-09 14:39:02</t>
+          <t>2025-06-10 12:13:42</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-09 14:39:02</t>
+          <t>2025-06-10 12:13:42</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-09 14:55:23</t>
+          <t>2025-06-11 07:37:51</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>997</v>
+        <v>12453</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1949,24 +1959,29 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-252.6218010018171</v>
+        <v>-6.317953096539353</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -1974,7 +1989,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251186</v>
+        <v>251879</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1982,33 +1997,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>418.2295081967213</v>
+        <v>98.47540983606558</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-09 14:55:23</t>
+          <t>2025-06-11 07:37:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-10 07:24:23</t>
+          <t>2025-06-11 08:04:51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-10 07:24:23</t>
+          <t>2025-06-11 08:04:51</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-10 14:22:37</t>
+          <t>2025-06-11 09:43:19</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>25512</v>
+        <v>6007</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2021,7 +2036,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2038,15 +2053,15 @@
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-11.59904371584491</v>
+        <v>-12.4050887978125</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252196</v>
+        <v>252282</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2054,33 +2069,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>771.9508196721312</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-10 14:22:37</t>
+          <t>2025-06-11 09:43:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-10 14:49:37</t>
+          <t>2025-06-11 10:12:19</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-10 14:49:37</t>
+          <t>2025-06-11 10:12:19</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-12 11:41:34</t>
+          <t>2025-06-11 10:57:12</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>47089</v>
+        <v>2738</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2098,19 +2113,24 @@
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-6.456397996354166</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2118,7 +2138,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251752</v>
+        <v>251958</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2126,10 +2146,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2138,21 +2158,21 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:19:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:19:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 14:21:16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2161,41 +2181,36 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
-      <c r="N24" t="n">
-        <v>39846</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39846</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251362</v>
+        <v>251219</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2203,33 +2218,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>35.28169014084507</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 14:21:16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-04 12:32:00</t>
+          <t>2025-06-04 14:40:16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-04 12:32:00</t>
+          <t>2025-06-04 14:40:16</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-05 08:17:10</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2505</v>
+        <v>6880</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2242,13 +2257,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2256,18 +2271,18 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-0.3452562597800926</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2280,29 +2295,29 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
         <v>96.90140845070422</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-05 08:17:10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 08:32:10</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 08:32:10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 10:09:04</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2341,7 +2356,7 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-0.4229655712037037</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2349,7 +2364,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251895</v>
+        <v>251681</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2357,33 +2372,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>249.2112676056338</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 10:09:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 10:41:04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 10:41:04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 11:37:11</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>17694</v>
+        <v>3985</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2392,43 +2407,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251762</v>
+        <v>251993</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2436,33 +2444,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>73.35211267605634</v>
+        <v>171.169014084507</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 11:37:11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 11:54:11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 11:54:11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 13:34:44</t>
+          <t>2025-06-05 14:45:21</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5208</v>
+        <v>12153</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2475,7 +2483,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2488,19 +2496,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-15.56579616587963</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251741</v>
+        <v>251762</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2511,30 +2519,30 @@
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>76.54929577464789</v>
+        <v>73.35211267605634</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 13:34:44</t>
+          <t>2025-06-05 14:45:21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:44</t>
+          <t>2025-06-06 07:02:21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:44</t>
+          <t>2025-06-06 07:02:21</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-06 07:08:17</t>
+          <t>2025-06-06 08:15:43</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5435</v>
+        <v>5208</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2547,7 +2555,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2560,11 +2568,11 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-9.297427621284722</v>
+        <v>-16.3442488262963</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -2572,7 +2580,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251943</v>
+        <v>251500</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2580,33 +2588,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>83.14084507042253</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-06 07:08:17</t>
+          <t>2025-06-06 08:15:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-06 07:23:17</t>
+          <t>2025-06-06 08:32:43</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-06 07:23:17</t>
+          <t>2025-06-06 08:32:43</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-06 08:46:26</t>
+          <t>2025-06-06 10:52:05</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5903</v>
+        <v>9896</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2615,7 +2623,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2624,27 +2632,32 @@
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-7.365580985914352</v>
+        <v>-1.452846244131944</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252293</v>
+        <v>252156</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2655,30 +2668,30 @@
         <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>32.26760563380282</v>
+        <v>723.5211267605633</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-06 08:46:26</t>
+          <t>2025-06-06 10:52:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-06 09:03:26</t>
+          <t>2025-06-06 11:09:05</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-06 09:03:26</t>
+          <t>2025-06-06 11:09:05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:42</t>
+          <t>2025-06-10 07:12:37</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2291</v>
+        <v>51370</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2704,19 +2717,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251978</v>
+        <v>251180</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2724,33 +2737,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>440.1408450704225</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:42</t>
+          <t>2025-06-10 07:12:37</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:42</t>
+          <t>2025-06-10 07:29:37</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:42</t>
+          <t>2025-06-10 07:29:37</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-09 09:14:50</t>
+          <t>2025-06-10 07:29:37</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>31250</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2763,24 +2776,31 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-6.385309076678241</v>
+        <v>-21.31223591549768</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2788,7 +2808,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251519</v>
+        <v>251895</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2796,33 +2816,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>185.5633802816901</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-09 09:14:50</t>
+          <t>2025-06-10 07:29:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-09 09:31:50</t>
+          <t>2025-06-10 07:56:37</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-09 09:31:50</t>
+          <t>2025-06-10 07:56:37</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-09 12:37:24</t>
+          <t>2025-06-10 12:05:49</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>13175</v>
+        <v>17694</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2831,36 +2851,43 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-15.50404929577546</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252108</v>
+        <v>252235</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2868,33 +2895,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4225352112676</v>
+        <v>341.6619718309859</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-09 12:37:24</t>
+          <t>2025-06-10 12:05:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-09 12:54:24</t>
+          <t>2025-06-10 12:39:49</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-09 12:54:24</t>
+          <t>2025-06-10 12:39:49</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-10 08:15:49</t>
+          <t>2025-06-11 10:21:29</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14301</v>
+        <v>24258</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2903,14 +2930,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2920,19 +2947,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-4.344327073553241</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252156</v>
+        <v>243569</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2940,33 +2967,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>723.5211267605633</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-10 08:15:49</t>
+          <t>2025-06-11 10:21:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-10 08:34:49</t>
+          <t>2025-06-11 10:46:29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-10 08:34:49</t>
+          <t>2025-06-11 10:46:29</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-11 12:38:21</t>
+          <t>2025-06-11 11:23:07</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>51370</v>
+        <v>2601</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2975,14 +3002,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2992,19 +3019,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-268.4743935837269</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252195</v>
+        <v>251792</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3012,33 +3039,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>503.5633802816901</v>
+        <v>129.6338028169014</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-11 12:38:21</t>
+          <t>2025-06-11 11:23:07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-11 12:57:21</t>
+          <t>2025-06-11 11:38:07</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-11 12:57:21</t>
+          <t>2025-06-11 11:38:07</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-12 13:20:54</t>
+          <t>2025-06-11 13:47:45</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>35753</v>
+        <v>9204</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3047,14 +3074,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3064,19 +3091,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-16.57483372457176</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252337</v>
+        <v>252084</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3084,33 +3111,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>1341.380281690141</v>
+        <v>550.7183098591549</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-12 13:20:54</t>
+          <t>2025-06-11 13:47:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-12 13:41:54</t>
+          <t>2025-06-11 14:19:45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-12 13:41:54</t>
+          <t>2025-06-11 14:19:45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-17 12:03:17</t>
+          <t>2025-06-13 07:30:28</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>95238</v>
+        <v>39101</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3119,36 +3146,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
+      <c r="N37" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-8.312832550856482</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252326</v>
+        <v>252058</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3156,33 +3188,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
-        <v>361.1408450704225</v>
+        <v>74.64788732394366</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-17 12:03:17</t>
+          <t>2025-06-13 07:30:28</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-17 12:18:17</t>
+          <t>2025-06-13 07:51:28</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-17 12:18:17</t>
+          <t>2025-06-13 07:51:28</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-18 10:19:26</t>
+          <t>2025-06-13 09:06:07</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>25641</v>
+        <v>5300</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3191,11 +3223,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3208,19 +3240,19 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-4.379254694837963</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252395</v>
+        <v>252337</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3228,33 +3260,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>1264.605633802817</v>
+        <v>1341.380281690141</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-18 10:19:26</t>
+          <t>2025-06-13 09:06:07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-18 10:57:26</t>
+          <t>2025-06-13 09:23:07</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-18 10:57:26</t>
+          <t>2025-06-13 09:23:07</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-23 08:02:02</t>
+          <t>2025-06-18 07:44:30</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>89787</v>
+        <v>95238</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3263,36 +3295,36 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>70</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2025-07-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>76</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>2025-08-04 00:00:00</t>
-        </is>
-      </c>
-      <c r="R39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251772</v>
+        <v>251911</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3303,7 +3335,7 @@
         <v>32.5</v>
       </c>
       <c r="D40" t="n">
-        <v>822.5818181818182</v>
+        <v>170.4545454545455</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3322,11 +3354,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-06 13:15:04</t>
+          <t>2025-06-05 10:22:57</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>45242</v>
+        <v>9375</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3352,19 +3384,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.552140151516204</v>
+        <v>-8.432607323229165</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251500</v>
+        <v>252293</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3372,33 +3404,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D41" t="n">
-        <v>179.9272727272727</v>
+        <v>41.65454545454546</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-06 13:15:04</t>
+          <t>2025-06-05 10:22:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06 13:45:34</t>
+          <t>2025-06-05 10:55:27</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-06 13:45:34</t>
+          <t>2025-06-05 10:55:27</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-09 08:45:30</t>
+          <t>2025-06-05 11:37:06</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>9896</v>
+        <v>2291</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3407,41 +3439,36 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-4.36493686869213</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251070</v>
+        <v>251679</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3449,33 +3476,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>288.3636363636364</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-09 08:45:30</t>
+          <t>2025-06-05 11:37:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-09 09:20:00</t>
+          <t>2025-06-05 12:09:36</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-09 09:20:00</t>
+          <t>2025-06-05 12:09:36</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-09 09:20:00</t>
+          <t>2025-06-06 08:57:58</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15860</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3484,7 +3511,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3493,27 +3520,22 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-4.388895202025463</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3533,22 +3555,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-09 09:20:00</t>
+          <t>2025-06-06 08:57:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-09 09:52:30</t>
+          <t>2025-06-06 09:30:28</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-09 09:52:30</t>
+          <t>2025-06-06 09:30:28</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-09 09:52:30</t>
+          <t>2025-06-06 09:30:28</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3587,7 +3609,7 @@
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.411464646469907</v>
+        <v>-1.396161616157407</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -3595,7 +3617,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251565</v>
+        <v>251992</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3603,33 +3625,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40.5</v>
+        <v>32.5</v>
       </c>
       <c r="D44" t="n">
-        <v>228.1636363636364</v>
+        <v>82.27272727272727</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-09 09:52:30</t>
+          <t>2025-06-06 09:30:28</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-09 10:33:00</t>
+          <t>2025-06-06 10:02:58</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-09 10:33:00</t>
+          <t>2025-06-06 10:02:58</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-09 14:21:10</t>
+          <t>2025-06-06 11:25:14</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>12549</v>
+        <v>4525</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3642,32 +3664,27 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.598036616157407</v>
+        <v>-2.475864898993056</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -3680,29 +3697,29 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30.5</v>
+        <v>38.5</v>
       </c>
       <c r="D45" t="n">
         <v>374.1090909090909</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-09 14:21:10</t>
+          <t>2025-06-06 11:25:14</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-09 14:51:40</t>
+          <t>2025-06-06 12:03:44</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-09 14:51:40</t>
+          <t>2025-06-06 12:03:44</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-10 13:05:46</t>
+          <t>2025-06-09 10:17:51</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3736,7 +3753,7 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-5.54568181818287</v>
+        <v>-4.4290656565625</v>
       </c>
       <c r="S45" t="n">
         <v>7</v>
@@ -3744,7 +3761,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252111</v>
+        <v>252108</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3755,30 +3772,30 @@
         <v>32.5</v>
       </c>
       <c r="D46" t="n">
-        <v>330.6727272727273</v>
+        <v>260.0181818181818</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-10 13:05:46</t>
+          <t>2025-06-09 10:17:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:16</t>
+          <t>2025-06-09 10:50:21</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:16</t>
+          <t>2025-06-09 10:50:21</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-11 11:08:57</t>
+          <t>2025-06-10 07:10:22</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>18187</v>
+        <v>14301</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3804,11 +3821,11 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-6.46455176767361</v>
+        <v>-4.298869949490741</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -3816,41 +3833,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252084</v>
+        <v>252410</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>36.5</v>
       </c>
       <c r="D47" t="n">
-        <v>641</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-10 07:10:22</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-10 07:46:52</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-10 07:46:52</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-10 10:03:58</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>39101</v>
+        <v>7541</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3859,75 +3876,70 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251180</v>
+        <v>251680</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>307.3818181818182</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-10 10:03:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-10 10:34:28</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-10 10:34:28</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-11 07:41:51</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>16906</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3940,34 +3952,27 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3987,22 +3992,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4041,7 +4046,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-1.357172131145833</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4049,7 +4054,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251935</v>
+        <v>251186</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4060,30 +4065,30 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>109.655737704918</v>
+        <v>418.2295081967213</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-06 08:59:19</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-06 08:59:19</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:59</t>
+          <t>2025-06-05 12:26:33</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6689</v>
+        <v>25512</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4109,19 +4114,19 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-1.450683060104167</v>
+        <v>-6.518442622951389</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251993</v>
+        <v>251910</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4132,30 +4137,30 @@
         <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>199.2295081967213</v>
+        <v>217.0819672131148</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:59</t>
+          <t>2025-06-05 12:26:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-06 11:08:59</t>
+          <t>2025-06-05 12:46:33</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-06 11:08:59</t>
+          <t>2025-06-05 12:46:33</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-06 14:28:12</t>
+          <t>2025-06-06 08:23:38</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>12153</v>
+        <v>13242</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4181,19 +4186,19 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-9.349749544629629</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252282</v>
+        <v>251741</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4201,33 +4206,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>44.88524590163934</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:28:12</t>
+          <t>2025-06-06 08:23:38</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:53:12</t>
+          <t>2025-06-06 08:43:38</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:53:12</t>
+          <t>2025-06-06 08:43:38</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-09 07:38:05</t>
+          <t>2025-06-06 10:12:44</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2738</v>
+        <v>5435</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4240,37 +4245,32 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="N52" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-4.318123861562499</v>
+        <v>-9.425512295081019</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251944</v>
+        <v>251935</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4281,30 +4281,30 @@
         <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>668.327868852459</v>
+        <v>109.655737704918</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:38:05</t>
+          <t>2025-06-06 10:12:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:58:05</t>
+          <t>2025-06-06 10:32:44</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:58:05</t>
+          <t>2025-06-06 10:32:44</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-10 11:06:25</t>
+          <t>2025-06-06 12:22:23</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>40768</v>
+        <v>6689</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4330,19 +4330,19 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-15.46279599270833</v>
+        <v>-1.51555100181713</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251916</v>
+        <v>251747</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4353,30 +4353,30 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>768.4426229508197</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-10 11:06:25</t>
+          <t>2025-06-06 12:22:23</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-10 11:31:25</t>
+          <t>2025-06-06 12:47:23</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-10 11:31:25</t>
+          <t>2025-06-06 12:47:23</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-12 08:19:52</t>
+          <t>2025-06-09 09:02:24</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>46875</v>
+        <v>15556</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4402,19 +4402,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252325</v>
+        <v>252042</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4422,33 +4422,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>296.7213114754098</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-12 08:19:52</t>
+          <t>2025-06-09 09:02:24</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-12 08:49:52</t>
+          <t>2025-06-09 09:27:24</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-12 08:49:52</t>
+          <t>2025-06-09 09:27:24</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-12 13:46:35</t>
+          <t>2025-06-09 11:33:22</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>18100</v>
+        <v>7684</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4457,11 +4457,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4474,19 +4474,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-10.48151183971065</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252410</v>
+        <v>252082</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4497,30 +4497,30 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>123.6229508196721</v>
+        <v>735.8688524590164</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-12 13:46:35</t>
+          <t>2025-06-09 11:33:22</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-12 14:06:35</t>
+          <t>2025-06-09 11:53:22</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-12 14:06:35</t>
+          <t>2025-06-09 11:53:22</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-13 08:10:12</t>
+          <t>2025-06-11 08:09:14</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7541</v>
+        <v>44888</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4529,11 +4529,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4546,19 +4546,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-1.339754098356482</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251680</v>
+        <v>252121</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4569,30 +4569,30 @@
         <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>277.1475409836066</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-13 08:10:12</t>
+          <t>2025-06-11 08:09:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-13 08:30:12</t>
+          <t>2025-06-11 08:29:14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-13 08:30:12</t>
+          <t>2025-06-11 08:29:14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-13 13:07:21</t>
+          <t>2025-06-11 11:53:23</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>16906</v>
+        <v>12453</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4630,41 +4630,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251684</v>
+        <v>251752</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>247.2622950819672</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-13 13:07:21</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-13 13:27:21</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-13 13:27:21</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-16 09:34:37</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>15083</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4673,28 +4673,33 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N58" t="n">
+        <v>39846</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39846</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-1.303472222222222</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4710,29 +4715,29 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4771,7 +4776,7 @@
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.415316901412037</v>
       </c>
       <c r="S59" t="n">
         <v>2</v>
@@ -4779,7 +4784,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251958</v>
+        <v>251905</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4787,33 +4792,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D60" t="n">
-        <v>122.2676056338028</v>
+        <v>194.943661971831</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-05 12:02:19</t>
+          <t>2025-06-05 13:34:00</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8681</v>
+        <v>13841</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4826,7 +4831,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>76</v>
@@ -4839,19 +4844,19 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-8.565277777777778</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>243569</v>
+        <v>251573</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4859,33 +4864,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
-        <v>36.63380281690141</v>
+        <v>87.36619718309859</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-05 12:02:19</t>
+          <t>2025-06-05 13:34:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:19</t>
+          <t>2025-06-05 14:08:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:19</t>
+          <t>2025-06-05 14:08:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:57</t>
+          <t>2025-06-06 07:35:21</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2601</v>
+        <v>6203</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4894,31 +4899,36 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-262.538859546169</v>
+        <v>-1.316226525821759</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4931,29 +4941,29 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
         <v>565.3521126760563</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:57</t>
+          <t>2025-06-06 07:35:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-05 13:31:57</t>
+          <t>2025-06-06 07:54:21</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-05 13:31:57</t>
+          <t>2025-06-06 07:54:21</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-06 14:57:18</t>
+          <t>2025-06-09 09:19:43</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4992,7 +5002,7 @@
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-1.623131846631944</v>
+        <v>-4.388693270740741</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5000,7 +5010,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>245623</v>
+        <v>252395</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5011,30 +5021,30 @@
         <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>372.0985915492957</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-06 14:57:18</t>
+          <t>2025-06-09 09:19:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-09 07:35:18</t>
+          <t>2025-06-09 09:57:43</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-09 07:35:18</t>
+          <t>2025-06-09 09:57:43</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-09 13:47:24</t>
+          <t>2025-06-12 07:02:19</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>26419</v>
+        <v>89787</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5043,14 +5053,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5060,19 +5070,19 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-135.574589201875</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>243335</v>
+        <v>245089</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5083,30 +5093,30 @@
         <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>464.8450704225352</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-09 13:47:24</t>
+          <t>2025-06-12 07:02:19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-09 14:06:24</t>
+          <t>2025-06-12 07:21:19</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-09 14:06:24</t>
+          <t>2025-06-12 07:21:19</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-10 13:51:15</t>
+          <t>2025-06-17 12:09:00</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>33004</v>
+        <v>122665</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5122,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5132,11 +5142,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-312.5772593896759</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5144,41 +5154,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252235</v>
+        <v>251944</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>341.6619718309859</v>
+        <v>832</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-10 13:51:15</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-10 14:29:15</t>
+          <t>2025-06-04 07:45:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-10 14:29:15</t>
+          <t>2025-06-04 07:45:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-11 12:10:54</t>
+          <t>2025-06-05 13:37:00</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>24258</v>
+        <v>40768</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5187,14 +5197,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5204,19 +5214,19 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-10.56736111111111</v>
       </c>
       <c r="S65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252112</v>
+        <v>252111</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5224,33 +5234,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>254.1428571428571</v>
+        <v>371.1632653061225</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-05 13:37:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-05 14:22:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-05 14:22:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-06-06 12:33:09</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>12453</v>
+        <v>18187</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5263,29 +5273,24 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-1.523030045347222</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5293,7 +5298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251911</v>
+        <v>252195</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5301,33 +5306,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>191.3265306122449</v>
+        <v>729.6530612244898</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-06-06 12:33:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-04 12:39:08</t>
+          <t>2025-06-06 13:08:09</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-04 12:39:08</t>
+          <t>2025-06-06 13:08:09</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:28</t>
+          <t>2025-06-10 09:17:48</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>9375</v>
+        <v>35753</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5340,7 +5345,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5353,53 +5358,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-8.326714852604166</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251905</v>
+        <v>244023</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>282.469387755102</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:28</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-05 08:37:28</t>
+          <t>2025-06-05 07:45:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-05 08:37:28</t>
+          <t>2025-06-05 07:45:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-05 13:19:56</t>
+          <t>2025-06-05 07:59:02</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>13841</v>
+        <v>997</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5408,14 +5413,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5425,53 +5430,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-8.55551303855324</v>
+        <v>-248.3326682316088</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251655</v>
+        <v>245623</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>1617.211267605634</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-06 13:57:53</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>114822</v>
+        <v>26419</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5480,33 +5485,28 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
-      </c>
-      <c r="N69" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-132.5818639291435</v>
       </c>
       <c r="S69" t="n">
         <v>2</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252082</v>
+        <v>243335</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5525,30 +5525,30 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>650.5507246376811</v>
+        <v>478.3188405797101</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-06-06 13:57:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-06 14:32:53</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-06 14:32:53</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-09 10:25:33</t>
+          <t>2025-06-09 14:31:12</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>44888</v>
+        <v>33004</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5557,14 +5557,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5574,19 +5574,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-311.6050020128819</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252121</v>
+        <v>252196</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5594,33 +5594,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>180.4782608695652</v>
+        <v>682.4492753623189</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-09 10:25:33</t>
+          <t>2025-06-09 14:31:12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-09 10:50:33</t>
+          <t>2025-06-10 07:06:12</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-09 10:50:33</t>
+          <t>2025-06-10 07:06:12</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-09 13:51:01</t>
+          <t>2025-06-11 10:28:39</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>12453</v>
+        <v>47089</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5658,7 +5658,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251573</v>
+        <v>251684</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5666,33 +5666,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>89.89855072463769</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-09 13:51:01</t>
+          <t>2025-06-11 10:28:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-09 14:31:01</t>
+          <t>2025-06-11 10:58:39</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-09 14:31:01</t>
+          <t>2025-06-11 10:58:39</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-10 08:00:55</t>
+          <t>2025-06-11 14:37:14</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6203</v>
+        <v>15083</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5701,33 +5701,28 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
-      </c>
-      <c r="N72" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-5.333977455717593</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5735,7 +5730,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251679</v>
+        <v>251070</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5743,33 +5738,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>229.8550724637681</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-10 08:00:55</t>
+          <t>2025-06-11 14:37:14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-10 08:40:55</t>
+          <t>2025-06-12 07:02:14</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-10 08:40:55</t>
+          <t>2025-06-12 07:02:14</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-10 12:30:46</t>
+          <t>2025-06-12 07:02:14</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15860</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5778,7 +5773,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -5787,22 +5782,27 @@
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
+      <c r="N73" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-7.29322665056713</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">

--- a/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251445</v>
+        <v>251978</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>424.59375</v>
+        <v>488.28125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-06 11:19:35</t>
+          <t>2025-06-06 12:23:16</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>27174</v>
+        <v>31250</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -575,11 +575,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-2.471940104166667</v>
+        <v>-3.516167534722222</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251978</v>
+        <v>251219</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,33 +595,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>488.28125</v>
+        <v>107.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-06 11:19:35</t>
+          <t>2025-06-06 12:23:16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-06 11:34:35</t>
+          <t>2025-06-06 12:59:16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-06 11:34:35</t>
+          <t>2025-06-06 12:59:16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-09 11:42:52</t>
+          <t>2025-06-06 14:46:46</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>31250</v>
+        <v>6880</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,36 +630,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-6.488107638888889</v>
+        <v>-1.6158203125</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251565</v>
+        <v>243569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -667,33 +672,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>196.078125</v>
+        <v>40.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-09 11:42:52</t>
+          <t>2025-06-06 14:46:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-09 11:59:52</t>
+          <t>2025-06-09 07:07:46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-09 11:59:52</t>
+          <t>2025-06-09 07:07:46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:57</t>
+          <t>2025-06-09 07:48:25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>12549</v>
+        <v>2601</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -702,41 +707,36 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>-266.32529296875</v>
+      </c>
+      <c r="S4" t="n">
         <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>-5.302745225694444</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251655</v>
+        <v>251792</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,33 +744,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>1794.09375</v>
+        <v>143.8125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:57</t>
+          <t>2025-06-09 07:48:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-10 07:36:57</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-10 07:36:57</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-13 13:31:02</t>
+          <t>2025-06-09 10:27:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>114822</v>
+        <v>9204</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,33 +779,28 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-8.563226996527778</v>
+        <v>-14.43557942708333</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -813,7 +808,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251916</v>
+        <v>252042</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -821,33 +816,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>732.421875</v>
+        <v>120.0625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-13 13:31:02</t>
+          <t>2025-06-09 10:27:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-13 13:48:02</t>
+          <t>2025-06-09 10:59:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-13 13:48:02</t>
+          <t>2025-06-09 10:59:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-17 10:00:28</t>
+          <t>2025-06-09 12:59:17</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>46875</v>
+        <v>7684</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -860,7 +855,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -873,19 +868,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.4169921875</v>
+        <v>-10.54117838541667</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251780</v>
+        <v>252082</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -893,33 +888,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>379.671875</v>
+        <v>701.375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-17 10:00:28</t>
+          <t>2025-06-09 12:59:17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-17 10:17:28</t>
+          <t>2025-06-09 13:14:17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-17 10:17:28</t>
+          <t>2025-06-09 13:14:17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-18 08:37:08</t>
+          <t>2025-06-11 08:55:40</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>24299</v>
+        <v>44888</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -932,39 +927,32 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.3591254340277778</v>
+        <v>-1.371994357638889</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251897</v>
+        <v>252293</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -972,33 +960,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>290.734375</v>
+        <v>35.796875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-18 08:37:08</t>
+          <t>2025-06-11 08:55:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-18 09:06:08</t>
+          <t>2025-06-11 09:16:40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-18 09:06:08</t>
+          <t>2025-06-11 09:16:40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-18 13:56:52</t>
+          <t>2025-06-11 09:52:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18607</v>
+        <v>2291</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1007,43 +995,36 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-23.58116319444444</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251943</v>
+        <v>252195</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1051,33 +1032,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>92.234375</v>
+        <v>558.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-18 13:56:52</t>
+          <t>2025-06-11 09:52:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-18 14:23:52</t>
+          <t>2025-06-11 10:11:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-18 14:23:52</t>
+          <t>2025-06-11 10:11:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-19 07:56:06</t>
+          <t>2025-06-12 11:30:06</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5903</v>
+        <v>35753</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1090,7 +1071,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1103,19 +1084,19 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-20.33063151041667</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251390</v>
+        <v>251679</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1123,33 +1104,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>33.671875</v>
+        <v>247.8125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-19 07:56:06</t>
+          <t>2025-06-12 11:30:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-19 08:11:06</t>
+          <t>2025-06-12 11:51:06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-19 08:11:06</t>
+          <t>2025-06-12 11:51:06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-19 08:44:46</t>
+          <t>2025-06-13 07:58:55</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2155</v>
+        <v>15860</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1158,11 +1139,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1175,19 +1156,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-10.36443142361111</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252110</v>
+        <v>251747</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1195,33 +1176,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>100.15625</v>
+        <v>243.0625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-19 08:44:46</t>
+          <t>2025-06-13 07:58:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-19 09:01:46</t>
+          <t>2025-06-13 08:19:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-19 09:01:46</t>
+          <t>2025-06-13 08:19:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-19 10:41:56</t>
+          <t>2025-06-13 12:22:59</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6410</v>
+        <v>15556</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1247,19 +1228,19 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.445789930555556</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252325</v>
+        <v>251780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1267,33 +1248,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>282.8125</v>
+        <v>379.671875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-19 10:41:56</t>
+          <t>2025-06-13 12:22:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-19 11:02:56</t>
+          <t>2025-06-13 12:37:59</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-19 11:02:56</t>
+          <t>2025-06-13 12:37:59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-20 07:45:45</t>
+          <t>2025-06-16 10:57:39</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>18100</v>
+        <v>24299</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1302,20 +1283,27 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1323,15 +1311,15 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.3234375</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251917</v>
+        <v>252121</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1342,30 +1330,30 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>35.796875</v>
+        <v>194.578125</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-20 07:45:45</t>
+          <t>2025-06-16 10:57:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-20 08:02:45</t>
+          <t>2025-06-16 11:14:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-20 08:02:45</t>
+          <t>2025-06-16 11:14:39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-20 08:38:32</t>
+          <t>2025-06-16 14:29:14</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2291</v>
+        <v>12453</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1378,7 +1366,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1391,11 +1379,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3601019965277778</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1403,7 +1391,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252326</v>
+        <v>252337</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1411,33 +1399,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>400.640625</v>
+        <v>1488.09375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-20 08:38:32</t>
+          <t>2025-06-16 14:29:14</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-20 08:55:32</t>
+          <t>2025-06-16 14:52:14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-20 08:55:32</t>
+          <t>2025-06-16 14:52:14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-23 07:36:11</t>
+          <t>2025-06-20 07:40:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>25641</v>
+        <v>95238</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1463,53 +1451,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251362</v>
+        <v>251684</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>41.0655737704918</v>
+        <v>235.671875</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-20 07:40:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:25:00</t>
+          <t>2025-06-20 07:55:19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 07:25:00</t>
+          <t>2025-06-20 07:55:19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 08:06:03</t>
+          <t>2025-06-20 11:51:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2505</v>
+        <v>15083</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1518,41 +1506,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3375455373379629</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251898</v>
+        <v>251879</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1560,33 +1543,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2786885245902</v>
+        <v>98.47540983606558</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 08:06:03</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 08:33:03</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 08:33:03</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 10:21:20</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6605</v>
+        <v>6007</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1595,14 +1578,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1612,19 +1595,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-6.387830145717593</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251798</v>
+        <v>251445</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1635,30 +1618,30 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>371.2295081967213</v>
+        <v>445.4754098360656</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:21:20</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:46:20</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:46:20</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-06 08:57:34</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>22645</v>
+        <v>27174</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1667,14 +1650,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1684,19 +1667,19 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-2.381215846990741</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251972</v>
+        <v>251897</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1704,33 +1687,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>79.47540983606558</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-06 08:57:34</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-06 09:22:34</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-06 09:22:34</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 10:42:02</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4848</v>
+        <v>18607</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1739,36 +1722,43 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>-11.62012750454861</v>
+      </c>
+      <c r="S18" t="n">
         <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>-7.445867486342593</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251772</v>
+        <v>252058</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1776,33 +1766,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>741.672131147541</v>
+        <v>86.88524590163935</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-06 10:42:02</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-06 11:22:02</t>
+          <t>2025-06-09 07:27:59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-06 11:22:02</t>
+          <t>2025-06-09 07:27:59</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-10 07:43:43</t>
+          <t>2025-06-09 08:54:52</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>45242</v>
+        <v>5300</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1815,7 +1805,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1828,19 +1818,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-5.322028688530093</v>
+        <v>-0.3714367031018518</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251519</v>
+        <v>251905</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1848,33 +1838,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>215.983606557377</v>
+        <v>226.9016393442623</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-10 07:43:43</t>
+          <t>2025-06-09 08:54:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-10 08:12:43</t>
+          <t>2025-06-09 09:36:52</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-10 08:12:43</t>
+          <t>2025-06-09 09:36:52</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 11:48:42</t>
+          <t>2025-06-09 13:23:46</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13175</v>
+        <v>13841</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1883,36 +1873,36 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>76</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2025-05-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>-12.55817395263889</v>
+      </c>
+      <c r="S20" t="n">
         <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>-0.4921561930787037</v>
-      </c>
-      <c r="S20" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252112</v>
+        <v>252108</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1920,33 +1910,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>204.1475409836065</v>
+        <v>234.4426229508197</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-10 11:48:42</t>
+          <t>2025-06-09 13:23:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-10 12:13:42</t>
+          <t>2025-06-09 14:09:46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-10 12:13:42</t>
+          <t>2025-06-09 14:09:46</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-11 07:37:51</t>
+          <t>2025-06-10 10:04:12</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>12453</v>
+        <v>14301</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1959,21 +1949,16 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1981,7 +1966,7 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-6.317953096539353</v>
+        <v>-4.419592440798612</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -1989,7 +1974,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251879</v>
+        <v>252235</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1997,33 +1982,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>98.47540983606558</v>
+        <v>397.672131147541</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-11 07:37:51</t>
+          <t>2025-06-10 10:04:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-11 08:04:51</t>
+          <t>2025-06-10 10:54:12</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-11 08:04:51</t>
+          <t>2025-06-10 10:54:12</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-11 09:43:19</t>
+          <t>2025-06-11 09:31:53</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6007</v>
+        <v>24258</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2032,14 +2017,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2049,11 +2034,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-12.4050887978125</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>7</v>
@@ -2061,7 +2046,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252282</v>
+        <v>251798</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2069,33 +2054,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
-        <v>44.88524590163934</v>
+        <v>371.2295081967213</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-11 09:43:19</t>
+          <t>2025-06-11 09:31:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-11 10:12:19</t>
+          <t>2025-06-11 10:04:53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-11 10:12:19</t>
+          <t>2025-06-11 10:04:53</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-11 10:57:12</t>
+          <t>2025-06-12 08:16:06</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2738</v>
+        <v>22645</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2104,75 +2089,70 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-6.456397996354166</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251958</v>
+        <v>252110</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>122.2676056338028</v>
+        <v>105.0819672131148</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-06-12 08:16:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-04 12:19:00</t>
+          <t>2025-06-12 08:58:06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-04 12:19:00</t>
+          <t>2025-06-12 08:58:06</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-04 14:21:16</t>
+          <t>2025-06-12 10:43:11</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8681</v>
+        <v>6410</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2181,14 +2161,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2198,19 +2178,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251219</v>
+        <v>251752</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2218,33 +2198,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-04 14:21:16</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-04 14:40:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-04 14:40:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-05 08:17:10</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2253,17 +2233,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2271,15 +2251,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.3452562597800926</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2287,7 +2267,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2295,33 +2275,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-05 08:17:10</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-05 08:32:10</t>
+          <t>2025-06-04 13:01:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-05 08:32:10</t>
+          <t>2025-06-04 13:01:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-05 10:09:04</t>
+          <t>2025-06-05 09:10:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2330,17 +2310,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2348,23 +2330,23 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.4229655712037037</v>
+        <v>-10.38209115805556</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251681</v>
+        <v>251218</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2372,33 +2354,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D27" t="n">
-        <v>56.12676056338028</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-05 10:09:04</t>
+          <t>2025-06-05 09:10:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:04</t>
+          <t>2025-06-05 09:48:12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:04</t>
+          <t>2025-06-05 09:48:12</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:11</t>
+          <t>2025-06-05 11:25:06</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3985</v>
+        <v>6880</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2407,28 +2389,33 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-0.4757726917013889</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -2436,7 +2423,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251993</v>
+        <v>251565</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2444,33 +2431,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D28" t="n">
-        <v>171.169014084507</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:11</t>
+          <t>2025-06-05 11:25:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 11:54:11</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 11:54:11</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 14:45:21</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>12153</v>
+        <v>12549</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2483,32 +2470,37 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-0.6249021909259259</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251762</v>
+        <v>251992</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2516,33 +2508,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
-        <v>73.35211267605634</v>
+        <v>63.73239436619718</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 14:45:21</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-06 07:02:21</t>
+          <t>2025-06-06 07:22:51</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-06 07:02:21</t>
+          <t>2025-06-06 07:22:51</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-06 08:15:43</t>
+          <t>2025-06-06 08:26:35</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5208</v>
+        <v>4525</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2555,7 +2547,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2568,11 +2560,11 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-16.3442488262963</v>
+        <v>-2.351799687013889</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -2580,7 +2572,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251500</v>
+        <v>251917</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2591,30 +2583,30 @@
         <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>139.3802816901408</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-06 08:15:43</t>
+          <t>2025-06-06 08:26:35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-06 08:32:43</t>
+          <t>2025-06-06 08:43:35</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-06 08:32:43</t>
+          <t>2025-06-06 08:43:35</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-06 10:52:05</t>
+          <t>2025-06-06 09:15:51</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9896</v>
+        <v>2291</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2623,41 +2615,36 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.452846244131944</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252156</v>
+        <v>251362</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2665,33 +2652,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>723.5211267605633</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-06 10:52:05</t>
+          <t>2025-06-06 09:15:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-06 11:09:05</t>
+          <t>2025-06-06 09:49:51</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-06 11:09:05</t>
+          <t>2025-06-06 09:49:51</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-10 07:12:37</t>
+          <t>2025-06-06 10:25:08</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>51370</v>
+        <v>2505</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2700,28 +2687,33 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-1.434125586851852</v>
       </c>
       <c r="S31" t="n">
         <v>7</v>
@@ -2729,7 +2721,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251180</v>
+        <v>251958</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2740,30 +2732,30 @@
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-10 07:12:37</t>
+          <t>2025-06-06 10:25:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-10 07:29:37</t>
+          <t>2025-06-06 10:42:08</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-10 07:29:37</t>
+          <t>2025-06-06 10:42:08</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-10 07:29:37</t>
+          <t>2025-06-06 12:44:24</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2772,43 +2764,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-21.31223591549768</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251895</v>
+        <v>244023</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2816,33 +2801,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
-        <v>249.2112676056338</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-10 07:29:37</t>
+          <t>2025-06-06 12:44:24</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-10 07:56:37</t>
+          <t>2025-06-06 13:18:24</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-10 07:56:37</t>
+          <t>2025-06-06 13:18:24</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-10 12:05:49</t>
+          <t>2025-06-06 13:32:27</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>17694</v>
+        <v>997</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2851,43 +2836,36 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-15.50404929577546</v>
+        <v>-249.5642018779398</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252235</v>
+        <v>251935</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2895,33 +2873,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>341.6619718309859</v>
+        <v>94.21126760563381</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-10 12:05:49</t>
+          <t>2025-06-06 13:32:27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-10 12:39:49</t>
+          <t>2025-06-06 13:51:27</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-10 12:39:49</t>
+          <t>2025-06-06 13:51:27</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-11 10:21:29</t>
+          <t>2025-06-09 07:25:39</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>24258</v>
+        <v>6689</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2930,14 +2908,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2947,19 +2925,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-4.309487480439815</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>243569</v>
+        <v>252156</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2967,33 +2945,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>36.63380281690141</v>
+        <v>723.5211267605633</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-11 10:21:29</t>
+          <t>2025-06-09 07:25:39</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-11 10:46:29</t>
+          <t>2025-06-09 07:42:39</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-11 10:46:29</t>
+          <t>2025-06-09 07:42:39</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-11 11:23:07</t>
+          <t>2025-06-10 11:46:10</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2601</v>
+        <v>51370</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3002,14 +2980,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3019,19 +2997,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-268.4743935837269</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251792</v>
+        <v>251972</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3039,33 +3017,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>129.6338028169014</v>
+        <v>68.28169014084507</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-11 11:23:07</t>
+          <t>2025-06-10 11:46:10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-11 11:38:07</t>
+          <t>2025-06-10 12:18:10</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-11 11:38:07</t>
+          <t>2025-06-10 12:18:10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-11 13:47:45</t>
+          <t>2025-06-10 13:26:27</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>9204</v>
+        <v>4848</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3078,7 +3056,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>76</v>
@@ -3091,19 +3069,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-16.57483372457176</v>
+        <v>-11.56004499217593</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252084</v>
+        <v>252196</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3114,30 +3092,30 @@
         <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>550.7183098591549</v>
+        <v>663.2253521126761</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-11 13:47:45</t>
+          <t>2025-06-10 13:26:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-11 14:19:45</t>
+          <t>2025-06-10 13:58:27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-11 14:19:45</t>
+          <t>2025-06-10 13:58:27</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-13 07:30:28</t>
+          <t>2025-06-12 09:01:41</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>39101</v>
+        <v>47089</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3150,37 +3128,32 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-8.312832550856482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252058</v>
+        <v>252325</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3188,33 +3161,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>74.64788732394366</v>
+        <v>254.9295774647887</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-13 07:30:28</t>
+          <t>2025-06-12 09:01:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-13 07:51:28</t>
+          <t>2025-06-12 09:18:41</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-13 07:51:28</t>
+          <t>2025-06-12 09:18:41</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-13 09:06:07</t>
+          <t>2025-06-12 13:33:37</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5300</v>
+        <v>18100</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3223,11 +3196,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3240,53 +3213,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-4.379254694837963</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252337</v>
+        <v>251070</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>36.5</v>
       </c>
       <c r="D39" t="n">
-        <v>1341.380281690141</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-13 09:06:07</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-13 09:23:07</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-13 09:23:07</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-18 07:44:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>95238</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3295,7 +3268,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -3304,19 +3277,24 @@
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -3324,7 +3302,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251911</v>
+        <v>251773</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3335,30 +3313,30 @@
         <v>32.5</v>
       </c>
       <c r="D40" t="n">
-        <v>170.4545454545455</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:22:57</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>9375</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3367,36 +3345,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-8.432607323229165</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252293</v>
+        <v>251500</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3404,33 +3387,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D41" t="n">
-        <v>41.65454545454546</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:22:57</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:55:27</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:55:27</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:06</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2291</v>
+        <v>9896</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3439,36 +3422,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251679</v>
+        <v>251741</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3476,33 +3464,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D42" t="n">
-        <v>288.3636363636364</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:06</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-05 12:09:36</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-05 12:09:36</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:57:58</t>
+          <t>2025-06-05 13:54:44</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>15860</v>
+        <v>5435</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3511,11 +3499,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3528,19 +3516,19 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-8.579684343437501</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251773</v>
+        <v>251943</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3548,33 +3536,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>107.3272727272727</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 08:57:58</t>
+          <t>2025-06-05 13:54:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:30:28</t>
+          <t>2025-06-05 14:25:14</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:30:28</t>
+          <t>2025-06-05 14:25:14</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:30:28</t>
+          <t>2025-06-06 08:12:34</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5903</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3583,41 +3571,36 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-1.396161616157407</v>
+        <v>-7.342064393935185</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251992</v>
+        <v>251979</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3625,33 +3608,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>82.27272727272727</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-06 09:30:28</t>
+          <t>2025-06-06 08:12:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-06 10:02:58</t>
+          <t>2025-06-06 08:47:04</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-06 10:02:58</t>
+          <t>2025-06-06 08:47:04</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-06 11:25:14</t>
+          <t>2025-06-09 07:01:10</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4525</v>
+        <v>20576</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3660,11 +3643,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3677,11 +3660,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-2.475864898993056</v>
+        <v>-4.292487373738425</v>
       </c>
       <c r="S44" t="n">
         <v>7</v>
@@ -3689,7 +3672,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251979</v>
+        <v>251681</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3697,33 +3680,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>38.5</v>
+        <v>36.5</v>
       </c>
       <c r="D45" t="n">
-        <v>374.1090909090909</v>
+        <v>72.45454545454545</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-06 11:25:14</t>
+          <t>2025-06-09 07:01:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-06 12:03:44</t>
+          <t>2025-06-09 07:37:40</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-06 12:03:44</t>
+          <t>2025-06-09 07:37:40</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-09 10:17:51</t>
+          <t>2025-06-09 08:50:08</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>20576</v>
+        <v>3985</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3732,11 +3715,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3749,19 +3732,19 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-4.4290656565625</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252108</v>
+        <v>251680</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3772,30 +3755,30 @@
         <v>32.5</v>
       </c>
       <c r="D46" t="n">
-        <v>260.0181818181818</v>
+        <v>307.3818181818182</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-09 10:17:51</t>
+          <t>2025-06-09 08:50:08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-09 10:50:21</t>
+          <t>2025-06-09 09:22:38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-09 10:50:21</t>
+          <t>2025-06-09 09:22:38</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:22</t>
+          <t>2025-06-09 14:30:01</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>14301</v>
+        <v>16906</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3808,7 +3791,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3821,11 +3804,11 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-4.298869949490741</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -3833,7 +3816,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252410</v>
+        <v>252111</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3844,30 +3827,30 @@
         <v>36.5</v>
       </c>
       <c r="D47" t="n">
-        <v>137.1090909090909</v>
+        <v>330.6727272727273</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:22</t>
+          <t>2025-06-09 14:30:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-10 07:46:52</t>
+          <t>2025-06-10 07:06:31</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-10 07:46:52</t>
+          <t>2025-06-10 07:06:31</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-10 10:03:58</t>
+          <t>2025-06-10 12:37:11</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>7541</v>
+        <v>18187</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3876,11 +3859,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3893,11 +3876,11 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-5.525827020196759</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
@@ -3905,7 +3888,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251680</v>
+        <v>251916</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3913,33 +3896,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D48" t="n">
-        <v>307.3818181818182</v>
+        <v>852.2727272727273</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-10 10:03:58</t>
+          <t>2025-06-10 12:37:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-10 10:34:28</t>
+          <t>2025-06-10 13:09:41</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-10 10:34:28</t>
+          <t>2025-06-10 13:09:41</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-11 07:41:51</t>
+          <t>2025-06-12 11:21:57</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>16906</v>
+        <v>46875</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3952,7 +3935,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3965,7 +3948,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3977,41 +3960,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251984</v>
+        <v>252410</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D49" t="n">
-        <v>338.327868852459</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-12 11:21:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-12 11:56:27</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-12 11:56:27</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-12 14:13:34</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>20638</v>
+        <v>7541</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4020,29 +4003,24 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
       </c>
-      <c r="N49" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4054,41 +4032,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251186</v>
+        <v>252326</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D50" t="n">
-        <v>418.2295081967213</v>
+        <v>466.2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-12 14:13:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-12 14:44:04</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-12 14:44:04</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-05 12:26:33</t>
+          <t>2025-06-13 14:30:16</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>25512</v>
+        <v>25641</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4097,11 +4075,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4114,11 +4092,11 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-6.518442622951389</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>1</v>
@@ -4126,7 +4104,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251910</v>
+        <v>251984</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4134,33 +4112,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>217.0819672131148</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-05 12:26:33</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-05 12:46:33</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-05 12:46:33</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-06 08:23:38</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>13242</v>
+        <v>20638</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4173,32 +4151,37 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
+      <c r="N51" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-9.349749544629629</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251741</v>
+        <v>251180</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4206,33 +4189,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>89.09836065573771</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-06 08:23:38</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-06 08:43:38</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-06 08:43:38</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-06 10:12:44</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4250,19 +4233,26 @@
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-9.425512295081019</v>
+        <v>-15.5613387978125</v>
       </c>
       <c r="S52" t="n">
         <v>7</v>
@@ -4270,7 +4260,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251935</v>
+        <v>252282</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4278,33 +4268,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>109.655737704918</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-06 10:12:44</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-06 10:32:44</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-06 10:32:44</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-06 12:22:23</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6689</v>
+        <v>2738</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4317,32 +4307,37 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
+      <c r="N53" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-1.51555100181713</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251747</v>
+        <v>251390</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4353,30 +4348,30 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>255.016393442623</v>
+        <v>35.32786885245902</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-06 12:22:23</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-06 12:47:23</t>
+          <t>2025-06-05 07:03:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-06 12:47:23</t>
+          <t>2025-06-05 07:03:12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-09 09:02:24</t>
+          <t>2025-06-05 07:38:32</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>15556</v>
+        <v>2155</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4389,7 +4384,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4402,19 +4397,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252042</v>
+        <v>251772</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4422,33 +4417,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>125.9672131147541</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-09 09:02:24</t>
+          <t>2025-06-05 07:38:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-09 09:27:24</t>
+          <t>2025-06-05 07:58:32</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-09 09:27:24</t>
+          <t>2025-06-05 07:58:32</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-09 11:33:22</t>
+          <t>2025-06-06 12:20:12</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>7684</v>
+        <v>45242</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4461,7 +4456,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4474,19 +4469,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-10.48151183971065</v>
+        <v>-1.514036885243055</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252082</v>
+        <v>252084</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4494,33 +4489,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>735.8688524590164</v>
+        <v>641</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-09 11:33:22</t>
+          <t>2025-06-06 12:20:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09 11:53:22</t>
+          <t>2025-06-06 12:50:12</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-09 11:53:22</t>
+          <t>2025-06-06 12:50:12</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-11 08:09:14</t>
+          <t>2025-06-10 07:31:12</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>44888</v>
+        <v>39101</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4538,27 +4533,32 @@
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
+      <c r="N56" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1.339754098356482</v>
+      